--- a/Doc/Взаиморасчеты.xlsx
+++ b/Doc/Взаиморасчеты.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>№</t>
   </si>
@@ -27,16 +27,10 @@
     <t>Версия</t>
   </si>
   <si>
-    <t>Время</t>
-  </si>
-  <si>
     <t>Поиск чертежа по базе, а не по текущей странице</t>
   </si>
   <si>
     <t>1.19.1</t>
-  </si>
-  <si>
-    <t>Итог</t>
   </si>
   <si>
     <t>Количество строк на экране сделать настраиваемым</t>
@@ -48,13 +42,28 @@
     <t>Дата</t>
   </si>
   <si>
-    <t>Сумма</t>
+    <t>Оплата</t>
   </si>
   <si>
-    <t>Долг</t>
+    <t>Индивидуальный наряд печатать всех работников на одном листе</t>
   </si>
   <si>
-    <t>Оплата</t>
+    <t>Показывать количество невыполненных по чертежам при добавлении новой записи наряда</t>
+  </si>
+  <si>
+    <t>Количество готовых деталей в отгрузке</t>
+  </si>
+  <si>
+    <t>Время, ч</t>
+  </si>
+  <si>
+    <t>Итог, руб</t>
+  </si>
+  <si>
+    <t>Сумма, руб</t>
+  </si>
+  <si>
+    <t>Остаток, руб</t>
   </si>
 </sst>
 </file>
@@ -79,10 +88,59 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -91,12 +149,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -401,3732 +471,3700 @@
   <dimension ref="A1:I253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="75.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="75.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="6"/>
+    <col min="4" max="4" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="6">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <f t="shared" ref="E3:E4" si="0">IF(ISBLANK(D3),"",D3*600)</f>
         <v>3000</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <f>IF(ISBLANK(D3),"",SUM($E$3:E3))</f>
         <v>3000</v>
       </c>
-      <c r="I3">
+      <c r="G3" s="8">
+        <v>42394</v>
+      </c>
+      <c r="H3" s="6">
+        <v>15000</v>
+      </c>
+      <c r="I3" s="7">
         <f>IF(ISBLANK(D3),"",F3-SUM($H$3:H3))</f>
-        <v>3000</v>
+        <v>-12000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <f>IF(ISBLANK(D4),"",SUM($E$3:E4))</f>
         <v>4800</v>
       </c>
-      <c r="G4" s="2">
-        <v>42394</v>
-      </c>
-      <c r="H4">
-        <v>15000</v>
-      </c>
-      <c r="I4">
+      <c r="G4" s="8"/>
+      <c r="I4" s="7">
         <f>IF(ISBLANK(D4),"",F4-SUM($H$3:H4))</f>
         <v>-10200</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6">
+        <f>IF(ISBLANK(D5),"",D5*600)</f>
+        <v>1800</v>
+      </c>
+      <c r="F5" s="7">
+        <f>IF(ISBLANK(D5),"",SUM($E$3:E5))</f>
+        <v>6600</v>
+      </c>
+      <c r="I5" s="7">
+        <f>IF(ISBLANK(D5),"",F5-SUM($H$3:H5))</f>
+        <v>-8400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" ref="E6:E69" si="1">IF(ISBLANK(D6),"",D6*600)</f>
+        <v>3600</v>
+      </c>
+      <c r="F6" s="7">
+        <f>IF(ISBLANK(D6),"",SUM($E$3:E6))</f>
+        <v>10200</v>
+      </c>
+      <c r="I6" s="7">
+        <f>IF(ISBLANK(D6),"",F6-SUM($H$3:H6))</f>
+        <v>-4800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="E5" t="str">
-        <f>IF(ISBLANK(D5),"",D5*600)</f>
-        <v/>
-      </c>
-      <c r="F5" t="str">
-        <f>IF(ISBLANK(D5),"",SUM($E$3:E5))</f>
-        <v/>
-      </c>
-      <c r="I5" t="str">
-        <f>IF(ISBLANK(D5),"",F5-SUM($H$3:H5))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" ref="E6:E69" si="1">IF(ISBLANK(D6),"",D6*600)</f>
-        <v/>
-      </c>
-      <c r="F6" t="str">
-        <f>IF(ISBLANK(D6),"",SUM($E$3:E6))</f>
-        <v/>
-      </c>
-      <c r="I6" t="str">
-        <f>IF(ISBLANK(D6),"",F6-SUM($H$3:H6))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F7" t="str">
+      <c r="D7" s="6">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+      <c r="F7" s="7">
         <f>IF(ISBLANK(D7),"",SUM($E$3:E7))</f>
-        <v/>
-      </c>
-      <c r="I7" t="str">
+        <v>13800</v>
+      </c>
+      <c r="I7" s="7">
         <f>IF(ISBLANK(D7),"",F7-SUM($H$3:H7))</f>
-        <v/>
+        <v>-1200</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F8" t="str">
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F8" s="7" t="str">
         <f>IF(ISBLANK(D8),"",SUM($E$3:E8))</f>
         <v/>
       </c>
-      <c r="I8" t="str">
+      <c r="I8" s="7" t="str">
         <f>IF(ISBLANK(D8),"",F8-SUM($H$3:H8))</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F9" t="str">
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F9" s="7" t="str">
         <f>IF(ISBLANK(D9),"",SUM($E$3:E9))</f>
         <v/>
       </c>
-      <c r="I9" t="str">
+      <c r="I9" s="7" t="str">
         <f>IF(ISBLANK(D9),"",F9-SUM($H$3:H9))</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F10" t="str">
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F10" s="7" t="str">
         <f>IF(ISBLANK(D10),"",SUM($E$3:E10))</f>
         <v/>
       </c>
-      <c r="I10" t="str">
+      <c r="I10" s="7" t="str">
         <f>IF(ISBLANK(D10),"",F10-SUM($H$3:H10))</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F11" t="str">
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F11" s="7" t="str">
         <f>IF(ISBLANK(D11),"",SUM($E$3:E11))</f>
         <v/>
       </c>
-      <c r="I11" t="str">
+      <c r="I11" s="7" t="str">
         <f>IF(ISBLANK(D11),"",F11-SUM($H$3:H11))</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F12" t="str">
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F12" s="7" t="str">
         <f>IF(ISBLANK(D12),"",SUM($E$3:E12))</f>
         <v/>
       </c>
-      <c r="I12" t="str">
+      <c r="I12" s="7" t="str">
         <f>IF(ISBLANK(D12),"",F12-SUM($H$3:H12))</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F13" t="str">
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F13" s="7" t="str">
         <f>IF(ISBLANK(D13),"",SUM($E$3:E13))</f>
         <v/>
       </c>
-      <c r="I13" t="str">
+      <c r="I13" s="7" t="str">
         <f>IF(ISBLANK(D13),"",F13-SUM($H$3:H13))</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F14" t="str">
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F14" s="7" t="str">
         <f>IF(ISBLANK(D14),"",SUM($E$3:E14))</f>
         <v/>
       </c>
-      <c r="I14" t="str">
+      <c r="I14" s="7" t="str">
         <f>IF(ISBLANK(D14),"",F14-SUM($H$3:H14))</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F15" t="str">
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F15" s="7" t="str">
         <f>IF(ISBLANK(D15),"",SUM($E$3:E15))</f>
         <v/>
       </c>
-      <c r="I15" t="str">
+      <c r="I15" s="7" t="str">
         <f>IF(ISBLANK(D15),"",F15-SUM($H$3:H15))</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F16" t="str">
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F16" s="7" t="str">
         <f>IF(ISBLANK(D16),"",SUM($E$3:E16))</f>
         <v/>
       </c>
-      <c r="I16" t="str">
+      <c r="I16" s="7" t="str">
         <f>IF(ISBLANK(D16),"",F16-SUM($H$3:H16))</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F17" t="str">
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F17" s="7" t="str">
         <f>IF(ISBLANK(D17),"",SUM($E$3:E17))</f>
         <v/>
       </c>
-      <c r="I17" t="str">
+      <c r="I17" s="7" t="str">
         <f>IF(ISBLANK(D17),"",F17-SUM($H$3:H17))</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F18" t="str">
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F18" s="7" t="str">
         <f>IF(ISBLANK(D18),"",SUM($E$3:E18))</f>
         <v/>
       </c>
-      <c r="I18" t="str">
+      <c r="I18" s="7" t="str">
         <f>IF(ISBLANK(D18),"",F18-SUM($H$3:H18))</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F19" t="str">
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F19" s="7" t="str">
         <f>IF(ISBLANK(D19),"",SUM($E$3:E19))</f>
         <v/>
       </c>
-      <c r="I19" t="str">
+      <c r="I19" s="7" t="str">
         <f>IF(ISBLANK(D19),"",F19-SUM($H$3:H19))</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F20" t="str">
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F20" s="7" t="str">
         <f>IF(ISBLANK(D20),"",SUM($E$3:E20))</f>
         <v/>
       </c>
-      <c r="I20" t="str">
+      <c r="I20" s="7" t="str">
         <f>IF(ISBLANK(D20),"",F20-SUM($H$3:H20))</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F21" t="str">
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F21" s="7" t="str">
         <f>IF(ISBLANK(D21),"",SUM($E$3:E21))</f>
         <v/>
       </c>
-      <c r="I21" t="str">
+      <c r="I21" s="7" t="str">
         <f>IF(ISBLANK(D21),"",F21-SUM($H$3:H21))</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F22" t="str">
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F22" s="7" t="str">
         <f>IF(ISBLANK(D22),"",SUM($E$3:E22))</f>
         <v/>
       </c>
-      <c r="I22" t="str">
+      <c r="I22" s="7" t="str">
         <f>IF(ISBLANK(D22),"",F22-SUM($H$3:H22))</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F23" t="str">
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F23" s="7" t="str">
         <f>IF(ISBLANK(D23),"",SUM($E$3:E23))</f>
         <v/>
       </c>
-      <c r="I23" t="str">
+      <c r="I23" s="7" t="str">
         <f>IF(ISBLANK(D23),"",F23-SUM($H$3:H23))</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F24" t="str">
+      <c r="E24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F24" s="7" t="str">
         <f>IF(ISBLANK(D24),"",SUM($E$3:E24))</f>
         <v/>
       </c>
-      <c r="I24" t="str">
+      <c r="I24" s="7" t="str">
         <f>IF(ISBLANK(D24),"",F24-SUM($H$3:H24))</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F25" t="str">
+      <c r="E25" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F25" s="7" t="str">
         <f>IF(ISBLANK(D25),"",SUM($E$3:E25))</f>
         <v/>
       </c>
-      <c r="I25" t="str">
+      <c r="I25" s="7" t="str">
         <f>IF(ISBLANK(D25),"",F25-SUM($H$3:H25))</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F26" t="str">
+      <c r="E26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F26" s="7" t="str">
         <f>IF(ISBLANK(D26),"",SUM($E$3:E26))</f>
         <v/>
       </c>
-      <c r="I26" t="str">
+      <c r="I26" s="7" t="str">
         <f>IF(ISBLANK(D26),"",F26-SUM($H$3:H26))</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F27" t="str">
+      <c r="E27" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F27" s="7" t="str">
         <f>IF(ISBLANK(D27),"",SUM($E$3:E27))</f>
         <v/>
       </c>
-      <c r="I27" t="str">
+      <c r="I27" s="7" t="str">
         <f>IF(ISBLANK(D27),"",F27-SUM($H$3:H27))</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F28" t="str">
+      <c r="E28" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F28" s="7" t="str">
         <f>IF(ISBLANK(D28),"",SUM($E$3:E28))</f>
         <v/>
       </c>
-      <c r="I28" t="str">
+      <c r="I28" s="7" t="str">
         <f>IF(ISBLANK(D28),"",F28-SUM($H$3:H28))</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F29" t="str">
+      <c r="E29" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F29" s="7" t="str">
         <f>IF(ISBLANK(D29),"",SUM($E$3:E29))</f>
         <v/>
       </c>
-      <c r="I29" t="str">
+      <c r="I29" s="7" t="str">
         <f>IF(ISBLANK(D29),"",F29-SUM($H$3:H29))</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E30" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F30" t="str">
+      <c r="E30" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F30" s="7" t="str">
         <f>IF(ISBLANK(D30),"",SUM($E$3:E30))</f>
         <v/>
       </c>
-      <c r="I30" t="str">
+      <c r="I30" s="7" t="str">
         <f>IF(ISBLANK(D30),"",F30-SUM($H$3:H30))</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F31" t="str">
+      <c r="E31" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F31" s="7" t="str">
         <f>IF(ISBLANK(D31),"",SUM($E$3:E31))</f>
         <v/>
       </c>
-      <c r="I31" t="str">
+      <c r="I31" s="7" t="str">
         <f>IF(ISBLANK(D31),"",F31-SUM($H$3:H31))</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F32" t="str">
+      <c r="E32" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F32" s="7" t="str">
         <f>IF(ISBLANK(D32),"",SUM($E$3:E32))</f>
         <v/>
       </c>
-      <c r="I32" t="str">
+      <c r="I32" s="7" t="str">
         <f>IF(ISBLANK(D32),"",F32-SUM($H$3:H32))</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F33" t="str">
+      <c r="E33" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F33" s="7" t="str">
         <f>IF(ISBLANK(D33),"",SUM($E$3:E33))</f>
         <v/>
       </c>
-      <c r="I33" t="str">
+      <c r="I33" s="7" t="str">
         <f>IF(ISBLANK(D33),"",F33-SUM($H$3:H33))</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E34" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F34" t="str">
+      <c r="E34" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F34" s="7" t="str">
         <f>IF(ISBLANK(D34),"",SUM($E$3:E34))</f>
         <v/>
       </c>
-      <c r="I34" t="str">
+      <c r="I34" s="7" t="str">
         <f>IF(ISBLANK(D34),"",F34-SUM($H$3:H34))</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E35" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F35" t="str">
+      <c r="E35" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F35" s="7" t="str">
         <f>IF(ISBLANK(D35),"",SUM($E$3:E35))</f>
         <v/>
       </c>
-      <c r="I35" t="str">
+      <c r="I35" s="7" t="str">
         <f>IF(ISBLANK(D35),"",F35-SUM($H$3:H35))</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F36" t="str">
+      <c r="E36" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F36" s="7" t="str">
         <f>IF(ISBLANK(D36),"",SUM($E$3:E36))</f>
         <v/>
       </c>
-      <c r="I36" t="str">
+      <c r="I36" s="7" t="str">
         <f>IF(ISBLANK(D36),"",F36-SUM($H$3:H36))</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F37" t="str">
+      <c r="E37" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F37" s="7" t="str">
         <f>IF(ISBLANK(D37),"",SUM($E$3:E37))</f>
         <v/>
       </c>
-      <c r="I37" t="str">
+      <c r="I37" s="7" t="str">
         <f>IF(ISBLANK(D37),"",F37-SUM($H$3:H37))</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F38" t="str">
+      <c r="E38" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F38" s="7" t="str">
         <f>IF(ISBLANK(D38),"",SUM($E$3:E38))</f>
         <v/>
       </c>
-      <c r="I38" t="str">
+      <c r="I38" s="7" t="str">
         <f>IF(ISBLANK(D38),"",F38-SUM($H$3:H38))</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F39" t="str">
+      <c r="E39" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F39" s="7" t="str">
         <f>IF(ISBLANK(D39),"",SUM($E$3:E39))</f>
         <v/>
       </c>
-      <c r="I39" t="str">
+      <c r="I39" s="7" t="str">
         <f>IF(ISBLANK(D39),"",F39-SUM($H$3:H39))</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E40" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F40" t="str">
+      <c r="E40" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F40" s="7" t="str">
         <f>IF(ISBLANK(D40),"",SUM($E$3:E40))</f>
         <v/>
       </c>
-      <c r="I40" t="str">
+      <c r="I40" s="7" t="str">
         <f>IF(ISBLANK(D40),"",F40-SUM($H$3:H40))</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E41" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F41" t="str">
+      <c r="E41" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F41" s="7" t="str">
         <f>IF(ISBLANK(D41),"",SUM($E$3:E41))</f>
         <v/>
       </c>
-      <c r="I41" t="str">
+      <c r="I41" s="7" t="str">
         <f>IF(ISBLANK(D41),"",F41-SUM($H$3:H41))</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E42" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F42" t="str">
+      <c r="E42" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F42" s="7" t="str">
         <f>IF(ISBLANK(D42),"",SUM($E$3:E42))</f>
         <v/>
       </c>
-      <c r="I42" t="str">
+      <c r="I42" s="7" t="str">
         <f>IF(ISBLANK(D42),"",F42-SUM($H$3:H42))</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E43" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F43" t="str">
+      <c r="E43" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F43" s="7" t="str">
         <f>IF(ISBLANK(D43),"",SUM($E$3:E43))</f>
         <v/>
       </c>
-      <c r="I43" t="str">
+      <c r="I43" s="7" t="str">
         <f>IF(ISBLANK(D43),"",F43-SUM($H$3:H43))</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E44" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F44" t="str">
+      <c r="E44" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F44" s="7" t="str">
         <f>IF(ISBLANK(D44),"",SUM($E$3:E44))</f>
         <v/>
       </c>
-      <c r="I44" t="str">
+      <c r="I44" s="7" t="str">
         <f>IF(ISBLANK(D44),"",F44-SUM($H$3:H44))</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E45" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F45" t="str">
+      <c r="E45" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F45" s="7" t="str">
         <f>IF(ISBLANK(D45),"",SUM($E$3:E45))</f>
         <v/>
       </c>
-      <c r="I45" t="str">
+      <c r="I45" s="7" t="str">
         <f>IF(ISBLANK(D45),"",F45-SUM($H$3:H45))</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E46" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F46" t="str">
+      <c r="E46" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F46" s="7" t="str">
         <f>IF(ISBLANK(D46),"",SUM($E$3:E46))</f>
         <v/>
       </c>
-      <c r="I46" t="str">
+      <c r="I46" s="7" t="str">
         <f>IF(ISBLANK(D46),"",F46-SUM($H$3:H46))</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E47" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F47" t="str">
+      <c r="E47" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F47" s="7" t="str">
         <f>IF(ISBLANK(D47),"",SUM($E$3:E47))</f>
         <v/>
       </c>
-      <c r="I47" t="str">
+      <c r="I47" s="7" t="str">
         <f>IF(ISBLANK(D47),"",F47-SUM($H$3:H47))</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E48" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F48" t="str">
+      <c r="E48" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F48" s="7" t="str">
         <f>IF(ISBLANK(D48),"",SUM($E$3:E48))</f>
         <v/>
       </c>
-      <c r="I48" t="str">
+      <c r="I48" s="7" t="str">
         <f>IF(ISBLANK(D48),"",F48-SUM($H$3:H48))</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E49" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F49" t="str">
+      <c r="E49" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F49" s="7" t="str">
         <f>IF(ISBLANK(D49),"",SUM($E$3:E49))</f>
         <v/>
       </c>
-      <c r="I49" t="str">
+      <c r="I49" s="7" t="str">
         <f>IF(ISBLANK(D49),"",F49-SUM($H$3:H49))</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E50" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F50" t="str">
+      <c r="E50" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F50" s="7" t="str">
         <f>IF(ISBLANK(D50),"",SUM($E$3:E50))</f>
         <v/>
       </c>
-      <c r="I50" t="str">
+      <c r="I50" s="7" t="str">
         <f>IF(ISBLANK(D50),"",F50-SUM($H$3:H50))</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E51" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F51" t="str">
+      <c r="E51" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F51" s="7" t="str">
         <f>IF(ISBLANK(D51),"",SUM($E$3:E51))</f>
         <v/>
       </c>
-      <c r="I51" t="str">
+      <c r="I51" s="7" t="str">
         <f>IF(ISBLANK(D51),"",F51-SUM($H$3:H51))</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E52" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F52" t="str">
+      <c r="E52" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F52" s="7" t="str">
         <f>IF(ISBLANK(D52),"",SUM($E$3:E52))</f>
         <v/>
       </c>
-      <c r="I52" t="str">
+      <c r="I52" s="7" t="str">
         <f>IF(ISBLANK(D52),"",F52-SUM($H$3:H52))</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E53" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F53" t="str">
+      <c r="E53" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F53" s="7" t="str">
         <f>IF(ISBLANK(D53),"",SUM($E$3:E53))</f>
         <v/>
       </c>
-      <c r="I53" t="str">
+      <c r="I53" s="7" t="str">
         <f>IF(ISBLANK(D53),"",F53-SUM($H$3:H53))</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E54" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F54" t="str">
+      <c r="E54" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F54" s="7" t="str">
         <f>IF(ISBLANK(D54),"",SUM($E$3:E54))</f>
         <v/>
       </c>
-      <c r="I54" t="str">
+      <c r="I54" s="7" t="str">
         <f>IF(ISBLANK(D54),"",F54-SUM($H$3:H54))</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E55" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F55" t="str">
+      <c r="E55" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F55" s="7" t="str">
         <f>IF(ISBLANK(D55),"",SUM($E$3:E55))</f>
         <v/>
       </c>
-      <c r="I55" t="str">
+      <c r="I55" s="7" t="str">
         <f>IF(ISBLANK(D55),"",F55-SUM($H$3:H55))</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E56" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F56" t="str">
+      <c r="E56" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F56" s="7" t="str">
         <f>IF(ISBLANK(D56),"",SUM($E$3:E56))</f>
         <v/>
       </c>
-      <c r="I56" t="str">
+      <c r="I56" s="7" t="str">
         <f>IF(ISBLANK(D56),"",F56-SUM($H$3:H56))</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E57" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F57" t="str">
+      <c r="E57" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F57" s="7" t="str">
         <f>IF(ISBLANK(D57),"",SUM($E$3:E57))</f>
         <v/>
       </c>
-      <c r="I57" t="str">
+      <c r="I57" s="7" t="str">
         <f>IF(ISBLANK(D57),"",F57-SUM($H$3:H57))</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E58" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F58" t="str">
+      <c r="E58" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F58" s="7" t="str">
         <f>IF(ISBLANK(D58),"",SUM($E$3:E58))</f>
         <v/>
       </c>
-      <c r="I58" t="str">
+      <c r="I58" s="7" t="str">
         <f>IF(ISBLANK(D58),"",F58-SUM($H$3:H58))</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E59" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F59" t="str">
+      <c r="E59" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F59" s="7" t="str">
         <f>IF(ISBLANK(D59),"",SUM($E$3:E59))</f>
         <v/>
       </c>
-      <c r="I59" t="str">
+      <c r="I59" s="7" t="str">
         <f>IF(ISBLANK(D59),"",F59-SUM($H$3:H59))</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E60" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F60" t="str">
+      <c r="E60" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F60" s="7" t="str">
         <f>IF(ISBLANK(D60),"",SUM($E$3:E60))</f>
         <v/>
       </c>
-      <c r="I60" t="str">
+      <c r="I60" s="7" t="str">
         <f>IF(ISBLANK(D60),"",F60-SUM($H$3:H60))</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E61" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F61" t="str">
+      <c r="E61" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F61" s="7" t="str">
         <f>IF(ISBLANK(D61),"",SUM($E$3:E61))</f>
         <v/>
       </c>
-      <c r="I61" t="str">
+      <c r="I61" s="7" t="str">
         <f>IF(ISBLANK(D61),"",F61-SUM($H$3:H61))</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E62" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F62" t="str">
+      <c r="E62" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F62" s="7" t="str">
         <f>IF(ISBLANK(D62),"",SUM($E$3:E62))</f>
         <v/>
       </c>
-      <c r="I62" t="str">
+      <c r="I62" s="7" t="str">
         <f>IF(ISBLANK(D62),"",F62-SUM($H$3:H62))</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E63" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F63" t="str">
+      <c r="E63" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F63" s="7" t="str">
         <f>IF(ISBLANK(D63),"",SUM($E$3:E63))</f>
         <v/>
       </c>
-      <c r="I63" t="str">
+      <c r="I63" s="7" t="str">
         <f>IF(ISBLANK(D63),"",F63-SUM($H$3:H63))</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E64" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F64" t="str">
+      <c r="E64" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F64" s="7" t="str">
         <f>IF(ISBLANK(D64),"",SUM($E$3:E64))</f>
         <v/>
       </c>
-      <c r="I64" t="str">
+      <c r="I64" s="7" t="str">
         <f>IF(ISBLANK(D64),"",F64-SUM($H$3:H64))</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E65" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F65" t="str">
+      <c r="E65" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F65" s="7" t="str">
         <f>IF(ISBLANK(D65),"",SUM($E$3:E65))</f>
         <v/>
       </c>
-      <c r="I65" t="str">
+      <c r="I65" s="7" t="str">
         <f>IF(ISBLANK(D65),"",F65-SUM($H$3:H65))</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E66" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F66" t="str">
+      <c r="E66" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F66" s="7" t="str">
         <f>IF(ISBLANK(D66),"",SUM($E$3:E66))</f>
         <v/>
       </c>
-      <c r="I66" t="str">
+      <c r="I66" s="7" t="str">
         <f>IF(ISBLANK(D66),"",F66-SUM($H$3:H66))</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E67" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F67" t="str">
+      <c r="E67" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F67" s="7" t="str">
         <f>IF(ISBLANK(D67),"",SUM($E$3:E67))</f>
         <v/>
       </c>
-      <c r="I67" t="str">
+      <c r="I67" s="7" t="str">
         <f>IF(ISBLANK(D67),"",F67-SUM($H$3:H67))</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E68" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F68" t="str">
+      <c r="E68" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F68" s="7" t="str">
         <f>IF(ISBLANK(D68),"",SUM($E$3:E68))</f>
         <v/>
       </c>
-      <c r="I68" t="str">
+      <c r="I68" s="7" t="str">
         <f>IF(ISBLANK(D68),"",F68-SUM($H$3:H68))</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E69" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F69" t="str">
+      <c r="E69" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F69" s="7" t="str">
         <f>IF(ISBLANK(D69),"",SUM($E$3:E69))</f>
         <v/>
       </c>
-      <c r="I69" t="str">
+      <c r="I69" s="7" t="str">
         <f>IF(ISBLANK(D69),"",F69-SUM($H$3:H69))</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E70" t="str">
+      <c r="E70" s="6" t="str">
         <f t="shared" ref="E70:E133" si="2">IF(ISBLANK(D70),"",D70*600)</f>
         <v/>
       </c>
-      <c r="F70" t="str">
+      <c r="F70" s="7" t="str">
         <f>IF(ISBLANK(D70),"",SUM($E$3:E70))</f>
         <v/>
       </c>
-      <c r="I70" t="str">
+      <c r="I70" s="7" t="str">
         <f>IF(ISBLANK(D70),"",F70-SUM($H$3:H70))</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E71" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F71" t="str">
+      <c r="E71" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F71" s="7" t="str">
         <f>IF(ISBLANK(D71),"",SUM($E$3:E71))</f>
         <v/>
       </c>
-      <c r="I71" t="str">
+      <c r="I71" s="7" t="str">
         <f>IF(ISBLANK(D71),"",F71-SUM($H$3:H71))</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E72" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F72" t="str">
+      <c r="E72" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F72" s="7" t="str">
         <f>IF(ISBLANK(D72),"",SUM($E$3:E72))</f>
         <v/>
       </c>
-      <c r="I72" t="str">
+      <c r="I72" s="7" t="str">
         <f>IF(ISBLANK(D72),"",F72-SUM($H$3:H72))</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E73" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F73" t="str">
+      <c r="E73" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F73" s="7" t="str">
         <f>IF(ISBLANK(D73),"",SUM($E$3:E73))</f>
         <v/>
       </c>
-      <c r="I73" t="str">
+      <c r="I73" s="7" t="str">
         <f>IF(ISBLANK(D73),"",F73-SUM($H$3:H73))</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E74" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F74" t="str">
+      <c r="E74" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F74" s="7" t="str">
         <f>IF(ISBLANK(D74),"",SUM($E$3:E74))</f>
         <v/>
       </c>
-      <c r="I74" t="str">
+      <c r="I74" s="7" t="str">
         <f>IF(ISBLANK(D74),"",F74-SUM($H$3:H74))</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E75" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F75" t="str">
+      <c r="E75" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F75" s="7" t="str">
         <f>IF(ISBLANK(D75),"",SUM($E$3:E75))</f>
         <v/>
       </c>
-      <c r="I75" t="str">
+      <c r="I75" s="7" t="str">
         <f>IF(ISBLANK(D75),"",F75-SUM($H$3:H75))</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E76" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F76" t="str">
+      <c r="E76" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F76" s="7" t="str">
         <f>IF(ISBLANK(D76),"",SUM($E$3:E76))</f>
         <v/>
       </c>
-      <c r="I76" t="str">
+      <c r="I76" s="7" t="str">
         <f>IF(ISBLANK(D76),"",F76-SUM($H$3:H76))</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E77" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F77" t="str">
+      <c r="E77" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F77" s="7" t="str">
         <f>IF(ISBLANK(D77),"",SUM($E$3:E77))</f>
         <v/>
       </c>
-      <c r="I77" t="str">
+      <c r="I77" s="7" t="str">
         <f>IF(ISBLANK(D77),"",F77-SUM($H$3:H77))</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E78" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F78" t="str">
+      <c r="E78" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F78" s="7" t="str">
         <f>IF(ISBLANK(D78),"",SUM($E$3:E78))</f>
         <v/>
       </c>
-      <c r="I78" t="str">
+      <c r="I78" s="7" t="str">
         <f>IF(ISBLANK(D78),"",F78-SUM($H$3:H78))</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E79" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F79" t="str">
+      <c r="E79" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F79" s="7" t="str">
         <f>IF(ISBLANK(D79),"",SUM($E$3:E79))</f>
         <v/>
       </c>
-      <c r="I79" t="str">
+      <c r="I79" s="7" t="str">
         <f>IF(ISBLANK(D79),"",F79-SUM($H$3:H79))</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E80" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F80" t="str">
+      <c r="E80" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F80" s="7" t="str">
         <f>IF(ISBLANK(D80),"",SUM($E$3:E80))</f>
         <v/>
       </c>
-      <c r="I80" t="str">
+      <c r="I80" s="7" t="str">
         <f>IF(ISBLANK(D80),"",F80-SUM($H$3:H80))</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E81" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F81" t="str">
+      <c r="E81" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F81" s="7" t="str">
         <f>IF(ISBLANK(D81),"",SUM($E$3:E81))</f>
         <v/>
       </c>
-      <c r="I81" t="str">
+      <c r="I81" s="7" t="str">
         <f>IF(ISBLANK(D81),"",F81-SUM($H$3:H81))</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E82" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F82" t="str">
+      <c r="E82" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F82" s="7" t="str">
         <f>IF(ISBLANK(D82),"",SUM($E$3:E82))</f>
         <v/>
       </c>
-      <c r="I82" t="str">
+      <c r="I82" s="7" t="str">
         <f>IF(ISBLANK(D82),"",F82-SUM($H$3:H82))</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E83" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F83" t="str">
+      <c r="E83" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F83" s="7" t="str">
         <f>IF(ISBLANK(D83),"",SUM($E$3:E83))</f>
         <v/>
       </c>
-      <c r="I83" t="str">
+      <c r="I83" s="7" t="str">
         <f>IF(ISBLANK(D83),"",F83-SUM($H$3:H83))</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E84" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F84" t="str">
+      <c r="E84" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F84" s="7" t="str">
         <f>IF(ISBLANK(D84),"",SUM($E$3:E84))</f>
         <v/>
       </c>
-      <c r="I84" t="str">
+      <c r="I84" s="7" t="str">
         <f>IF(ISBLANK(D84),"",F84-SUM($H$3:H84))</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E85" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F85" t="str">
+      <c r="E85" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F85" s="7" t="str">
         <f>IF(ISBLANK(D85),"",SUM($E$3:E85))</f>
         <v/>
       </c>
-      <c r="I85" t="str">
+      <c r="I85" s="7" t="str">
         <f>IF(ISBLANK(D85),"",F85-SUM($H$3:H85))</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E86" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F86" t="str">
+      <c r="E86" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F86" s="7" t="str">
         <f>IF(ISBLANK(D86),"",SUM($E$3:E86))</f>
         <v/>
       </c>
-      <c r="I86" t="str">
+      <c r="I86" s="7" t="str">
         <f>IF(ISBLANK(D86),"",F86-SUM($H$3:H86))</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E87" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F87" t="str">
+      <c r="E87" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F87" s="7" t="str">
         <f>IF(ISBLANK(D87),"",SUM($E$3:E87))</f>
         <v/>
       </c>
-      <c r="I87" t="str">
+      <c r="I87" s="7" t="str">
         <f>IF(ISBLANK(D87),"",F87-SUM($H$3:H87))</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F88" t="str">
+      <c r="E88" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F88" s="7" t="str">
         <f>IF(ISBLANK(D88),"",SUM($E$3:E88))</f>
         <v/>
       </c>
-      <c r="I88" t="str">
+      <c r="I88" s="7" t="str">
         <f>IF(ISBLANK(D88),"",F88-SUM($H$3:H88))</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E89" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F89" t="str">
+      <c r="E89" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F89" s="7" t="str">
         <f>IF(ISBLANK(D89),"",SUM($E$3:E89))</f>
         <v/>
       </c>
-      <c r="I89" t="str">
+      <c r="I89" s="7" t="str">
         <f>IF(ISBLANK(D89),"",F89-SUM($H$3:H89))</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E90" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F90" t="str">
+      <c r="E90" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F90" s="7" t="str">
         <f>IF(ISBLANK(D90),"",SUM($E$3:E90))</f>
         <v/>
       </c>
-      <c r="I90" t="str">
+      <c r="I90" s="7" t="str">
         <f>IF(ISBLANK(D90),"",F90-SUM($H$3:H90))</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E91" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F91" t="str">
+      <c r="E91" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F91" s="7" t="str">
         <f>IF(ISBLANK(D91),"",SUM($E$3:E91))</f>
         <v/>
       </c>
-      <c r="I91" t="str">
+      <c r="I91" s="7" t="str">
         <f>IF(ISBLANK(D91),"",F91-SUM($H$3:H91))</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E92" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F92" t="str">
+      <c r="E92" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F92" s="7" t="str">
         <f>IF(ISBLANK(D92),"",SUM($E$3:E92))</f>
         <v/>
       </c>
-      <c r="I92" t="str">
+      <c r="I92" s="7" t="str">
         <f>IF(ISBLANK(D92),"",F92-SUM($H$3:H92))</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E93" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F93" t="str">
+      <c r="E93" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F93" s="7" t="str">
         <f>IF(ISBLANK(D93),"",SUM($E$3:E93))</f>
         <v/>
       </c>
-      <c r="I93" t="str">
+      <c r="I93" s="7" t="str">
         <f>IF(ISBLANK(D93),"",F93-SUM($H$3:H93))</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E94" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F94" t="str">
+      <c r="E94" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F94" s="7" t="str">
         <f>IF(ISBLANK(D94),"",SUM($E$3:E94))</f>
         <v/>
       </c>
-      <c r="I94" t="str">
+      <c r="I94" s="7" t="str">
         <f>IF(ISBLANK(D94),"",F94-SUM($H$3:H94))</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E95" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F95" t="str">
+      <c r="E95" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F95" s="7" t="str">
         <f>IF(ISBLANK(D95),"",SUM($E$3:E95))</f>
         <v/>
       </c>
-      <c r="I95" t="str">
+      <c r="I95" s="7" t="str">
         <f>IF(ISBLANK(D95),"",F95-SUM($H$3:H95))</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E96" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F96" t="str">
+      <c r="E96" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F96" s="7" t="str">
         <f>IF(ISBLANK(D96),"",SUM($E$3:E96))</f>
         <v/>
       </c>
-      <c r="I96" t="str">
+      <c r="I96" s="7" t="str">
         <f>IF(ISBLANK(D96),"",F96-SUM($H$3:H96))</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E97" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F97" t="str">
+      <c r="E97" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F97" s="7" t="str">
         <f>IF(ISBLANK(D97),"",SUM($E$3:E97))</f>
         <v/>
       </c>
-      <c r="I97" t="str">
+      <c r="I97" s="7" t="str">
         <f>IF(ISBLANK(D97),"",F97-SUM($H$3:H97))</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E98" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F98" t="str">
+      <c r="E98" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F98" s="7" t="str">
         <f>IF(ISBLANK(D98),"",SUM($E$3:E98))</f>
         <v/>
       </c>
-      <c r="I98" t="str">
+      <c r="I98" s="7" t="str">
         <f>IF(ISBLANK(D98),"",F98-SUM($H$3:H98))</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E99" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F99" t="str">
+      <c r="E99" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F99" s="7" t="str">
         <f>IF(ISBLANK(D99),"",SUM($E$3:E99))</f>
         <v/>
       </c>
-      <c r="I99" t="str">
+      <c r="I99" s="7" t="str">
         <f>IF(ISBLANK(D99),"",F99-SUM($H$3:H99))</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E100" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F100" t="str">
+      <c r="E100" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F100" s="7" t="str">
         <f>IF(ISBLANK(D100),"",SUM($E$3:E100))</f>
         <v/>
       </c>
-      <c r="I100" t="str">
+      <c r="I100" s="7" t="str">
         <f>IF(ISBLANK(D100),"",F100-SUM($H$3:H100))</f>
         <v/>
       </c>
     </row>
     <row r="101" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E101" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F101" t="str">
+      <c r="E101" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F101" s="7" t="str">
         <f>IF(ISBLANK(D101),"",SUM($E$3:E101))</f>
         <v/>
       </c>
-      <c r="I101" t="str">
+      <c r="I101" s="7" t="str">
         <f>IF(ISBLANK(D101),"",F101-SUM($H$3:H101))</f>
         <v/>
       </c>
     </row>
     <row r="102" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E102" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F102" t="str">
+      <c r="E102" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F102" s="7" t="str">
         <f>IF(ISBLANK(D102),"",SUM($E$3:E102))</f>
         <v/>
       </c>
-      <c r="I102" t="str">
+      <c r="I102" s="7" t="str">
         <f>IF(ISBLANK(D102),"",F102-SUM($H$3:H102))</f>
         <v/>
       </c>
     </row>
     <row r="103" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E103" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F103" t="str">
+      <c r="E103" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F103" s="7" t="str">
         <f>IF(ISBLANK(D103),"",SUM($E$3:E103))</f>
         <v/>
       </c>
-      <c r="I103" t="str">
+      <c r="I103" s="7" t="str">
         <f>IF(ISBLANK(D103),"",F103-SUM($H$3:H103))</f>
         <v/>
       </c>
     </row>
     <row r="104" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E104" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F104" t="str">
+      <c r="E104" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F104" s="7" t="str">
         <f>IF(ISBLANK(D104),"",SUM($E$3:E104))</f>
         <v/>
       </c>
-      <c r="I104" t="str">
+      <c r="I104" s="7" t="str">
         <f>IF(ISBLANK(D104),"",F104-SUM($H$3:H104))</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E105" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F105" t="str">
+      <c r="E105" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F105" s="7" t="str">
         <f>IF(ISBLANK(D105),"",SUM($E$3:E105))</f>
         <v/>
       </c>
-      <c r="I105" t="str">
+      <c r="I105" s="7" t="str">
         <f>IF(ISBLANK(D105),"",F105-SUM($H$3:H105))</f>
         <v/>
       </c>
     </row>
     <row r="106" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E106" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F106" t="str">
+      <c r="E106" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F106" s="7" t="str">
         <f>IF(ISBLANK(D106),"",SUM($E$3:E106))</f>
         <v/>
       </c>
-      <c r="I106" t="str">
+      <c r="I106" s="7" t="str">
         <f>IF(ISBLANK(D106),"",F106-SUM($H$3:H106))</f>
         <v/>
       </c>
     </row>
     <row r="107" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E107" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F107" t="str">
+      <c r="E107" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F107" s="7" t="str">
         <f>IF(ISBLANK(D107),"",SUM($E$3:E107))</f>
         <v/>
       </c>
-      <c r="I107" t="str">
+      <c r="I107" s="7" t="str">
         <f>IF(ISBLANK(D107),"",F107-SUM($H$3:H107))</f>
         <v/>
       </c>
     </row>
     <row r="108" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E108" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F108" t="str">
+      <c r="E108" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F108" s="7" t="str">
         <f>IF(ISBLANK(D108),"",SUM($E$3:E108))</f>
         <v/>
       </c>
-      <c r="I108" t="str">
+      <c r="I108" s="7" t="str">
         <f>IF(ISBLANK(D108),"",F108-SUM($H$3:H108))</f>
         <v/>
       </c>
     </row>
     <row r="109" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E109" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F109" t="str">
+      <c r="E109" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F109" s="7" t="str">
         <f>IF(ISBLANK(D109),"",SUM($E$3:E109))</f>
         <v/>
       </c>
-      <c r="I109" t="str">
+      <c r="I109" s="7" t="str">
         <f>IF(ISBLANK(D109),"",F109-SUM($H$3:H109))</f>
         <v/>
       </c>
     </row>
     <row r="110" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E110" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F110" t="str">
+      <c r="E110" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F110" s="7" t="str">
         <f>IF(ISBLANK(D110),"",SUM($E$3:E110))</f>
         <v/>
       </c>
-      <c r="I110" t="str">
+      <c r="I110" s="7" t="str">
         <f>IF(ISBLANK(D110),"",F110-SUM($H$3:H110))</f>
         <v/>
       </c>
     </row>
     <row r="111" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E111" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F111" t="str">
+      <c r="E111" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F111" s="7" t="str">
         <f>IF(ISBLANK(D111),"",SUM($E$3:E111))</f>
         <v/>
       </c>
-      <c r="I111" t="str">
+      <c r="I111" s="7" t="str">
         <f>IF(ISBLANK(D111),"",F111-SUM($H$3:H111))</f>
         <v/>
       </c>
     </row>
     <row r="112" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E112" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F112" t="str">
+      <c r="E112" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F112" s="7" t="str">
         <f>IF(ISBLANK(D112),"",SUM($E$3:E112))</f>
         <v/>
       </c>
-      <c r="I112" t="str">
+      <c r="I112" s="7" t="str">
         <f>IF(ISBLANK(D112),"",F112-SUM($H$3:H112))</f>
         <v/>
       </c>
     </row>
     <row r="113" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E113" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F113" t="str">
+      <c r="E113" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F113" s="7" t="str">
         <f>IF(ISBLANK(D113),"",SUM($E$3:E113))</f>
         <v/>
       </c>
-      <c r="I113" t="str">
+      <c r="I113" s="7" t="str">
         <f>IF(ISBLANK(D113),"",F113-SUM($H$3:H113))</f>
         <v/>
       </c>
     </row>
     <row r="114" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E114" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F114" t="str">
+      <c r="E114" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F114" s="7" t="str">
         <f>IF(ISBLANK(D114),"",SUM($E$3:E114))</f>
         <v/>
       </c>
-      <c r="I114" t="str">
+      <c r="I114" s="7" t="str">
         <f>IF(ISBLANK(D114),"",F114-SUM($H$3:H114))</f>
         <v/>
       </c>
     </row>
     <row r="115" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E115" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F115" t="str">
+      <c r="E115" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F115" s="7" t="str">
         <f>IF(ISBLANK(D115),"",SUM($E$3:E115))</f>
         <v/>
       </c>
-      <c r="I115" t="str">
+      <c r="I115" s="7" t="str">
         <f>IF(ISBLANK(D115),"",F115-SUM($H$3:H115))</f>
         <v/>
       </c>
     </row>
     <row r="116" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E116" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F116" t="str">
+      <c r="E116" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F116" s="7" t="str">
         <f>IF(ISBLANK(D116),"",SUM($E$3:E116))</f>
         <v/>
       </c>
-      <c r="I116" t="str">
+      <c r="I116" s="7" t="str">
         <f>IF(ISBLANK(D116),"",F116-SUM($H$3:H116))</f>
         <v/>
       </c>
     </row>
     <row r="117" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E117" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F117" t="str">
+      <c r="E117" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F117" s="7" t="str">
         <f>IF(ISBLANK(D117),"",SUM($E$3:E117))</f>
         <v/>
       </c>
-      <c r="I117" t="str">
+      <c r="I117" s="7" t="str">
         <f>IF(ISBLANK(D117),"",F117-SUM($H$3:H117))</f>
         <v/>
       </c>
     </row>
     <row r="118" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E118" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F118" t="str">
+      <c r="E118" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F118" s="7" t="str">
         <f>IF(ISBLANK(D118),"",SUM($E$3:E118))</f>
         <v/>
       </c>
-      <c r="I118" t="str">
+      <c r="I118" s="7" t="str">
         <f>IF(ISBLANK(D118),"",F118-SUM($H$3:H118))</f>
         <v/>
       </c>
     </row>
     <row r="119" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E119" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F119" t="str">
+      <c r="E119" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F119" s="7" t="str">
         <f>IF(ISBLANK(D119),"",SUM($E$3:E119))</f>
         <v/>
       </c>
-      <c r="I119" t="str">
+      <c r="I119" s="7" t="str">
         <f>IF(ISBLANK(D119),"",F119-SUM($H$3:H119))</f>
         <v/>
       </c>
     </row>
     <row r="120" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E120" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F120" t="str">
+      <c r="E120" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F120" s="7" t="str">
         <f>IF(ISBLANK(D120),"",SUM($E$3:E120))</f>
         <v/>
       </c>
-      <c r="I120" t="str">
+      <c r="I120" s="7" t="str">
         <f>IF(ISBLANK(D120),"",F120-SUM($H$3:H120))</f>
         <v/>
       </c>
     </row>
     <row r="121" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E121" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F121" t="str">
+      <c r="E121" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F121" s="7" t="str">
         <f>IF(ISBLANK(D121),"",SUM($E$3:E121))</f>
         <v/>
       </c>
-      <c r="I121" t="str">
+      <c r="I121" s="7" t="str">
         <f>IF(ISBLANK(D121),"",F121-SUM($H$3:H121))</f>
         <v/>
       </c>
     </row>
     <row r="122" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E122" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F122" t="str">
+      <c r="E122" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F122" s="7" t="str">
         <f>IF(ISBLANK(D122),"",SUM($E$3:E122))</f>
         <v/>
       </c>
-      <c r="I122" t="str">
+      <c r="I122" s="7" t="str">
         <f>IF(ISBLANK(D122),"",F122-SUM($H$3:H122))</f>
         <v/>
       </c>
     </row>
     <row r="123" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E123" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F123" t="str">
+      <c r="E123" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F123" s="7" t="str">
         <f>IF(ISBLANK(D123),"",SUM($E$3:E123))</f>
         <v/>
       </c>
-      <c r="I123" t="str">
+      <c r="I123" s="7" t="str">
         <f>IF(ISBLANK(D123),"",F123-SUM($H$3:H123))</f>
         <v/>
       </c>
     </row>
     <row r="124" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E124" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F124" t="str">
+      <c r="E124" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F124" s="7" t="str">
         <f>IF(ISBLANK(D124),"",SUM($E$3:E124))</f>
         <v/>
       </c>
-      <c r="I124" t="str">
+      <c r="I124" s="7" t="str">
         <f>IF(ISBLANK(D124),"",F124-SUM($H$3:H124))</f>
         <v/>
       </c>
     </row>
     <row r="125" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E125" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F125" t="str">
+      <c r="E125" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F125" s="7" t="str">
         <f>IF(ISBLANK(D125),"",SUM($E$3:E125))</f>
         <v/>
       </c>
-      <c r="I125" t="str">
+      <c r="I125" s="7" t="str">
         <f>IF(ISBLANK(D125),"",F125-SUM($H$3:H125))</f>
         <v/>
       </c>
     </row>
     <row r="126" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E126" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F126" t="str">
+      <c r="E126" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F126" s="7" t="str">
         <f>IF(ISBLANK(D126),"",SUM($E$3:E126))</f>
         <v/>
       </c>
-      <c r="I126" t="str">
+      <c r="I126" s="7" t="str">
         <f>IF(ISBLANK(D126),"",F126-SUM($H$3:H126))</f>
         <v/>
       </c>
     </row>
     <row r="127" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E127" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F127" t="str">
+      <c r="E127" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F127" s="7" t="str">
         <f>IF(ISBLANK(D127),"",SUM($E$3:E127))</f>
         <v/>
       </c>
-      <c r="I127" t="str">
+      <c r="I127" s="7" t="str">
         <f>IF(ISBLANK(D127),"",F127-SUM($H$3:H127))</f>
         <v/>
       </c>
     </row>
     <row r="128" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E128" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F128" t="str">
+      <c r="E128" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F128" s="7" t="str">
         <f>IF(ISBLANK(D128),"",SUM($E$3:E128))</f>
         <v/>
       </c>
-      <c r="I128" t="str">
+      <c r="I128" s="7" t="str">
         <f>IF(ISBLANK(D128),"",F128-SUM($H$3:H128))</f>
         <v/>
       </c>
     </row>
     <row r="129" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E129" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F129" t="str">
+      <c r="E129" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F129" s="7" t="str">
         <f>IF(ISBLANK(D129),"",SUM($E$3:E129))</f>
         <v/>
       </c>
-      <c r="I129" t="str">
+      <c r="I129" s="7" t="str">
         <f>IF(ISBLANK(D129),"",F129-SUM($H$3:H129))</f>
         <v/>
       </c>
     </row>
     <row r="130" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E130" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F130" t="str">
+      <c r="E130" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F130" s="7" t="str">
         <f>IF(ISBLANK(D130),"",SUM($E$3:E130))</f>
         <v/>
       </c>
-      <c r="I130" t="str">
+      <c r="I130" s="7" t="str">
         <f>IF(ISBLANK(D130),"",F130-SUM($H$3:H130))</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E131" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F131" t="str">
+      <c r="E131" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F131" s="7" t="str">
         <f>IF(ISBLANK(D131),"",SUM($E$3:E131))</f>
         <v/>
       </c>
-      <c r="I131" t="str">
+      <c r="I131" s="7" t="str">
         <f>IF(ISBLANK(D131),"",F131-SUM($H$3:H131))</f>
         <v/>
       </c>
     </row>
     <row r="132" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E132" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F132" t="str">
+      <c r="E132" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F132" s="7" t="str">
         <f>IF(ISBLANK(D132),"",SUM($E$3:E132))</f>
         <v/>
       </c>
-      <c r="I132" t="str">
+      <c r="I132" s="7" t="str">
         <f>IF(ISBLANK(D132),"",F132-SUM($H$3:H132))</f>
         <v/>
       </c>
     </row>
     <row r="133" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E133" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F133" t="str">
+      <c r="E133" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F133" s="7" t="str">
         <f>IF(ISBLANK(D133),"",SUM($E$3:E133))</f>
         <v/>
       </c>
-      <c r="I133" t="str">
+      <c r="I133" s="7" t="str">
         <f>IF(ISBLANK(D133),"",F133-SUM($H$3:H133))</f>
         <v/>
       </c>
     </row>
     <row r="134" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E134" t="str">
+      <c r="E134" s="6" t="str">
         <f t="shared" ref="E134:E197" si="3">IF(ISBLANK(D134),"",D134*600)</f>
         <v/>
       </c>
-      <c r="F134" t="str">
+      <c r="F134" s="7" t="str">
         <f>IF(ISBLANK(D134),"",SUM($E$3:E134))</f>
         <v/>
       </c>
-      <c r="I134" t="str">
+      <c r="I134" s="7" t="str">
         <f>IF(ISBLANK(D134),"",F134-SUM($H$3:H134))</f>
         <v/>
       </c>
     </row>
     <row r="135" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E135" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F135" t="str">
+      <c r="E135" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F135" s="7" t="str">
         <f>IF(ISBLANK(D135),"",SUM($E$3:E135))</f>
         <v/>
       </c>
-      <c r="I135" t="str">
+      <c r="I135" s="7" t="str">
         <f>IF(ISBLANK(D135),"",F135-SUM($H$3:H135))</f>
         <v/>
       </c>
     </row>
     <row r="136" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E136" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F136" t="str">
+      <c r="E136" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F136" s="7" t="str">
         <f>IF(ISBLANK(D136),"",SUM($E$3:E136))</f>
         <v/>
       </c>
-      <c r="I136" t="str">
+      <c r="I136" s="7" t="str">
         <f>IF(ISBLANK(D136),"",F136-SUM($H$3:H136))</f>
         <v/>
       </c>
     </row>
     <row r="137" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E137" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F137" t="str">
+      <c r="E137" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F137" s="7" t="str">
         <f>IF(ISBLANK(D137),"",SUM($E$3:E137))</f>
         <v/>
       </c>
-      <c r="I137" t="str">
+      <c r="I137" s="7" t="str">
         <f>IF(ISBLANK(D137),"",F137-SUM($H$3:H137))</f>
         <v/>
       </c>
     </row>
     <row r="138" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E138" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F138" t="str">
+      <c r="E138" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F138" s="7" t="str">
         <f>IF(ISBLANK(D138),"",SUM($E$3:E138))</f>
         <v/>
       </c>
-      <c r="I138" t="str">
+      <c r="I138" s="7" t="str">
         <f>IF(ISBLANK(D138),"",F138-SUM($H$3:H138))</f>
         <v/>
       </c>
     </row>
     <row r="139" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E139" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F139" t="str">
+      <c r="E139" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F139" s="7" t="str">
         <f>IF(ISBLANK(D139),"",SUM($E$3:E139))</f>
         <v/>
       </c>
-      <c r="I139" t="str">
+      <c r="I139" s="7" t="str">
         <f>IF(ISBLANK(D139),"",F139-SUM($H$3:H139))</f>
         <v/>
       </c>
     </row>
     <row r="140" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E140" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F140" t="str">
+      <c r="E140" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F140" s="7" t="str">
         <f>IF(ISBLANK(D140),"",SUM($E$3:E140))</f>
         <v/>
       </c>
-      <c r="I140" t="str">
+      <c r="I140" s="7" t="str">
         <f>IF(ISBLANK(D140),"",F140-SUM($H$3:H140))</f>
         <v/>
       </c>
     </row>
     <row r="141" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E141" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F141" t="str">
+      <c r="E141" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F141" s="7" t="str">
         <f>IF(ISBLANK(D141),"",SUM($E$3:E141))</f>
         <v/>
       </c>
-      <c r="I141" t="str">
+      <c r="I141" s="7" t="str">
         <f>IF(ISBLANK(D141),"",F141-SUM($H$3:H141))</f>
         <v/>
       </c>
     </row>
     <row r="142" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E142" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F142" t="str">
+      <c r="E142" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F142" s="7" t="str">
         <f>IF(ISBLANK(D142),"",SUM($E$3:E142))</f>
         <v/>
       </c>
-      <c r="I142" t="str">
+      <c r="I142" s="7" t="str">
         <f>IF(ISBLANK(D142),"",F142-SUM($H$3:H142))</f>
         <v/>
       </c>
     </row>
     <row r="143" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E143" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F143" t="str">
+      <c r="E143" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F143" s="7" t="str">
         <f>IF(ISBLANK(D143),"",SUM($E$3:E143))</f>
         <v/>
       </c>
-      <c r="I143" t="str">
+      <c r="I143" s="7" t="str">
         <f>IF(ISBLANK(D143),"",F143-SUM($H$3:H143))</f>
         <v/>
       </c>
     </row>
     <row r="144" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E144" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F144" t="str">
+      <c r="E144" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F144" s="7" t="str">
         <f>IF(ISBLANK(D144),"",SUM($E$3:E144))</f>
         <v/>
       </c>
-      <c r="I144" t="str">
+      <c r="I144" s="7" t="str">
         <f>IF(ISBLANK(D144),"",F144-SUM($H$3:H144))</f>
         <v/>
       </c>
     </row>
     <row r="145" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E145" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F145" t="str">
+      <c r="E145" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F145" s="7" t="str">
         <f>IF(ISBLANK(D145),"",SUM($E$3:E145))</f>
         <v/>
       </c>
-      <c r="I145" t="str">
+      <c r="I145" s="7" t="str">
         <f>IF(ISBLANK(D145),"",F145-SUM($H$3:H145))</f>
         <v/>
       </c>
     </row>
     <row r="146" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E146" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F146" t="str">
+      <c r="E146" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F146" s="7" t="str">
         <f>IF(ISBLANK(D146),"",SUM($E$3:E146))</f>
         <v/>
       </c>
-      <c r="I146" t="str">
+      <c r="I146" s="7" t="str">
         <f>IF(ISBLANK(D146),"",F146-SUM($H$3:H146))</f>
         <v/>
       </c>
     </row>
     <row r="147" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E147" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F147" t="str">
+      <c r="E147" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F147" s="7" t="str">
         <f>IF(ISBLANK(D147),"",SUM($E$3:E147))</f>
         <v/>
       </c>
-      <c r="I147" t="str">
+      <c r="I147" s="7" t="str">
         <f>IF(ISBLANK(D147),"",F147-SUM($H$3:H147))</f>
         <v/>
       </c>
     </row>
     <row r="148" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E148" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F148" t="str">
+      <c r="E148" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F148" s="7" t="str">
         <f>IF(ISBLANK(D148),"",SUM($E$3:E148))</f>
         <v/>
       </c>
-      <c r="I148" t="str">
+      <c r="I148" s="7" t="str">
         <f>IF(ISBLANK(D148),"",F148-SUM($H$3:H148))</f>
         <v/>
       </c>
     </row>
     <row r="149" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E149" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F149" t="str">
+      <c r="E149" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F149" s="7" t="str">
         <f>IF(ISBLANK(D149),"",SUM($E$3:E149))</f>
         <v/>
       </c>
-      <c r="I149" t="str">
+      <c r="I149" s="7" t="str">
         <f>IF(ISBLANK(D149),"",F149-SUM($H$3:H149))</f>
         <v/>
       </c>
     </row>
     <row r="150" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E150" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F150" t="str">
+      <c r="E150" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F150" s="7" t="str">
         <f>IF(ISBLANK(D150),"",SUM($E$3:E150))</f>
         <v/>
       </c>
-      <c r="I150" t="str">
+      <c r="I150" s="7" t="str">
         <f>IF(ISBLANK(D150),"",F150-SUM($H$3:H150))</f>
         <v/>
       </c>
     </row>
     <row r="151" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E151" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F151" t="str">
+      <c r="E151" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F151" s="7" t="str">
         <f>IF(ISBLANK(D151),"",SUM($E$3:E151))</f>
         <v/>
       </c>
-      <c r="I151" t="str">
+      <c r="I151" s="7" t="str">
         <f>IF(ISBLANK(D151),"",F151-SUM($H$3:H151))</f>
         <v/>
       </c>
     </row>
     <row r="152" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E152" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F152" t="str">
+      <c r="E152" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F152" s="7" t="str">
         <f>IF(ISBLANK(D152),"",SUM($E$3:E152))</f>
         <v/>
       </c>
-      <c r="I152" t="str">
+      <c r="I152" s="7" t="str">
         <f>IF(ISBLANK(D152),"",F152-SUM($H$3:H152))</f>
         <v/>
       </c>
     </row>
     <row r="153" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E153" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F153" t="str">
+      <c r="E153" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F153" s="7" t="str">
         <f>IF(ISBLANK(D153),"",SUM($E$3:E153))</f>
         <v/>
       </c>
-      <c r="I153" t="str">
+      <c r="I153" s="7" t="str">
         <f>IF(ISBLANK(D153),"",F153-SUM($H$3:H153))</f>
         <v/>
       </c>
     </row>
     <row r="154" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E154" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F154" t="str">
+      <c r="E154" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F154" s="7" t="str">
         <f>IF(ISBLANK(D154),"",SUM($E$3:E154))</f>
         <v/>
       </c>
-      <c r="I154" t="str">
+      <c r="I154" s="7" t="str">
         <f>IF(ISBLANK(D154),"",F154-SUM($H$3:H154))</f>
         <v/>
       </c>
     </row>
     <row r="155" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E155" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F155" t="str">
+      <c r="E155" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F155" s="7" t="str">
         <f>IF(ISBLANK(D155),"",SUM($E$3:E155))</f>
         <v/>
       </c>
-      <c r="I155" t="str">
+      <c r="I155" s="7" t="str">
         <f>IF(ISBLANK(D155),"",F155-SUM($H$3:H155))</f>
         <v/>
       </c>
     </row>
     <row r="156" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E156" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F156" t="str">
+      <c r="E156" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F156" s="7" t="str">
         <f>IF(ISBLANK(D156),"",SUM($E$3:E156))</f>
         <v/>
       </c>
-      <c r="I156" t="str">
+      <c r="I156" s="7" t="str">
         <f>IF(ISBLANK(D156),"",F156-SUM($H$3:H156))</f>
         <v/>
       </c>
     </row>
     <row r="157" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E157" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F157" t="str">
+      <c r="E157" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F157" s="7" t="str">
         <f>IF(ISBLANK(D157),"",SUM($E$3:E157))</f>
         <v/>
       </c>
-      <c r="I157" t="str">
+      <c r="I157" s="7" t="str">
         <f>IF(ISBLANK(D157),"",F157-SUM($H$3:H157))</f>
         <v/>
       </c>
     </row>
     <row r="158" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E158" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F158" t="str">
+      <c r="E158" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F158" s="7" t="str">
         <f>IF(ISBLANK(D158),"",SUM($E$3:E158))</f>
         <v/>
       </c>
-      <c r="I158" t="str">
+      <c r="I158" s="7" t="str">
         <f>IF(ISBLANK(D158),"",F158-SUM($H$3:H158))</f>
         <v/>
       </c>
     </row>
     <row r="159" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E159" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F159" t="str">
+      <c r="E159" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F159" s="7" t="str">
         <f>IF(ISBLANK(D159),"",SUM($E$3:E159))</f>
         <v/>
       </c>
-      <c r="I159" t="str">
+      <c r="I159" s="7" t="str">
         <f>IF(ISBLANK(D159),"",F159-SUM($H$3:H159))</f>
         <v/>
       </c>
     </row>
     <row r="160" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E160" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F160" t="str">
+      <c r="E160" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F160" s="7" t="str">
         <f>IF(ISBLANK(D160),"",SUM($E$3:E160))</f>
         <v/>
       </c>
-      <c r="I160" t="str">
+      <c r="I160" s="7" t="str">
         <f>IF(ISBLANK(D160),"",F160-SUM($H$3:H160))</f>
         <v/>
       </c>
     </row>
     <row r="161" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E161" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F161" t="str">
+      <c r="E161" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F161" s="7" t="str">
         <f>IF(ISBLANK(D161),"",SUM($E$3:E161))</f>
         <v/>
       </c>
-      <c r="I161" t="str">
+      <c r="I161" s="7" t="str">
         <f>IF(ISBLANK(D161),"",F161-SUM($H$3:H161))</f>
         <v/>
       </c>
     </row>
     <row r="162" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E162" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F162" t="str">
+      <c r="E162" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F162" s="7" t="str">
         <f>IF(ISBLANK(D162),"",SUM($E$3:E162))</f>
         <v/>
       </c>
-      <c r="I162" t="str">
+      <c r="I162" s="7" t="str">
         <f>IF(ISBLANK(D162),"",F162-SUM($H$3:H162))</f>
         <v/>
       </c>
     </row>
     <row r="163" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E163" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F163" t="str">
+      <c r="E163" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F163" s="7" t="str">
         <f>IF(ISBLANK(D163),"",SUM($E$3:E163))</f>
         <v/>
       </c>
-      <c r="I163" t="str">
+      <c r="I163" s="7" t="str">
         <f>IF(ISBLANK(D163),"",F163-SUM($H$3:H163))</f>
         <v/>
       </c>
     </row>
     <row r="164" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E164" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F164" t="str">
+      <c r="E164" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F164" s="7" t="str">
         <f>IF(ISBLANK(D164),"",SUM($E$3:E164))</f>
         <v/>
       </c>
-      <c r="I164" t="str">
+      <c r="I164" s="7" t="str">
         <f>IF(ISBLANK(D164),"",F164-SUM($H$3:H164))</f>
         <v/>
       </c>
     </row>
     <row r="165" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E165" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F165" t="str">
+      <c r="E165" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F165" s="7" t="str">
         <f>IF(ISBLANK(D165),"",SUM($E$3:E165))</f>
         <v/>
       </c>
-      <c r="I165" t="str">
+      <c r="I165" s="7" t="str">
         <f>IF(ISBLANK(D165),"",F165-SUM($H$3:H165))</f>
         <v/>
       </c>
     </row>
     <row r="166" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E166" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F166" t="str">
+      <c r="E166" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F166" s="7" t="str">
         <f>IF(ISBLANK(D166),"",SUM($E$3:E166))</f>
         <v/>
       </c>
-      <c r="I166" t="str">
+      <c r="I166" s="7" t="str">
         <f>IF(ISBLANK(D166),"",F166-SUM($H$3:H166))</f>
         <v/>
       </c>
     </row>
     <row r="167" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E167" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F167" t="str">
+      <c r="E167" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F167" s="7" t="str">
         <f>IF(ISBLANK(D167),"",SUM($E$3:E167))</f>
         <v/>
       </c>
-      <c r="I167" t="str">
+      <c r="I167" s="7" t="str">
         <f>IF(ISBLANK(D167),"",F167-SUM($H$3:H167))</f>
         <v/>
       </c>
     </row>
     <row r="168" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E168" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F168" t="str">
+      <c r="E168" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F168" s="7" t="str">
         <f>IF(ISBLANK(D168),"",SUM($E$3:E168))</f>
         <v/>
       </c>
-      <c r="I168" t="str">
+      <c r="I168" s="7" t="str">
         <f>IF(ISBLANK(D168),"",F168-SUM($H$3:H168))</f>
         <v/>
       </c>
     </row>
     <row r="169" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E169" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F169" t="str">
+      <c r="E169" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F169" s="7" t="str">
         <f>IF(ISBLANK(D169),"",SUM($E$3:E169))</f>
         <v/>
       </c>
-      <c r="I169" t="str">
+      <c r="I169" s="7" t="str">
         <f>IF(ISBLANK(D169),"",F169-SUM($H$3:H169))</f>
         <v/>
       </c>
     </row>
     <row r="170" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E170" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F170" t="str">
+      <c r="E170" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F170" s="7" t="str">
         <f>IF(ISBLANK(D170),"",SUM($E$3:E170))</f>
         <v/>
       </c>
-      <c r="I170" t="str">
+      <c r="I170" s="7" t="str">
         <f>IF(ISBLANK(D170),"",F170-SUM($H$3:H170))</f>
         <v/>
       </c>
     </row>
     <row r="171" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E171" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F171" t="str">
+      <c r="E171" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F171" s="7" t="str">
         <f>IF(ISBLANK(D171),"",SUM($E$3:E171))</f>
         <v/>
       </c>
-      <c r="I171" t="str">
+      <c r="I171" s="7" t="str">
         <f>IF(ISBLANK(D171),"",F171-SUM($H$3:H171))</f>
         <v/>
       </c>
     </row>
     <row r="172" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E172" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F172" t="str">
+      <c r="E172" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F172" s="7" t="str">
         <f>IF(ISBLANK(D172),"",SUM($E$3:E172))</f>
         <v/>
       </c>
-      <c r="I172" t="str">
+      <c r="I172" s="7" t="str">
         <f>IF(ISBLANK(D172),"",F172-SUM($H$3:H172))</f>
         <v/>
       </c>
     </row>
     <row r="173" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E173" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F173" t="str">
+      <c r="E173" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F173" s="7" t="str">
         <f>IF(ISBLANK(D173),"",SUM($E$3:E173))</f>
         <v/>
       </c>
-      <c r="I173" t="str">
+      <c r="I173" s="7" t="str">
         <f>IF(ISBLANK(D173),"",F173-SUM($H$3:H173))</f>
         <v/>
       </c>
     </row>
     <row r="174" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E174" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F174" t="str">
+      <c r="E174" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F174" s="7" t="str">
         <f>IF(ISBLANK(D174),"",SUM($E$3:E174))</f>
         <v/>
       </c>
-      <c r="I174" t="str">
+      <c r="I174" s="7" t="str">
         <f>IF(ISBLANK(D174),"",F174-SUM($H$3:H174))</f>
         <v/>
       </c>
     </row>
     <row r="175" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E175" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F175" t="str">
+      <c r="E175" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F175" s="7" t="str">
         <f>IF(ISBLANK(D175),"",SUM($E$3:E175))</f>
         <v/>
       </c>
-      <c r="I175" t="str">
+      <c r="I175" s="7" t="str">
         <f>IF(ISBLANK(D175),"",F175-SUM($H$3:H175))</f>
         <v/>
       </c>
     </row>
     <row r="176" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E176" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F176" t="str">
+      <c r="E176" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F176" s="7" t="str">
         <f>IF(ISBLANK(D176),"",SUM($E$3:E176))</f>
         <v/>
       </c>
-      <c r="I176" t="str">
+      <c r="I176" s="7" t="str">
         <f>IF(ISBLANK(D176),"",F176-SUM($H$3:H176))</f>
         <v/>
       </c>
     </row>
     <row r="177" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E177" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F177" t="str">
+      <c r="E177" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F177" s="7" t="str">
         <f>IF(ISBLANK(D177),"",SUM($E$3:E177))</f>
         <v/>
       </c>
-      <c r="I177" t="str">
+      <c r="I177" s="7" t="str">
         <f>IF(ISBLANK(D177),"",F177-SUM($H$3:H177))</f>
         <v/>
       </c>
     </row>
     <row r="178" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E178" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F178" t="str">
+      <c r="E178" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F178" s="7" t="str">
         <f>IF(ISBLANK(D178),"",SUM($E$3:E178))</f>
         <v/>
       </c>
-      <c r="I178" t="str">
+      <c r="I178" s="7" t="str">
         <f>IF(ISBLANK(D178),"",F178-SUM($H$3:H178))</f>
         <v/>
       </c>
     </row>
     <row r="179" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E179" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F179" t="str">
+      <c r="E179" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F179" s="7" t="str">
         <f>IF(ISBLANK(D179),"",SUM($E$3:E179))</f>
         <v/>
       </c>
-      <c r="I179" t="str">
+      <c r="I179" s="7" t="str">
         <f>IF(ISBLANK(D179),"",F179-SUM($H$3:H179))</f>
         <v/>
       </c>
     </row>
     <row r="180" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E180" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F180" t="str">
+      <c r="E180" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F180" s="7" t="str">
         <f>IF(ISBLANK(D180),"",SUM($E$3:E180))</f>
         <v/>
       </c>
-      <c r="I180" t="str">
+      <c r="I180" s="7" t="str">
         <f>IF(ISBLANK(D180),"",F180-SUM($H$3:H180))</f>
         <v/>
       </c>
     </row>
     <row r="181" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E181" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F181" t="str">
+      <c r="E181" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F181" s="7" t="str">
         <f>IF(ISBLANK(D181),"",SUM($E$3:E181))</f>
         <v/>
       </c>
-      <c r="I181" t="str">
+      <c r="I181" s="7" t="str">
         <f>IF(ISBLANK(D181),"",F181-SUM($H$3:H181))</f>
         <v/>
       </c>
     </row>
     <row r="182" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E182" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F182" t="str">
+      <c r="E182" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F182" s="7" t="str">
         <f>IF(ISBLANK(D182),"",SUM($E$3:E182))</f>
         <v/>
       </c>
-      <c r="I182" t="str">
+      <c r="I182" s="7" t="str">
         <f>IF(ISBLANK(D182),"",F182-SUM($H$3:H182))</f>
         <v/>
       </c>
     </row>
     <row r="183" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E183" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F183" t="str">
+      <c r="E183" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F183" s="7" t="str">
         <f>IF(ISBLANK(D183),"",SUM($E$3:E183))</f>
         <v/>
       </c>
-      <c r="I183" t="str">
+      <c r="I183" s="7" t="str">
         <f>IF(ISBLANK(D183),"",F183-SUM($H$3:H183))</f>
         <v/>
       </c>
     </row>
     <row r="184" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E184" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F184" t="str">
+      <c r="E184" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F184" s="7" t="str">
         <f>IF(ISBLANK(D184),"",SUM($E$3:E184))</f>
         <v/>
       </c>
-      <c r="I184" t="str">
+      <c r="I184" s="7" t="str">
         <f>IF(ISBLANK(D184),"",F184-SUM($H$3:H184))</f>
         <v/>
       </c>
     </row>
     <row r="185" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E185" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F185" t="str">
+      <c r="E185" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F185" s="7" t="str">
         <f>IF(ISBLANK(D185),"",SUM($E$3:E185))</f>
         <v/>
       </c>
-      <c r="I185" t="str">
+      <c r="I185" s="7" t="str">
         <f>IF(ISBLANK(D185),"",F185-SUM($H$3:H185))</f>
         <v/>
       </c>
     </row>
     <row r="186" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E186" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F186" t="str">
+      <c r="E186" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F186" s="7" t="str">
         <f>IF(ISBLANK(D186),"",SUM($E$3:E186))</f>
         <v/>
       </c>
-      <c r="I186" t="str">
+      <c r="I186" s="7" t="str">
         <f>IF(ISBLANK(D186),"",F186-SUM($H$3:H186))</f>
         <v/>
       </c>
     </row>
     <row r="187" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E187" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F187" t="str">
+      <c r="E187" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F187" s="7" t="str">
         <f>IF(ISBLANK(D187),"",SUM($E$3:E187))</f>
         <v/>
       </c>
-      <c r="I187" t="str">
+      <c r="I187" s="7" t="str">
         <f>IF(ISBLANK(D187),"",F187-SUM($H$3:H187))</f>
         <v/>
       </c>
     </row>
     <row r="188" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E188" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F188" t="str">
+      <c r="E188" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F188" s="7" t="str">
         <f>IF(ISBLANK(D188),"",SUM($E$3:E188))</f>
         <v/>
       </c>
-      <c r="I188" t="str">
+      <c r="I188" s="7" t="str">
         <f>IF(ISBLANK(D188),"",F188-SUM($H$3:H188))</f>
         <v/>
       </c>
     </row>
     <row r="189" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E189" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F189" t="str">
+      <c r="E189" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F189" s="7" t="str">
         <f>IF(ISBLANK(D189),"",SUM($E$3:E189))</f>
         <v/>
       </c>
-      <c r="I189" t="str">
+      <c r="I189" s="7" t="str">
         <f>IF(ISBLANK(D189),"",F189-SUM($H$3:H189))</f>
         <v/>
       </c>
     </row>
     <row r="190" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E190" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F190" t="str">
+      <c r="E190" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F190" s="7" t="str">
         <f>IF(ISBLANK(D190),"",SUM($E$3:E190))</f>
         <v/>
       </c>
-      <c r="I190" t="str">
+      <c r="I190" s="7" t="str">
         <f>IF(ISBLANK(D190),"",F190-SUM($H$3:H190))</f>
         <v/>
       </c>
     </row>
     <row r="191" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E191" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F191" t="str">
+      <c r="E191" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F191" s="7" t="str">
         <f>IF(ISBLANK(D191),"",SUM($E$3:E191))</f>
         <v/>
       </c>
-      <c r="I191" t="str">
+      <c r="I191" s="7" t="str">
         <f>IF(ISBLANK(D191),"",F191-SUM($H$3:H191))</f>
         <v/>
       </c>
     </row>
     <row r="192" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E192" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F192" t="str">
+      <c r="E192" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F192" s="7" t="str">
         <f>IF(ISBLANK(D192),"",SUM($E$3:E192))</f>
         <v/>
       </c>
-      <c r="I192" t="str">
+      <c r="I192" s="7" t="str">
         <f>IF(ISBLANK(D192),"",F192-SUM($H$3:H192))</f>
         <v/>
       </c>
     </row>
     <row r="193" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E193" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F193" t="str">
+      <c r="E193" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F193" s="7" t="str">
         <f>IF(ISBLANK(D193),"",SUM($E$3:E193))</f>
         <v/>
       </c>
-      <c r="I193" t="str">
+      <c r="I193" s="7" t="str">
         <f>IF(ISBLANK(D193),"",F193-SUM($H$3:H193))</f>
         <v/>
       </c>
     </row>
     <row r="194" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E194" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F194" t="str">
+      <c r="E194" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F194" s="7" t="str">
         <f>IF(ISBLANK(D194),"",SUM($E$3:E194))</f>
         <v/>
       </c>
-      <c r="I194" t="str">
+      <c r="I194" s="7" t="str">
         <f>IF(ISBLANK(D194),"",F194-SUM($H$3:H194))</f>
         <v/>
       </c>
     </row>
     <row r="195" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E195" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F195" t="str">
+      <c r="E195" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F195" s="7" t="str">
         <f>IF(ISBLANK(D195),"",SUM($E$3:E195))</f>
         <v/>
       </c>
-      <c r="I195" t="str">
+      <c r="I195" s="7" t="str">
         <f>IF(ISBLANK(D195),"",F195-SUM($H$3:H195))</f>
         <v/>
       </c>
     </row>
     <row r="196" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E196" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F196" t="str">
+      <c r="E196" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F196" s="7" t="str">
         <f>IF(ISBLANK(D196),"",SUM($E$3:E196))</f>
         <v/>
       </c>
-      <c r="I196" t="str">
+      <c r="I196" s="7" t="str">
         <f>IF(ISBLANK(D196),"",F196-SUM($H$3:H196))</f>
         <v/>
       </c>
     </row>
     <row r="197" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E197" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F197" t="str">
+      <c r="E197" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F197" s="7" t="str">
         <f>IF(ISBLANK(D197),"",SUM($E$3:E197))</f>
         <v/>
       </c>
-      <c r="I197" t="str">
+      <c r="I197" s="7" t="str">
         <f>IF(ISBLANK(D197),"",F197-SUM($H$3:H197))</f>
         <v/>
       </c>
     </row>
     <row r="198" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E198" t="str">
+      <c r="E198" s="6" t="str">
         <f t="shared" ref="E198:E253" si="4">IF(ISBLANK(D198),"",D198*600)</f>
         <v/>
       </c>
-      <c r="F198" t="str">
+      <c r="F198" s="7" t="str">
         <f>IF(ISBLANK(D198),"",SUM($E$3:E198))</f>
         <v/>
       </c>
-      <c r="I198" t="str">
+      <c r="I198" s="7" t="str">
         <f>IF(ISBLANK(D198),"",F198-SUM($H$3:H198))</f>
         <v/>
       </c>
     </row>
     <row r="199" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E199" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F199" t="str">
+      <c r="E199" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F199" s="7" t="str">
         <f>IF(ISBLANK(D199),"",SUM($E$3:E199))</f>
         <v/>
       </c>
-      <c r="I199" t="str">
+      <c r="I199" s="7" t="str">
         <f>IF(ISBLANK(D199),"",F199-SUM($H$3:H199))</f>
         <v/>
       </c>
     </row>
     <row r="200" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E200" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F200" t="str">
+      <c r="E200" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F200" s="7" t="str">
         <f>IF(ISBLANK(D200),"",SUM($E$3:E200))</f>
         <v/>
       </c>
-      <c r="I200" t="str">
+      <c r="I200" s="7" t="str">
         <f>IF(ISBLANK(D200),"",F200-SUM($H$3:H200))</f>
         <v/>
       </c>
     </row>
     <row r="201" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E201" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F201" t="str">
+      <c r="E201" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F201" s="7" t="str">
         <f>IF(ISBLANK(D201),"",SUM($E$3:E201))</f>
         <v/>
       </c>
-      <c r="I201" t="str">
+      <c r="I201" s="7" t="str">
         <f>IF(ISBLANK(D201),"",F201-SUM($H$3:H201))</f>
         <v/>
       </c>
     </row>
     <row r="202" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E202" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F202" t="str">
+      <c r="E202" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F202" s="7" t="str">
         <f>IF(ISBLANK(D202),"",SUM($E$3:E202))</f>
         <v/>
       </c>
-      <c r="I202" t="str">
+      <c r="I202" s="7" t="str">
         <f>IF(ISBLANK(D202),"",F202-SUM($H$3:H202))</f>
         <v/>
       </c>
     </row>
     <row r="203" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E203" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F203" t="str">
+      <c r="E203" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F203" s="7" t="str">
         <f>IF(ISBLANK(D203),"",SUM($E$3:E203))</f>
         <v/>
       </c>
-      <c r="I203" t="str">
+      <c r="I203" s="7" t="str">
         <f>IF(ISBLANK(D203),"",F203-SUM($H$3:H203))</f>
         <v/>
       </c>
     </row>
     <row r="204" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E204" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F204" t="str">
+      <c r="E204" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F204" s="7" t="str">
         <f>IF(ISBLANK(D204),"",SUM($E$3:E204))</f>
         <v/>
       </c>
-      <c r="I204" t="str">
+      <c r="I204" s="7" t="str">
         <f>IF(ISBLANK(D204),"",F204-SUM($H$3:H204))</f>
         <v/>
       </c>
     </row>
     <row r="205" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E205" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F205" t="str">
+      <c r="E205" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F205" s="7" t="str">
         <f>IF(ISBLANK(D205),"",SUM($E$3:E205))</f>
         <v/>
       </c>
-      <c r="I205" t="str">
+      <c r="I205" s="7" t="str">
         <f>IF(ISBLANK(D205),"",F205-SUM($H$3:H205))</f>
         <v/>
       </c>
     </row>
     <row r="206" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E206" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F206" t="str">
+      <c r="E206" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F206" s="7" t="str">
         <f>IF(ISBLANK(D206),"",SUM($E$3:E206))</f>
         <v/>
       </c>
-      <c r="I206" t="str">
+      <c r="I206" s="7" t="str">
         <f>IF(ISBLANK(D206),"",F206-SUM($H$3:H206))</f>
         <v/>
       </c>
     </row>
     <row r="207" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E207" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F207" t="str">
+      <c r="E207" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F207" s="7" t="str">
         <f>IF(ISBLANK(D207),"",SUM($E$3:E207))</f>
         <v/>
       </c>
-      <c r="I207" t="str">
+      <c r="I207" s="7" t="str">
         <f>IF(ISBLANK(D207),"",F207-SUM($H$3:H207))</f>
         <v/>
       </c>
     </row>
     <row r="208" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E208" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F208" t="str">
+      <c r="E208" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F208" s="7" t="str">
         <f>IF(ISBLANK(D208),"",SUM($E$3:E208))</f>
         <v/>
       </c>
-      <c r="I208" t="str">
+      <c r="I208" s="7" t="str">
         <f>IF(ISBLANK(D208),"",F208-SUM($H$3:H208))</f>
         <v/>
       </c>
     </row>
     <row r="209" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E209" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F209" t="str">
+      <c r="E209" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F209" s="7" t="str">
         <f>IF(ISBLANK(D209),"",SUM($E$3:E209))</f>
         <v/>
       </c>
-      <c r="I209" t="str">
+      <c r="I209" s="7" t="str">
         <f>IF(ISBLANK(D209),"",F209-SUM($H$3:H209))</f>
         <v/>
       </c>
     </row>
     <row r="210" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E210" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F210" t="str">
+      <c r="E210" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F210" s="7" t="str">
         <f>IF(ISBLANK(D210),"",SUM($E$3:E210))</f>
         <v/>
       </c>
-      <c r="I210" t="str">
+      <c r="I210" s="7" t="str">
         <f>IF(ISBLANK(D210),"",F210-SUM($H$3:H210))</f>
         <v/>
       </c>
     </row>
     <row r="211" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E211" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F211" t="str">
+      <c r="E211" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F211" s="7" t="str">
         <f>IF(ISBLANK(D211),"",SUM($E$3:E211))</f>
         <v/>
       </c>
-      <c r="I211" t="str">
+      <c r="I211" s="7" t="str">
         <f>IF(ISBLANK(D211),"",F211-SUM($H$3:H211))</f>
         <v/>
       </c>
     </row>
     <row r="212" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E212" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F212" t="str">
+      <c r="E212" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F212" s="7" t="str">
         <f>IF(ISBLANK(D212),"",SUM($E$3:E212))</f>
         <v/>
       </c>
-      <c r="I212" t="str">
+      <c r="I212" s="7" t="str">
         <f>IF(ISBLANK(D212),"",F212-SUM($H$3:H212))</f>
         <v/>
       </c>
     </row>
     <row r="213" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E213" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F213" t="str">
+      <c r="E213" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F213" s="7" t="str">
         <f>IF(ISBLANK(D213),"",SUM($E$3:E213))</f>
         <v/>
       </c>
-      <c r="I213" t="str">
+      <c r="I213" s="7" t="str">
         <f>IF(ISBLANK(D213),"",F213-SUM($H$3:H213))</f>
         <v/>
       </c>
     </row>
     <row r="214" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E214" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F214" t="str">
+      <c r="E214" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F214" s="7" t="str">
         <f>IF(ISBLANK(D214),"",SUM($E$3:E214))</f>
         <v/>
       </c>
-      <c r="I214" t="str">
+      <c r="I214" s="7" t="str">
         <f>IF(ISBLANK(D214),"",F214-SUM($H$3:H214))</f>
         <v/>
       </c>
     </row>
     <row r="215" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E215" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F215" t="str">
+      <c r="E215" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F215" s="7" t="str">
         <f>IF(ISBLANK(D215),"",SUM($E$3:E215))</f>
         <v/>
       </c>
-      <c r="I215" t="str">
+      <c r="I215" s="7" t="str">
         <f>IF(ISBLANK(D215),"",F215-SUM($H$3:H215))</f>
         <v/>
       </c>
     </row>
     <row r="216" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E216" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F216" t="str">
+      <c r="E216" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F216" s="7" t="str">
         <f>IF(ISBLANK(D216),"",SUM($E$3:E216))</f>
         <v/>
       </c>
-      <c r="I216" t="str">
+      <c r="I216" s="7" t="str">
         <f>IF(ISBLANK(D216),"",F216-SUM($H$3:H216))</f>
         <v/>
       </c>
     </row>
     <row r="217" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E217" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F217" t="str">
+      <c r="E217" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F217" s="7" t="str">
         <f>IF(ISBLANK(D217),"",SUM($E$3:E217))</f>
         <v/>
       </c>
-      <c r="I217" t="str">
+      <c r="I217" s="7" t="str">
         <f>IF(ISBLANK(D217),"",F217-SUM($H$3:H217))</f>
         <v/>
       </c>
     </row>
     <row r="218" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E218" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F218" t="str">
+      <c r="E218" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F218" s="7" t="str">
         <f>IF(ISBLANK(D218),"",SUM($E$3:E218))</f>
         <v/>
       </c>
-      <c r="I218" t="str">
+      <c r="I218" s="7" t="str">
         <f>IF(ISBLANK(D218),"",F218-SUM($H$3:H218))</f>
         <v/>
       </c>
     </row>
     <row r="219" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E219" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F219" t="str">
+      <c r="E219" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F219" s="7" t="str">
         <f>IF(ISBLANK(D219),"",SUM($E$3:E219))</f>
         <v/>
       </c>
-      <c r="I219" t="str">
+      <c r="I219" s="7" t="str">
         <f>IF(ISBLANK(D219),"",F219-SUM($H$3:H219))</f>
         <v/>
       </c>
     </row>
     <row r="220" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E220" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F220" t="str">
+      <c r="E220" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F220" s="7" t="str">
         <f>IF(ISBLANK(D220),"",SUM($E$3:E220))</f>
         <v/>
       </c>
-      <c r="I220" t="str">
+      <c r="I220" s="7" t="str">
         <f>IF(ISBLANK(D220),"",F220-SUM($H$3:H220))</f>
         <v/>
       </c>
     </row>
     <row r="221" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E221" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F221" t="str">
+      <c r="E221" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F221" s="7" t="str">
         <f>IF(ISBLANK(D221),"",SUM($E$3:E221))</f>
         <v/>
       </c>
-      <c r="I221" t="str">
+      <c r="I221" s="7" t="str">
         <f>IF(ISBLANK(D221),"",F221-SUM($H$3:H221))</f>
         <v/>
       </c>
     </row>
     <row r="222" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E222" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F222" t="str">
+      <c r="E222" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F222" s="7" t="str">
         <f>IF(ISBLANK(D222),"",SUM($E$3:E222))</f>
         <v/>
       </c>
-      <c r="I222" t="str">
+      <c r="I222" s="7" t="str">
         <f>IF(ISBLANK(D222),"",F222-SUM($H$3:H222))</f>
         <v/>
       </c>
     </row>
     <row r="223" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E223" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F223" t="str">
+      <c r="E223" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F223" s="7" t="str">
         <f>IF(ISBLANK(D223),"",SUM($E$3:E223))</f>
         <v/>
       </c>
-      <c r="I223" t="str">
+      <c r="I223" s="7" t="str">
         <f>IF(ISBLANK(D223),"",F223-SUM($H$3:H223))</f>
         <v/>
       </c>
     </row>
     <row r="224" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E224" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F224" t="str">
+      <c r="E224" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F224" s="7" t="str">
         <f>IF(ISBLANK(D224),"",SUM($E$3:E224))</f>
         <v/>
       </c>
-      <c r="I224" t="str">
+      <c r="I224" s="7" t="str">
         <f>IF(ISBLANK(D224),"",F224-SUM($H$3:H224))</f>
         <v/>
       </c>
     </row>
     <row r="225" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E225" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F225" t="str">
+      <c r="E225" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F225" s="7" t="str">
         <f>IF(ISBLANK(D225),"",SUM($E$3:E225))</f>
         <v/>
       </c>
-      <c r="I225" t="str">
+      <c r="I225" s="7" t="str">
         <f>IF(ISBLANK(D225),"",F225-SUM($H$3:H225))</f>
         <v/>
       </c>
     </row>
     <row r="226" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E226" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F226" t="str">
+      <c r="E226" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F226" s="7" t="str">
         <f>IF(ISBLANK(D226),"",SUM($E$3:E226))</f>
         <v/>
       </c>
-      <c r="I226" t="str">
+      <c r="I226" s="7" t="str">
         <f>IF(ISBLANK(D226),"",F226-SUM($H$3:H226))</f>
         <v/>
       </c>
     </row>
     <row r="227" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E227" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F227" t="str">
+      <c r="E227" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F227" s="7" t="str">
         <f>IF(ISBLANK(D227),"",SUM($E$3:E227))</f>
         <v/>
       </c>
-      <c r="I227" t="str">
+      <c r="I227" s="7" t="str">
         <f>IF(ISBLANK(D227),"",F227-SUM($H$3:H227))</f>
         <v/>
       </c>
     </row>
     <row r="228" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E228" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F228" t="str">
+      <c r="E228" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F228" s="7" t="str">
         <f>IF(ISBLANK(D228),"",SUM($E$3:E228))</f>
         <v/>
       </c>
-      <c r="I228" t="str">
+      <c r="I228" s="7" t="str">
         <f>IF(ISBLANK(D228),"",F228-SUM($H$3:H228))</f>
         <v/>
       </c>
     </row>
     <row r="229" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E229" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F229" t="str">
+      <c r="E229" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F229" s="7" t="str">
         <f>IF(ISBLANK(D229),"",SUM($E$3:E229))</f>
         <v/>
       </c>
-      <c r="I229" t="str">
+      <c r="I229" s="7" t="str">
         <f>IF(ISBLANK(D229),"",F229-SUM($H$3:H229))</f>
         <v/>
       </c>
     </row>
     <row r="230" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E230" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F230" t="str">
+      <c r="E230" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F230" s="7" t="str">
         <f>IF(ISBLANK(D230),"",SUM($E$3:E230))</f>
         <v/>
       </c>
-      <c r="I230" t="str">
+      <c r="I230" s="7" t="str">
         <f>IF(ISBLANK(D230),"",F230-SUM($H$3:H230))</f>
         <v/>
       </c>
     </row>
     <row r="231" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E231" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F231" t="str">
+      <c r="E231" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F231" s="7" t="str">
         <f>IF(ISBLANK(D231),"",SUM($E$3:E231))</f>
         <v/>
       </c>
-      <c r="I231" t="str">
+      <c r="I231" s="7" t="str">
         <f>IF(ISBLANK(D231),"",F231-SUM($H$3:H231))</f>
         <v/>
       </c>
     </row>
     <row r="232" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E232" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F232" t="str">
+      <c r="E232" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F232" s="7" t="str">
         <f>IF(ISBLANK(D232),"",SUM($E$3:E232))</f>
         <v/>
       </c>
-      <c r="I232" t="str">
+      <c r="I232" s="7" t="str">
         <f>IF(ISBLANK(D232),"",F232-SUM($H$3:H232))</f>
         <v/>
       </c>
     </row>
     <row r="233" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E233" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F233" t="str">
+      <c r="E233" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F233" s="7" t="str">
         <f>IF(ISBLANK(D233),"",SUM($E$3:E233))</f>
         <v/>
       </c>
-      <c r="I233" t="str">
+      <c r="I233" s="7" t="str">
         <f>IF(ISBLANK(D233),"",F233-SUM($H$3:H233))</f>
         <v/>
       </c>
     </row>
     <row r="234" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E234" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F234" t="str">
+      <c r="E234" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F234" s="7" t="str">
         <f>IF(ISBLANK(D234),"",SUM($E$3:E234))</f>
         <v/>
       </c>
-      <c r="I234" t="str">
+      <c r="I234" s="7" t="str">
         <f>IF(ISBLANK(D234),"",F234-SUM($H$3:H234))</f>
         <v/>
       </c>
     </row>
     <row r="235" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E235" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F235" t="str">
+      <c r="E235" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F235" s="7" t="str">
         <f>IF(ISBLANK(D235),"",SUM($E$3:E235))</f>
         <v/>
       </c>
-      <c r="I235" t="str">
+      <c r="I235" s="7" t="str">
         <f>IF(ISBLANK(D235),"",F235-SUM($H$3:H235))</f>
         <v/>
       </c>
     </row>
     <row r="236" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E236" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F236" t="str">
+      <c r="E236" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F236" s="7" t="str">
         <f>IF(ISBLANK(D236),"",SUM($E$3:E236))</f>
         <v/>
       </c>
-      <c r="I236" t="str">
+      <c r="I236" s="7" t="str">
         <f>IF(ISBLANK(D236),"",F236-SUM($H$3:H236))</f>
         <v/>
       </c>
     </row>
     <row r="237" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E237" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F237" t="str">
+      <c r="E237" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F237" s="7" t="str">
         <f>IF(ISBLANK(D237),"",SUM($E$3:E237))</f>
         <v/>
       </c>
-      <c r="I237" t="str">
+      <c r="I237" s="7" t="str">
         <f>IF(ISBLANK(D237),"",F237-SUM($H$3:H237))</f>
         <v/>
       </c>
     </row>
     <row r="238" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E238" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F238" t="str">
+      <c r="E238" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F238" s="7" t="str">
         <f>IF(ISBLANK(D238),"",SUM($E$3:E238))</f>
         <v/>
       </c>
-      <c r="I238" t="str">
+      <c r="I238" s="7" t="str">
         <f>IF(ISBLANK(D238),"",F238-SUM($H$3:H238))</f>
         <v/>
       </c>
     </row>
     <row r="239" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E239" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F239" t="str">
+      <c r="E239" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F239" s="7" t="str">
         <f>IF(ISBLANK(D239),"",SUM($E$3:E239))</f>
         <v/>
       </c>
-      <c r="I239" t="str">
+      <c r="I239" s="7" t="str">
         <f>IF(ISBLANK(D239),"",F239-SUM($H$3:H239))</f>
         <v/>
       </c>
     </row>
     <row r="240" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E240" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F240" t="str">
+      <c r="E240" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F240" s="7" t="str">
         <f>IF(ISBLANK(D240),"",SUM($E$3:E240))</f>
         <v/>
       </c>
-      <c r="I240" t="str">
+      <c r="I240" s="7" t="str">
         <f>IF(ISBLANK(D240),"",F240-SUM($H$3:H240))</f>
         <v/>
       </c>
     </row>
     <row r="241" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E241" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F241" t="str">
+      <c r="E241" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F241" s="7" t="str">
         <f>IF(ISBLANK(D241),"",SUM($E$3:E241))</f>
         <v/>
       </c>
-      <c r="I241" t="str">
+      <c r="I241" s="7" t="str">
         <f>IF(ISBLANK(D241),"",F241-SUM($H$3:H241))</f>
         <v/>
       </c>
     </row>
     <row r="242" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E242" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F242" t="str">
+      <c r="E242" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F242" s="7" t="str">
         <f>IF(ISBLANK(D242),"",SUM($E$3:E242))</f>
         <v/>
       </c>
-      <c r="I242" t="str">
+      <c r="I242" s="7" t="str">
         <f>IF(ISBLANK(D242),"",F242-SUM($H$3:H242))</f>
         <v/>
       </c>
     </row>
     <row r="243" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E243" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F243" t="str">
+      <c r="E243" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F243" s="7" t="str">
         <f>IF(ISBLANK(D243),"",SUM($E$3:E243))</f>
         <v/>
       </c>
-      <c r="I243" t="str">
+      <c r="I243" s="7" t="str">
         <f>IF(ISBLANK(D243),"",F243-SUM($H$3:H243))</f>
         <v/>
       </c>
     </row>
     <row r="244" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E244" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F244" t="str">
+      <c r="E244" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F244" s="7" t="str">
         <f>IF(ISBLANK(D244),"",SUM($E$3:E244))</f>
         <v/>
       </c>
-      <c r="I244" t="str">
+      <c r="I244" s="7" t="str">
         <f>IF(ISBLANK(D244),"",F244-SUM($H$3:H244))</f>
         <v/>
       </c>
     </row>
     <row r="245" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E245" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F245" t="str">
+      <c r="E245" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F245" s="7" t="str">
         <f>IF(ISBLANK(D245),"",SUM($E$3:E245))</f>
         <v/>
       </c>
-      <c r="I245" t="str">
+      <c r="I245" s="7" t="str">
         <f>IF(ISBLANK(D245),"",F245-SUM($H$3:H245))</f>
         <v/>
       </c>
     </row>
     <row r="246" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E246" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F246" t="str">
+      <c r="E246" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F246" s="7" t="str">
         <f>IF(ISBLANK(D246),"",SUM($E$3:E246))</f>
         <v/>
       </c>
-      <c r="I246" t="str">
+      <c r="I246" s="7" t="str">
         <f>IF(ISBLANK(D246),"",F246-SUM($H$3:H246))</f>
         <v/>
       </c>
     </row>
     <row r="247" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E247" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F247" t="str">
+      <c r="E247" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F247" s="7" t="str">
         <f>IF(ISBLANK(D247),"",SUM($E$3:E247))</f>
         <v/>
       </c>
-      <c r="I247" t="str">
+      <c r="I247" s="7" t="str">
         <f>IF(ISBLANK(D247),"",F247-SUM($H$3:H247))</f>
         <v/>
       </c>
     </row>
     <row r="248" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E248" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F248" t="str">
+      <c r="E248" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F248" s="7" t="str">
         <f>IF(ISBLANK(D248),"",SUM($E$3:E248))</f>
         <v/>
       </c>
-      <c r="I248" t="str">
+      <c r="I248" s="7" t="str">
         <f>IF(ISBLANK(D248),"",F248-SUM($H$3:H248))</f>
         <v/>
       </c>
     </row>
     <row r="249" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E249" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F249" t="str">
+      <c r="E249" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F249" s="7" t="str">
         <f>IF(ISBLANK(D249),"",SUM($E$3:E249))</f>
         <v/>
       </c>
-      <c r="I249" t="str">
+      <c r="I249" s="7" t="str">
         <f>IF(ISBLANK(D249),"",F249-SUM($H$3:H249))</f>
         <v/>
       </c>
     </row>
     <row r="250" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E250" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F250" t="str">
+      <c r="E250" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F250" s="7" t="str">
         <f>IF(ISBLANK(D250),"",SUM($E$3:E250))</f>
         <v/>
       </c>
-      <c r="I250" t="str">
+      <c r="I250" s="7" t="str">
         <f>IF(ISBLANK(D250),"",F250-SUM($H$3:H250))</f>
         <v/>
       </c>
     </row>
     <row r="251" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E251" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F251" t="str">
+      <c r="E251" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F251" s="7" t="str">
         <f>IF(ISBLANK(D251),"",SUM($E$3:E251))</f>
         <v/>
       </c>
-      <c r="I251" t="str">
+      <c r="I251" s="7" t="str">
         <f>IF(ISBLANK(D251),"",F251-SUM($H$3:H251))</f>
         <v/>
       </c>
     </row>
     <row r="252" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E252" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F252" t="str">
+      <c r="E252" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F252" s="7" t="str">
         <f>IF(ISBLANK(D252),"",SUM($E$3:E252))</f>
         <v/>
       </c>
-      <c r="I252" t="str">
+      <c r="I252" s="7" t="str">
         <f>IF(ISBLANK(D252),"",F252-SUM($H$3:H252))</f>
         <v/>
       </c>
     </row>
     <row r="253" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E253" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F253" t="str">
+      <c r="E253" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F253" s="7" t="str">
         <f>IF(ISBLANK(D253),"",SUM($E$3:E253))</f>
         <v/>
       </c>
-      <c r="I253" t="str">
+      <c r="I253" s="7" t="str">
         <f>IF(ISBLANK(D253),"",F253-SUM($H$3:H253))</f>
         <v/>
       </c>

--- a/Doc/Взаиморасчеты.xlsx
+++ b/Doc/Взаиморасчеты.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>№</t>
   </si>
@@ -64,6 +64,27 @@
   </si>
   <si>
     <t>Остаток, руб</t>
+  </si>
+  <si>
+    <t>Добавить столбец Сумма в Реестр заявок</t>
+  </si>
+  <si>
+    <t>1.19.2</t>
+  </si>
+  <si>
+    <t>Добавить столбец Заказчик в Реестр заявок</t>
+  </si>
+  <si>
+    <t>Добавить фильтр по Заказчику в Реестр заявок</t>
+  </si>
+  <si>
+    <t>Добавить вывод итоговой суммы по заявкам в производстве на заданный период в Реестре заявок</t>
+  </si>
+  <si>
+    <t>Количество изготовленных деталей (на складе) в заявке</t>
+  </si>
+  <si>
+    <t>При сохранении заявки привязывать к ней партии в наличии</t>
   </si>
 </sst>
 </file>
@@ -149,8 +170,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -163,10 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -471,3700 +493,3754 @@
   <dimension ref="A1:I253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="75.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6"/>
-    <col min="4" max="4" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="2">
         <v>5</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="2">
         <f t="shared" ref="E3:E4" si="0">IF(ISBLANK(D3),"",D3*600)</f>
         <v>3000</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="3">
         <f>IF(ISBLANK(D3),"",SUM($E$3:E3))</f>
         <v>3000</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="4">
         <v>42394</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="2">
         <v>15000</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="3">
         <f>IF(ISBLANK(D3),"",F3-SUM($H$3:H3))</f>
         <v>-12000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="3">
         <f>IF(ISBLANK(D4),"",SUM($E$3:E4))</f>
         <v>4800</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="I4" s="7">
+      <c r="G4" s="4"/>
+      <c r="I4" s="3">
         <f>IF(ISBLANK(D4),"",F4-SUM($H$3:H4))</f>
         <v>-10200</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="2">
         <f>IF(ISBLANK(D5),"",D5*600)</f>
         <v>1800</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="3">
         <f>IF(ISBLANK(D5),"",SUM($E$3:E5))</f>
         <v>6600</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="3">
         <f>IF(ISBLANK(D5),"",F5-SUM($H$3:H5))</f>
         <v>-8400</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="2">
         <v>6</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="2">
         <f t="shared" ref="E6:E69" si="1">IF(ISBLANK(D6),"",D6*600)</f>
         <v>3600</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="3">
         <f>IF(ISBLANK(D6),"",SUM($E$3:E6))</f>
         <v>10200</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="3">
         <f>IF(ISBLANK(D6),"",F6-SUM($H$3:H6))</f>
         <v>-4800</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>3600</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="3">
         <f>IF(ISBLANK(D7),"",SUM($E$3:E7))</f>
         <v>13800</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="3">
         <f>IF(ISBLANK(D7),"",F7-SUM($H$3:H7))</f>
         <v>-1200</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="E8" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F8" s="7" t="str">
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="F8" s="3">
         <f>IF(ISBLANK(D8),"",SUM($E$3:E8))</f>
-        <v/>
-      </c>
-      <c r="I8" s="7" t="str">
+        <v>14100</v>
+      </c>
+      <c r="I8" s="3">
         <f>IF(ISBLANK(D8),"",F8-SUM($H$3:H8))</f>
-        <v/>
+        <v>-900</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="E9" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F9" s="7" t="str">
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
         <f>IF(ISBLANK(D9),"",SUM($E$3:E9))</f>
-        <v/>
-      </c>
-      <c r="I9" s="7" t="str">
+        <v>14400</v>
+      </c>
+      <c r="I9" s="3">
         <f>IF(ISBLANK(D9),"",F9-SUM($H$3:H9))</f>
-        <v/>
+        <v>-600</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="E10" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F10" s="7" t="str">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="F10" s="3">
         <f>IF(ISBLANK(D10),"",SUM($E$3:E10))</f>
-        <v/>
-      </c>
-      <c r="I10" s="7" t="str">
+        <v>15600</v>
+      </c>
+      <c r="I10" s="3">
         <f>IF(ISBLANK(D10),"",F10-SUM($H$3:H10))</f>
-        <v/>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="E11" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F11" s="7" t="str">
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="F11" s="3">
         <f>IF(ISBLANK(D11),"",SUM($E$3:E11))</f>
-        <v/>
-      </c>
-      <c r="I11" s="7" t="str">
+        <v>16800</v>
+      </c>
+      <c r="I11" s="3">
         <f>IF(ISBLANK(D11),"",F11-SUM($H$3:H11))</f>
-        <v/>
+        <v>1800</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="E12" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F12" s="7" t="str">
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="9">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+      <c r="F12" s="3">
         <f>IF(ISBLANK(D12),"",SUM($E$3:E12))</f>
-        <v/>
-      </c>
-      <c r="I12" s="7" t="str">
+        <v>20400</v>
+      </c>
+      <c r="I12" s="3">
         <f>IF(ISBLANK(D12),"",F12-SUM($H$3:H12))</f>
-        <v/>
+        <v>5400</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="E13" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F13" s="7" t="str">
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="9">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+      <c r="F13" s="3">
         <f>IF(ISBLANK(D13),"",SUM($E$3:E13))</f>
-        <v/>
-      </c>
-      <c r="I13" s="7" t="str">
+        <v>22800</v>
+      </c>
+      <c r="I13" s="3">
         <f>IF(ISBLANK(D13),"",F13-SUM($H$3:H13))</f>
-        <v/>
+        <v>7800</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="E14" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F14" s="7" t="str">
+      <c r="E14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F14" s="3" t="str">
         <f>IF(ISBLANK(D14),"",SUM($E$3:E14))</f>
         <v/>
       </c>
-      <c r="I14" s="7" t="str">
+      <c r="I14" s="3" t="str">
         <f>IF(ISBLANK(D14),"",F14-SUM($H$3:H14))</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="E15" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F15" s="7" t="str">
+      <c r="E15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F15" s="3" t="str">
         <f>IF(ISBLANK(D15),"",SUM($E$3:E15))</f>
         <v/>
       </c>
-      <c r="I15" s="7" t="str">
+      <c r="I15" s="3" t="str">
         <f>IF(ISBLANK(D15),"",F15-SUM($H$3:H15))</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="E16" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F16" s="7" t="str">
+      <c r="E16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F16" s="3" t="str">
         <f>IF(ISBLANK(D16),"",SUM($E$3:E16))</f>
         <v/>
       </c>
-      <c r="I16" s="7" t="str">
+      <c r="I16" s="3" t="str">
         <f>IF(ISBLANK(D16),"",F16-SUM($H$3:H16))</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="E17" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F17" s="7" t="str">
+      <c r="E17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F17" s="3" t="str">
         <f>IF(ISBLANK(D17),"",SUM($E$3:E17))</f>
         <v/>
       </c>
-      <c r="I17" s="7" t="str">
+      <c r="I17" s="3" t="str">
         <f>IF(ISBLANK(D17),"",F17-SUM($H$3:H17))</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="E18" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F18" s="7" t="str">
+      <c r="E18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F18" s="3" t="str">
         <f>IF(ISBLANK(D18),"",SUM($E$3:E18))</f>
         <v/>
       </c>
-      <c r="I18" s="7" t="str">
+      <c r="I18" s="3" t="str">
         <f>IF(ISBLANK(D18),"",F18-SUM($H$3:H18))</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="E19" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F19" s="7" t="str">
+      <c r="E19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F19" s="3" t="str">
         <f>IF(ISBLANK(D19),"",SUM($E$3:E19))</f>
         <v/>
       </c>
-      <c r="I19" s="7" t="str">
+      <c r="I19" s="3" t="str">
         <f>IF(ISBLANK(D19),"",F19-SUM($H$3:H19))</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="E20" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F20" s="7" t="str">
+      <c r="E20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F20" s="3" t="str">
         <f>IF(ISBLANK(D20),"",SUM($E$3:E20))</f>
         <v/>
       </c>
-      <c r="I20" s="7" t="str">
+      <c r="I20" s="3" t="str">
         <f>IF(ISBLANK(D20),"",F20-SUM($H$3:H20))</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="E21" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F21" s="7" t="str">
+      <c r="E21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F21" s="3" t="str">
         <f>IF(ISBLANK(D21),"",SUM($E$3:E21))</f>
         <v/>
       </c>
-      <c r="I21" s="7" t="str">
+      <c r="I21" s="3" t="str">
         <f>IF(ISBLANK(D21),"",F21-SUM($H$3:H21))</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="E22" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F22" s="7" t="str">
+      <c r="E22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F22" s="3" t="str">
         <f>IF(ISBLANK(D22),"",SUM($E$3:E22))</f>
         <v/>
       </c>
-      <c r="I22" s="7" t="str">
+      <c r="I22" s="3" t="str">
         <f>IF(ISBLANK(D22),"",F22-SUM($H$3:H22))</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="E23" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F23" s="7" t="str">
+      <c r="E23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F23" s="3" t="str">
         <f>IF(ISBLANK(D23),"",SUM($E$3:E23))</f>
         <v/>
       </c>
-      <c r="I23" s="7" t="str">
+      <c r="I23" s="3" t="str">
         <f>IF(ISBLANK(D23),"",F23-SUM($H$3:H23))</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="E24" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F24" s="7" t="str">
+      <c r="E24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F24" s="3" t="str">
         <f>IF(ISBLANK(D24),"",SUM($E$3:E24))</f>
         <v/>
       </c>
-      <c r="I24" s="7" t="str">
+      <c r="I24" s="3" t="str">
         <f>IF(ISBLANK(D24),"",F24-SUM($H$3:H24))</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="E25" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F25" s="7" t="str">
+      <c r="E25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F25" s="3" t="str">
         <f>IF(ISBLANK(D25),"",SUM($E$3:E25))</f>
         <v/>
       </c>
-      <c r="I25" s="7" t="str">
+      <c r="I25" s="3" t="str">
         <f>IF(ISBLANK(D25),"",F25-SUM($H$3:H25))</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="E26" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F26" s="7" t="str">
+      <c r="E26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F26" s="3" t="str">
         <f>IF(ISBLANK(D26),"",SUM($E$3:E26))</f>
         <v/>
       </c>
-      <c r="I26" s="7" t="str">
+      <c r="I26" s="3" t="str">
         <f>IF(ISBLANK(D26),"",F26-SUM($H$3:H26))</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E27" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F27" s="7" t="str">
+      <c r="E27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F27" s="3" t="str">
         <f>IF(ISBLANK(D27),"",SUM($E$3:E27))</f>
         <v/>
       </c>
-      <c r="I27" s="7" t="str">
+      <c r="I27" s="3" t="str">
         <f>IF(ISBLANK(D27),"",F27-SUM($H$3:H27))</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E28" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F28" s="7" t="str">
+      <c r="E28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F28" s="3" t="str">
         <f>IF(ISBLANK(D28),"",SUM($E$3:E28))</f>
         <v/>
       </c>
-      <c r="I28" s="7" t="str">
+      <c r="I28" s="3" t="str">
         <f>IF(ISBLANK(D28),"",F28-SUM($H$3:H28))</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E29" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F29" s="7" t="str">
+      <c r="E29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F29" s="3" t="str">
         <f>IF(ISBLANK(D29),"",SUM($E$3:E29))</f>
         <v/>
       </c>
-      <c r="I29" s="7" t="str">
+      <c r="I29" s="3" t="str">
         <f>IF(ISBLANK(D29),"",F29-SUM($H$3:H29))</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E30" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F30" s="7" t="str">
+      <c r="E30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F30" s="3" t="str">
         <f>IF(ISBLANK(D30),"",SUM($E$3:E30))</f>
         <v/>
       </c>
-      <c r="I30" s="7" t="str">
+      <c r="I30" s="3" t="str">
         <f>IF(ISBLANK(D30),"",F30-SUM($H$3:H30))</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E31" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F31" s="7" t="str">
+      <c r="E31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F31" s="3" t="str">
         <f>IF(ISBLANK(D31),"",SUM($E$3:E31))</f>
         <v/>
       </c>
-      <c r="I31" s="7" t="str">
+      <c r="I31" s="3" t="str">
         <f>IF(ISBLANK(D31),"",F31-SUM($H$3:H31))</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E32" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F32" s="7" t="str">
+      <c r="E32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F32" s="3" t="str">
         <f>IF(ISBLANK(D32),"",SUM($E$3:E32))</f>
         <v/>
       </c>
-      <c r="I32" s="7" t="str">
+      <c r="I32" s="3" t="str">
         <f>IF(ISBLANK(D32),"",F32-SUM($H$3:H32))</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E33" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F33" s="7" t="str">
+      <c r="E33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F33" s="3" t="str">
         <f>IF(ISBLANK(D33),"",SUM($E$3:E33))</f>
         <v/>
       </c>
-      <c r="I33" s="7" t="str">
+      <c r="I33" s="3" t="str">
         <f>IF(ISBLANK(D33),"",F33-SUM($H$3:H33))</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E34" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F34" s="7" t="str">
+      <c r="E34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F34" s="3" t="str">
         <f>IF(ISBLANK(D34),"",SUM($E$3:E34))</f>
         <v/>
       </c>
-      <c r="I34" s="7" t="str">
+      <c r="I34" s="3" t="str">
         <f>IF(ISBLANK(D34),"",F34-SUM($H$3:H34))</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E35" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F35" s="7" t="str">
+      <c r="E35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F35" s="3" t="str">
         <f>IF(ISBLANK(D35),"",SUM($E$3:E35))</f>
         <v/>
       </c>
-      <c r="I35" s="7" t="str">
+      <c r="I35" s="3" t="str">
         <f>IF(ISBLANK(D35),"",F35-SUM($H$3:H35))</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E36" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F36" s="7" t="str">
+      <c r="E36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F36" s="3" t="str">
         <f>IF(ISBLANK(D36),"",SUM($E$3:E36))</f>
         <v/>
       </c>
-      <c r="I36" s="7" t="str">
+      <c r="I36" s="3" t="str">
         <f>IF(ISBLANK(D36),"",F36-SUM($H$3:H36))</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E37" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F37" s="7" t="str">
+      <c r="E37" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F37" s="3" t="str">
         <f>IF(ISBLANK(D37),"",SUM($E$3:E37))</f>
         <v/>
       </c>
-      <c r="I37" s="7" t="str">
+      <c r="I37" s="3" t="str">
         <f>IF(ISBLANK(D37),"",F37-SUM($H$3:H37))</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E38" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F38" s="7" t="str">
+      <c r="E38" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F38" s="3" t="str">
         <f>IF(ISBLANK(D38),"",SUM($E$3:E38))</f>
         <v/>
       </c>
-      <c r="I38" s="7" t="str">
+      <c r="I38" s="3" t="str">
         <f>IF(ISBLANK(D38),"",F38-SUM($H$3:H38))</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E39" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F39" s="7" t="str">
+      <c r="E39" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F39" s="3" t="str">
         <f>IF(ISBLANK(D39),"",SUM($E$3:E39))</f>
         <v/>
       </c>
-      <c r="I39" s="7" t="str">
+      <c r="I39" s="3" t="str">
         <f>IF(ISBLANK(D39),"",F39-SUM($H$3:H39))</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E40" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F40" s="7" t="str">
+      <c r="E40" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F40" s="3" t="str">
         <f>IF(ISBLANK(D40),"",SUM($E$3:E40))</f>
         <v/>
       </c>
-      <c r="I40" s="7" t="str">
+      <c r="I40" s="3" t="str">
         <f>IF(ISBLANK(D40),"",F40-SUM($H$3:H40))</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E41" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F41" s="7" t="str">
+      <c r="E41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F41" s="3" t="str">
         <f>IF(ISBLANK(D41),"",SUM($E$3:E41))</f>
         <v/>
       </c>
-      <c r="I41" s="7" t="str">
+      <c r="I41" s="3" t="str">
         <f>IF(ISBLANK(D41),"",F41-SUM($H$3:H41))</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F42" s="7" t="str">
+      <c r="E42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F42" s="3" t="str">
         <f>IF(ISBLANK(D42),"",SUM($E$3:E42))</f>
         <v/>
       </c>
-      <c r="I42" s="7" t="str">
+      <c r="I42" s="3" t="str">
         <f>IF(ISBLANK(D42),"",F42-SUM($H$3:H42))</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F43" s="7" t="str">
+      <c r="E43" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F43" s="3" t="str">
         <f>IF(ISBLANK(D43),"",SUM($E$3:E43))</f>
         <v/>
       </c>
-      <c r="I43" s="7" t="str">
+      <c r="I43" s="3" t="str">
         <f>IF(ISBLANK(D43),"",F43-SUM($H$3:H43))</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F44" s="7" t="str">
+      <c r="E44" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F44" s="3" t="str">
         <f>IF(ISBLANK(D44),"",SUM($E$3:E44))</f>
         <v/>
       </c>
-      <c r="I44" s="7" t="str">
+      <c r="I44" s="3" t="str">
         <f>IF(ISBLANK(D44),"",F44-SUM($H$3:H44))</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F45" s="7" t="str">
+      <c r="E45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F45" s="3" t="str">
         <f>IF(ISBLANK(D45),"",SUM($E$3:E45))</f>
         <v/>
       </c>
-      <c r="I45" s="7" t="str">
+      <c r="I45" s="3" t="str">
         <f>IF(ISBLANK(D45),"",F45-SUM($H$3:H45))</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F46" s="7" t="str">
+      <c r="E46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F46" s="3" t="str">
         <f>IF(ISBLANK(D46),"",SUM($E$3:E46))</f>
         <v/>
       </c>
-      <c r="I46" s="7" t="str">
+      <c r="I46" s="3" t="str">
         <f>IF(ISBLANK(D46),"",F46-SUM($H$3:H46))</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E47" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F47" s="7" t="str">
+      <c r="E47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F47" s="3" t="str">
         <f>IF(ISBLANK(D47),"",SUM($E$3:E47))</f>
         <v/>
       </c>
-      <c r="I47" s="7" t="str">
+      <c r="I47" s="3" t="str">
         <f>IF(ISBLANK(D47),"",F47-SUM($H$3:H47))</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E48" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F48" s="7" t="str">
+      <c r="E48" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F48" s="3" t="str">
         <f>IF(ISBLANK(D48),"",SUM($E$3:E48))</f>
         <v/>
       </c>
-      <c r="I48" s="7" t="str">
+      <c r="I48" s="3" t="str">
         <f>IF(ISBLANK(D48),"",F48-SUM($H$3:H48))</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E49" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F49" s="7" t="str">
+      <c r="E49" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F49" s="3" t="str">
         <f>IF(ISBLANK(D49),"",SUM($E$3:E49))</f>
         <v/>
       </c>
-      <c r="I49" s="7" t="str">
+      <c r="I49" s="3" t="str">
         <f>IF(ISBLANK(D49),"",F49-SUM($H$3:H49))</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E50" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F50" s="7" t="str">
+      <c r="E50" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F50" s="3" t="str">
         <f>IF(ISBLANK(D50),"",SUM($E$3:E50))</f>
         <v/>
       </c>
-      <c r="I50" s="7" t="str">
+      <c r="I50" s="3" t="str">
         <f>IF(ISBLANK(D50),"",F50-SUM($H$3:H50))</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E51" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F51" s="7" t="str">
+      <c r="E51" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F51" s="3" t="str">
         <f>IF(ISBLANK(D51),"",SUM($E$3:E51))</f>
         <v/>
       </c>
-      <c r="I51" s="7" t="str">
+      <c r="I51" s="3" t="str">
         <f>IF(ISBLANK(D51),"",F51-SUM($H$3:H51))</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E52" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F52" s="7" t="str">
+      <c r="E52" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F52" s="3" t="str">
         <f>IF(ISBLANK(D52),"",SUM($E$3:E52))</f>
         <v/>
       </c>
-      <c r="I52" s="7" t="str">
+      <c r="I52" s="3" t="str">
         <f>IF(ISBLANK(D52),"",F52-SUM($H$3:H52))</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E53" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F53" s="7" t="str">
+      <c r="E53" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F53" s="3" t="str">
         <f>IF(ISBLANK(D53),"",SUM($E$3:E53))</f>
         <v/>
       </c>
-      <c r="I53" s="7" t="str">
+      <c r="I53" s="3" t="str">
         <f>IF(ISBLANK(D53),"",F53-SUM($H$3:H53))</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E54" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F54" s="7" t="str">
+      <c r="E54" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F54" s="3" t="str">
         <f>IF(ISBLANK(D54),"",SUM($E$3:E54))</f>
         <v/>
       </c>
-      <c r="I54" s="7" t="str">
+      <c r="I54" s="3" t="str">
         <f>IF(ISBLANK(D54),"",F54-SUM($H$3:H54))</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E55" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F55" s="7" t="str">
+      <c r="E55" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F55" s="3" t="str">
         <f>IF(ISBLANK(D55),"",SUM($E$3:E55))</f>
         <v/>
       </c>
-      <c r="I55" s="7" t="str">
+      <c r="I55" s="3" t="str">
         <f>IF(ISBLANK(D55),"",F55-SUM($H$3:H55))</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E56" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F56" s="7" t="str">
+      <c r="E56" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F56" s="3" t="str">
         <f>IF(ISBLANK(D56),"",SUM($E$3:E56))</f>
         <v/>
       </c>
-      <c r="I56" s="7" t="str">
+      <c r="I56" s="3" t="str">
         <f>IF(ISBLANK(D56),"",F56-SUM($H$3:H56))</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E57" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F57" s="7" t="str">
+      <c r="E57" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F57" s="3" t="str">
         <f>IF(ISBLANK(D57),"",SUM($E$3:E57))</f>
         <v/>
       </c>
-      <c r="I57" s="7" t="str">
+      <c r="I57" s="3" t="str">
         <f>IF(ISBLANK(D57),"",F57-SUM($H$3:H57))</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E58" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F58" s="7" t="str">
+      <c r="E58" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F58" s="3" t="str">
         <f>IF(ISBLANK(D58),"",SUM($E$3:E58))</f>
         <v/>
       </c>
-      <c r="I58" s="7" t="str">
+      <c r="I58" s="3" t="str">
         <f>IF(ISBLANK(D58),"",F58-SUM($H$3:H58))</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E59" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F59" s="7" t="str">
+      <c r="E59" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F59" s="3" t="str">
         <f>IF(ISBLANK(D59),"",SUM($E$3:E59))</f>
         <v/>
       </c>
-      <c r="I59" s="7" t="str">
+      <c r="I59" s="3" t="str">
         <f>IF(ISBLANK(D59),"",F59-SUM($H$3:H59))</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E60" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F60" s="7" t="str">
+      <c r="E60" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F60" s="3" t="str">
         <f>IF(ISBLANK(D60),"",SUM($E$3:E60))</f>
         <v/>
       </c>
-      <c r="I60" s="7" t="str">
+      <c r="I60" s="3" t="str">
         <f>IF(ISBLANK(D60),"",F60-SUM($H$3:H60))</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E61" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F61" s="7" t="str">
+      <c r="E61" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F61" s="3" t="str">
         <f>IF(ISBLANK(D61),"",SUM($E$3:E61))</f>
         <v/>
       </c>
-      <c r="I61" s="7" t="str">
+      <c r="I61" s="3" t="str">
         <f>IF(ISBLANK(D61),"",F61-SUM($H$3:H61))</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E62" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F62" s="7" t="str">
+      <c r="E62" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F62" s="3" t="str">
         <f>IF(ISBLANK(D62),"",SUM($E$3:E62))</f>
         <v/>
       </c>
-      <c r="I62" s="7" t="str">
+      <c r="I62" s="3" t="str">
         <f>IF(ISBLANK(D62),"",F62-SUM($H$3:H62))</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E63" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F63" s="7" t="str">
+      <c r="E63" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F63" s="3" t="str">
         <f>IF(ISBLANK(D63),"",SUM($E$3:E63))</f>
         <v/>
       </c>
-      <c r="I63" s="7" t="str">
+      <c r="I63" s="3" t="str">
         <f>IF(ISBLANK(D63),"",F63-SUM($H$3:H63))</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E64" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F64" s="7" t="str">
+      <c r="E64" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F64" s="3" t="str">
         <f>IF(ISBLANK(D64),"",SUM($E$3:E64))</f>
         <v/>
       </c>
-      <c r="I64" s="7" t="str">
+      <c r="I64" s="3" t="str">
         <f>IF(ISBLANK(D64),"",F64-SUM($H$3:H64))</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E65" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F65" s="7" t="str">
+      <c r="E65" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F65" s="3" t="str">
         <f>IF(ISBLANK(D65),"",SUM($E$3:E65))</f>
         <v/>
       </c>
-      <c r="I65" s="7" t="str">
+      <c r="I65" s="3" t="str">
         <f>IF(ISBLANK(D65),"",F65-SUM($H$3:H65))</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E66" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F66" s="7" t="str">
+      <c r="E66" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F66" s="3" t="str">
         <f>IF(ISBLANK(D66),"",SUM($E$3:E66))</f>
         <v/>
       </c>
-      <c r="I66" s="7" t="str">
+      <c r="I66" s="3" t="str">
         <f>IF(ISBLANK(D66),"",F66-SUM($H$3:H66))</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E67" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F67" s="7" t="str">
+      <c r="E67" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F67" s="3" t="str">
         <f>IF(ISBLANK(D67),"",SUM($E$3:E67))</f>
         <v/>
       </c>
-      <c r="I67" s="7" t="str">
+      <c r="I67" s="3" t="str">
         <f>IF(ISBLANK(D67),"",F67-SUM($H$3:H67))</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E68" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F68" s="7" t="str">
+      <c r="E68" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F68" s="3" t="str">
         <f>IF(ISBLANK(D68),"",SUM($E$3:E68))</f>
         <v/>
       </c>
-      <c r="I68" s="7" t="str">
+      <c r="I68" s="3" t="str">
         <f>IF(ISBLANK(D68),"",F68-SUM($H$3:H68))</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E69" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F69" s="7" t="str">
+      <c r="E69" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F69" s="3" t="str">
         <f>IF(ISBLANK(D69),"",SUM($E$3:E69))</f>
         <v/>
       </c>
-      <c r="I69" s="7" t="str">
+      <c r="I69" s="3" t="str">
         <f>IF(ISBLANK(D69),"",F69-SUM($H$3:H69))</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E70" s="6" t="str">
+      <c r="E70" s="2" t="str">
         <f t="shared" ref="E70:E133" si="2">IF(ISBLANK(D70),"",D70*600)</f>
         <v/>
       </c>
-      <c r="F70" s="7" t="str">
+      <c r="F70" s="3" t="str">
         <f>IF(ISBLANK(D70),"",SUM($E$3:E70))</f>
         <v/>
       </c>
-      <c r="I70" s="7" t="str">
+      <c r="I70" s="3" t="str">
         <f>IF(ISBLANK(D70),"",F70-SUM($H$3:H70))</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E71" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F71" s="7" t="str">
+      <c r="E71" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F71" s="3" t="str">
         <f>IF(ISBLANK(D71),"",SUM($E$3:E71))</f>
         <v/>
       </c>
-      <c r="I71" s="7" t="str">
+      <c r="I71" s="3" t="str">
         <f>IF(ISBLANK(D71),"",F71-SUM($H$3:H71))</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E72" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F72" s="7" t="str">
+      <c r="E72" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F72" s="3" t="str">
         <f>IF(ISBLANK(D72),"",SUM($E$3:E72))</f>
         <v/>
       </c>
-      <c r="I72" s="7" t="str">
+      <c r="I72" s="3" t="str">
         <f>IF(ISBLANK(D72),"",F72-SUM($H$3:H72))</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E73" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F73" s="7" t="str">
+      <c r="E73" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F73" s="3" t="str">
         <f>IF(ISBLANK(D73),"",SUM($E$3:E73))</f>
         <v/>
       </c>
-      <c r="I73" s="7" t="str">
+      <c r="I73" s="3" t="str">
         <f>IF(ISBLANK(D73),"",F73-SUM($H$3:H73))</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E74" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F74" s="7" t="str">
+      <c r="E74" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F74" s="3" t="str">
         <f>IF(ISBLANK(D74),"",SUM($E$3:E74))</f>
         <v/>
       </c>
-      <c r="I74" s="7" t="str">
+      <c r="I74" s="3" t="str">
         <f>IF(ISBLANK(D74),"",F74-SUM($H$3:H74))</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E75" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F75" s="7" t="str">
+      <c r="E75" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F75" s="3" t="str">
         <f>IF(ISBLANK(D75),"",SUM($E$3:E75))</f>
         <v/>
       </c>
-      <c r="I75" s="7" t="str">
+      <c r="I75" s="3" t="str">
         <f>IF(ISBLANK(D75),"",F75-SUM($H$3:H75))</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E76" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F76" s="7" t="str">
+      <c r="E76" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F76" s="3" t="str">
         <f>IF(ISBLANK(D76),"",SUM($E$3:E76))</f>
         <v/>
       </c>
-      <c r="I76" s="7" t="str">
+      <c r="I76" s="3" t="str">
         <f>IF(ISBLANK(D76),"",F76-SUM($H$3:H76))</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E77" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F77" s="7" t="str">
+      <c r="E77" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F77" s="3" t="str">
         <f>IF(ISBLANK(D77),"",SUM($E$3:E77))</f>
         <v/>
       </c>
-      <c r="I77" s="7" t="str">
+      <c r="I77" s="3" t="str">
         <f>IF(ISBLANK(D77),"",F77-SUM($H$3:H77))</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E78" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F78" s="7" t="str">
+      <c r="E78" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F78" s="3" t="str">
         <f>IF(ISBLANK(D78),"",SUM($E$3:E78))</f>
         <v/>
       </c>
-      <c r="I78" s="7" t="str">
+      <c r="I78" s="3" t="str">
         <f>IF(ISBLANK(D78),"",F78-SUM($H$3:H78))</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E79" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F79" s="7" t="str">
+      <c r="E79" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F79" s="3" t="str">
         <f>IF(ISBLANK(D79),"",SUM($E$3:E79))</f>
         <v/>
       </c>
-      <c r="I79" s="7" t="str">
+      <c r="I79" s="3" t="str">
         <f>IF(ISBLANK(D79),"",F79-SUM($H$3:H79))</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E80" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F80" s="7" t="str">
+      <c r="E80" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F80" s="3" t="str">
         <f>IF(ISBLANK(D80),"",SUM($E$3:E80))</f>
         <v/>
       </c>
-      <c r="I80" s="7" t="str">
+      <c r="I80" s="3" t="str">
         <f>IF(ISBLANK(D80),"",F80-SUM($H$3:H80))</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E81" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F81" s="7" t="str">
+      <c r="E81" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F81" s="3" t="str">
         <f>IF(ISBLANK(D81),"",SUM($E$3:E81))</f>
         <v/>
       </c>
-      <c r="I81" s="7" t="str">
+      <c r="I81" s="3" t="str">
         <f>IF(ISBLANK(D81),"",F81-SUM($H$3:H81))</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E82" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F82" s="7" t="str">
+      <c r="E82" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F82" s="3" t="str">
         <f>IF(ISBLANK(D82),"",SUM($E$3:E82))</f>
         <v/>
       </c>
-      <c r="I82" s="7" t="str">
+      <c r="I82" s="3" t="str">
         <f>IF(ISBLANK(D82),"",F82-SUM($H$3:H82))</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E83" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F83" s="7" t="str">
+      <c r="E83" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F83" s="3" t="str">
         <f>IF(ISBLANK(D83),"",SUM($E$3:E83))</f>
         <v/>
       </c>
-      <c r="I83" s="7" t="str">
+      <c r="I83" s="3" t="str">
         <f>IF(ISBLANK(D83),"",F83-SUM($H$3:H83))</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E84" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F84" s="7" t="str">
+      <c r="E84" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F84" s="3" t="str">
         <f>IF(ISBLANK(D84),"",SUM($E$3:E84))</f>
         <v/>
       </c>
-      <c r="I84" s="7" t="str">
+      <c r="I84" s="3" t="str">
         <f>IF(ISBLANK(D84),"",F84-SUM($H$3:H84))</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E85" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F85" s="7" t="str">
+      <c r="E85" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F85" s="3" t="str">
         <f>IF(ISBLANK(D85),"",SUM($E$3:E85))</f>
         <v/>
       </c>
-      <c r="I85" s="7" t="str">
+      <c r="I85" s="3" t="str">
         <f>IF(ISBLANK(D85),"",F85-SUM($H$3:H85))</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E86" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F86" s="7" t="str">
+      <c r="E86" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F86" s="3" t="str">
         <f>IF(ISBLANK(D86),"",SUM($E$3:E86))</f>
         <v/>
       </c>
-      <c r="I86" s="7" t="str">
+      <c r="I86" s="3" t="str">
         <f>IF(ISBLANK(D86),"",F86-SUM($H$3:H86))</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E87" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F87" s="7" t="str">
+      <c r="E87" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F87" s="3" t="str">
         <f>IF(ISBLANK(D87),"",SUM($E$3:E87))</f>
         <v/>
       </c>
-      <c r="I87" s="7" t="str">
+      <c r="I87" s="3" t="str">
         <f>IF(ISBLANK(D87),"",F87-SUM($H$3:H87))</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E88" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F88" s="7" t="str">
+      <c r="E88" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F88" s="3" t="str">
         <f>IF(ISBLANK(D88),"",SUM($E$3:E88))</f>
         <v/>
       </c>
-      <c r="I88" s="7" t="str">
+      <c r="I88" s="3" t="str">
         <f>IF(ISBLANK(D88),"",F88-SUM($H$3:H88))</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E89" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F89" s="7" t="str">
+      <c r="E89" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F89" s="3" t="str">
         <f>IF(ISBLANK(D89),"",SUM($E$3:E89))</f>
         <v/>
       </c>
-      <c r="I89" s="7" t="str">
+      <c r="I89" s="3" t="str">
         <f>IF(ISBLANK(D89),"",F89-SUM($H$3:H89))</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E90" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F90" s="7" t="str">
+      <c r="E90" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F90" s="3" t="str">
         <f>IF(ISBLANK(D90),"",SUM($E$3:E90))</f>
         <v/>
       </c>
-      <c r="I90" s="7" t="str">
+      <c r="I90" s="3" t="str">
         <f>IF(ISBLANK(D90),"",F90-SUM($H$3:H90))</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E91" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F91" s="7" t="str">
+      <c r="E91" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F91" s="3" t="str">
         <f>IF(ISBLANK(D91),"",SUM($E$3:E91))</f>
         <v/>
       </c>
-      <c r="I91" s="7" t="str">
+      <c r="I91" s="3" t="str">
         <f>IF(ISBLANK(D91),"",F91-SUM($H$3:H91))</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E92" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F92" s="7" t="str">
+      <c r="E92" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F92" s="3" t="str">
         <f>IF(ISBLANK(D92),"",SUM($E$3:E92))</f>
         <v/>
       </c>
-      <c r="I92" s="7" t="str">
+      <c r="I92" s="3" t="str">
         <f>IF(ISBLANK(D92),"",F92-SUM($H$3:H92))</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E93" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F93" s="7" t="str">
+      <c r="E93" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F93" s="3" t="str">
         <f>IF(ISBLANK(D93),"",SUM($E$3:E93))</f>
         <v/>
       </c>
-      <c r="I93" s="7" t="str">
+      <c r="I93" s="3" t="str">
         <f>IF(ISBLANK(D93),"",F93-SUM($H$3:H93))</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E94" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F94" s="7" t="str">
+      <c r="E94" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F94" s="3" t="str">
         <f>IF(ISBLANK(D94),"",SUM($E$3:E94))</f>
         <v/>
       </c>
-      <c r="I94" s="7" t="str">
+      <c r="I94" s="3" t="str">
         <f>IF(ISBLANK(D94),"",F94-SUM($H$3:H94))</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E95" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F95" s="7" t="str">
+      <c r="E95" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F95" s="3" t="str">
         <f>IF(ISBLANK(D95),"",SUM($E$3:E95))</f>
         <v/>
       </c>
-      <c r="I95" s="7" t="str">
+      <c r="I95" s="3" t="str">
         <f>IF(ISBLANK(D95),"",F95-SUM($H$3:H95))</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E96" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F96" s="7" t="str">
+      <c r="E96" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F96" s="3" t="str">
         <f>IF(ISBLANK(D96),"",SUM($E$3:E96))</f>
         <v/>
       </c>
-      <c r="I96" s="7" t="str">
+      <c r="I96" s="3" t="str">
         <f>IF(ISBLANK(D96),"",F96-SUM($H$3:H96))</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E97" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F97" s="7" t="str">
+      <c r="E97" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F97" s="3" t="str">
         <f>IF(ISBLANK(D97),"",SUM($E$3:E97))</f>
         <v/>
       </c>
-      <c r="I97" s="7" t="str">
+      <c r="I97" s="3" t="str">
         <f>IF(ISBLANK(D97),"",F97-SUM($H$3:H97))</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E98" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F98" s="7" t="str">
+      <c r="E98" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F98" s="3" t="str">
         <f>IF(ISBLANK(D98),"",SUM($E$3:E98))</f>
         <v/>
       </c>
-      <c r="I98" s="7" t="str">
+      <c r="I98" s="3" t="str">
         <f>IF(ISBLANK(D98),"",F98-SUM($H$3:H98))</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E99" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F99" s="7" t="str">
+      <c r="E99" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F99" s="3" t="str">
         <f>IF(ISBLANK(D99),"",SUM($E$3:E99))</f>
         <v/>
       </c>
-      <c r="I99" s="7" t="str">
+      <c r="I99" s="3" t="str">
         <f>IF(ISBLANK(D99),"",F99-SUM($H$3:H99))</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E100" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F100" s="7" t="str">
+      <c r="E100" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F100" s="3" t="str">
         <f>IF(ISBLANK(D100),"",SUM($E$3:E100))</f>
         <v/>
       </c>
-      <c r="I100" s="7" t="str">
+      <c r="I100" s="3" t="str">
         <f>IF(ISBLANK(D100),"",F100-SUM($H$3:H100))</f>
         <v/>
       </c>
     </row>
     <row r="101" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E101" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F101" s="7" t="str">
+      <c r="E101" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F101" s="3" t="str">
         <f>IF(ISBLANK(D101),"",SUM($E$3:E101))</f>
         <v/>
       </c>
-      <c r="I101" s="7" t="str">
+      <c r="I101" s="3" t="str">
         <f>IF(ISBLANK(D101),"",F101-SUM($H$3:H101))</f>
         <v/>
       </c>
     </row>
     <row r="102" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E102" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F102" s="7" t="str">
+      <c r="E102" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F102" s="3" t="str">
         <f>IF(ISBLANK(D102),"",SUM($E$3:E102))</f>
         <v/>
       </c>
-      <c r="I102" s="7" t="str">
+      <c r="I102" s="3" t="str">
         <f>IF(ISBLANK(D102),"",F102-SUM($H$3:H102))</f>
         <v/>
       </c>
     </row>
     <row r="103" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E103" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F103" s="7" t="str">
+      <c r="E103" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F103" s="3" t="str">
         <f>IF(ISBLANK(D103),"",SUM($E$3:E103))</f>
         <v/>
       </c>
-      <c r="I103" s="7" t="str">
+      <c r="I103" s="3" t="str">
         <f>IF(ISBLANK(D103),"",F103-SUM($H$3:H103))</f>
         <v/>
       </c>
     </row>
     <row r="104" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E104" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F104" s="7" t="str">
+      <c r="E104" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F104" s="3" t="str">
         <f>IF(ISBLANK(D104),"",SUM($E$3:E104))</f>
         <v/>
       </c>
-      <c r="I104" s="7" t="str">
+      <c r="I104" s="3" t="str">
         <f>IF(ISBLANK(D104),"",F104-SUM($H$3:H104))</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E105" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F105" s="7" t="str">
+      <c r="E105" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F105" s="3" t="str">
         <f>IF(ISBLANK(D105),"",SUM($E$3:E105))</f>
         <v/>
       </c>
-      <c r="I105" s="7" t="str">
+      <c r="I105" s="3" t="str">
         <f>IF(ISBLANK(D105),"",F105-SUM($H$3:H105))</f>
         <v/>
       </c>
     </row>
     <row r="106" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E106" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F106" s="7" t="str">
+      <c r="E106" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F106" s="3" t="str">
         <f>IF(ISBLANK(D106),"",SUM($E$3:E106))</f>
         <v/>
       </c>
-      <c r="I106" s="7" t="str">
+      <c r="I106" s="3" t="str">
         <f>IF(ISBLANK(D106),"",F106-SUM($H$3:H106))</f>
         <v/>
       </c>
     </row>
     <row r="107" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E107" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F107" s="7" t="str">
+      <c r="E107" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F107" s="3" t="str">
         <f>IF(ISBLANK(D107),"",SUM($E$3:E107))</f>
         <v/>
       </c>
-      <c r="I107" s="7" t="str">
+      <c r="I107" s="3" t="str">
         <f>IF(ISBLANK(D107),"",F107-SUM($H$3:H107))</f>
         <v/>
       </c>
     </row>
     <row r="108" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E108" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F108" s="7" t="str">
+      <c r="E108" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F108" s="3" t="str">
         <f>IF(ISBLANK(D108),"",SUM($E$3:E108))</f>
         <v/>
       </c>
-      <c r="I108" s="7" t="str">
+      <c r="I108" s="3" t="str">
         <f>IF(ISBLANK(D108),"",F108-SUM($H$3:H108))</f>
         <v/>
       </c>
     </row>
     <row r="109" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E109" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F109" s="7" t="str">
+      <c r="E109" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F109" s="3" t="str">
         <f>IF(ISBLANK(D109),"",SUM($E$3:E109))</f>
         <v/>
       </c>
-      <c r="I109" s="7" t="str">
+      <c r="I109" s="3" t="str">
         <f>IF(ISBLANK(D109),"",F109-SUM($H$3:H109))</f>
         <v/>
       </c>
     </row>
     <row r="110" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E110" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F110" s="7" t="str">
+      <c r="E110" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F110" s="3" t="str">
         <f>IF(ISBLANK(D110),"",SUM($E$3:E110))</f>
         <v/>
       </c>
-      <c r="I110" s="7" t="str">
+      <c r="I110" s="3" t="str">
         <f>IF(ISBLANK(D110),"",F110-SUM($H$3:H110))</f>
         <v/>
       </c>
     </row>
     <row r="111" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E111" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F111" s="7" t="str">
+      <c r="E111" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F111" s="3" t="str">
         <f>IF(ISBLANK(D111),"",SUM($E$3:E111))</f>
         <v/>
       </c>
-      <c r="I111" s="7" t="str">
+      <c r="I111" s="3" t="str">
         <f>IF(ISBLANK(D111),"",F111-SUM($H$3:H111))</f>
         <v/>
       </c>
     </row>
     <row r="112" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E112" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F112" s="7" t="str">
+      <c r="E112" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F112" s="3" t="str">
         <f>IF(ISBLANK(D112),"",SUM($E$3:E112))</f>
         <v/>
       </c>
-      <c r="I112" s="7" t="str">
+      <c r="I112" s="3" t="str">
         <f>IF(ISBLANK(D112),"",F112-SUM($H$3:H112))</f>
         <v/>
       </c>
     </row>
     <row r="113" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E113" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F113" s="7" t="str">
+      <c r="E113" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F113" s="3" t="str">
         <f>IF(ISBLANK(D113),"",SUM($E$3:E113))</f>
         <v/>
       </c>
-      <c r="I113" s="7" t="str">
+      <c r="I113" s="3" t="str">
         <f>IF(ISBLANK(D113),"",F113-SUM($H$3:H113))</f>
         <v/>
       </c>
     </row>
     <row r="114" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E114" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F114" s="7" t="str">
+      <c r="E114" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F114" s="3" t="str">
         <f>IF(ISBLANK(D114),"",SUM($E$3:E114))</f>
         <v/>
       </c>
-      <c r="I114" s="7" t="str">
+      <c r="I114" s="3" t="str">
         <f>IF(ISBLANK(D114),"",F114-SUM($H$3:H114))</f>
         <v/>
       </c>
     </row>
     <row r="115" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E115" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F115" s="7" t="str">
+      <c r="E115" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F115" s="3" t="str">
         <f>IF(ISBLANK(D115),"",SUM($E$3:E115))</f>
         <v/>
       </c>
-      <c r="I115" s="7" t="str">
+      <c r="I115" s="3" t="str">
         <f>IF(ISBLANK(D115),"",F115-SUM($H$3:H115))</f>
         <v/>
       </c>
     </row>
     <row r="116" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E116" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F116" s="7" t="str">
+      <c r="E116" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F116" s="3" t="str">
         <f>IF(ISBLANK(D116),"",SUM($E$3:E116))</f>
         <v/>
       </c>
-      <c r="I116" s="7" t="str">
+      <c r="I116" s="3" t="str">
         <f>IF(ISBLANK(D116),"",F116-SUM($H$3:H116))</f>
         <v/>
       </c>
     </row>
     <row r="117" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E117" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F117" s="7" t="str">
+      <c r="E117" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F117" s="3" t="str">
         <f>IF(ISBLANK(D117),"",SUM($E$3:E117))</f>
         <v/>
       </c>
-      <c r="I117" s="7" t="str">
+      <c r="I117" s="3" t="str">
         <f>IF(ISBLANK(D117),"",F117-SUM($H$3:H117))</f>
         <v/>
       </c>
     </row>
     <row r="118" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E118" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F118" s="7" t="str">
+      <c r="E118" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F118" s="3" t="str">
         <f>IF(ISBLANK(D118),"",SUM($E$3:E118))</f>
         <v/>
       </c>
-      <c r="I118" s="7" t="str">
+      <c r="I118" s="3" t="str">
         <f>IF(ISBLANK(D118),"",F118-SUM($H$3:H118))</f>
         <v/>
       </c>
     </row>
     <row r="119" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E119" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F119" s="7" t="str">
+      <c r="E119" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F119" s="3" t="str">
         <f>IF(ISBLANK(D119),"",SUM($E$3:E119))</f>
         <v/>
       </c>
-      <c r="I119" s="7" t="str">
+      <c r="I119" s="3" t="str">
         <f>IF(ISBLANK(D119),"",F119-SUM($H$3:H119))</f>
         <v/>
       </c>
     </row>
     <row r="120" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E120" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F120" s="7" t="str">
+      <c r="E120" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F120" s="3" t="str">
         <f>IF(ISBLANK(D120),"",SUM($E$3:E120))</f>
         <v/>
       </c>
-      <c r="I120" s="7" t="str">
+      <c r="I120" s="3" t="str">
         <f>IF(ISBLANK(D120),"",F120-SUM($H$3:H120))</f>
         <v/>
       </c>
     </row>
     <row r="121" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E121" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F121" s="7" t="str">
+      <c r="E121" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F121" s="3" t="str">
         <f>IF(ISBLANK(D121),"",SUM($E$3:E121))</f>
         <v/>
       </c>
-      <c r="I121" s="7" t="str">
+      <c r="I121" s="3" t="str">
         <f>IF(ISBLANK(D121),"",F121-SUM($H$3:H121))</f>
         <v/>
       </c>
     </row>
     <row r="122" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E122" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F122" s="7" t="str">
+      <c r="E122" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F122" s="3" t="str">
         <f>IF(ISBLANK(D122),"",SUM($E$3:E122))</f>
         <v/>
       </c>
-      <c r="I122" s="7" t="str">
+      <c r="I122" s="3" t="str">
         <f>IF(ISBLANK(D122),"",F122-SUM($H$3:H122))</f>
         <v/>
       </c>
     </row>
     <row r="123" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E123" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F123" s="7" t="str">
+      <c r="E123" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F123" s="3" t="str">
         <f>IF(ISBLANK(D123),"",SUM($E$3:E123))</f>
         <v/>
       </c>
-      <c r="I123" s="7" t="str">
+      <c r="I123" s="3" t="str">
         <f>IF(ISBLANK(D123),"",F123-SUM($H$3:H123))</f>
         <v/>
       </c>
     </row>
     <row r="124" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E124" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F124" s="7" t="str">
+      <c r="E124" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F124" s="3" t="str">
         <f>IF(ISBLANK(D124),"",SUM($E$3:E124))</f>
         <v/>
       </c>
-      <c r="I124" s="7" t="str">
+      <c r="I124" s="3" t="str">
         <f>IF(ISBLANK(D124),"",F124-SUM($H$3:H124))</f>
         <v/>
       </c>
     </row>
     <row r="125" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E125" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F125" s="7" t="str">
+      <c r="E125" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F125" s="3" t="str">
         <f>IF(ISBLANK(D125),"",SUM($E$3:E125))</f>
         <v/>
       </c>
-      <c r="I125" s="7" t="str">
+      <c r="I125" s="3" t="str">
         <f>IF(ISBLANK(D125),"",F125-SUM($H$3:H125))</f>
         <v/>
       </c>
     </row>
     <row r="126" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E126" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F126" s="7" t="str">
+      <c r="E126" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F126" s="3" t="str">
         <f>IF(ISBLANK(D126),"",SUM($E$3:E126))</f>
         <v/>
       </c>
-      <c r="I126" s="7" t="str">
+      <c r="I126" s="3" t="str">
         <f>IF(ISBLANK(D126),"",F126-SUM($H$3:H126))</f>
         <v/>
       </c>
     </row>
     <row r="127" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E127" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F127" s="7" t="str">
+      <c r="E127" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F127" s="3" t="str">
         <f>IF(ISBLANK(D127),"",SUM($E$3:E127))</f>
         <v/>
       </c>
-      <c r="I127" s="7" t="str">
+      <c r="I127" s="3" t="str">
         <f>IF(ISBLANK(D127),"",F127-SUM($H$3:H127))</f>
         <v/>
       </c>
     </row>
     <row r="128" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E128" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F128" s="7" t="str">
+      <c r="E128" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F128" s="3" t="str">
         <f>IF(ISBLANK(D128),"",SUM($E$3:E128))</f>
         <v/>
       </c>
-      <c r="I128" s="7" t="str">
+      <c r="I128" s="3" t="str">
         <f>IF(ISBLANK(D128),"",F128-SUM($H$3:H128))</f>
         <v/>
       </c>
     </row>
     <row r="129" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E129" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F129" s="7" t="str">
+      <c r="E129" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F129" s="3" t="str">
         <f>IF(ISBLANK(D129),"",SUM($E$3:E129))</f>
         <v/>
       </c>
-      <c r="I129" s="7" t="str">
+      <c r="I129" s="3" t="str">
         <f>IF(ISBLANK(D129),"",F129-SUM($H$3:H129))</f>
         <v/>
       </c>
     </row>
     <row r="130" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E130" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F130" s="7" t="str">
+      <c r="E130" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F130" s="3" t="str">
         <f>IF(ISBLANK(D130),"",SUM($E$3:E130))</f>
         <v/>
       </c>
-      <c r="I130" s="7" t="str">
+      <c r="I130" s="3" t="str">
         <f>IF(ISBLANK(D130),"",F130-SUM($H$3:H130))</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E131" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F131" s="7" t="str">
+      <c r="E131" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F131" s="3" t="str">
         <f>IF(ISBLANK(D131),"",SUM($E$3:E131))</f>
         <v/>
       </c>
-      <c r="I131" s="7" t="str">
+      <c r="I131" s="3" t="str">
         <f>IF(ISBLANK(D131),"",F131-SUM($H$3:H131))</f>
         <v/>
       </c>
     </row>
     <row r="132" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E132" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F132" s="7" t="str">
+      <c r="E132" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F132" s="3" t="str">
         <f>IF(ISBLANK(D132),"",SUM($E$3:E132))</f>
         <v/>
       </c>
-      <c r="I132" s="7" t="str">
+      <c r="I132" s="3" t="str">
         <f>IF(ISBLANK(D132),"",F132-SUM($H$3:H132))</f>
         <v/>
       </c>
     </row>
     <row r="133" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E133" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F133" s="7" t="str">
+      <c r="E133" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F133" s="3" t="str">
         <f>IF(ISBLANK(D133),"",SUM($E$3:E133))</f>
         <v/>
       </c>
-      <c r="I133" s="7" t="str">
+      <c r="I133" s="3" t="str">
         <f>IF(ISBLANK(D133),"",F133-SUM($H$3:H133))</f>
         <v/>
       </c>
     </row>
     <row r="134" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E134" s="6" t="str">
+      <c r="E134" s="2" t="str">
         <f t="shared" ref="E134:E197" si="3">IF(ISBLANK(D134),"",D134*600)</f>
         <v/>
       </c>
-      <c r="F134" s="7" t="str">
+      <c r="F134" s="3" t="str">
         <f>IF(ISBLANK(D134),"",SUM($E$3:E134))</f>
         <v/>
       </c>
-      <c r="I134" s="7" t="str">
+      <c r="I134" s="3" t="str">
         <f>IF(ISBLANK(D134),"",F134-SUM($H$3:H134))</f>
         <v/>
       </c>
     </row>
     <row r="135" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E135" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F135" s="7" t="str">
+      <c r="E135" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F135" s="3" t="str">
         <f>IF(ISBLANK(D135),"",SUM($E$3:E135))</f>
         <v/>
       </c>
-      <c r="I135" s="7" t="str">
+      <c r="I135" s="3" t="str">
         <f>IF(ISBLANK(D135),"",F135-SUM($H$3:H135))</f>
         <v/>
       </c>
     </row>
     <row r="136" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E136" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F136" s="7" t="str">
+      <c r="E136" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F136" s="3" t="str">
         <f>IF(ISBLANK(D136),"",SUM($E$3:E136))</f>
         <v/>
       </c>
-      <c r="I136" s="7" t="str">
+      <c r="I136" s="3" t="str">
         <f>IF(ISBLANK(D136),"",F136-SUM($H$3:H136))</f>
         <v/>
       </c>
     </row>
     <row r="137" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E137" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F137" s="7" t="str">
+      <c r="E137" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F137" s="3" t="str">
         <f>IF(ISBLANK(D137),"",SUM($E$3:E137))</f>
         <v/>
       </c>
-      <c r="I137" s="7" t="str">
+      <c r="I137" s="3" t="str">
         <f>IF(ISBLANK(D137),"",F137-SUM($H$3:H137))</f>
         <v/>
       </c>
     </row>
     <row r="138" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E138" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F138" s="7" t="str">
+      <c r="E138" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F138" s="3" t="str">
         <f>IF(ISBLANK(D138),"",SUM($E$3:E138))</f>
         <v/>
       </c>
-      <c r="I138" s="7" t="str">
+      <c r="I138" s="3" t="str">
         <f>IF(ISBLANK(D138),"",F138-SUM($H$3:H138))</f>
         <v/>
       </c>
     </row>
     <row r="139" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E139" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F139" s="7" t="str">
+      <c r="E139" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F139" s="3" t="str">
         <f>IF(ISBLANK(D139),"",SUM($E$3:E139))</f>
         <v/>
       </c>
-      <c r="I139" s="7" t="str">
+      <c r="I139" s="3" t="str">
         <f>IF(ISBLANK(D139),"",F139-SUM($H$3:H139))</f>
         <v/>
       </c>
     </row>
     <row r="140" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E140" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F140" s="7" t="str">
+      <c r="E140" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F140" s="3" t="str">
         <f>IF(ISBLANK(D140),"",SUM($E$3:E140))</f>
         <v/>
       </c>
-      <c r="I140" s="7" t="str">
+      <c r="I140" s="3" t="str">
         <f>IF(ISBLANK(D140),"",F140-SUM($H$3:H140))</f>
         <v/>
       </c>
     </row>
     <row r="141" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E141" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F141" s="7" t="str">
+      <c r="E141" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F141" s="3" t="str">
         <f>IF(ISBLANK(D141),"",SUM($E$3:E141))</f>
         <v/>
       </c>
-      <c r="I141" s="7" t="str">
+      <c r="I141" s="3" t="str">
         <f>IF(ISBLANK(D141),"",F141-SUM($H$3:H141))</f>
         <v/>
       </c>
     </row>
     <row r="142" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E142" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F142" s="7" t="str">
+      <c r="E142" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F142" s="3" t="str">
         <f>IF(ISBLANK(D142),"",SUM($E$3:E142))</f>
         <v/>
       </c>
-      <c r="I142" s="7" t="str">
+      <c r="I142" s="3" t="str">
         <f>IF(ISBLANK(D142),"",F142-SUM($H$3:H142))</f>
         <v/>
       </c>
     </row>
     <row r="143" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E143" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F143" s="7" t="str">
+      <c r="E143" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F143" s="3" t="str">
         <f>IF(ISBLANK(D143),"",SUM($E$3:E143))</f>
         <v/>
       </c>
-      <c r="I143" s="7" t="str">
+      <c r="I143" s="3" t="str">
         <f>IF(ISBLANK(D143),"",F143-SUM($H$3:H143))</f>
         <v/>
       </c>
     </row>
     <row r="144" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E144" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F144" s="7" t="str">
+      <c r="E144" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F144" s="3" t="str">
         <f>IF(ISBLANK(D144),"",SUM($E$3:E144))</f>
         <v/>
       </c>
-      <c r="I144" s="7" t="str">
+      <c r="I144" s="3" t="str">
         <f>IF(ISBLANK(D144),"",F144-SUM($H$3:H144))</f>
         <v/>
       </c>
     </row>
     <row r="145" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E145" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F145" s="7" t="str">
+      <c r="E145" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F145" s="3" t="str">
         <f>IF(ISBLANK(D145),"",SUM($E$3:E145))</f>
         <v/>
       </c>
-      <c r="I145" s="7" t="str">
+      <c r="I145" s="3" t="str">
         <f>IF(ISBLANK(D145),"",F145-SUM($H$3:H145))</f>
         <v/>
       </c>
     </row>
     <row r="146" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E146" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F146" s="7" t="str">
+      <c r="E146" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F146" s="3" t="str">
         <f>IF(ISBLANK(D146),"",SUM($E$3:E146))</f>
         <v/>
       </c>
-      <c r="I146" s="7" t="str">
+      <c r="I146" s="3" t="str">
         <f>IF(ISBLANK(D146),"",F146-SUM($H$3:H146))</f>
         <v/>
       </c>
     </row>
     <row r="147" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E147" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F147" s="7" t="str">
+      <c r="E147" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F147" s="3" t="str">
         <f>IF(ISBLANK(D147),"",SUM($E$3:E147))</f>
         <v/>
       </c>
-      <c r="I147" s="7" t="str">
+      <c r="I147" s="3" t="str">
         <f>IF(ISBLANK(D147),"",F147-SUM($H$3:H147))</f>
         <v/>
       </c>
     </row>
     <row r="148" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E148" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F148" s="7" t="str">
+      <c r="E148" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F148" s="3" t="str">
         <f>IF(ISBLANK(D148),"",SUM($E$3:E148))</f>
         <v/>
       </c>
-      <c r="I148" s="7" t="str">
+      <c r="I148" s="3" t="str">
         <f>IF(ISBLANK(D148),"",F148-SUM($H$3:H148))</f>
         <v/>
       </c>
     </row>
     <row r="149" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E149" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F149" s="7" t="str">
+      <c r="E149" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F149" s="3" t="str">
         <f>IF(ISBLANK(D149),"",SUM($E$3:E149))</f>
         <v/>
       </c>
-      <c r="I149" s="7" t="str">
+      <c r="I149" s="3" t="str">
         <f>IF(ISBLANK(D149),"",F149-SUM($H$3:H149))</f>
         <v/>
       </c>
     </row>
     <row r="150" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E150" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F150" s="7" t="str">
+      <c r="E150" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F150" s="3" t="str">
         <f>IF(ISBLANK(D150),"",SUM($E$3:E150))</f>
         <v/>
       </c>
-      <c r="I150" s="7" t="str">
+      <c r="I150" s="3" t="str">
         <f>IF(ISBLANK(D150),"",F150-SUM($H$3:H150))</f>
         <v/>
       </c>
     </row>
     <row r="151" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E151" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F151" s="7" t="str">
+      <c r="E151" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F151" s="3" t="str">
         <f>IF(ISBLANK(D151),"",SUM($E$3:E151))</f>
         <v/>
       </c>
-      <c r="I151" s="7" t="str">
+      <c r="I151" s="3" t="str">
         <f>IF(ISBLANK(D151),"",F151-SUM($H$3:H151))</f>
         <v/>
       </c>
     </row>
     <row r="152" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E152" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F152" s="7" t="str">
+      <c r="E152" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F152" s="3" t="str">
         <f>IF(ISBLANK(D152),"",SUM($E$3:E152))</f>
         <v/>
       </c>
-      <c r="I152" s="7" t="str">
+      <c r="I152" s="3" t="str">
         <f>IF(ISBLANK(D152),"",F152-SUM($H$3:H152))</f>
         <v/>
       </c>
     </row>
     <row r="153" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E153" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F153" s="7" t="str">
+      <c r="E153" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F153" s="3" t="str">
         <f>IF(ISBLANK(D153),"",SUM($E$3:E153))</f>
         <v/>
       </c>
-      <c r="I153" s="7" t="str">
+      <c r="I153" s="3" t="str">
         <f>IF(ISBLANK(D153),"",F153-SUM($H$3:H153))</f>
         <v/>
       </c>
     </row>
     <row r="154" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E154" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F154" s="7" t="str">
+      <c r="E154" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F154" s="3" t="str">
         <f>IF(ISBLANK(D154),"",SUM($E$3:E154))</f>
         <v/>
       </c>
-      <c r="I154" s="7" t="str">
+      <c r="I154" s="3" t="str">
         <f>IF(ISBLANK(D154),"",F154-SUM($H$3:H154))</f>
         <v/>
       </c>
     </row>
     <row r="155" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E155" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F155" s="7" t="str">
+      <c r="E155" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F155" s="3" t="str">
         <f>IF(ISBLANK(D155),"",SUM($E$3:E155))</f>
         <v/>
       </c>
-      <c r="I155" s="7" t="str">
+      <c r="I155" s="3" t="str">
         <f>IF(ISBLANK(D155),"",F155-SUM($H$3:H155))</f>
         <v/>
       </c>
     </row>
     <row r="156" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E156" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F156" s="7" t="str">
+      <c r="E156" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F156" s="3" t="str">
         <f>IF(ISBLANK(D156),"",SUM($E$3:E156))</f>
         <v/>
       </c>
-      <c r="I156" s="7" t="str">
+      <c r="I156" s="3" t="str">
         <f>IF(ISBLANK(D156),"",F156-SUM($H$3:H156))</f>
         <v/>
       </c>
     </row>
     <row r="157" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E157" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F157" s="7" t="str">
+      <c r="E157" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F157" s="3" t="str">
         <f>IF(ISBLANK(D157),"",SUM($E$3:E157))</f>
         <v/>
       </c>
-      <c r="I157" s="7" t="str">
+      <c r="I157" s="3" t="str">
         <f>IF(ISBLANK(D157),"",F157-SUM($H$3:H157))</f>
         <v/>
       </c>
     </row>
     <row r="158" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E158" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F158" s="7" t="str">
+      <c r="E158" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F158" s="3" t="str">
         <f>IF(ISBLANK(D158),"",SUM($E$3:E158))</f>
         <v/>
       </c>
-      <c r="I158" s="7" t="str">
+      <c r="I158" s="3" t="str">
         <f>IF(ISBLANK(D158),"",F158-SUM($H$3:H158))</f>
         <v/>
       </c>
     </row>
     <row r="159" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E159" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F159" s="7" t="str">
+      <c r="E159" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F159" s="3" t="str">
         <f>IF(ISBLANK(D159),"",SUM($E$3:E159))</f>
         <v/>
       </c>
-      <c r="I159" s="7" t="str">
+      <c r="I159" s="3" t="str">
         <f>IF(ISBLANK(D159),"",F159-SUM($H$3:H159))</f>
         <v/>
       </c>
     </row>
     <row r="160" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E160" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F160" s="7" t="str">
+      <c r="E160" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F160" s="3" t="str">
         <f>IF(ISBLANK(D160),"",SUM($E$3:E160))</f>
         <v/>
       </c>
-      <c r="I160" s="7" t="str">
+      <c r="I160" s="3" t="str">
         <f>IF(ISBLANK(D160),"",F160-SUM($H$3:H160))</f>
         <v/>
       </c>
     </row>
     <row r="161" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E161" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F161" s="7" t="str">
+      <c r="E161" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F161" s="3" t="str">
         <f>IF(ISBLANK(D161),"",SUM($E$3:E161))</f>
         <v/>
       </c>
-      <c r="I161" s="7" t="str">
+      <c r="I161" s="3" t="str">
         <f>IF(ISBLANK(D161),"",F161-SUM($H$3:H161))</f>
         <v/>
       </c>
     </row>
     <row r="162" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E162" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F162" s="7" t="str">
+      <c r="E162" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F162" s="3" t="str">
         <f>IF(ISBLANK(D162),"",SUM($E$3:E162))</f>
         <v/>
       </c>
-      <c r="I162" s="7" t="str">
+      <c r="I162" s="3" t="str">
         <f>IF(ISBLANK(D162),"",F162-SUM($H$3:H162))</f>
         <v/>
       </c>
     </row>
     <row r="163" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E163" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F163" s="7" t="str">
+      <c r="E163" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F163" s="3" t="str">
         <f>IF(ISBLANK(D163),"",SUM($E$3:E163))</f>
         <v/>
       </c>
-      <c r="I163" s="7" t="str">
+      <c r="I163" s="3" t="str">
         <f>IF(ISBLANK(D163),"",F163-SUM($H$3:H163))</f>
         <v/>
       </c>
     </row>
     <row r="164" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E164" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F164" s="7" t="str">
+      <c r="E164" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F164" s="3" t="str">
         <f>IF(ISBLANK(D164),"",SUM($E$3:E164))</f>
         <v/>
       </c>
-      <c r="I164" s="7" t="str">
+      <c r="I164" s="3" t="str">
         <f>IF(ISBLANK(D164),"",F164-SUM($H$3:H164))</f>
         <v/>
       </c>
     </row>
     <row r="165" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E165" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F165" s="7" t="str">
+      <c r="E165" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F165" s="3" t="str">
         <f>IF(ISBLANK(D165),"",SUM($E$3:E165))</f>
         <v/>
       </c>
-      <c r="I165" s="7" t="str">
+      <c r="I165" s="3" t="str">
         <f>IF(ISBLANK(D165),"",F165-SUM($H$3:H165))</f>
         <v/>
       </c>
     </row>
     <row r="166" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E166" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F166" s="7" t="str">
+      <c r="E166" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F166" s="3" t="str">
         <f>IF(ISBLANK(D166),"",SUM($E$3:E166))</f>
         <v/>
       </c>
-      <c r="I166" s="7" t="str">
+      <c r="I166" s="3" t="str">
         <f>IF(ISBLANK(D166),"",F166-SUM($H$3:H166))</f>
         <v/>
       </c>
     </row>
     <row r="167" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E167" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F167" s="7" t="str">
+      <c r="E167" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F167" s="3" t="str">
         <f>IF(ISBLANK(D167),"",SUM($E$3:E167))</f>
         <v/>
       </c>
-      <c r="I167" s="7" t="str">
+      <c r="I167" s="3" t="str">
         <f>IF(ISBLANK(D167),"",F167-SUM($H$3:H167))</f>
         <v/>
       </c>
     </row>
     <row r="168" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E168" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F168" s="7" t="str">
+      <c r="E168" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F168" s="3" t="str">
         <f>IF(ISBLANK(D168),"",SUM($E$3:E168))</f>
         <v/>
       </c>
-      <c r="I168" s="7" t="str">
+      <c r="I168" s="3" t="str">
         <f>IF(ISBLANK(D168),"",F168-SUM($H$3:H168))</f>
         <v/>
       </c>
     </row>
     <row r="169" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E169" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F169" s="7" t="str">
+      <c r="E169" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F169" s="3" t="str">
         <f>IF(ISBLANK(D169),"",SUM($E$3:E169))</f>
         <v/>
       </c>
-      <c r="I169" s="7" t="str">
+      <c r="I169" s="3" t="str">
         <f>IF(ISBLANK(D169),"",F169-SUM($H$3:H169))</f>
         <v/>
       </c>
     </row>
     <row r="170" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E170" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F170" s="7" t="str">
+      <c r="E170" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F170" s="3" t="str">
         <f>IF(ISBLANK(D170),"",SUM($E$3:E170))</f>
         <v/>
       </c>
-      <c r="I170" s="7" t="str">
+      <c r="I170" s="3" t="str">
         <f>IF(ISBLANK(D170),"",F170-SUM($H$3:H170))</f>
         <v/>
       </c>
     </row>
     <row r="171" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E171" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F171" s="7" t="str">
+      <c r="E171" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F171" s="3" t="str">
         <f>IF(ISBLANK(D171),"",SUM($E$3:E171))</f>
         <v/>
       </c>
-      <c r="I171" s="7" t="str">
+      <c r="I171" s="3" t="str">
         <f>IF(ISBLANK(D171),"",F171-SUM($H$3:H171))</f>
         <v/>
       </c>
     </row>
     <row r="172" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E172" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F172" s="7" t="str">
+      <c r="E172" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F172" s="3" t="str">
         <f>IF(ISBLANK(D172),"",SUM($E$3:E172))</f>
         <v/>
       </c>
-      <c r="I172" s="7" t="str">
+      <c r="I172" s="3" t="str">
         <f>IF(ISBLANK(D172),"",F172-SUM($H$3:H172))</f>
         <v/>
       </c>
     </row>
     <row r="173" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E173" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F173" s="7" t="str">
+      <c r="E173" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F173" s="3" t="str">
         <f>IF(ISBLANK(D173),"",SUM($E$3:E173))</f>
         <v/>
       </c>
-      <c r="I173" s="7" t="str">
+      <c r="I173" s="3" t="str">
         <f>IF(ISBLANK(D173),"",F173-SUM($H$3:H173))</f>
         <v/>
       </c>
     </row>
     <row r="174" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E174" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F174" s="7" t="str">
+      <c r="E174" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F174" s="3" t="str">
         <f>IF(ISBLANK(D174),"",SUM($E$3:E174))</f>
         <v/>
       </c>
-      <c r="I174" s="7" t="str">
+      <c r="I174" s="3" t="str">
         <f>IF(ISBLANK(D174),"",F174-SUM($H$3:H174))</f>
         <v/>
       </c>
     </row>
     <row r="175" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E175" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F175" s="7" t="str">
+      <c r="E175" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F175" s="3" t="str">
         <f>IF(ISBLANK(D175),"",SUM($E$3:E175))</f>
         <v/>
       </c>
-      <c r="I175" s="7" t="str">
+      <c r="I175" s="3" t="str">
         <f>IF(ISBLANK(D175),"",F175-SUM($H$3:H175))</f>
         <v/>
       </c>
     </row>
     <row r="176" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E176" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F176" s="7" t="str">
+      <c r="E176" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F176" s="3" t="str">
         <f>IF(ISBLANK(D176),"",SUM($E$3:E176))</f>
         <v/>
       </c>
-      <c r="I176" s="7" t="str">
+      <c r="I176" s="3" t="str">
         <f>IF(ISBLANK(D176),"",F176-SUM($H$3:H176))</f>
         <v/>
       </c>
     </row>
     <row r="177" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E177" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F177" s="7" t="str">
+      <c r="E177" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F177" s="3" t="str">
         <f>IF(ISBLANK(D177),"",SUM($E$3:E177))</f>
         <v/>
       </c>
-      <c r="I177" s="7" t="str">
+      <c r="I177" s="3" t="str">
         <f>IF(ISBLANK(D177),"",F177-SUM($H$3:H177))</f>
         <v/>
       </c>
     </row>
     <row r="178" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E178" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F178" s="7" t="str">
+      <c r="E178" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F178" s="3" t="str">
         <f>IF(ISBLANK(D178),"",SUM($E$3:E178))</f>
         <v/>
       </c>
-      <c r="I178" s="7" t="str">
+      <c r="I178" s="3" t="str">
         <f>IF(ISBLANK(D178),"",F178-SUM($H$3:H178))</f>
         <v/>
       </c>
     </row>
     <row r="179" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E179" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F179" s="7" t="str">
+      <c r="E179" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F179" s="3" t="str">
         <f>IF(ISBLANK(D179),"",SUM($E$3:E179))</f>
         <v/>
       </c>
-      <c r="I179" s="7" t="str">
+      <c r="I179" s="3" t="str">
         <f>IF(ISBLANK(D179),"",F179-SUM($H$3:H179))</f>
         <v/>
       </c>
     </row>
     <row r="180" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E180" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F180" s="7" t="str">
+      <c r="E180" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F180" s="3" t="str">
         <f>IF(ISBLANK(D180),"",SUM($E$3:E180))</f>
         <v/>
       </c>
-      <c r="I180" s="7" t="str">
+      <c r="I180" s="3" t="str">
         <f>IF(ISBLANK(D180),"",F180-SUM($H$3:H180))</f>
         <v/>
       </c>
     </row>
     <row r="181" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E181" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F181" s="7" t="str">
+      <c r="E181" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F181" s="3" t="str">
         <f>IF(ISBLANK(D181),"",SUM($E$3:E181))</f>
         <v/>
       </c>
-      <c r="I181" s="7" t="str">
+      <c r="I181" s="3" t="str">
         <f>IF(ISBLANK(D181),"",F181-SUM($H$3:H181))</f>
         <v/>
       </c>
     </row>
     <row r="182" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E182" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F182" s="7" t="str">
+      <c r="E182" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F182" s="3" t="str">
         <f>IF(ISBLANK(D182),"",SUM($E$3:E182))</f>
         <v/>
       </c>
-      <c r="I182" s="7" t="str">
+      <c r="I182" s="3" t="str">
         <f>IF(ISBLANK(D182),"",F182-SUM($H$3:H182))</f>
         <v/>
       </c>
     </row>
     <row r="183" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E183" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F183" s="7" t="str">
+      <c r="E183" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F183" s="3" t="str">
         <f>IF(ISBLANK(D183),"",SUM($E$3:E183))</f>
         <v/>
       </c>
-      <c r="I183" s="7" t="str">
+      <c r="I183" s="3" t="str">
         <f>IF(ISBLANK(D183),"",F183-SUM($H$3:H183))</f>
         <v/>
       </c>
     </row>
     <row r="184" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E184" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F184" s="7" t="str">
+      <c r="E184" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F184" s="3" t="str">
         <f>IF(ISBLANK(D184),"",SUM($E$3:E184))</f>
         <v/>
       </c>
-      <c r="I184" s="7" t="str">
+      <c r="I184" s="3" t="str">
         <f>IF(ISBLANK(D184),"",F184-SUM($H$3:H184))</f>
         <v/>
       </c>
     </row>
     <row r="185" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E185" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F185" s="7" t="str">
+      <c r="E185" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F185" s="3" t="str">
         <f>IF(ISBLANK(D185),"",SUM($E$3:E185))</f>
         <v/>
       </c>
-      <c r="I185" s="7" t="str">
+      <c r="I185" s="3" t="str">
         <f>IF(ISBLANK(D185),"",F185-SUM($H$3:H185))</f>
         <v/>
       </c>
     </row>
     <row r="186" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E186" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F186" s="7" t="str">
+      <c r="E186" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F186" s="3" t="str">
         <f>IF(ISBLANK(D186),"",SUM($E$3:E186))</f>
         <v/>
       </c>
-      <c r="I186" s="7" t="str">
+      <c r="I186" s="3" t="str">
         <f>IF(ISBLANK(D186),"",F186-SUM($H$3:H186))</f>
         <v/>
       </c>
     </row>
     <row r="187" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E187" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F187" s="7" t="str">
+      <c r="E187" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F187" s="3" t="str">
         <f>IF(ISBLANK(D187),"",SUM($E$3:E187))</f>
         <v/>
       </c>
-      <c r="I187" s="7" t="str">
+      <c r="I187" s="3" t="str">
         <f>IF(ISBLANK(D187),"",F187-SUM($H$3:H187))</f>
         <v/>
       </c>
     </row>
     <row r="188" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E188" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F188" s="7" t="str">
+      <c r="E188" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F188" s="3" t="str">
         <f>IF(ISBLANK(D188),"",SUM($E$3:E188))</f>
         <v/>
       </c>
-      <c r="I188" s="7" t="str">
+      <c r="I188" s="3" t="str">
         <f>IF(ISBLANK(D188),"",F188-SUM($H$3:H188))</f>
         <v/>
       </c>
     </row>
     <row r="189" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E189" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F189" s="7" t="str">
+      <c r="E189" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F189" s="3" t="str">
         <f>IF(ISBLANK(D189),"",SUM($E$3:E189))</f>
         <v/>
       </c>
-      <c r="I189" s="7" t="str">
+      <c r="I189" s="3" t="str">
         <f>IF(ISBLANK(D189),"",F189-SUM($H$3:H189))</f>
         <v/>
       </c>
     </row>
     <row r="190" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E190" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F190" s="7" t="str">
+      <c r="E190" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F190" s="3" t="str">
         <f>IF(ISBLANK(D190),"",SUM($E$3:E190))</f>
         <v/>
       </c>
-      <c r="I190" s="7" t="str">
+      <c r="I190" s="3" t="str">
         <f>IF(ISBLANK(D190),"",F190-SUM($H$3:H190))</f>
         <v/>
       </c>
     </row>
     <row r="191" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E191" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F191" s="7" t="str">
+      <c r="E191" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F191" s="3" t="str">
         <f>IF(ISBLANK(D191),"",SUM($E$3:E191))</f>
         <v/>
       </c>
-      <c r="I191" s="7" t="str">
+      <c r="I191" s="3" t="str">
         <f>IF(ISBLANK(D191),"",F191-SUM($H$3:H191))</f>
         <v/>
       </c>
     </row>
     <row r="192" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E192" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F192" s="7" t="str">
+      <c r="E192" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F192" s="3" t="str">
         <f>IF(ISBLANK(D192),"",SUM($E$3:E192))</f>
         <v/>
       </c>
-      <c r="I192" s="7" t="str">
+      <c r="I192" s="3" t="str">
         <f>IF(ISBLANK(D192),"",F192-SUM($H$3:H192))</f>
         <v/>
       </c>
     </row>
     <row r="193" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E193" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F193" s="7" t="str">
+      <c r="E193" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F193" s="3" t="str">
         <f>IF(ISBLANK(D193),"",SUM($E$3:E193))</f>
         <v/>
       </c>
-      <c r="I193" s="7" t="str">
+      <c r="I193" s="3" t="str">
         <f>IF(ISBLANK(D193),"",F193-SUM($H$3:H193))</f>
         <v/>
       </c>
     </row>
     <row r="194" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E194" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F194" s="7" t="str">
+      <c r="E194" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F194" s="3" t="str">
         <f>IF(ISBLANK(D194),"",SUM($E$3:E194))</f>
         <v/>
       </c>
-      <c r="I194" s="7" t="str">
+      <c r="I194" s="3" t="str">
         <f>IF(ISBLANK(D194),"",F194-SUM($H$3:H194))</f>
         <v/>
       </c>
     </row>
     <row r="195" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E195" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F195" s="7" t="str">
+      <c r="E195" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F195" s="3" t="str">
         <f>IF(ISBLANK(D195),"",SUM($E$3:E195))</f>
         <v/>
       </c>
-      <c r="I195" s="7" t="str">
+      <c r="I195" s="3" t="str">
         <f>IF(ISBLANK(D195),"",F195-SUM($H$3:H195))</f>
         <v/>
       </c>
     </row>
     <row r="196" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E196" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F196" s="7" t="str">
+      <c r="E196" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F196" s="3" t="str">
         <f>IF(ISBLANK(D196),"",SUM($E$3:E196))</f>
         <v/>
       </c>
-      <c r="I196" s="7" t="str">
+      <c r="I196" s="3" t="str">
         <f>IF(ISBLANK(D196),"",F196-SUM($H$3:H196))</f>
         <v/>
       </c>
     </row>
     <row r="197" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E197" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F197" s="7" t="str">
+      <c r="E197" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F197" s="3" t="str">
         <f>IF(ISBLANK(D197),"",SUM($E$3:E197))</f>
         <v/>
       </c>
-      <c r="I197" s="7" t="str">
+      <c r="I197" s="3" t="str">
         <f>IF(ISBLANK(D197),"",F197-SUM($H$3:H197))</f>
         <v/>
       </c>
     </row>
     <row r="198" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E198" s="6" t="str">
+      <c r="E198" s="2" t="str">
         <f t="shared" ref="E198:E253" si="4">IF(ISBLANK(D198),"",D198*600)</f>
         <v/>
       </c>
-      <c r="F198" s="7" t="str">
+      <c r="F198" s="3" t="str">
         <f>IF(ISBLANK(D198),"",SUM($E$3:E198))</f>
         <v/>
       </c>
-      <c r="I198" s="7" t="str">
+      <c r="I198" s="3" t="str">
         <f>IF(ISBLANK(D198),"",F198-SUM($H$3:H198))</f>
         <v/>
       </c>
     </row>
     <row r="199" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E199" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F199" s="7" t="str">
+      <c r="E199" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F199" s="3" t="str">
         <f>IF(ISBLANK(D199),"",SUM($E$3:E199))</f>
         <v/>
       </c>
-      <c r="I199" s="7" t="str">
+      <c r="I199" s="3" t="str">
         <f>IF(ISBLANK(D199),"",F199-SUM($H$3:H199))</f>
         <v/>
       </c>
     </row>
     <row r="200" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E200" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F200" s="7" t="str">
+      <c r="E200" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F200" s="3" t="str">
         <f>IF(ISBLANK(D200),"",SUM($E$3:E200))</f>
         <v/>
       </c>
-      <c r="I200" s="7" t="str">
+      <c r="I200" s="3" t="str">
         <f>IF(ISBLANK(D200),"",F200-SUM($H$3:H200))</f>
         <v/>
       </c>
     </row>
     <row r="201" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E201" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F201" s="7" t="str">
+      <c r="E201" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F201" s="3" t="str">
         <f>IF(ISBLANK(D201),"",SUM($E$3:E201))</f>
         <v/>
       </c>
-      <c r="I201" s="7" t="str">
+      <c r="I201" s="3" t="str">
         <f>IF(ISBLANK(D201),"",F201-SUM($H$3:H201))</f>
         <v/>
       </c>
     </row>
     <row r="202" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E202" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F202" s="7" t="str">
+      <c r="E202" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F202" s="3" t="str">
         <f>IF(ISBLANK(D202),"",SUM($E$3:E202))</f>
         <v/>
       </c>
-      <c r="I202" s="7" t="str">
+      <c r="I202" s="3" t="str">
         <f>IF(ISBLANK(D202),"",F202-SUM($H$3:H202))</f>
         <v/>
       </c>
     </row>
     <row r="203" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E203" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F203" s="7" t="str">
+      <c r="E203" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F203" s="3" t="str">
         <f>IF(ISBLANK(D203),"",SUM($E$3:E203))</f>
         <v/>
       </c>
-      <c r="I203" s="7" t="str">
+      <c r="I203" s="3" t="str">
         <f>IF(ISBLANK(D203),"",F203-SUM($H$3:H203))</f>
         <v/>
       </c>
     </row>
     <row r="204" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E204" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F204" s="7" t="str">
+      <c r="E204" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F204" s="3" t="str">
         <f>IF(ISBLANK(D204),"",SUM($E$3:E204))</f>
         <v/>
       </c>
-      <c r="I204" s="7" t="str">
+      <c r="I204" s="3" t="str">
         <f>IF(ISBLANK(D204),"",F204-SUM($H$3:H204))</f>
         <v/>
       </c>
     </row>
     <row r="205" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E205" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F205" s="7" t="str">
+      <c r="E205" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F205" s="3" t="str">
         <f>IF(ISBLANK(D205),"",SUM($E$3:E205))</f>
         <v/>
       </c>
-      <c r="I205" s="7" t="str">
+      <c r="I205" s="3" t="str">
         <f>IF(ISBLANK(D205),"",F205-SUM($H$3:H205))</f>
         <v/>
       </c>
     </row>
     <row r="206" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E206" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F206" s="7" t="str">
+      <c r="E206" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F206" s="3" t="str">
         <f>IF(ISBLANK(D206),"",SUM($E$3:E206))</f>
         <v/>
       </c>
-      <c r="I206" s="7" t="str">
+      <c r="I206" s="3" t="str">
         <f>IF(ISBLANK(D206),"",F206-SUM($H$3:H206))</f>
         <v/>
       </c>
     </row>
     <row r="207" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E207" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F207" s="7" t="str">
+      <c r="E207" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F207" s="3" t="str">
         <f>IF(ISBLANK(D207),"",SUM($E$3:E207))</f>
         <v/>
       </c>
-      <c r="I207" s="7" t="str">
+      <c r="I207" s="3" t="str">
         <f>IF(ISBLANK(D207),"",F207-SUM($H$3:H207))</f>
         <v/>
       </c>
     </row>
     <row r="208" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E208" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F208" s="7" t="str">
+      <c r="E208" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F208" s="3" t="str">
         <f>IF(ISBLANK(D208),"",SUM($E$3:E208))</f>
         <v/>
       </c>
-      <c r="I208" s="7" t="str">
+      <c r="I208" s="3" t="str">
         <f>IF(ISBLANK(D208),"",F208-SUM($H$3:H208))</f>
         <v/>
       </c>
     </row>
     <row r="209" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E209" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F209" s="7" t="str">
+      <c r="E209" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F209" s="3" t="str">
         <f>IF(ISBLANK(D209),"",SUM($E$3:E209))</f>
         <v/>
       </c>
-      <c r="I209" s="7" t="str">
+      <c r="I209" s="3" t="str">
         <f>IF(ISBLANK(D209),"",F209-SUM($H$3:H209))</f>
         <v/>
       </c>
     </row>
     <row r="210" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E210" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F210" s="7" t="str">
+      <c r="E210" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F210" s="3" t="str">
         <f>IF(ISBLANK(D210),"",SUM($E$3:E210))</f>
         <v/>
       </c>
-      <c r="I210" s="7" t="str">
+      <c r="I210" s="3" t="str">
         <f>IF(ISBLANK(D210),"",F210-SUM($H$3:H210))</f>
         <v/>
       </c>
     </row>
     <row r="211" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E211" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F211" s="7" t="str">
+      <c r="E211" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F211" s="3" t="str">
         <f>IF(ISBLANK(D211),"",SUM($E$3:E211))</f>
         <v/>
       </c>
-      <c r="I211" s="7" t="str">
+      <c r="I211" s="3" t="str">
         <f>IF(ISBLANK(D211),"",F211-SUM($H$3:H211))</f>
         <v/>
       </c>
     </row>
     <row r="212" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E212" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F212" s="7" t="str">
+      <c r="E212" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F212" s="3" t="str">
         <f>IF(ISBLANK(D212),"",SUM($E$3:E212))</f>
         <v/>
       </c>
-      <c r="I212" s="7" t="str">
+      <c r="I212" s="3" t="str">
         <f>IF(ISBLANK(D212),"",F212-SUM($H$3:H212))</f>
         <v/>
       </c>
     </row>
     <row r="213" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E213" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F213" s="7" t="str">
+      <c r="E213" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F213" s="3" t="str">
         <f>IF(ISBLANK(D213),"",SUM($E$3:E213))</f>
         <v/>
       </c>
-      <c r="I213" s="7" t="str">
+      <c r="I213" s="3" t="str">
         <f>IF(ISBLANK(D213),"",F213-SUM($H$3:H213))</f>
         <v/>
       </c>
     </row>
     <row r="214" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E214" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F214" s="7" t="str">
+      <c r="E214" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F214" s="3" t="str">
         <f>IF(ISBLANK(D214),"",SUM($E$3:E214))</f>
         <v/>
       </c>
-      <c r="I214" s="7" t="str">
+      <c r="I214" s="3" t="str">
         <f>IF(ISBLANK(D214),"",F214-SUM($H$3:H214))</f>
         <v/>
       </c>
     </row>
     <row r="215" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E215" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F215" s="7" t="str">
+      <c r="E215" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F215" s="3" t="str">
         <f>IF(ISBLANK(D215),"",SUM($E$3:E215))</f>
         <v/>
       </c>
-      <c r="I215" s="7" t="str">
+      <c r="I215" s="3" t="str">
         <f>IF(ISBLANK(D215),"",F215-SUM($H$3:H215))</f>
         <v/>
       </c>
     </row>
     <row r="216" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E216" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F216" s="7" t="str">
+      <c r="E216" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F216" s="3" t="str">
         <f>IF(ISBLANK(D216),"",SUM($E$3:E216))</f>
         <v/>
       </c>
-      <c r="I216" s="7" t="str">
+      <c r="I216" s="3" t="str">
         <f>IF(ISBLANK(D216),"",F216-SUM($H$3:H216))</f>
         <v/>
       </c>
     </row>
     <row r="217" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E217" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F217" s="7" t="str">
+      <c r="E217" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F217" s="3" t="str">
         <f>IF(ISBLANK(D217),"",SUM($E$3:E217))</f>
         <v/>
       </c>
-      <c r="I217" s="7" t="str">
+      <c r="I217" s="3" t="str">
         <f>IF(ISBLANK(D217),"",F217-SUM($H$3:H217))</f>
         <v/>
       </c>
     </row>
     <row r="218" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E218" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F218" s="7" t="str">
+      <c r="E218" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F218" s="3" t="str">
         <f>IF(ISBLANK(D218),"",SUM($E$3:E218))</f>
         <v/>
       </c>
-      <c r="I218" s="7" t="str">
+      <c r="I218" s="3" t="str">
         <f>IF(ISBLANK(D218),"",F218-SUM($H$3:H218))</f>
         <v/>
       </c>
     </row>
     <row r="219" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E219" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F219" s="7" t="str">
+      <c r="E219" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F219" s="3" t="str">
         <f>IF(ISBLANK(D219),"",SUM($E$3:E219))</f>
         <v/>
       </c>
-      <c r="I219" s="7" t="str">
+      <c r="I219" s="3" t="str">
         <f>IF(ISBLANK(D219),"",F219-SUM($H$3:H219))</f>
         <v/>
       </c>
     </row>
     <row r="220" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E220" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F220" s="7" t="str">
+      <c r="E220" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F220" s="3" t="str">
         <f>IF(ISBLANK(D220),"",SUM($E$3:E220))</f>
         <v/>
       </c>
-      <c r="I220" s="7" t="str">
+      <c r="I220" s="3" t="str">
         <f>IF(ISBLANK(D220),"",F220-SUM($H$3:H220))</f>
         <v/>
       </c>
     </row>
     <row r="221" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E221" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F221" s="7" t="str">
+      <c r="E221" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F221" s="3" t="str">
         <f>IF(ISBLANK(D221),"",SUM($E$3:E221))</f>
         <v/>
       </c>
-      <c r="I221" s="7" t="str">
+      <c r="I221" s="3" t="str">
         <f>IF(ISBLANK(D221),"",F221-SUM($H$3:H221))</f>
         <v/>
       </c>
     </row>
     <row r="222" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E222" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F222" s="7" t="str">
+      <c r="E222" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F222" s="3" t="str">
         <f>IF(ISBLANK(D222),"",SUM($E$3:E222))</f>
         <v/>
       </c>
-      <c r="I222" s="7" t="str">
+      <c r="I222" s="3" t="str">
         <f>IF(ISBLANK(D222),"",F222-SUM($H$3:H222))</f>
         <v/>
       </c>
     </row>
     <row r="223" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E223" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F223" s="7" t="str">
+      <c r="E223" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F223" s="3" t="str">
         <f>IF(ISBLANK(D223),"",SUM($E$3:E223))</f>
         <v/>
       </c>
-      <c r="I223" s="7" t="str">
+      <c r="I223" s="3" t="str">
         <f>IF(ISBLANK(D223),"",F223-SUM($H$3:H223))</f>
         <v/>
       </c>
     </row>
     <row r="224" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E224" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F224" s="7" t="str">
+      <c r="E224" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F224" s="3" t="str">
         <f>IF(ISBLANK(D224),"",SUM($E$3:E224))</f>
         <v/>
       </c>
-      <c r="I224" s="7" t="str">
+      <c r="I224" s="3" t="str">
         <f>IF(ISBLANK(D224),"",F224-SUM($H$3:H224))</f>
         <v/>
       </c>
     </row>
     <row r="225" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E225" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F225" s="7" t="str">
+      <c r="E225" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F225" s="3" t="str">
         <f>IF(ISBLANK(D225),"",SUM($E$3:E225))</f>
         <v/>
       </c>
-      <c r="I225" s="7" t="str">
+      <c r="I225" s="3" t="str">
         <f>IF(ISBLANK(D225),"",F225-SUM($H$3:H225))</f>
         <v/>
       </c>
     </row>
     <row r="226" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E226" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F226" s="7" t="str">
+      <c r="E226" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F226" s="3" t="str">
         <f>IF(ISBLANK(D226),"",SUM($E$3:E226))</f>
         <v/>
       </c>
-      <c r="I226" s="7" t="str">
+      <c r="I226" s="3" t="str">
         <f>IF(ISBLANK(D226),"",F226-SUM($H$3:H226))</f>
         <v/>
       </c>
     </row>
     <row r="227" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E227" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F227" s="7" t="str">
+      <c r="E227" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F227" s="3" t="str">
         <f>IF(ISBLANK(D227),"",SUM($E$3:E227))</f>
         <v/>
       </c>
-      <c r="I227" s="7" t="str">
+      <c r="I227" s="3" t="str">
         <f>IF(ISBLANK(D227),"",F227-SUM($H$3:H227))</f>
         <v/>
       </c>
     </row>
     <row r="228" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E228" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F228" s="7" t="str">
+      <c r="E228" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F228" s="3" t="str">
         <f>IF(ISBLANK(D228),"",SUM($E$3:E228))</f>
         <v/>
       </c>
-      <c r="I228" s="7" t="str">
+      <c r="I228" s="3" t="str">
         <f>IF(ISBLANK(D228),"",F228-SUM($H$3:H228))</f>
         <v/>
       </c>
     </row>
     <row r="229" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E229" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F229" s="7" t="str">
+      <c r="E229" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F229" s="3" t="str">
         <f>IF(ISBLANK(D229),"",SUM($E$3:E229))</f>
         <v/>
       </c>
-      <c r="I229" s="7" t="str">
+      <c r="I229" s="3" t="str">
         <f>IF(ISBLANK(D229),"",F229-SUM($H$3:H229))</f>
         <v/>
       </c>
     </row>
     <row r="230" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E230" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F230" s="7" t="str">
+      <c r="E230" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F230" s="3" t="str">
         <f>IF(ISBLANK(D230),"",SUM($E$3:E230))</f>
         <v/>
       </c>
-      <c r="I230" s="7" t="str">
+      <c r="I230" s="3" t="str">
         <f>IF(ISBLANK(D230),"",F230-SUM($H$3:H230))</f>
         <v/>
       </c>
     </row>
     <row r="231" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E231" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F231" s="7" t="str">
+      <c r="E231" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F231" s="3" t="str">
         <f>IF(ISBLANK(D231),"",SUM($E$3:E231))</f>
         <v/>
       </c>
-      <c r="I231" s="7" t="str">
+      <c r="I231" s="3" t="str">
         <f>IF(ISBLANK(D231),"",F231-SUM($H$3:H231))</f>
         <v/>
       </c>
     </row>
     <row r="232" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E232" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F232" s="7" t="str">
+      <c r="E232" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F232" s="3" t="str">
         <f>IF(ISBLANK(D232),"",SUM($E$3:E232))</f>
         <v/>
       </c>
-      <c r="I232" s="7" t="str">
+      <c r="I232" s="3" t="str">
         <f>IF(ISBLANK(D232),"",F232-SUM($H$3:H232))</f>
         <v/>
       </c>
     </row>
     <row r="233" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E233" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F233" s="7" t="str">
+      <c r="E233" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F233" s="3" t="str">
         <f>IF(ISBLANK(D233),"",SUM($E$3:E233))</f>
         <v/>
       </c>
-      <c r="I233" s="7" t="str">
+      <c r="I233" s="3" t="str">
         <f>IF(ISBLANK(D233),"",F233-SUM($H$3:H233))</f>
         <v/>
       </c>
     </row>
     <row r="234" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E234" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F234" s="7" t="str">
+      <c r="E234" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F234" s="3" t="str">
         <f>IF(ISBLANK(D234),"",SUM($E$3:E234))</f>
         <v/>
       </c>
-      <c r="I234" s="7" t="str">
+      <c r="I234" s="3" t="str">
         <f>IF(ISBLANK(D234),"",F234-SUM($H$3:H234))</f>
         <v/>
       </c>
     </row>
     <row r="235" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E235" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F235" s="7" t="str">
+      <c r="E235" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F235" s="3" t="str">
         <f>IF(ISBLANK(D235),"",SUM($E$3:E235))</f>
         <v/>
       </c>
-      <c r="I235" s="7" t="str">
+      <c r="I235" s="3" t="str">
         <f>IF(ISBLANK(D235),"",F235-SUM($H$3:H235))</f>
         <v/>
       </c>
     </row>
     <row r="236" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E236" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F236" s="7" t="str">
+      <c r="E236" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F236" s="3" t="str">
         <f>IF(ISBLANK(D236),"",SUM($E$3:E236))</f>
         <v/>
       </c>
-      <c r="I236" s="7" t="str">
+      <c r="I236" s="3" t="str">
         <f>IF(ISBLANK(D236),"",F236-SUM($H$3:H236))</f>
         <v/>
       </c>
     </row>
     <row r="237" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E237" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F237" s="7" t="str">
+      <c r="E237" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F237" s="3" t="str">
         <f>IF(ISBLANK(D237),"",SUM($E$3:E237))</f>
         <v/>
       </c>
-      <c r="I237" s="7" t="str">
+      <c r="I237" s="3" t="str">
         <f>IF(ISBLANK(D237),"",F237-SUM($H$3:H237))</f>
         <v/>
       </c>
     </row>
     <row r="238" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E238" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F238" s="7" t="str">
+      <c r="E238" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F238" s="3" t="str">
         <f>IF(ISBLANK(D238),"",SUM($E$3:E238))</f>
         <v/>
       </c>
-      <c r="I238" s="7" t="str">
+      <c r="I238" s="3" t="str">
         <f>IF(ISBLANK(D238),"",F238-SUM($H$3:H238))</f>
         <v/>
       </c>
     </row>
     <row r="239" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E239" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F239" s="7" t="str">
+      <c r="E239" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F239" s="3" t="str">
         <f>IF(ISBLANK(D239),"",SUM($E$3:E239))</f>
         <v/>
       </c>
-      <c r="I239" s="7" t="str">
+      <c r="I239" s="3" t="str">
         <f>IF(ISBLANK(D239),"",F239-SUM($H$3:H239))</f>
         <v/>
       </c>
     </row>
     <row r="240" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E240" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F240" s="7" t="str">
+      <c r="E240" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F240" s="3" t="str">
         <f>IF(ISBLANK(D240),"",SUM($E$3:E240))</f>
         <v/>
       </c>
-      <c r="I240" s="7" t="str">
+      <c r="I240" s="3" t="str">
         <f>IF(ISBLANK(D240),"",F240-SUM($H$3:H240))</f>
         <v/>
       </c>
     </row>
     <row r="241" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E241" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F241" s="7" t="str">
+      <c r="E241" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F241" s="3" t="str">
         <f>IF(ISBLANK(D241),"",SUM($E$3:E241))</f>
         <v/>
       </c>
-      <c r="I241" s="7" t="str">
+      <c r="I241" s="3" t="str">
         <f>IF(ISBLANK(D241),"",F241-SUM($H$3:H241))</f>
         <v/>
       </c>
     </row>
     <row r="242" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E242" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F242" s="7" t="str">
+      <c r="E242" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F242" s="3" t="str">
         <f>IF(ISBLANK(D242),"",SUM($E$3:E242))</f>
         <v/>
       </c>
-      <c r="I242" s="7" t="str">
+      <c r="I242" s="3" t="str">
         <f>IF(ISBLANK(D242),"",F242-SUM($H$3:H242))</f>
         <v/>
       </c>
     </row>
     <row r="243" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E243" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F243" s="7" t="str">
+      <c r="E243" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F243" s="3" t="str">
         <f>IF(ISBLANK(D243),"",SUM($E$3:E243))</f>
         <v/>
       </c>
-      <c r="I243" s="7" t="str">
+      <c r="I243" s="3" t="str">
         <f>IF(ISBLANK(D243),"",F243-SUM($H$3:H243))</f>
         <v/>
       </c>
     </row>
     <row r="244" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E244" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F244" s="7" t="str">
+      <c r="E244" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F244" s="3" t="str">
         <f>IF(ISBLANK(D244),"",SUM($E$3:E244))</f>
         <v/>
       </c>
-      <c r="I244" s="7" t="str">
+      <c r="I244" s="3" t="str">
         <f>IF(ISBLANK(D244),"",F244-SUM($H$3:H244))</f>
         <v/>
       </c>
     </row>
     <row r="245" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E245" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F245" s="7" t="str">
+      <c r="E245" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F245" s="3" t="str">
         <f>IF(ISBLANK(D245),"",SUM($E$3:E245))</f>
         <v/>
       </c>
-      <c r="I245" s="7" t="str">
+      <c r="I245" s="3" t="str">
         <f>IF(ISBLANK(D245),"",F245-SUM($H$3:H245))</f>
         <v/>
       </c>
     </row>
     <row r="246" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E246" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F246" s="7" t="str">
+      <c r="E246" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F246" s="3" t="str">
         <f>IF(ISBLANK(D246),"",SUM($E$3:E246))</f>
         <v/>
       </c>
-      <c r="I246" s="7" t="str">
+      <c r="I246" s="3" t="str">
         <f>IF(ISBLANK(D246),"",F246-SUM($H$3:H246))</f>
         <v/>
       </c>
     </row>
     <row r="247" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E247" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F247" s="7" t="str">
+      <c r="E247" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F247" s="3" t="str">
         <f>IF(ISBLANK(D247),"",SUM($E$3:E247))</f>
         <v/>
       </c>
-      <c r="I247" s="7" t="str">
+      <c r="I247" s="3" t="str">
         <f>IF(ISBLANK(D247),"",F247-SUM($H$3:H247))</f>
         <v/>
       </c>
     </row>
     <row r="248" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E248" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F248" s="7" t="str">
+      <c r="E248" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F248" s="3" t="str">
         <f>IF(ISBLANK(D248),"",SUM($E$3:E248))</f>
         <v/>
       </c>
-      <c r="I248" s="7" t="str">
+      <c r="I248" s="3" t="str">
         <f>IF(ISBLANK(D248),"",F248-SUM($H$3:H248))</f>
         <v/>
       </c>
     </row>
     <row r="249" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E249" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F249" s="7" t="str">
+      <c r="E249" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F249" s="3" t="str">
         <f>IF(ISBLANK(D249),"",SUM($E$3:E249))</f>
         <v/>
       </c>
-      <c r="I249" s="7" t="str">
+      <c r="I249" s="3" t="str">
         <f>IF(ISBLANK(D249),"",F249-SUM($H$3:H249))</f>
         <v/>
       </c>
     </row>
     <row r="250" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E250" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F250" s="7" t="str">
+      <c r="E250" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F250" s="3" t="str">
         <f>IF(ISBLANK(D250),"",SUM($E$3:E250))</f>
         <v/>
       </c>
-      <c r="I250" s="7" t="str">
+      <c r="I250" s="3" t="str">
         <f>IF(ISBLANK(D250),"",F250-SUM($H$3:H250))</f>
         <v/>
       </c>
     </row>
     <row r="251" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E251" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F251" s="7" t="str">
+      <c r="E251" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F251" s="3" t="str">
         <f>IF(ISBLANK(D251),"",SUM($E$3:E251))</f>
         <v/>
       </c>
-      <c r="I251" s="7" t="str">
+      <c r="I251" s="3" t="str">
         <f>IF(ISBLANK(D251),"",F251-SUM($H$3:H251))</f>
         <v/>
       </c>
     </row>
     <row r="252" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E252" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F252" s="7" t="str">
+      <c r="E252" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F252" s="3" t="str">
         <f>IF(ISBLANK(D252),"",SUM($E$3:E252))</f>
         <v/>
       </c>
-      <c r="I252" s="7" t="str">
+      <c r="I252" s="3" t="str">
         <f>IF(ISBLANK(D252),"",F252-SUM($H$3:H252))</f>
         <v/>
       </c>
     </row>
     <row r="253" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E253" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F253" s="7" t="str">
+      <c r="E253" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F253" s="3" t="str">
         <f>IF(ISBLANK(D253),"",SUM($E$3:E253))</f>
         <v/>
       </c>
-      <c r="I253" s="7" t="str">
+      <c r="I253" s="3" t="str">
         <f>IF(ISBLANK(D253),"",F253-SUM($H$3:H253))</f>
         <v/>
       </c>

--- a/Doc/Взаиморасчеты.xlsx
+++ b/Doc/Взаиморасчеты.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>№</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>При сохранении заявки привязывать к ней партии в наличии</t>
+  </si>
+  <si>
+    <t>Формы документов поправить согласно письму</t>
   </si>
 </sst>
 </file>
@@ -176,6 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -188,7 +192,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -493,7 +496,7 @@
   <dimension ref="A1:I253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,19 +513,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -697,10 +700,10 @@
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="5">
         <v>0.5</v>
       </c>
       <c r="E8" s="2">
@@ -723,10 +726,10 @@
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <v>0.5</v>
       </c>
       <c r="E9" s="2">
@@ -749,10 +752,10 @@
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="5">
         <v>2</v>
       </c>
       <c r="E10" s="2">
@@ -775,10 +778,10 @@
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <v>2</v>
       </c>
       <c r="E11" s="2">
@@ -801,10 +804,10 @@
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="5">
         <v>6</v>
       </c>
       <c r="E12" s="2">
@@ -827,10 +830,10 @@
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="5">
         <v>4</v>
       </c>
       <c r="E13" s="2">
@@ -850,17 +853,26 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="E14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F14" s="3" t="str">
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+      <c r="F14" s="3">
         <f>IF(ISBLANK(D14),"",SUM($E$3:E14))</f>
-        <v/>
-      </c>
-      <c r="I14" s="3" t="str">
+        <v>26400</v>
+      </c>
+      <c r="I14" s="3">
         <f>IF(ISBLANK(D14),"",F14-SUM($H$3:H14))</f>
-        <v/>
+        <v>11400</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">

--- a/Doc/Взаиморасчеты.xlsx
+++ b/Doc/Взаиморасчеты.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>№</t>
   </si>
@@ -88,6 +88,33 @@
   </si>
   <si>
     <t>Формы документов поправить согласно письму</t>
+  </si>
+  <si>
+    <t>Восстановить удаленные чертежи</t>
+  </si>
+  <si>
+    <t>1.19.3</t>
+  </si>
+  <si>
+    <t>Редактирование цены в заявке</t>
+  </si>
+  <si>
+    <t>Запрещать удаление чертежа, если есть заявки по нему</t>
+  </si>
+  <si>
+    <t>Номер чертежа вместе с группой сделать уникальным</t>
+  </si>
+  <si>
+    <t>Нумерация строк в журналах и заявках</t>
+  </si>
+  <si>
+    <t>Возможность добавить несколько картинок в один чертеж</t>
+  </si>
+  <si>
+    <t>Просмотр картинки чтобы вся была видна</t>
+  </si>
+  <si>
+    <t>Суммы в отчетах (отчет по ЗП)</t>
   </si>
 </sst>
 </file>
@@ -496,7 +523,7 @@
   <dimension ref="A1:I253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +605,7 @@
         <v>3000</v>
       </c>
       <c r="G3" s="4">
-        <v>42394</v>
+        <v>42760</v>
       </c>
       <c r="H3" s="2">
         <v>15000</v>
@@ -870,145 +897,202 @@
         <f>IF(ISBLANK(D14),"",SUM($E$3:E14))</f>
         <v>26400</v>
       </c>
+      <c r="G14" s="4">
+        <v>42772</v>
+      </c>
+      <c r="H14" s="2">
+        <v>15000</v>
+      </c>
       <c r="I14" s="3">
         <f>IF(ISBLANK(D14),"",F14-SUM($H$3:H14))</f>
-        <v>11400</v>
+        <v>-3600</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="E15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F15" s="3" t="str">
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="F15" s="3">
         <f>IF(ISBLANK(D15),"",SUM($E$3:E15))</f>
-        <v/>
-      </c>
-      <c r="I15" s="3" t="str">
+        <v>27600</v>
+      </c>
+      <c r="I15" s="3">
         <f>IF(ISBLANK(D15),"",F15-SUM($H$3:H15))</f>
-        <v/>
+        <v>-2400</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="E16" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F16" s="3" t="str">
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="F16" s="3">
         <f>IF(ISBLANK(D16),"",SUM($E$3:E16))</f>
-        <v/>
-      </c>
-      <c r="I16" s="3" t="str">
+        <v>27900</v>
+      </c>
+      <c r="I16" s="3">
         <f>IF(ISBLANK(D16),"",F16-SUM($H$3:H16))</f>
-        <v/>
+        <v>-2100</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="E17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F17" s="3" t="str">
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <f>IF(ISBLANK(D17),"",SUM($E$3:E17))</f>
-        <v/>
-      </c>
-      <c r="I17" s="3" t="str">
+        <v>28500</v>
+      </c>
+      <c r="I17" s="3">
         <f>IF(ISBLANK(D17),"",F17-SUM($H$3:H17))</f>
-        <v/>
+        <v>-1500</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="E18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F18" s="3" t="str">
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="F18" s="3">
         <f>IF(ISBLANK(D18),"",SUM($E$3:E18))</f>
-        <v/>
-      </c>
-      <c r="I18" s="3" t="str">
+        <v>29700</v>
+      </c>
+      <c r="I18" s="3">
         <f>IF(ISBLANK(D18),"",F18-SUM($H$3:H18))</f>
-        <v/>
+        <v>-300</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="E19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F19" s="3" t="str">
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="F19" s="3">
         <f>IF(ISBLANK(D19),"",SUM($E$3:E19))</f>
-        <v/>
-      </c>
-      <c r="I19" s="3" t="str">
+        <v>30900</v>
+      </c>
+      <c r="I19" s="3">
         <f>IF(ISBLANK(D19),"",F19-SUM($H$3:H19))</f>
-        <v/>
+        <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="E20" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F20" s="3" t="str">
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="5">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>4800</v>
+      </c>
+      <c r="F20" s="3">
         <f>IF(ISBLANK(D20),"",SUM($E$3:E20))</f>
-        <v/>
-      </c>
-      <c r="I20" s="3" t="str">
+        <v>35700</v>
+      </c>
+      <c r="I20" s="3">
         <f>IF(ISBLANK(D20),"",F20-SUM($H$3:H20))</f>
-        <v/>
+        <v>5700</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="E21" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F21" s="3" t="str">
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="F21" s="3">
         <f>IF(ISBLANK(D21),"",SUM($E$3:E21))</f>
-        <v/>
-      </c>
-      <c r="I21" s="3" t="str">
+        <v>36000</v>
+      </c>
+      <c r="I21" s="3">
         <f>IF(ISBLANK(D21),"",F21-SUM($H$3:H21))</f>
-        <v/>
+        <v>6000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="E22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F22" s="3" t="str">
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <f>IF(ISBLANK(D22),"",SUM($E$3:E22))</f>
-        <v/>
-      </c>
-      <c r="I22" s="3" t="str">
+        <v>36300</v>
+      </c>
+      <c r="I22" s="3">
         <f>IF(ISBLANK(D22),"",F22-SUM($H$3:H22))</f>
-        <v/>
+        <v>6300</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">

--- a/Doc/Взаиморасчеты.xlsx
+++ b/Doc/Взаиморасчеты.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>№</t>
   </si>
@@ -116,6 +116,27 @@
   <si>
     <t>Суммы в отчетах (отчет по ЗП)</t>
   </si>
+  <si>
+    <t>Материал в заявках всегда брать из чертежа</t>
+  </si>
+  <si>
+    <t>Выбор поставщика в журнале прихода материалов</t>
+  </si>
+  <si>
+    <t>Журнал учета материалов, суммы по сф,, колич., сумма</t>
+  </si>
+  <si>
+    <t>Журнал оплаты - выбор заказчика</t>
+  </si>
+  <si>
+    <t>Журнал оплаты - сумма по колонкам сумм</t>
+  </si>
+  <si>
+    <t>В дублирующихся чертежах заменить дроби на точки</t>
+  </si>
+  <si>
+    <t>В окне выбора чертежа (заявка) добавить цену и доп. инфо.</t>
+  </si>
 </sst>
 </file>
 
@@ -131,12 +152,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -200,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -219,6 +246,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -523,7 +553,7 @@
   <dimension ref="A1:I253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,300 +939,423 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="11">
         <v>2</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="11">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="12">
         <f>IF(ISBLANK(D15),"",SUM($E$3:E15))</f>
         <v>27600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12">
         <f>IF(ISBLANK(D15),"",F15-SUM($H$3:H15))</f>
         <v>-2400</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="5">
+      <c r="C16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="11">
         <v>0.5</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="11">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="12">
         <f>IF(ISBLANK(D16),"",SUM($E$3:E16))</f>
         <v>27900</v>
       </c>
-      <c r="I16" s="3">
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12">
         <f>IF(ISBLANK(D16),"",F16-SUM($H$3:H16))</f>
         <v>-2100</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="5">
+      <c r="C17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="11">
         <v>1</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="11">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="12">
         <f>IF(ISBLANK(D17),"",SUM($E$3:E17))</f>
         <v>28500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12">
         <f>IF(ISBLANK(D17),"",F17-SUM($H$3:H17))</f>
         <v>-1500</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="5">
+      <c r="C18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="11">
         <v>2</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="11">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="12">
         <f>IF(ISBLANK(D18),"",SUM($E$3:E18))</f>
         <v>29700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12">
         <f>IF(ISBLANK(D18),"",F18-SUM($H$3:H18))</f>
         <v>-300</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="10">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="5">
+      <c r="C19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="11">
         <v>2</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="11">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="12">
         <f>IF(ISBLANK(D19),"",SUM($E$3:E19))</f>
         <v>30900</v>
       </c>
-      <c r="I19" s="3">
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12">
         <f>IF(ISBLANK(D19),"",F19-SUM($H$3:H19))</f>
         <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="10">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="5">
+      <c r="C20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11">
         <v>8</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="11">
         <f t="shared" si="1"/>
         <v>4800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="12">
         <f>IF(ISBLANK(D20),"",SUM($E$3:E20))</f>
         <v>35700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12">
         <f>IF(ISBLANK(D20),"",F20-SUM($H$3:H20))</f>
         <v>5700</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="10">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="5">
+      <c r="C21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="11">
         <v>0.5</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="11">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="12">
         <f>IF(ISBLANK(D21),"",SUM($E$3:E21))</f>
         <v>36000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12">
         <f>IF(ISBLANK(D21),"",F21-SUM($H$3:H21))</f>
         <v>6000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="5">
+      <c r="C22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="11">
         <v>0.5</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="11">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="12">
         <f>IF(ISBLANK(D22),"",SUM($E$3:E22))</f>
         <v>36300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12">
         <f>IF(ISBLANK(D22),"",F22-SUM($H$3:H22))</f>
         <v>6300</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="10">
         <v>21</v>
       </c>
-      <c r="E23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F23" s="3" t="str">
+      <c r="B23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="11">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="F23" s="12">
         <f>IF(ISBLANK(D23),"",SUM($E$3:E23))</f>
-        <v/>
-      </c>
-      <c r="I23" s="3" t="str">
+        <v>36900</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12">
         <f>IF(ISBLANK(D23),"",F23-SUM($H$3:H23))</f>
-        <v/>
+        <v>6900</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="10">
         <v>22</v>
       </c>
-      <c r="E24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F24" s="3" t="str">
+      <c r="B24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="11">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="F24" s="12">
         <f>IF(ISBLANK(D24),"",SUM($E$3:E24))</f>
-        <v/>
-      </c>
-      <c r="I24" s="3" t="str">
+        <v>37200</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12">
         <f>IF(ISBLANK(D24),"",F24-SUM($H$3:H24))</f>
-        <v/>
+        <v>7200</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="10">
         <v>23</v>
       </c>
-      <c r="E25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F25" s="3" t="str">
+      <c r="B25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="11">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="F25" s="12">
         <f>IF(ISBLANK(D25),"",SUM($E$3:E25))</f>
-        <v/>
-      </c>
-      <c r="I25" s="3" t="str">
+        <v>37500</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="12">
         <f>IF(ISBLANK(D25),"",F25-SUM($H$3:H25))</f>
-        <v/>
+        <v>7500</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="10">
         <v>24</v>
       </c>
-      <c r="E26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F26" s="3" t="str">
+      <c r="B26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="11">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="F26" s="12">
         <f>IF(ISBLANK(D26),"",SUM($E$3:E26))</f>
-        <v/>
-      </c>
-      <c r="I26" s="3" t="str">
+        <v>37800</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="12">
         <f>IF(ISBLANK(D26),"",F26-SUM($H$3:H26))</f>
-        <v/>
+        <v>7800</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F27" s="3" t="str">
+      <c r="A27" s="10">
+        <v>25</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="11">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="F27" s="12">
         <f>IF(ISBLANK(D27),"",SUM($E$3:E27))</f>
-        <v/>
-      </c>
-      <c r="I27" s="3" t="str">
+        <v>38100</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="12">
         <f>IF(ISBLANK(D27),"",F27-SUM($H$3:H27))</f>
-        <v/>
+        <v>8100</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F28" s="3" t="str">
+      <c r="A28" s="10">
+        <v>26</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E28" s="11">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F28" s="12">
         <f>IF(ISBLANK(D28),"",SUM($E$3:E28))</f>
-        <v/>
-      </c>
-      <c r="I28" s="3" t="str">
+        <v>38250</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="12">
         <f>IF(ISBLANK(D28),"",F28-SUM($H$3:H28))</f>
-        <v/>
+        <v>8250</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F29" s="3" t="str">
+      <c r="A29" s="10">
+        <v>27</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E29" s="11">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F29" s="12">
         <f>IF(ISBLANK(D29),"",SUM($E$3:E29))</f>
-        <v/>
-      </c>
-      <c r="I29" s="3" t="str">
+        <v>38400</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12">
         <f>IF(ISBLANK(D29),"",F29-SUM($H$3:H29))</f>
-        <v/>
+        <v>8400</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">

--- a/Doc/Взаиморасчеты.xlsx
+++ b/Doc/Взаиморасчеты.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>№</t>
   </si>
@@ -137,13 +137,40 @@
   <si>
     <t>В окне выбора чертежа (заявка) добавить цену и доп. инфо.</t>
   </si>
+  <si>
+    <t>Фильтр отгрузок по чертежу, по заказчику</t>
+  </si>
+  <si>
+    <t>Фильтр заявок по чертежу</t>
+  </si>
+  <si>
+    <t>Отгрузка. Нумерацию документов на замену брака, довоз продукции -сделать по порядку, учет отдельно 1б,2б, и т.д.</t>
+  </si>
+  <si>
+    <t>1.19.4</t>
+  </si>
+  <si>
+    <t>Важно .Наряд. Может быть формировать наряд (если нет заявки) по чертежам, как собственный заказ, и данные брать из базы, а в учете формировать как на склад . И дать возможность отгрузки. ВП</t>
+  </si>
+  <si>
+    <t>Реестр заявок. Столбец "Детали" возможность просмотра заказанных деталей в определенной заявке в виде выплывающего окна столбцом. ВП. Добавил то же в реестр отгрузок (Евгений).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -166,42 +193,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -223,32 +219,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -552,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,53 +628,53 @@
     <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -939,496 +1004,561 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="7">
         <v>2</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="7">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="8">
         <f>IF(ISBLANK(D15),"",SUM($E$3:E15))</f>
         <v>27600</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12">
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
         <f>IF(ISBLANK(D15),"",F15-SUM($H$3:H15))</f>
         <v>-2400</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="7">
         <v>0.5</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="7">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="8">
         <f>IF(ISBLANK(D16),"",SUM($E$3:E16))</f>
         <v>27900</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12">
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
         <f>IF(ISBLANK(D16),"",F16-SUM($H$3:H16))</f>
         <v>-2100</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="7">
         <v>1</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="7">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="8">
         <f>IF(ISBLANK(D17),"",SUM($E$3:E17))</f>
         <v>28500</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12">
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
         <f>IF(ISBLANK(D17),"",F17-SUM($H$3:H17))</f>
         <v>-1500</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="7">
         <v>2</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="7">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="8">
         <f>IF(ISBLANK(D18),"",SUM($E$3:E18))</f>
         <v>29700</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12">
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
         <f>IF(ISBLANK(D18),"",F18-SUM($H$3:H18))</f>
         <v>-300</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="7">
         <v>2</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="7">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="8">
         <f>IF(ISBLANK(D19),"",SUM($E$3:E19))</f>
         <v>30900</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12">
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
         <f>IF(ISBLANK(D19),"",F19-SUM($H$3:H19))</f>
         <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="7">
         <v>8</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="7">
         <f t="shared" si="1"/>
         <v>4800</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="8">
         <f>IF(ISBLANK(D20),"",SUM($E$3:E20))</f>
         <v>35700</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="12">
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
         <f>IF(ISBLANK(D20),"",F20-SUM($H$3:H20))</f>
         <v>5700</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="7">
         <v>0.5</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="7">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="8">
         <f>IF(ISBLANK(D21),"",SUM($E$3:E21))</f>
         <v>36000</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12">
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
         <f>IF(ISBLANK(D21),"",F21-SUM($H$3:H21))</f>
         <v>6000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="7">
         <v>0.5</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="7">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="8">
         <f>IF(ISBLANK(D22),"",SUM($E$3:E22))</f>
         <v>36300</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12">
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
         <f>IF(ISBLANK(D22),"",F22-SUM($H$3:H22))</f>
         <v>6300</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="7">
         <v>1</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="7">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="8">
         <f>IF(ISBLANK(D23),"",SUM($E$3:E23))</f>
         <v>36900</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12">
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
         <f>IF(ISBLANK(D23),"",F23-SUM($H$3:H23))</f>
         <v>6900</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="7">
         <v>0.5</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="7">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="8">
         <f>IF(ISBLANK(D24),"",SUM($E$3:E24))</f>
         <v>37200</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12">
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
         <f>IF(ISBLANK(D24),"",F24-SUM($H$3:H24))</f>
         <v>7200</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="7">
         <v>0.5</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="7">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="8">
         <f>IF(ISBLANK(D25),"",SUM($E$3:E25))</f>
         <v>37500</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="12">
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
         <f>IF(ISBLANK(D25),"",F25-SUM($H$3:H25))</f>
         <v>7500</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="7">
         <v>0.5</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="7">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="8">
         <f>IF(ISBLANK(D26),"",SUM($E$3:E26))</f>
         <v>37800</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="12">
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
         <f>IF(ISBLANK(D26),"",F26-SUM($H$3:H26))</f>
         <v>7800</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="7">
         <v>0.5</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="7">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="8">
         <f>IF(ISBLANK(D27),"",SUM($E$3:E27))</f>
         <v>38100</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="12">
+      <c r="G27" s="6"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
         <f>IF(ISBLANK(D27),"",F27-SUM($H$3:H27))</f>
         <v>8100</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="7">
         <v>0.25</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="7">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="8">
         <f>IF(ISBLANK(D28),"",SUM($E$3:E28))</f>
         <v>38250</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="12">
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
         <f>IF(ISBLANK(D28),"",F28-SUM($H$3:H28))</f>
         <v>8250</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="7">
         <v>0.25</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="7">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="8">
         <f>IF(ISBLANK(D29),"",SUM($E$3:E29))</f>
         <v>38400</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="12">
+      <c r="G29" s="9">
+        <v>42782</v>
+      </c>
+      <c r="H29" s="7">
+        <v>20000</v>
+      </c>
+      <c r="I29" s="8">
         <f>IF(ISBLANK(D29),"",F29-SUM($H$3:H29))</f>
-        <v>8400</v>
+        <v>-11600</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F30" s="3" t="str">
+      <c r="A30" s="6">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="F30" s="3">
         <f>IF(ISBLANK(D30),"",SUM($E$3:E30))</f>
-        <v/>
-      </c>
-      <c r="I30" s="3" t="str">
+        <v>39600</v>
+      </c>
+      <c r="I30" s="3">
         <f>IF(ISBLANK(D30),"",F30-SUM($H$3:H30))</f>
-        <v/>
+        <v>-10400</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E31" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F31" s="3" t="str">
+      <c r="A31" s="6">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="F31" s="3">
         <f>IF(ISBLANK(D31),"",SUM($E$3:E31))</f>
-        <v/>
-      </c>
-      <c r="I31" s="3" t="str">
+        <v>40800</v>
+      </c>
+      <c r="I31" s="3">
         <f>IF(ISBLANK(D31),"",F31-SUM($H$3:H31))</f>
-        <v/>
+        <v>-9200</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E32" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F32" s="3" t="str">
+      <c r="A32" s="6">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
         <f>IF(ISBLANK(D32),"",SUM($E$3:E32))</f>
-        <v/>
-      </c>
-      <c r="I32" s="3" t="str">
+        <v>41400</v>
+      </c>
+      <c r="I32" s="3">
         <f>IF(ISBLANK(D32),"",F32-SUM($H$3:H32))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E33" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F33" s="3" t="str">
+        <v>-8600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="7">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="F33" s="3">
         <f>IF(ISBLANK(D33),"",SUM($E$3:E33))</f>
-        <v/>
-      </c>
-      <c r="I33" s="3" t="str">
+        <v>44400</v>
+      </c>
+      <c r="I33" s="3">
         <f>IF(ISBLANK(D33),"",F33-SUM($H$3:H33))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F34" s="3" t="str">
+        <v>-5600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="F34" s="3">
         <f>IF(ISBLANK(D34),"",SUM($E$3:E34))</f>
-        <v/>
-      </c>
-      <c r="I34" s="3" t="str">
+        <v>46200</v>
+      </c>
+      <c r="I34" s="3">
         <f>IF(ISBLANK(D34),"",F34-SUM($H$3:H34))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
+        <v>-3800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="7"/>
       <c r="E35" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1442,7 +1572,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E36" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1456,7 +1586,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E37" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1470,7 +1600,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E38" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1484,7 +1614,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E39" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1498,7 +1628,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E40" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1512,7 +1642,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E41" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1526,7 +1656,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E42" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1540,7 +1670,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1554,7 +1684,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1568,7 +1698,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1582,7 +1712,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1596,7 +1726,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E47" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1610,7 +1740,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E48" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4500,6 +4630,7 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Doc/Взаиморасчеты.xlsx
+++ b/Doc/Взаиморасчеты.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>№</t>
   </si>
@@ -147,13 +147,25 @@
     <t>Отгрузка. Нумерацию документов на замену брака, довоз продукции -сделать по порядку, учет отдельно 1б,2б, и т.д.</t>
   </si>
   <si>
-    <t>1.19.4</t>
-  </si>
-  <si>
     <t>Важно .Наряд. Может быть формировать наряд (если нет заявки) по чертежам, как собственный заказ, и данные брать из базы, а в учете формировать как на склад . И дать возможность отгрузки. ВП</t>
   </si>
   <si>
     <t>Реестр заявок. Столбец "Детали" возможность просмотра заказанных деталей в определенной заявке в виде выплывающего окна столбцом. ВП. Добавил то же в реестр отгрузок (Евгений).</t>
+  </si>
+  <si>
+    <t>Реестр отгрузок. Столбец "Детали" возможность просмотра заказанных деталей в определенной заявке в виде выплывающего окна столбцом.</t>
+  </si>
+  <si>
+    <t>Сделать реестр нарядов, в котором было бы видно за какие даты нет наряда</t>
+  </si>
+  <si>
+    <t>Журналы. Итоговые суммы.  ВП</t>
+  </si>
+  <si>
+    <t>При печати ТК пропускать процессы с временем = 0</t>
+  </si>
+  <si>
+    <t>1.20</t>
   </si>
 </sst>
 </file>
@@ -291,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -314,6 +326,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -617,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,190 +1443,255 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="16">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="7">
+      <c r="C30" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="5">
         <v>2</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="5">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="17">
         <f>IF(ISBLANK(D30),"",SUM($E$3:E30))</f>
         <v>39600</v>
       </c>
-      <c r="I30" s="3">
+      <c r="G30" s="16"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="17">
         <f>IF(ISBLANK(D30),"",F30-SUM($H$3:H30))</f>
         <v>-10400</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="16">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="7">
+      <c r="C31" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="5">
         <v>2</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="5">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="17">
         <f>IF(ISBLANK(D31),"",SUM($E$3:E31))</f>
         <v>40800</v>
       </c>
-      <c r="I31" s="3">
+      <c r="G31" s="16"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="17">
         <f>IF(ISBLANK(D31),"",F31-SUM($H$3:H31))</f>
         <v>-9200</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="16">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="C32" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="5">
         <v>1</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="5">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="17">
         <f>IF(ISBLANK(D32),"",SUM($E$3:E32))</f>
         <v>41400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="G32" s="16"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="17">
         <f>IF(ISBLANK(D32),"",F32-SUM($H$3:H32))</f>
         <v>-8600</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="16">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="7">
+      <c r="C33" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="5">
         <v>5</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="5">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="17">
         <f>IF(ISBLANK(D33),"",SUM($E$3:E33))</f>
         <v>44400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="G33" s="16"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="17">
         <f>IF(ISBLANK(D33),"",F33-SUM($H$3:H33))</f>
         <v>-5600</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="16">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="7">
+      <c r="B34" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="5">
         <v>3</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="17">
         <f>IF(ISBLANK(D34),"",SUM($E$3:E34))</f>
         <v>46200</v>
       </c>
-      <c r="I34" s="3">
+      <c r="G34" s="16"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="17">
         <f>IF(ISBLANK(D34),"",F34-SUM($H$3:H34))</f>
         <v>-3800</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="7"/>
-      <c r="E35" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F35" s="3" t="str">
+      <c r="A35" s="16">
+        <v>33</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="F35" s="17">
         <f>IF(ISBLANK(D35),"",SUM($E$3:E35))</f>
-        <v/>
-      </c>
-      <c r="I35" s="3" t="str">
+        <v>46800</v>
+      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="17">
         <f>IF(ISBLANK(D35),"",F35-SUM($H$3:H35))</f>
-        <v/>
+        <v>-3200</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E36" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F36" s="3" t="str">
+      <c r="A36" s="16">
+        <v>34</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="5">
+        <v>4</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+      <c r="F36" s="17">
         <f>IF(ISBLANK(D36),"",SUM($E$3:E36))</f>
-        <v/>
-      </c>
-      <c r="I36" s="3" t="str">
+        <v>49200</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="17">
         <f>IF(ISBLANK(D36),"",F36-SUM($H$3:H36))</f>
-        <v/>
+        <v>-800</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E37" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F37" s="3" t="str">
+      <c r="A37" s="16">
+        <v>35</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="F37" s="17">
         <f>IF(ISBLANK(D37),"",SUM($E$3:E37))</f>
-        <v/>
-      </c>
-      <c r="I37" s="3" t="str">
+        <v>49800</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="17">
         <f>IF(ISBLANK(D37),"",F37-SUM($H$3:H37))</f>
-        <v/>
+        <v>-200</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E38" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F38" s="3" t="str">
+      <c r="A38" s="16">
+        <v>36</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="F38" s="17">
         <f>IF(ISBLANK(D38),"",SUM($E$3:E38))</f>
-        <v/>
-      </c>
-      <c r="I38" s="3" t="str">
+        <v>50400</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="17">
         <f>IF(ISBLANK(D38),"",F38-SUM($H$3:H38))</f>
-        <v/>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">

--- a/Doc/Взаиморасчеты.xlsx
+++ b/Doc/Взаиморасчеты.xlsx
@@ -633,7 +633,7 @@
   <dimension ref="A1:I253"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="A38" sqref="A30:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,21 +1677,21 @@
         <v>49</v>
       </c>
       <c r="D38" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F38" s="17">
         <f>IF(ISBLANK(D38),"",SUM($E$3:E38))</f>
-        <v>50400</v>
+        <v>50100</v>
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="5"/>
       <c r="I38" s="17">
         <f>IF(ISBLANK(D38),"",F38-SUM($H$3:H38))</f>
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">

--- a/Doc/Взаиморасчеты.xlsx
+++ b/Doc/Взаиморасчеты.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
   <si>
     <t>№</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Отгрузка. Нумерацию документов на замену брака, довоз продукции -сделать по порядку, учет отдельно 1б,2б, и т.д.</t>
   </si>
   <si>
-    <t>Важно .Наряд. Может быть формировать наряд (если нет заявки) по чертежам, как собственный заказ, и данные брать из базы, а в учете формировать как на склад . И дать возможность отгрузки. ВП</t>
-  </si>
-  <si>
     <t>Реестр заявок. Столбец "Детали" возможность просмотра заказанных деталей в определенной заявке в виде выплывающего окна столбцом. ВП. Добавил то же в реестр отгрузок (Евгений).</t>
   </si>
   <si>
@@ -166,6 +163,39 @@
   </si>
   <si>
     <t>1.20</t>
+  </si>
+  <si>
+    <t>Печатные формы журналов: Обрезка облоя</t>
+  </si>
+  <si>
+    <t>Печатные формы журналов: Вальцовщик</t>
+  </si>
+  <si>
+    <t>Печатные формы журналов: Оплата оснастки</t>
+  </si>
+  <si>
+    <t>Печатные формы журналов: Приход материала</t>
+  </si>
+  <si>
+    <t>Печатные формы журналов: Оплата</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>Формула расчета массы к4</t>
+  </si>
+  <si>
+    <t>Сплиттер в журнале обрезки облоя</t>
+  </si>
+  <si>
+    <t>Номера накладных на отгрузку сделать редактируемыми</t>
+  </si>
+  <si>
+    <t>Реестр изг. деталей - нарисовать линии таблицы, установить альбомную печать, расширить столбцы</t>
+  </si>
+  <si>
+    <t>Важно. Наряд. Может быть формировать наряд (если нет заявки) по чертежам, как собственный заказ, и данные брать из базы, а в учете формировать как на склад . И дать возможность отгрузки. ВП</t>
   </si>
 </sst>
 </file>
@@ -317,6 +347,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -326,9 +359,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -632,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A30:I38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,19 +680,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="13" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="15"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -1443,14 +1473,14 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+      <c r="A30" s="13">
         <v>28</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>49</v>
+      <c r="C30" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="D30" s="5">
         <v>2</v>
@@ -1459,26 +1489,26 @@
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="14">
         <f>IF(ISBLANK(D30),"",SUM($E$3:E30))</f>
         <v>39600</v>
       </c>
-      <c r="G30" s="16"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="17">
+      <c r="I30" s="14">
         <f>IF(ISBLANK(D30),"",F30-SUM($H$3:H30))</f>
         <v>-10400</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+      <c r="A31" s="13">
         <v>29</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>49</v>
+      <c r="C31" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="D31" s="5">
         <v>2</v>
@@ -1487,26 +1517,26 @@
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="14">
         <f>IF(ISBLANK(D31),"",SUM($E$3:E31))</f>
         <v>40800</v>
       </c>
-      <c r="G31" s="16"/>
+      <c r="G31" s="13"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="17">
+      <c r="I31" s="14">
         <f>IF(ISBLANK(D31),"",F31-SUM($H$3:H31))</f>
         <v>-9200</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+      <c r="A32" s="13">
         <v>30</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>49</v>
+      <c r="C32" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="D32" s="5">
         <v>1</v>
@@ -1515,26 +1545,26 @@
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="14">
         <f>IF(ISBLANK(D32),"",SUM($E$3:E32))</f>
         <v>41400</v>
       </c>
-      <c r="G32" s="16"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="17">
+      <c r="I32" s="14">
         <f>IF(ISBLANK(D32),"",F32-SUM($H$3:H32))</f>
         <v>-8600</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+      <c r="A33" s="13">
         <v>31</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>49</v>
+      <c r="B33" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="D33" s="5">
         <v>5</v>
@@ -1543,26 +1573,26 @@
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="14">
         <f>IF(ISBLANK(D33),"",SUM($E$3:E33))</f>
         <v>44400</v>
       </c>
-      <c r="G33" s="16"/>
+      <c r="G33" s="13"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="17">
+      <c r="I33" s="14">
         <f>IF(ISBLANK(D33),"",F33-SUM($H$3:H33))</f>
         <v>-5600</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
+      <c r="A34" s="13">
         <v>32</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>49</v>
+      <c r="B34" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="D34" s="5">
         <v>3</v>
@@ -1571,26 +1601,26 @@
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="14">
         <f>IF(ISBLANK(D34),"",SUM($E$3:E34))</f>
         <v>46200</v>
       </c>
-      <c r="G34" s="16"/>
+      <c r="G34" s="13"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="17">
+      <c r="I34" s="14">
         <f>IF(ISBLANK(D34),"",F34-SUM($H$3:H34))</f>
         <v>-3800</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
+      <c r="A35" s="13">
         <v>33</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>49</v>
+      <c r="B35" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
@@ -1599,26 +1629,26 @@
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="14">
         <f>IF(ISBLANK(D35),"",SUM($E$3:E35))</f>
         <v>46800</v>
       </c>
-      <c r="G35" s="16"/>
+      <c r="G35" s="13"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="17">
+      <c r="I35" s="14">
         <f>IF(ISBLANK(D35),"",F35-SUM($H$3:H35))</f>
         <v>-3200</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
+      <c r="A36" s="13">
         <v>34</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>49</v>
+      <c r="B36" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="D36" s="5">
         <v>4</v>
@@ -1627,26 +1657,26 @@
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="14">
         <f>IF(ISBLANK(D36),"",SUM($E$3:E36))</f>
         <v>49200</v>
       </c>
-      <c r="G36" s="16"/>
+      <c r="G36" s="13"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="17">
+      <c r="I36" s="14">
         <f>IF(ISBLANK(D36),"",F36-SUM($H$3:H36))</f>
         <v>-800</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="16">
+      <c r="A37" s="13">
         <v>35</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>49</v>
+      <c r="B37" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
@@ -1655,26 +1685,26 @@
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="14">
         <f>IF(ISBLANK(D37),"",SUM($E$3:E37))</f>
         <v>49800</v>
       </c>
-      <c r="G37" s="16"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="17">
+      <c r="I37" s="14">
         <f>IF(ISBLANK(D37),"",F37-SUM($H$3:H37))</f>
         <v>-200</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
+      <c r="A38" s="13">
         <v>36</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>49</v>
       </c>
       <c r="D38" s="5">
         <v>0.5</v>
@@ -1683,144 +1713,255 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="14">
         <f>IF(ISBLANK(D38),"",SUM($E$3:E38))</f>
         <v>50100</v>
       </c>
-      <c r="G38" s="16"/>
+      <c r="G38" s="13"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="17">
+      <c r="I38" s="14">
         <f>IF(ISBLANK(D38),"",F38-SUM($H$3:H38))</f>
         <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E39" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F39" s="3" t="str">
+      <c r="A39" s="13">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="5">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="F39" s="3">
         <f>IF(ISBLANK(D39),"",SUM($E$3:E39))</f>
-        <v/>
-      </c>
-      <c r="I39" s="3" t="str">
+        <v>51900</v>
+      </c>
+      <c r="I39" s="3">
         <f>IF(ISBLANK(D39),"",F39-SUM($H$3:H39))</f>
-        <v/>
+        <v>1900</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E40" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F40" s="3" t="str">
+      <c r="A40" s="13">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="5">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="F40" s="3">
         <f>IF(ISBLANK(D40),"",SUM($E$3:E40))</f>
-        <v/>
-      </c>
-      <c r="I40" s="3" t="str">
+        <v>53700</v>
+      </c>
+      <c r="I40" s="3">
         <f>IF(ISBLANK(D40),"",F40-SUM($H$3:H40))</f>
-        <v/>
+        <v>3700</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E41" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F41" s="3" t="str">
+      <c r="A41" s="13">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="5">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="F41" s="3">
         <f>IF(ISBLANK(D41),"",SUM($E$3:E41))</f>
-        <v/>
-      </c>
-      <c r="I41" s="3" t="str">
+        <v>55500</v>
+      </c>
+      <c r="I41" s="3">
         <f>IF(ISBLANK(D41),"",F41-SUM($H$3:H41))</f>
-        <v/>
+        <v>5500</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F42" s="3" t="str">
+      <c r="A42" s="13">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="5">
+        <v>3</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="F42" s="3">
         <f>IF(ISBLANK(D42),"",SUM($E$3:E42))</f>
-        <v/>
-      </c>
-      <c r="I42" s="3" t="str">
+        <v>57300</v>
+      </c>
+      <c r="I42" s="3">
         <f>IF(ISBLANK(D42),"",F42-SUM($H$3:H42))</f>
-        <v/>
+        <v>7300</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F43" s="3" t="str">
+      <c r="A43" s="13">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="5">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="F43" s="3">
         <f>IF(ISBLANK(D43),"",SUM($E$3:E43))</f>
-        <v/>
-      </c>
-      <c r="I43" s="3" t="str">
+        <v>59100</v>
+      </c>
+      <c r="I43" s="3">
         <f>IF(ISBLANK(D43),"",F43-SUM($H$3:H43))</f>
-        <v/>
+        <v>9100</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F44" s="3" t="str">
+      <c r="A44" s="13">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="F44" s="3">
         <f>IF(ISBLANK(D44),"",SUM($E$3:E44))</f>
-        <v/>
-      </c>
-      <c r="I44" s="3" t="str">
+        <v>59400</v>
+      </c>
+      <c r="I44" s="3">
         <f>IF(ISBLANK(D44),"",F44-SUM($H$3:H44))</f>
-        <v/>
+        <v>9400</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F45" s="3" t="str">
+      <c r="A45" s="13">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="F45" s="3">
         <f>IF(ISBLANK(D45),"",SUM($E$3:E45))</f>
-        <v/>
-      </c>
-      <c r="I45" s="3" t="str">
+        <v>60900</v>
+      </c>
+      <c r="I45" s="3">
         <f>IF(ISBLANK(D45),"",F45-SUM($H$3:H45))</f>
-        <v/>
+        <v>10900</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F46" s="3" t="str">
+      <c r="A46" s="13">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <f>IF(ISBLANK(D46),"",SUM($E$3:E46))</f>
-        <v/>
-      </c>
-      <c r="I46" s="3" t="str">
+        <v>61500</v>
+      </c>
+      <c r="I46" s="3">
         <f>IF(ISBLANK(D46),"",F46-SUM($H$3:H46))</f>
-        <v/>
+        <v>11500</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E47" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F47" s="3" t="str">
+      <c r="A47" s="13">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="F47" s="3">
         <f>IF(ISBLANK(D47),"",SUM($E$3:E47))</f>
-        <v/>
-      </c>
-      <c r="I47" s="3" t="str">
+        <v>62100</v>
+      </c>
+      <c r="I47" s="3">
         <f>IF(ISBLANK(D47),"",F47-SUM($H$3:H47))</f>
-        <v/>
+        <v>12100</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>46</v>
+      </c>
       <c r="E48" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1834,7 +1975,10 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>47</v>
+      </c>
       <c r="E49" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1848,7 +1992,10 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <v>48</v>
+      </c>
       <c r="E50" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1862,7 +2009,10 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
+        <v>49</v>
+      </c>
       <c r="E51" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1876,7 +2026,10 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
+        <v>50</v>
+      </c>
       <c r="E52" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1890,7 +2043,10 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
+        <v>51</v>
+      </c>
       <c r="E53" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1904,7 +2060,10 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="13">
+        <v>52</v>
+      </c>
       <c r="E54" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1918,7 +2077,10 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="13">
+        <v>53</v>
+      </c>
       <c r="E55" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1932,7 +2094,10 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
+        <v>54</v>
+      </c>
       <c r="E56" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1946,7 +2111,10 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
+        <v>55</v>
+      </c>
       <c r="E57" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1960,7 +2128,10 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="13">
+        <v>56</v>
+      </c>
       <c r="E58" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1974,7 +2145,10 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="13">
+        <v>57</v>
+      </c>
       <c r="E59" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1988,7 +2162,10 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
+        <v>58</v>
+      </c>
       <c r="E60" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2002,7 +2179,10 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="13">
+        <v>59</v>
+      </c>
       <c r="E61" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2016,7 +2196,10 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
+        <v>60</v>
+      </c>
       <c r="E62" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2030,7 +2213,10 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="13">
+        <v>61</v>
+      </c>
       <c r="E63" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2044,7 +2230,10 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="13">
+        <v>62</v>
+      </c>
       <c r="E64" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2058,7 +2247,10 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="13">
+        <v>63</v>
+      </c>
       <c r="E65" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2072,7 +2264,10 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="13">
+        <v>64</v>
+      </c>
       <c r="E66" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2086,7 +2281,10 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="13">
+        <v>65</v>
+      </c>
       <c r="E67" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2100,7 +2298,10 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="13">
+        <v>66</v>
+      </c>
       <c r="E68" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2114,7 +2315,10 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="13">
+        <v>67</v>
+      </c>
       <c r="E69" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2128,7 +2332,10 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="13">
+        <v>68</v>
+      </c>
       <c r="E70" s="2" t="str">
         <f t="shared" ref="E70:E133" si="2">IF(ISBLANK(D70),"",D70*600)</f>
         <v/>
@@ -2142,7 +2349,10 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="13">
+        <v>69</v>
+      </c>
       <c r="E71" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2156,7 +2366,10 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="13">
+        <v>70</v>
+      </c>
       <c r="E72" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2170,7 +2383,10 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="13">
+        <v>71</v>
+      </c>
       <c r="E73" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2184,7 +2400,10 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="13">
+        <v>72</v>
+      </c>
       <c r="E74" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2198,7 +2417,10 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="13">
+        <v>73</v>
+      </c>
       <c r="E75" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2212,7 +2434,10 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="13">
+        <v>74</v>
+      </c>
       <c r="E76" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2226,7 +2451,10 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="13">
+        <v>75</v>
+      </c>
       <c r="E77" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2240,7 +2468,10 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="13">
+        <v>76</v>
+      </c>
       <c r="E78" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2254,7 +2485,10 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="13">
+        <v>77</v>
+      </c>
       <c r="E79" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2268,7 +2502,10 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="13">
+        <v>78</v>
+      </c>
       <c r="E80" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2282,7 +2519,10 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="13">
+        <v>79</v>
+      </c>
       <c r="E81" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2296,7 +2536,10 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="13">
+        <v>80</v>
+      </c>
       <c r="E82" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2310,7 +2553,10 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="13">
+        <v>81</v>
+      </c>
       <c r="E83" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2324,7 +2570,10 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="13">
+        <v>82</v>
+      </c>
       <c r="E84" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2338,7 +2587,10 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="13">
+        <v>83</v>
+      </c>
       <c r="E85" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2352,7 +2604,10 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="13">
+        <v>84</v>
+      </c>
       <c r="E86" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2366,7 +2621,10 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="13">
+        <v>85</v>
+      </c>
       <c r="E87" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2380,7 +2638,10 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="13">
+        <v>86</v>
+      </c>
       <c r="E88" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2394,7 +2655,10 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="13">
+        <v>87</v>
+      </c>
       <c r="E89" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2408,7 +2672,10 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="13">
+        <v>88</v>
+      </c>
       <c r="E90" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2422,7 +2689,10 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="13">
+        <v>89</v>
+      </c>
       <c r="E91" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2436,7 +2706,10 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="13">
+        <v>90</v>
+      </c>
       <c r="E92" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2450,7 +2723,10 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="13">
+        <v>91</v>
+      </c>
       <c r="E93" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2464,7 +2740,10 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="13">
+        <v>92</v>
+      </c>
       <c r="E94" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2478,7 +2757,10 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="13">
+        <v>93</v>
+      </c>
       <c r="E95" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2492,7 +2774,10 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="13">
+        <v>94</v>
+      </c>
       <c r="E96" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2506,7 +2791,10 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="13">
+        <v>95</v>
+      </c>
       <c r="E97" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2520,7 +2808,10 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="13">
+        <v>96</v>
+      </c>
       <c r="E98" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2534,7 +2825,10 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="13">
+        <v>97</v>
+      </c>
       <c r="E99" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2548,7 +2842,10 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="13">
+        <v>98</v>
+      </c>
       <c r="E100" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2562,7 +2859,10 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="13">
+        <v>99</v>
+      </c>
       <c r="E101" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2576,7 +2876,10 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="13">
+        <v>100</v>
+      </c>
       <c r="E102" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2590,7 +2893,10 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="13">
+        <v>101</v>
+      </c>
       <c r="E103" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2604,7 +2910,10 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="13">
+        <v>102</v>
+      </c>
       <c r="E104" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2618,7 +2927,10 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="13">
+        <v>103</v>
+      </c>
       <c r="E105" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2632,7 +2944,10 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="13">
+        <v>104</v>
+      </c>
       <c r="E106" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2646,7 +2961,10 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="13">
+        <v>105</v>
+      </c>
       <c r="E107" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2660,7 +2978,10 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="13">
+        <v>106</v>
+      </c>
       <c r="E108" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2674,7 +2995,10 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="13">
+        <v>107</v>
+      </c>
       <c r="E109" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2688,7 +3012,10 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="13">
+        <v>108</v>
+      </c>
       <c r="E110" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2702,7 +3029,10 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="13">
+        <v>109</v>
+      </c>
       <c r="E111" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2716,7 +3046,10 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="13">
+        <v>110</v>
+      </c>
       <c r="E112" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2730,7 +3063,10 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="13">
+        <v>111</v>
+      </c>
       <c r="E113" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2744,7 +3080,10 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="13">
+        <v>112</v>
+      </c>
       <c r="E114" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2758,7 +3097,10 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="13">
+        <v>113</v>
+      </c>
       <c r="E115" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2772,7 +3114,10 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="13">
+        <v>114</v>
+      </c>
       <c r="E116" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2786,7 +3131,10 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="13">
+        <v>115</v>
+      </c>
       <c r="E117" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2800,7 +3148,10 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="13">
+        <v>116</v>
+      </c>
       <c r="E118" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2814,7 +3165,10 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="13">
+        <v>117</v>
+      </c>
       <c r="E119" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2828,7 +3182,10 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="13">
+        <v>118</v>
+      </c>
       <c r="E120" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2842,7 +3199,10 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="13">
+        <v>119</v>
+      </c>
       <c r="E121" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2856,7 +3216,10 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="13">
+        <v>120</v>
+      </c>
       <c r="E122" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2870,7 +3233,10 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="13">
+        <v>121</v>
+      </c>
       <c r="E123" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2884,7 +3250,10 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="13">
+        <v>122</v>
+      </c>
       <c r="E124" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2898,7 +3267,10 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="13">
+        <v>123</v>
+      </c>
       <c r="E125" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2912,7 +3284,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E126" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2926,7 +3298,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E127" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2940,7 +3312,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E128" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>

--- a/Doc/Взаиморасчеты.xlsx
+++ b/Doc/Взаиморасчеты.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
   <si>
     <t>№</t>
   </si>
@@ -196,6 +196,39 @@
   </si>
   <si>
     <t>Важно. Наряд. Может быть формировать наряд (если нет заявки) по чертежам, как собственный заказ, и данные брать из базы, а в учете формировать как на склад . И дать возможность отгрузки. ВП</t>
+  </si>
+  <si>
+    <t>Дневной наряд - сделать заполнение в основной таблице, а не отдельным окном</t>
+  </si>
+  <si>
+    <t>Отчет по ЗП. Добавить фильтр по детали</t>
+  </si>
+  <si>
+    <t>Реестр отгрузок. Сделать печатную форму (журнал отгрузок)</t>
+  </si>
+  <si>
+    <t>Реестр отгрузки. В выборе чертежа добавить цену по чертежу</t>
+  </si>
+  <si>
+    <t>Реестр отгрузки. Итог по суммам внизу (с учетом фильтра)</t>
+  </si>
+  <si>
+    <t>Реестр отгрузки. Добавить столбец с разницей сумм по счету и отгрузки</t>
+  </si>
+  <si>
+    <t>Реестр отгрузки. Добавить столбец сумма по счету</t>
+  </si>
+  <si>
+    <t>Реестр отгрузки. Добавить столбец сумма по отгрузке</t>
+  </si>
+  <si>
+    <t>Дневной наряд - выбор заявки, ввод всех деталей по заявке</t>
+  </si>
+  <si>
+    <t>Реестр изг. деталей - итог по сумме внизу</t>
+  </si>
+  <si>
+    <t>Медленное открытие реестра отгрузок с начала года. Необходимо оптимизировать</t>
   </si>
 </sst>
 </file>
@@ -221,7 +254,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,12 +263,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -329,27 +368,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -662,14 +750,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="79.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -680,46 +771,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="16" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1016,7 +1107,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1049,437 +1140,437 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="13">
         <v>2</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="13">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="14">
         <f>IF(ISBLANK(D15),"",SUM($E$3:E15))</f>
         <v>27600</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14">
         <f>IF(ISBLANK(D15),"",F15-SUM($H$3:H15))</f>
         <v>-2400</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="15">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="16">
         <v>0.5</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="16">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="17">
         <f>IF(ISBLANK(D16),"",SUM($E$3:E16))</f>
         <v>27900</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17">
         <f>IF(ISBLANK(D16),"",F16-SUM($H$3:H16))</f>
         <v>-2100</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="15">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="16">
         <v>1</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="16">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="17">
         <f>IF(ISBLANK(D17),"",SUM($E$3:E17))</f>
         <v>28500</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8">
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17">
         <f>IF(ISBLANK(D17),"",F17-SUM($H$3:H17))</f>
         <v>-1500</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="15">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="16">
         <v>2</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="16">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="17">
         <f>IF(ISBLANK(D18),"",SUM($E$3:E18))</f>
         <v>29700</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8">
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17">
         <f>IF(ISBLANK(D18),"",F18-SUM($H$3:H18))</f>
         <v>-300</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="15">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="16">
         <v>2</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="16">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="17">
         <f>IF(ISBLANK(D19),"",SUM($E$3:E19))</f>
         <v>30900</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17">
         <f>IF(ISBLANK(D19),"",F19-SUM($H$3:H19))</f>
         <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="15">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="16">
         <v>8</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="16">
         <f t="shared" si="1"/>
         <v>4800</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="17">
         <f>IF(ISBLANK(D20),"",SUM($E$3:E20))</f>
         <v>35700</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8">
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17">
         <f>IF(ISBLANK(D20),"",F20-SUM($H$3:H20))</f>
         <v>5700</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="15">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="16">
         <v>0.5</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="16">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="17">
         <f>IF(ISBLANK(D21),"",SUM($E$3:E21))</f>
         <v>36000</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17">
         <f>IF(ISBLANK(D21),"",F21-SUM($H$3:H21))</f>
         <v>6000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="15">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="16">
         <v>0.5</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="16">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="17">
         <f>IF(ISBLANK(D22),"",SUM($E$3:E22))</f>
         <v>36300</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17">
         <f>IF(ISBLANK(D22),"",F22-SUM($H$3:H22))</f>
         <v>6300</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="15">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="16">
         <v>1</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="16">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="17">
         <f>IF(ISBLANK(D23),"",SUM($E$3:E23))</f>
         <v>36900</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8">
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17">
         <f>IF(ISBLANK(D23),"",F23-SUM($H$3:H23))</f>
         <v>6900</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="15">
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="16">
         <v>0.5</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="16">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="17">
         <f>IF(ISBLANK(D24),"",SUM($E$3:E24))</f>
         <v>37200</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8">
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17">
         <f>IF(ISBLANK(D24),"",F24-SUM($H$3:H24))</f>
         <v>7200</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="15">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="16">
         <v>0.5</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="16">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="17">
         <f>IF(ISBLANK(D25),"",SUM($E$3:E25))</f>
         <v>37500</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8">
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17">
         <f>IF(ISBLANK(D25),"",F25-SUM($H$3:H25))</f>
         <v>7500</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="15">
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="16">
         <v>0.5</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="16">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="17">
         <f>IF(ISBLANK(D26),"",SUM($E$3:E26))</f>
         <v>37800</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8">
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17">
         <f>IF(ISBLANK(D26),"",F26-SUM($H$3:H26))</f>
         <v>7800</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="15">
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="16">
         <v>0.5</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="16">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="17">
         <f>IF(ISBLANK(D27),"",SUM($E$3:E27))</f>
         <v>38100</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8">
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17">
         <f>IF(ISBLANK(D27),"",F27-SUM($H$3:H27))</f>
         <v>8100</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="15">
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="16">
         <v>0.25</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="16">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="17">
         <f>IF(ISBLANK(D28),"",SUM($E$3:E28))</f>
         <v>38250</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8">
+      <c r="G28" s="15"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17">
         <f>IF(ISBLANK(D28),"",F28-SUM($H$3:H28))</f>
         <v>8250</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18">
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="19">
         <v>0.25</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="19">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="20">
         <f>IF(ISBLANK(D29),"",SUM($E$3:E29))</f>
         <v>38400</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="21">
         <v>42782</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="19">
         <v>20000</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="20">
         <f>IF(ISBLANK(D29),"",F29-SUM($H$3:H29))</f>
         <v>-11600</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
+      <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="5">
@@ -1489,25 +1580,25 @@
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="10">
         <f>IF(ISBLANK(D30),"",SUM($E$3:E30))</f>
         <v>39600</v>
       </c>
-      <c r="G30" s="13"/>
+      <c r="G30" s="9"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="14">
+      <c r="I30" s="10">
         <f>IF(ISBLANK(D30),"",F30-SUM($H$3:H30))</f>
         <v>-10400</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+      <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="5">
@@ -1517,25 +1608,25 @@
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="10">
         <f>IF(ISBLANK(D31),"",SUM($E$3:E31))</f>
         <v>40800</v>
       </c>
-      <c r="G31" s="13"/>
+      <c r="G31" s="9"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="14">
+      <c r="I31" s="10">
         <f>IF(ISBLANK(D31),"",F31-SUM($H$3:H31))</f>
         <v>-9200</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
+      <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D32" s="5">
@@ -1545,25 +1636,25 @@
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="10">
         <f>IF(ISBLANK(D32),"",SUM($E$3:E32))</f>
         <v>41400</v>
       </c>
-      <c r="G32" s="13"/>
+      <c r="G32" s="9"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="14">
+      <c r="I32" s="10">
         <f>IF(ISBLANK(D32),"",F32-SUM($H$3:H32))</f>
         <v>-8600</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
+      <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="5">
@@ -1573,25 +1664,25 @@
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="10">
         <f>IF(ISBLANK(D33),"",SUM($E$3:E33))</f>
         <v>44400</v>
       </c>
-      <c r="G33" s="13"/>
+      <c r="G33" s="9"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="14">
+      <c r="I33" s="10">
         <f>IF(ISBLANK(D33),"",F33-SUM($H$3:H33))</f>
         <v>-5600</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
+      <c r="A34" s="9">
         <v>32</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="5">
@@ -1601,25 +1692,25 @@
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="10">
         <f>IF(ISBLANK(D34),"",SUM($E$3:E34))</f>
         <v>46200</v>
       </c>
-      <c r="G34" s="13"/>
+      <c r="G34" s="9"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="14">
+      <c r="I34" s="10">
         <f>IF(ISBLANK(D34),"",F34-SUM($H$3:H34))</f>
         <v>-3800</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
+      <c r="A35" s="9">
         <v>33</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="5">
@@ -1629,25 +1720,25 @@
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="10">
         <f>IF(ISBLANK(D35),"",SUM($E$3:E35))</f>
         <v>46800</v>
       </c>
-      <c r="G35" s="13"/>
+      <c r="G35" s="9"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="14">
+      <c r="I35" s="10">
         <f>IF(ISBLANK(D35),"",F35-SUM($H$3:H35))</f>
         <v>-3200</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
+      <c r="A36" s="9">
         <v>34</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="5">
@@ -1657,25 +1748,25 @@
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="10">
         <f>IF(ISBLANK(D36),"",SUM($E$3:E36))</f>
         <v>49200</v>
       </c>
-      <c r="G36" s="13"/>
+      <c r="G36" s="9"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="14">
+      <c r="I36" s="10">
         <f>IF(ISBLANK(D36),"",F36-SUM($H$3:H36))</f>
         <v>-800</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
+      <c r="A37" s="9">
         <v>35</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="5">
@@ -1685,25 +1776,25 @@
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="10">
         <f>IF(ISBLANK(D37),"",SUM($E$3:E37))</f>
         <v>49800</v>
       </c>
-      <c r="G37" s="13"/>
+      <c r="G37" s="9"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="14">
+      <c r="I37" s="10">
         <f>IF(ISBLANK(D37),"",F37-SUM($H$3:H37))</f>
         <v>-200</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
         <v>36</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="5">
@@ -1713,440 +1804,530 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="10">
         <f>IF(ISBLANK(D38),"",SUM($E$3:E38))</f>
         <v>50100</v>
       </c>
-      <c r="G38" s="13"/>
+      <c r="G38" s="9"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="14">
+      <c r="I38" s="10">
         <f>IF(ISBLANK(D38),"",F38-SUM($H$3:H38))</f>
         <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
+      <c r="A39" s="22">
         <v>37</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="24">
         <v>3</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="24">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="25">
         <f>IF(ISBLANK(D39),"",SUM($E$3:E39))</f>
         <v>51900</v>
       </c>
-      <c r="I39" s="3">
+      <c r="G39" s="22"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="25">
         <f>IF(ISBLANK(D39),"",F39-SUM($H$3:H39))</f>
         <v>1900</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
+      <c r="A40" s="26">
         <v>38</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="28">
         <v>3</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="28">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="29">
         <f>IF(ISBLANK(D40),"",SUM($E$3:E40))</f>
         <v>53700</v>
       </c>
-      <c r="I40" s="3">
+      <c r="G40" s="26"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="29">
         <f>IF(ISBLANK(D40),"",F40-SUM($H$3:H40))</f>
         <v>3700</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
+      <c r="A41" s="26">
         <v>39</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="28">
         <v>3</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="28">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="29">
         <f>IF(ISBLANK(D41),"",SUM($E$3:E41))</f>
         <v>55500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="G41" s="26"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="29">
         <f>IF(ISBLANK(D41),"",F41-SUM($H$3:H41))</f>
         <v>5500</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
+      <c r="A42" s="26">
         <v>40</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="28">
         <v>3</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="28">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="29">
         <f>IF(ISBLANK(D42),"",SUM($E$3:E42))</f>
         <v>57300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="G42" s="26"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="29">
         <f>IF(ISBLANK(D42),"",F42-SUM($H$3:H42))</f>
         <v>7300</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
+      <c r="A43" s="26">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="28">
         <v>3</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="28">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="29">
         <f>IF(ISBLANK(D43),"",SUM($E$3:E43))</f>
         <v>59100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="G43" s="26"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="29">
         <f>IF(ISBLANK(D43),"",F43-SUM($H$3:H43))</f>
         <v>9100</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
+      <c r="A44" s="26">
         <v>42</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="28">
         <v>0.5</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="28">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="29">
         <f>IF(ISBLANK(D44),"",SUM($E$3:E44))</f>
         <v>59400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="G44" s="26"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="29">
         <f>IF(ISBLANK(D44),"",F44-SUM($H$3:H44))</f>
         <v>9400</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
+      <c r="A45" s="26">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="28">
         <v>2.5</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="28">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="29">
         <f>IF(ISBLANK(D45),"",SUM($E$3:E45))</f>
         <v>60900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="G45" s="26"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="29">
         <f>IF(ISBLANK(D45),"",F45-SUM($H$3:H45))</f>
         <v>10900</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
+      <c r="A46" s="26">
         <v>44</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="28">
         <v>1</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="28">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="29">
         <f>IF(ISBLANK(D46),"",SUM($E$3:E46))</f>
         <v>61500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="G46" s="26"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="29">
         <f>IF(ISBLANK(D46),"",F46-SUM($H$3:H46))</f>
         <v>11500</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="30">
         <v>45</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="32">
         <v>1</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="32">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="33">
         <f>IF(ISBLANK(D47),"",SUM($E$3:E47))</f>
         <v>62100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="G47" s="30"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="33">
         <f>IF(ISBLANK(D47),"",F47-SUM($H$3:H47))</f>
         <v>12100</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
+      <c r="A48" s="9">
         <v>46</v>
       </c>
-      <c r="E48" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F48" s="3" t="str">
+      <c r="B48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="F48" s="3">
         <f>IF(ISBLANK(D48),"",SUM($E$3:E48))</f>
-        <v/>
-      </c>
-      <c r="I48" s="3" t="str">
+        <v>62700</v>
+      </c>
+      <c r="G48" s="4">
+        <v>42947</v>
+      </c>
+      <c r="H48" s="2">
+        <v>15000</v>
+      </c>
+      <c r="I48" s="3">
         <f>IF(ISBLANK(D48),"",F48-SUM($H$3:H48))</f>
-        <v/>
+        <v>-2300</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="13">
+      <c r="A49" s="9">
         <v>47</v>
       </c>
-      <c r="E49" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F49" s="3" t="str">
+      <c r="B49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="F49" s="3">
         <f>IF(ISBLANK(D49),"",SUM($E$3:E49))</f>
-        <v/>
-      </c>
-      <c r="I49" s="3" t="str">
+        <v>63300</v>
+      </c>
+      <c r="I49" s="3">
         <f>IF(ISBLANK(D49),"",F49-SUM($H$3:H49))</f>
-        <v/>
+        <v>-1700</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="13">
+      <c r="A50" s="9">
         <v>48</v>
       </c>
-      <c r="E50" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F50" s="3" t="str">
+      <c r="B50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="F50" s="3">
         <f>IF(ISBLANK(D50),"",SUM($E$3:E50))</f>
-        <v/>
-      </c>
-      <c r="I50" s="3" t="str">
+        <v>63900</v>
+      </c>
+      <c r="I50" s="3">
         <f>IF(ISBLANK(D50),"",F50-SUM($H$3:H50))</f>
-        <v/>
+        <v>-1100</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="13">
+      <c r="A51" s="9">
         <v>49</v>
       </c>
-      <c r="E51" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F51" s="3" t="str">
+      <c r="B51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="F51" s="3">
         <f>IF(ISBLANK(D51),"",SUM($E$3:E51))</f>
-        <v/>
-      </c>
-      <c r="I51" s="3" t="str">
+        <v>64200</v>
+      </c>
+      <c r="I51" s="3">
         <f>IF(ISBLANK(D51),"",F51-SUM($H$3:H51))</f>
-        <v/>
+        <v>-800</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="13">
+      <c r="A52" s="9">
         <v>50</v>
       </c>
-      <c r="E52" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F52" s="3" t="str">
+      <c r="B52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="5">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="F52" s="3">
         <f>IF(ISBLANK(D52),"",SUM($E$3:E52))</f>
-        <v/>
-      </c>
-      <c r="I52" s="3" t="str">
+        <v>65400</v>
+      </c>
+      <c r="I52" s="3">
         <f>IF(ISBLANK(D52),"",F52-SUM($H$3:H52))</f>
-        <v/>
+        <v>400</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
+      <c r="A53" s="9">
         <v>51</v>
       </c>
-      <c r="E53" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F53" s="3" t="str">
+      <c r="B53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="5">
+        <v>4</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+      <c r="F53" s="3">
         <f>IF(ISBLANK(D53),"",SUM($E$3:E53))</f>
-        <v/>
-      </c>
-      <c r="I53" s="3" t="str">
+        <v>67800</v>
+      </c>
+      <c r="I53" s="3">
         <f>IF(ISBLANK(D53),"",F53-SUM($H$3:H53))</f>
-        <v/>
+        <v>2800</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="13">
+      <c r="A54" s="9">
         <v>52</v>
       </c>
-      <c r="E54" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F54" s="3" t="str">
+      <c r="B54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="5">
+        <v>4</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+      <c r="F54" s="3">
         <f>IF(ISBLANK(D54),"",SUM($E$3:E54))</f>
-        <v/>
-      </c>
-      <c r="I54" s="3" t="str">
+        <v>70200</v>
+      </c>
+      <c r="I54" s="3">
         <f>IF(ISBLANK(D54),"",F54-SUM($H$3:H54))</f>
-        <v/>
+        <v>5200</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="13">
+      <c r="A55" s="9">
         <v>53</v>
       </c>
-      <c r="E55" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F55" s="3" t="str">
+      <c r="B55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="5">
+        <v>16</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="1"/>
+        <v>9600</v>
+      </c>
+      <c r="F55" s="3">
         <f>IF(ISBLANK(D55),"",SUM($E$3:E55))</f>
-        <v/>
-      </c>
-      <c r="I55" s="3" t="str">
+        <v>79800</v>
+      </c>
+      <c r="I55" s="3">
         <f>IF(ISBLANK(D55),"",F55-SUM($H$3:H55))</f>
-        <v/>
+        <v>14800</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
+      <c r="A56" s="9">
         <v>54</v>
       </c>
-      <c r="E56" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F56" s="3" t="str">
+      <c r="B56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="5">
+        <v>5</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="F56" s="3">
         <f>IF(ISBLANK(D56),"",SUM($E$3:E56))</f>
-        <v/>
-      </c>
-      <c r="I56" s="3" t="str">
+        <v>82800</v>
+      </c>
+      <c r="I56" s="3">
         <f>IF(ISBLANK(D56),"",F56-SUM($H$3:H56))</f>
-        <v/>
+        <v>17800</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="13">
+      <c r="A57" s="9">
         <v>55</v>
       </c>
-      <c r="E57" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F57" s="3" t="str">
+      <c r="B57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="F57" s="3">
         <f>IF(ISBLANK(D57),"",SUM($E$3:E57))</f>
-        <v/>
-      </c>
-      <c r="I57" s="3" t="str">
+        <v>83400</v>
+      </c>
+      <c r="I57" s="3">
         <f>IF(ISBLANK(D57),"",F57-SUM($H$3:H57))</f>
-        <v/>
+        <v>18400</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="13">
+      <c r="A58" s="9">
         <v>56</v>
       </c>
-      <c r="E58" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F58" s="3" t="str">
+      <c r="B58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="5">
+        <v>5</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="F58" s="3">
         <f>IF(ISBLANK(D58),"",SUM($E$3:E58))</f>
-        <v/>
-      </c>
-      <c r="I58" s="3" t="str">
+        <v>86400</v>
+      </c>
+      <c r="I58" s="3">
         <f>IF(ISBLANK(D58),"",F58-SUM($H$3:H58))</f>
-        <v/>
+        <v>21400</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="13">
+      <c r="A59" s="9">
         <v>57</v>
       </c>
       <c r="E59" s="2" t="str">
@@ -2163,7 +2344,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="13">
+      <c r="A60" s="9">
         <v>58</v>
       </c>
       <c r="E60" s="2" t="str">
@@ -2180,7 +2361,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="13">
+      <c r="A61" s="9">
         <v>59</v>
       </c>
       <c r="E61" s="2" t="str">
@@ -2197,7 +2378,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
+      <c r="A62" s="9">
         <v>60</v>
       </c>
       <c r="E62" s="2" t="str">
@@ -2214,7 +2395,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
+      <c r="A63" s="9">
         <v>61</v>
       </c>
       <c r="E63" s="2" t="str">
@@ -2231,7 +2412,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
+      <c r="A64" s="9">
         <v>62</v>
       </c>
       <c r="E64" s="2" t="str">
@@ -2248,7 +2429,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
+      <c r="A65" s="9">
         <v>63</v>
       </c>
       <c r="E65" s="2" t="str">
@@ -2265,7 +2446,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
+      <c r="A66" s="9">
         <v>64</v>
       </c>
       <c r="E66" s="2" t="str">
@@ -2282,7 +2463,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
+      <c r="A67" s="9">
         <v>65</v>
       </c>
       <c r="E67" s="2" t="str">
@@ -2299,7 +2480,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
+      <c r="A68" s="9">
         <v>66</v>
       </c>
       <c r="E68" s="2" t="str">
@@ -2316,7 +2497,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
+      <c r="A69" s="9">
         <v>67</v>
       </c>
       <c r="E69" s="2" t="str">
@@ -2333,7 +2514,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
+      <c r="A70" s="9">
         <v>68</v>
       </c>
       <c r="E70" s="2" t="str">
@@ -2350,7 +2531,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
+      <c r="A71" s="9">
         <v>69</v>
       </c>
       <c r="E71" s="2" t="str">
@@ -2367,7 +2548,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
+      <c r="A72" s="9">
         <v>70</v>
       </c>
       <c r="E72" s="2" t="str">
@@ -2384,7 +2565,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
+      <c r="A73" s="9">
         <v>71</v>
       </c>
       <c r="E73" s="2" t="str">
@@ -2401,7 +2582,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
+      <c r="A74" s="9">
         <v>72</v>
       </c>
       <c r="E74" s="2" t="str">
@@ -2418,7 +2599,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="13">
+      <c r="A75" s="9">
         <v>73</v>
       </c>
       <c r="E75" s="2" t="str">
@@ -2435,7 +2616,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
+      <c r="A76" s="9">
         <v>74</v>
       </c>
       <c r="E76" s="2" t="str">
@@ -2452,7 +2633,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
+      <c r="A77" s="9">
         <v>75</v>
       </c>
       <c r="E77" s="2" t="str">
@@ -2469,7 +2650,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
+      <c r="A78" s="9">
         <v>76</v>
       </c>
       <c r="E78" s="2" t="str">
@@ -2486,7 +2667,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
+      <c r="A79" s="9">
         <v>77</v>
       </c>
       <c r="E79" s="2" t="str">
@@ -2503,7 +2684,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
+      <c r="A80" s="9">
         <v>78</v>
       </c>
       <c r="E80" s="2" t="str">
@@ -2520,7 +2701,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
+      <c r="A81" s="9">
         <v>79</v>
       </c>
       <c r="E81" s="2" t="str">
@@ -2537,7 +2718,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="13">
+      <c r="A82" s="9">
         <v>80</v>
       </c>
       <c r="E82" s="2" t="str">
@@ -2554,7 +2735,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="13">
+      <c r="A83" s="9">
         <v>81</v>
       </c>
       <c r="E83" s="2" t="str">
@@ -2571,7 +2752,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
+      <c r="A84" s="9">
         <v>82</v>
       </c>
       <c r="E84" s="2" t="str">
@@ -2588,7 +2769,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="13">
+      <c r="A85" s="9">
         <v>83</v>
       </c>
       <c r="E85" s="2" t="str">
@@ -2605,7 +2786,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
+      <c r="A86" s="9">
         <v>84</v>
       </c>
       <c r="E86" s="2" t="str">
@@ -2622,7 +2803,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
+      <c r="A87" s="9">
         <v>85</v>
       </c>
       <c r="E87" s="2" t="str">
@@ -2639,7 +2820,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
+      <c r="A88" s="9">
         <v>86</v>
       </c>
       <c r="E88" s="2" t="str">
@@ -2656,7 +2837,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
+      <c r="A89" s="9">
         <v>87</v>
       </c>
       <c r="E89" s="2" t="str">
@@ -2673,7 +2854,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
+      <c r="A90" s="9">
         <v>88</v>
       </c>
       <c r="E90" s="2" t="str">
@@ -2690,7 +2871,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="13">
+      <c r="A91" s="9">
         <v>89</v>
       </c>
       <c r="E91" s="2" t="str">
@@ -2707,7 +2888,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="13">
+      <c r="A92" s="9">
         <v>90</v>
       </c>
       <c r="E92" s="2" t="str">
@@ -2724,7 +2905,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="13">
+      <c r="A93" s="9">
         <v>91</v>
       </c>
       <c r="E93" s="2" t="str">
@@ -2741,7 +2922,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="13">
+      <c r="A94" s="9">
         <v>92</v>
       </c>
       <c r="E94" s="2" t="str">
@@ -2758,7 +2939,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="13">
+      <c r="A95" s="9">
         <v>93</v>
       </c>
       <c r="E95" s="2" t="str">
@@ -2775,7 +2956,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="13">
+      <c r="A96" s="9">
         <v>94</v>
       </c>
       <c r="E96" s="2" t="str">
@@ -2792,7 +2973,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="13">
+      <c r="A97" s="9">
         <v>95</v>
       </c>
       <c r="E97" s="2" t="str">
@@ -2809,7 +2990,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="13">
+      <c r="A98" s="9">
         <v>96</v>
       </c>
       <c r="E98" s="2" t="str">
@@ -2826,7 +3007,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="13">
+      <c r="A99" s="9">
         <v>97</v>
       </c>
       <c r="E99" s="2" t="str">
@@ -2843,7 +3024,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="13">
+      <c r="A100" s="9">
         <v>98</v>
       </c>
       <c r="E100" s="2" t="str">
@@ -2860,7 +3041,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="13">
+      <c r="A101" s="9">
         <v>99</v>
       </c>
       <c r="E101" s="2" t="str">
@@ -2877,7 +3058,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="13">
+      <c r="A102" s="9">
         <v>100</v>
       </c>
       <c r="E102" s="2" t="str">
@@ -2894,7 +3075,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="13">
+      <c r="A103" s="9">
         <v>101</v>
       </c>
       <c r="E103" s="2" t="str">
@@ -2911,7 +3092,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="13">
+      <c r="A104" s="9">
         <v>102</v>
       </c>
       <c r="E104" s="2" t="str">
@@ -2928,7 +3109,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="13">
+      <c r="A105" s="9">
         <v>103</v>
       </c>
       <c r="E105" s="2" t="str">
@@ -2945,7 +3126,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="13">
+      <c r="A106" s="9">
         <v>104</v>
       </c>
       <c r="E106" s="2" t="str">
@@ -2962,7 +3143,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="13">
+      <c r="A107" s="9">
         <v>105</v>
       </c>
       <c r="E107" s="2" t="str">
@@ -2979,7 +3160,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="13">
+      <c r="A108" s="9">
         <v>106</v>
       </c>
       <c r="E108" s="2" t="str">
@@ -2996,7 +3177,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="13">
+      <c r="A109" s="9">
         <v>107</v>
       </c>
       <c r="E109" s="2" t="str">
@@ -3013,7 +3194,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="13">
+      <c r="A110" s="9">
         <v>108</v>
       </c>
       <c r="E110" s="2" t="str">
@@ -3030,7 +3211,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="13">
+      <c r="A111" s="9">
         <v>109</v>
       </c>
       <c r="E111" s="2" t="str">
@@ -3047,7 +3228,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="13">
+      <c r="A112" s="9">
         <v>110</v>
       </c>
       <c r="E112" s="2" t="str">
@@ -3064,7 +3245,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="13">
+      <c r="A113" s="9">
         <v>111</v>
       </c>
       <c r="E113" s="2" t="str">
@@ -3081,7 +3262,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="13">
+      <c r="A114" s="9">
         <v>112</v>
       </c>
       <c r="E114" s="2" t="str">
@@ -3098,7 +3279,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="13">
+      <c r="A115" s="9">
         <v>113</v>
       </c>
       <c r="E115" s="2" t="str">
@@ -3115,7 +3296,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="13">
+      <c r="A116" s="9">
         <v>114</v>
       </c>
       <c r="E116" s="2" t="str">
@@ -3132,7 +3313,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="13">
+      <c r="A117" s="9">
         <v>115</v>
       </c>
       <c r="E117" s="2" t="str">
@@ -3149,7 +3330,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="13">
+      <c r="A118" s="9">
         <v>116</v>
       </c>
       <c r="E118" s="2" t="str">
@@ -3166,7 +3347,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="13">
+      <c r="A119" s="9">
         <v>117</v>
       </c>
       <c r="E119" s="2" t="str">
@@ -3183,7 +3364,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="13">
+      <c r="A120" s="9">
         <v>118</v>
       </c>
       <c r="E120" s="2" t="str">
@@ -3200,7 +3381,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="13">
+      <c r="A121" s="9">
         <v>119</v>
       </c>
       <c r="E121" s="2" t="str">
@@ -3217,7 +3398,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="13">
+      <c r="A122" s="9">
         <v>120</v>
       </c>
       <c r="E122" s="2" t="str">
@@ -3234,7 +3415,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="13">
+      <c r="A123" s="9">
         <v>121</v>
       </c>
       <c r="E123" s="2" t="str">
@@ -3251,7 +3432,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="13">
+      <c r="A124" s="9">
         <v>122</v>
       </c>
       <c r="E124" s="2" t="str">
@@ -3268,7 +3449,7 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="13">
+      <c r="A125" s="9">
         <v>123</v>
       </c>
       <c r="E125" s="2" t="str">

--- a/Doc/Взаиморасчеты.xlsx
+++ b/Doc/Взаиморасчеты.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
   <si>
     <t>№</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>Медленное открытие реестра отгрузок с начала года. Необходимо оптимизировать</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>Отгрузка. Сообщение о невозможности отгрузить количество сделать неблокирующим, позволять сохранять отгрузку</t>
   </si>
 </sst>
 </file>
@@ -403,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -426,18 +432,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,6 +445,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -751,10 +758,10 @@
   <dimension ref="A1:I253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E60" sqref="E60"/>
+      <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,19 +778,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="34" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -1816,420 +1823,453 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="22">
+      <c r="A39" s="30">
         <v>37</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="24">
+      <c r="D39" s="32">
         <v>3</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="32">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F39" s="33">
         <f>IF(ISBLANK(D39),"",SUM($E$3:E39))</f>
         <v>51900</v>
       </c>
-      <c r="G39" s="22"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="25">
+      <c r="G39" s="30"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="33">
         <f>IF(ISBLANK(D39),"",F39-SUM($H$3:H39))</f>
         <v>1900</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="26">
+      <c r="A40" s="9">
         <v>38</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="28">
+      <c r="D40" s="5">
         <v>3</v>
       </c>
-      <c r="E40" s="28">
+      <c r="E40" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="F40" s="29">
+      <c r="F40" s="10">
         <f>IF(ISBLANK(D40),"",SUM($E$3:E40))</f>
         <v>53700</v>
       </c>
-      <c r="G40" s="26"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="29">
+      <c r="G40" s="9"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="10">
         <f>IF(ISBLANK(D40),"",F40-SUM($H$3:H40))</f>
         <v>3700</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="26">
+      <c r="A41" s="9">
         <v>39</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="28">
+      <c r="D41" s="5">
         <v>3</v>
       </c>
-      <c r="E41" s="28">
+      <c r="E41" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="F41" s="29">
+      <c r="F41" s="10">
         <f>IF(ISBLANK(D41),"",SUM($E$3:E41))</f>
         <v>55500</v>
       </c>
-      <c r="G41" s="26"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="29">
+      <c r="G41" s="9"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="10">
         <f>IF(ISBLANK(D41),"",F41-SUM($H$3:H41))</f>
         <v>5500</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="26">
+      <c r="A42" s="9">
         <v>40</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="28">
+      <c r="D42" s="5">
         <v>3</v>
       </c>
-      <c r="E42" s="28">
+      <c r="E42" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="F42" s="29">
+      <c r="F42" s="10">
         <f>IF(ISBLANK(D42),"",SUM($E$3:E42))</f>
         <v>57300</v>
       </c>
-      <c r="G42" s="26"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="29">
+      <c r="G42" s="9"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="10">
         <f>IF(ISBLANK(D42),"",F42-SUM($H$3:H42))</f>
         <v>7300</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="26">
+      <c r="A43" s="9">
         <v>41</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="28">
+      <c r="D43" s="5">
         <v>3</v>
       </c>
-      <c r="E43" s="28">
+      <c r="E43" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="F43" s="29">
+      <c r="F43" s="10">
         <f>IF(ISBLANK(D43),"",SUM($E$3:E43))</f>
         <v>59100</v>
       </c>
-      <c r="G43" s="26"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="29">
+      <c r="G43" s="9"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="10">
         <f>IF(ISBLANK(D43),"",F43-SUM($H$3:H43))</f>
         <v>9100</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="26">
+      <c r="A44" s="9">
         <v>42</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="28">
+      <c r="D44" s="5">
         <v>0.5</v>
       </c>
-      <c r="E44" s="28">
+      <c r="E44" s="5">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F44" s="29">
+      <c r="F44" s="10">
         <f>IF(ISBLANK(D44),"",SUM($E$3:E44))</f>
         <v>59400</v>
       </c>
-      <c r="G44" s="26"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="29">
+      <c r="G44" s="9"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="10">
         <f>IF(ISBLANK(D44),"",F44-SUM($H$3:H44))</f>
         <v>9400</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="26">
+      <c r="A45" s="9">
         <v>43</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="28">
+      <c r="D45" s="5">
         <v>2.5</v>
       </c>
-      <c r="E45" s="28">
+      <c r="E45" s="5">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="F45" s="29">
+      <c r="F45" s="10">
         <f>IF(ISBLANK(D45),"",SUM($E$3:E45))</f>
         <v>60900</v>
       </c>
-      <c r="G45" s="26"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="29">
+      <c r="G45" s="9"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="10">
         <f>IF(ISBLANK(D45),"",F45-SUM($H$3:H45))</f>
         <v>10900</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="26">
+      <c r="A46" s="9">
         <v>44</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="28">
+      <c r="D46" s="5">
         <v>1</v>
       </c>
-      <c r="E46" s="28">
+      <c r="E46" s="5">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F46" s="29">
+      <c r="F46" s="10">
         <f>IF(ISBLANK(D46),"",SUM($E$3:E46))</f>
         <v>61500</v>
       </c>
-      <c r="G46" s="26"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="29">
+      <c r="G46" s="9"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="10">
         <f>IF(ISBLANK(D46),"",F46-SUM($H$3:H46))</f>
         <v>11500</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="30">
+      <c r="A47" s="34">
         <v>45</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="32">
+      <c r="D47" s="36">
         <v>1</v>
       </c>
-      <c r="E47" s="32">
+      <c r="E47" s="36">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F47" s="33">
+      <c r="F47" s="37">
         <f>IF(ISBLANK(D47),"",SUM($E$3:E47))</f>
         <v>62100</v>
       </c>
-      <c r="G47" s="30"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="33">
+      <c r="G47" s="34"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="37">
         <f>IF(ISBLANK(D47),"",F47-SUM($H$3:H47))</f>
         <v>12100</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
+      <c r="A48" s="22">
         <v>46</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="5">
+      <c r="C48" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="24">
         <v>1</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="24">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="25">
         <f>IF(ISBLANK(D48),"",SUM($E$3:E48))</f>
         <v>62700</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="29">
         <v>42947</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="24">
         <v>15000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="25">
         <f>IF(ISBLANK(D48),"",F48-SUM($H$3:H48))</f>
         <v>-2300</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
+      <c r="A49" s="22">
         <v>47</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="5">
+      <c r="C49" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="24">
         <v>1</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="24">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="25">
         <f>IF(ISBLANK(D49),"",SUM($E$3:E49))</f>
         <v>63300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="G49" s="22"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="25">
         <f>IF(ISBLANK(D49),"",F49-SUM($H$3:H49))</f>
         <v>-1700</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
+      <c r="A50" s="22">
         <v>48</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="5">
+      <c r="C50" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="24">
         <v>1</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="24">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="25">
         <f>IF(ISBLANK(D50),"",SUM($E$3:E50))</f>
         <v>63900</v>
       </c>
-      <c r="I50" s="3">
+      <c r="G50" s="22"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="25">
         <f>IF(ISBLANK(D50),"",F50-SUM($H$3:H50))</f>
         <v>-1100</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
+      <c r="A51" s="22">
         <v>49</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="5">
+      <c r="C51" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="24">
         <v>0.5</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="24">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="25">
         <f>IF(ISBLANK(D51),"",SUM($E$3:E51))</f>
         <v>64200</v>
       </c>
-      <c r="I51" s="3">
+      <c r="G51" s="22"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="25">
         <f>IF(ISBLANK(D51),"",F51-SUM($H$3:H51))</f>
         <v>-800</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
+      <c r="A52" s="22">
         <v>50</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="5">
+      <c r="C52" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="24">
         <v>2</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="24">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="25">
         <f>IF(ISBLANK(D52),"",SUM($E$3:E52))</f>
         <v>65400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="G52" s="22"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="25">
         <f>IF(ISBLANK(D52),"",F52-SUM($H$3:H52))</f>
         <v>400</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
+      <c r="A53" s="22">
         <v>51</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="5">
+      <c r="C53" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="24">
         <v>4</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="24">
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="25">
         <f>IF(ISBLANK(D53),"",SUM($E$3:E53))</f>
         <v>67800</v>
       </c>
-      <c r="I53" s="3">
+      <c r="G53" s="22"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="25">
         <f>IF(ISBLANK(D53),"",F53-SUM($H$3:H53))</f>
         <v>2800</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
+      <c r="A54" s="22">
         <v>52</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="5">
+      <c r="C54" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="24">
         <v>4</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="24">
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="25">
         <f>IF(ISBLANK(D54),"",SUM($E$3:E54))</f>
         <v>70200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="G54" s="22"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="25">
         <f>IF(ISBLANK(D54),"",F54-SUM($H$3:H54))</f>
         <v>5200</v>
       </c>
@@ -2241,6 +2281,9 @@
       <c r="B55" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="C55" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="D55" s="5">
         <v>16</v>
       </c>
@@ -2264,6 +2307,9 @@
       <c r="B56" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="C56" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="D56" s="5">
         <v>5</v>
       </c>
@@ -2281,47 +2327,57 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
+      <c r="A57" s="22">
         <v>55</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D57" s="5">
+      <c r="C57" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="24">
         <v>1</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="24">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="25">
         <f>IF(ISBLANK(D57),"",SUM($E$3:E57))</f>
         <v>83400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="G57" s="22"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="25">
         <f>IF(ISBLANK(D57),"",F57-SUM($H$3:H57))</f>
         <v>18400</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
+      <c r="A58" s="22">
         <v>56</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="5">
+      <c r="C58" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="24">
         <v>5</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="24">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="25">
         <f>IF(ISBLANK(D58),"",SUM($E$3:E58))</f>
         <v>86400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="G58" s="22"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="25">
         <f>IF(ISBLANK(D58),"",F58-SUM($H$3:H58))</f>
         <v>21400</v>
       </c>
@@ -2330,17 +2386,26 @@
       <c r="A59" s="9">
         <v>57</v>
       </c>
-      <c r="E59" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F59" s="3" t="str">
+      <c r="B59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
         <f>IF(ISBLANK(D59),"",SUM($E$3:E59))</f>
-        <v/>
-      </c>
-      <c r="I59" s="3" t="str">
+        <v>86700</v>
+      </c>
+      <c r="I59" s="3">
         <f>IF(ISBLANK(D59),"",F59-SUM($H$3:H59))</f>
-        <v/>
+        <v>21700</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">

--- a/Doc/Взаиморасчеты.xlsx
+++ b/Doc/Взаиморасчеты.xlsx
@@ -241,7 +241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +253,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -409,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -436,6 +445,15 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -445,15 +463,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -758,10 +768,10 @@
   <dimension ref="A1:I253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,19 +788,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="26" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -1823,29 +1833,29 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="30">
+      <c r="A39" s="27">
         <v>37</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="32">
+      <c r="D39" s="29">
         <v>3</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E39" s="29">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="F39" s="33">
+      <c r="F39" s="30">
         <f>IF(ISBLANK(D39),"",SUM($E$3:E39))</f>
         <v>51900</v>
       </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="33">
+      <c r="G39" s="27"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="30">
         <f>IF(ISBLANK(D39),"",F39-SUM($H$3:H39))</f>
         <v>1900</v>
       </c>
@@ -2047,29 +2057,29 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="34">
+      <c r="A47" s="31">
         <v>45</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="36">
+      <c r="D47" s="33">
         <v>1</v>
       </c>
-      <c r="E47" s="36">
+      <c r="E47" s="33">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F47" s="37">
+      <c r="F47" s="34">
         <f>IF(ISBLANK(D47),"",SUM($E$3:E47))</f>
         <v>62100</v>
       </c>
-      <c r="G47" s="34"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="37">
+      <c r="G47" s="31"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="34">
         <f>IF(ISBLANK(D47),"",F47-SUM($H$3:H47))</f>
         <v>12100</v>
       </c>
@@ -2095,7 +2105,7 @@
         <f>IF(ISBLANK(D48),"",SUM($E$3:E48))</f>
         <v>62700</v>
       </c>
-      <c r="G48" s="29">
+      <c r="G48" s="26">
         <v>42947</v>
       </c>
       <c r="H48" s="24">
@@ -2275,53 +2285,57 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
+      <c r="A55" s="22">
         <v>53</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="24">
         <v>16</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="24">
         <f t="shared" si="1"/>
         <v>9600</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="25">
         <f>IF(ISBLANK(D55),"",SUM($E$3:E55))</f>
         <v>79800</v>
       </c>
-      <c r="I55" s="3">
+      <c r="G55" s="22"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="25">
         <f>IF(ISBLANK(D55),"",F55-SUM($H$3:H55))</f>
         <v>14800</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
+      <c r="A56" s="22">
         <v>54</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="24">
         <v>5</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="24">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="25">
         <f>IF(ISBLANK(D56),"",SUM($E$3:E56))</f>
         <v>82800</v>
       </c>
-      <c r="I56" s="3">
+      <c r="G56" s="22"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="25">
         <f>IF(ISBLANK(D56),"",F56-SUM($H$3:H56))</f>
         <v>17800</v>
       </c>
@@ -2382,11 +2396,11 @@
         <v>21400</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="9">
+    <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="22">
         <v>57</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C59" s="23" t="s">
@@ -2395,15 +2409,17 @@
       <c r="D59" s="24">
         <v>0.5</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="24">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="25">
         <f>IF(ISBLANK(D59),"",SUM($E$3:E59))</f>
         <v>86700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="G59" s="22"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="38">
         <f>IF(ISBLANK(D59),"",F59-SUM($H$3:H59))</f>
         <v>21700</v>
       </c>

--- a/Doc/Взаиморасчеты.xlsx
+++ b/Doc/Взаиморасчеты.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="108">
   <si>
     <t>№</t>
   </si>
@@ -235,13 +235,118 @@
   </si>
   <si>
     <t>Отгрузка. Сообщение о невозможности отгрузить количество сделать неблокирующим, позволять сохранять отгрузку</t>
+  </si>
+  <si>
+    <t>В реестре заявок вывести отдельно суммы Оплаченных, Отгруженных, Постоплата, В производстве</t>
+  </si>
+  <si>
+    <t>Изменения в форме Счет-Фактура</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>счет фактура: инн/кпп убрать пробелы. продавец/покупатель жирным, инд. предпр. линию как выше, в наименование включить номер строки, подчеркнуть значения наверху</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>Печатная форма реестра заявок с фильтром по Оплаченным, отгруженным, постоплата, в производстве</t>
+  </si>
+  <si>
+    <t>Во всех документах и печатных формах количество сделать с двумя знаками после запятой</t>
+  </si>
+  <si>
+    <t>В паспорт выводить материал по паспорту, (а не его замену)</t>
+  </si>
+  <si>
+    <t>Предусмотреть в паспорте  строку, с указанием фактического материала (замены), ниже всех подписей  (подсказку  для нас) -для учета используемого материала)</t>
+  </si>
+  <si>
+    <t>Создать возможность добавления строки в накладной вручную,(либо по ссылке автоматически- из созданного справочника с дополнительными услугами- Например -транспортная услуга 850 руб. Сейчас мы вводим это в чертежи- см. строку 1400, но это засоряет базу.</t>
+  </si>
+  <si>
+    <t>При распечатывании отгрузочных документов, вызывать " Обший файл". И из него распечатывать, не возвращаясь в базу за каждым документом отдельно .</t>
+  </si>
+  <si>
+    <t>В справочник Заказчики добавить поле "Грузополучатель".</t>
+  </si>
+  <si>
+    <t>В отгрузке автоматически проставлять Грузополучателя из справочника Заказчиков</t>
+  </si>
+  <si>
+    <t>В справочник Заказчиков добавить поле Постоплата.</t>
+  </si>
+  <si>
+    <t>В заявку добавить поле Постоплата, автоматически устанавливать флажок, если у Заказчика он установлен</t>
+  </si>
+  <si>
+    <t>При заведении рисунка (чертежа) детали нужна автоматическая метка,например "Ч"  для контроля, что чертеж есть.</t>
+  </si>
+  <si>
+    <t>Сделать "сводный реестр продукции"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТК. Раздвинуть поле "Перечень оборудования до 5-6 позиций </t>
+  </si>
+  <si>
+    <t>При расчете электроэнергии, в калькуляции, нужна возможность выбора строки оборудования.</t>
+  </si>
+  <si>
+    <t>ТК изготовления детали сложной технологии в несколько этапов</t>
+  </si>
+  <si>
+    <t>Добавить    форму расчета Калькуляции согласно заданной  цены</t>
+  </si>
+  <si>
+    <t>отчет  начисление  ЗП  по этому варианту калькуляции (по заданной цене)</t>
+  </si>
+  <si>
+    <t>Восстановить сводный отчет по ЗП</t>
+  </si>
+  <si>
+    <t>При формировании отчетов по номеру детали , во всех отчетах должен быть один принцип</t>
+  </si>
+  <si>
+    <t>Заказы и отгрузка по чертежу а)Нужно добавить отбор по "Заказчику"</t>
+  </si>
+  <si>
+    <t>Заказы и отгрузка по чертежу б) Отбор по номеру чертежа неполным списком- например (370.20….-появляется 6 отобранных деталей, вот по этим отсортированным деталями и нужен отчет)</t>
+  </si>
+  <si>
+    <t>Отчет по браку исполнителю, чертежу, наряду, списком по чертежам)</t>
+  </si>
+  <si>
+    <t>Учет прямых затрат на заявку Добавить строку со средними затратами на единицу продукции (см. отчеты)</t>
+  </si>
+  <si>
+    <t>Учет прямых затрат на заявку Добавить условие отчета , по Заказчику, по чертежу, по номеру заявки</t>
+  </si>
+  <si>
+    <t>Учет прямых затрат по наряду Добавить строку со средними затратами на единицу продукции (см. отчеты)</t>
+  </si>
+  <si>
+    <t>Учет прямых затрат по наряду Добавить условие отчета , по Заказчику, по чертежу, по номеру заявки</t>
+  </si>
+  <si>
+    <t>Учет прямых затрат по отгрузке Добавить строку со средними затратами на единицу продукции</t>
+  </si>
+  <si>
+    <t>Учет прямых затрат по отгрузке Добавить условие отчета , по Заказчику, по чертежу, по номеру заявки</t>
+  </si>
+  <si>
+    <t>В индивидуальном наряде добавить дополнительную ячейку для введения  кода</t>
+  </si>
+  <si>
+    <t>добавить контрольную ячейку, с  рассчитанным коэффициентом эффективности по зарплате</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,16 +365,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,12 +398,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -441,11 +554,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -454,6 +562,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -463,7 +579,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -765,19 +889,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I253"/>
+  <dimension ref="A1:K467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
+      <selection pane="bottomRight" activeCell="J62" sqref="J62:K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="79.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="121.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -785,22 +909,23 @@
     <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="35" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -930,7 +1055,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ref="E6:E69" si="1">IF(ISBLANK(D6),"",D6*600)</f>
+        <f t="shared" ref="E6:E79" si="1">IF(ISBLANK(D6),"",D6*600)</f>
         <v>3600</v>
       </c>
       <c r="F6" s="3">
@@ -1833,29 +1958,29 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="27">
+      <c r="A39" s="22">
         <v>37</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="24">
         <v>3</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="24">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="25">
         <f>IF(ISBLANK(D39),"",SUM($E$3:E39))</f>
         <v>51900</v>
       </c>
-      <c r="G39" s="27"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="30">
+      <c r="G39" s="22"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="25">
         <f>IF(ISBLANK(D39),"",F39-SUM($H$3:H39))</f>
         <v>1900</v>
       </c>
@@ -2057,2154 +2182,3065 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31">
+      <c r="A47" s="26">
         <v>45</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="33">
+      <c r="D47" s="28">
         <v>1</v>
       </c>
-      <c r="E47" s="33">
+      <c r="E47" s="28">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F47" s="34">
+      <c r="F47" s="29">
         <f>IF(ISBLANK(D47),"",SUM($E$3:E47))</f>
         <v>62100</v>
       </c>
-      <c r="G47" s="31"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="34">
+      <c r="G47" s="26"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="29">
         <f>IF(ISBLANK(D47),"",F47-SUM($H$3:H47))</f>
         <v>12100</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="22">
+      <c r="A48" s="9">
         <v>46</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="24">
+      <c r="D48" s="5">
         <v>1</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="5">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F48" s="25">
+      <c r="F48" s="10">
         <f>IF(ISBLANK(D48),"",SUM($E$3:E48))</f>
         <v>62700</v>
       </c>
-      <c r="G48" s="26">
+      <c r="G48" s="37">
         <v>42947</v>
       </c>
-      <c r="H48" s="24">
+      <c r="H48" s="5">
         <v>15000</v>
       </c>
-      <c r="I48" s="25">
+      <c r="I48" s="10">
         <f>IF(ISBLANK(D48),"",F48-SUM($H$3:H48))</f>
         <v>-2300</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="22">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
         <v>47</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="24">
+      <c r="D49" s="5">
         <v>1</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="5">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F49" s="25">
+      <c r="F49" s="10">
         <f>IF(ISBLANK(D49),"",SUM($E$3:E49))</f>
         <v>63300</v>
       </c>
-      <c r="G49" s="22"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="25">
+      <c r="G49" s="9"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="10">
         <f>IF(ISBLANK(D49),"",F49-SUM($H$3:H49))</f>
         <v>-1700</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="22">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
         <v>48</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="24">
+      <c r="D50" s="5">
         <v>1</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="5">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F50" s="25">
+      <c r="F50" s="10">
         <f>IF(ISBLANK(D50),"",SUM($E$3:E50))</f>
         <v>63900</v>
       </c>
-      <c r="G50" s="22"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="25">
+      <c r="G50" s="9"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="10">
         <f>IF(ISBLANK(D50),"",F50-SUM($H$3:H50))</f>
         <v>-1100</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="22">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
         <v>49</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="24">
+      <c r="D51" s="5">
         <v>0.5</v>
       </c>
-      <c r="E51" s="24">
+      <c r="E51" s="5">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F51" s="25">
+      <c r="F51" s="10">
         <f>IF(ISBLANK(D51),"",SUM($E$3:E51))</f>
         <v>64200</v>
       </c>
-      <c r="G51" s="22"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="25">
+      <c r="G51" s="9"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="10">
         <f>IF(ISBLANK(D51),"",F51-SUM($H$3:H51))</f>
         <v>-800</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="22">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
         <v>50</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="24">
+      <c r="D52" s="5">
         <v>2</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="5">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="F52" s="25">
+      <c r="F52" s="10">
         <f>IF(ISBLANK(D52),"",SUM($E$3:E52))</f>
         <v>65400</v>
       </c>
-      <c r="G52" s="22"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="25">
+      <c r="G52" s="9"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="10">
         <f>IF(ISBLANK(D52),"",F52-SUM($H$3:H52))</f>
         <v>400</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="22">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
         <v>51</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="24">
+      <c r="D53" s="5">
         <v>4</v>
       </c>
-      <c r="E53" s="24">
+      <c r="E53" s="5">
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-      <c r="F53" s="25">
+      <c r="F53" s="10">
         <f>IF(ISBLANK(D53),"",SUM($E$3:E53))</f>
         <v>67800</v>
       </c>
-      <c r="G53" s="22"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="25">
+      <c r="G53" s="9"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="10">
         <f>IF(ISBLANK(D53),"",F53-SUM($H$3:H53))</f>
         <v>2800</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="22">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
         <v>52</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="24">
+      <c r="D54" s="5">
         <v>4</v>
       </c>
-      <c r="E54" s="24">
+      <c r="E54" s="5">
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-      <c r="F54" s="25">
+      <c r="F54" s="10">
         <f>IF(ISBLANK(D54),"",SUM($E$3:E54))</f>
         <v>70200</v>
       </c>
-      <c r="G54" s="22"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="25">
+      <c r="G54" s="9"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="10">
         <f>IF(ISBLANK(D54),"",F54-SUM($H$3:H54))</f>
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="22">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
         <v>53</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D55" s="5">
         <v>16</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E55" s="5">
         <f t="shared" si="1"/>
         <v>9600</v>
       </c>
-      <c r="F55" s="25">
+      <c r="F55" s="10">
         <f>IF(ISBLANK(D55),"",SUM($E$3:E55))</f>
         <v>79800</v>
       </c>
-      <c r="G55" s="22"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="25">
+      <c r="G55" s="9"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="10">
         <f>IF(ISBLANK(D55),"",F55-SUM($H$3:H55))</f>
         <v>14800</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="22">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
         <v>54</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="24">
+      <c r="D56" s="5">
         <v>5</v>
       </c>
-      <c r="E56" s="24">
+      <c r="E56" s="5">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="F56" s="25">
+      <c r="F56" s="10">
         <f>IF(ISBLANK(D56),"",SUM($E$3:E56))</f>
         <v>82800</v>
       </c>
-      <c r="G56" s="22"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="25">
+      <c r="G56" s="9"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="10">
         <f>IF(ISBLANK(D56),"",F56-SUM($H$3:H56))</f>
         <v>17800</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="22">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
         <v>55</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="5">
         <v>1</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="5">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F57" s="25">
+      <c r="F57" s="10">
         <f>IF(ISBLANK(D57),"",SUM($E$3:E57))</f>
         <v>83400</v>
       </c>
-      <c r="G57" s="22"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="25">
+      <c r="G57" s="9"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="10">
         <f>IF(ISBLANK(D57),"",F57-SUM($H$3:H57))</f>
         <v>18400</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="22">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
         <v>56</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="24">
+      <c r="D58" s="5">
         <v>5</v>
       </c>
-      <c r="E58" s="24">
+      <c r="E58" s="5">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="F58" s="25">
+      <c r="F58" s="10">
         <f>IF(ISBLANK(D58),"",SUM($E$3:E58))</f>
         <v>86400</v>
       </c>
-      <c r="G58" s="22"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="25">
+      <c r="G58" s="9"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="10">
         <f>IF(ISBLANK(D58),"",F58-SUM($H$3:H58))</f>
         <v>21400</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="22">
+    <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26">
         <v>57</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D59" s="24">
+      <c r="D59" s="28">
         <v>0.5</v>
       </c>
-      <c r="E59" s="24">
+      <c r="E59" s="28">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F59" s="25">
+      <c r="F59" s="29">
         <f>IF(ISBLANK(D59),"",SUM($E$3:E59))</f>
         <v>86700</v>
       </c>
-      <c r="G59" s="22"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="38">
+      <c r="G59" s="26"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="29">
         <f>IF(ISBLANK(D59),"",F59-SUM($H$3:H59))</f>
         <v>21700</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <v>58</v>
       </c>
-      <c r="E60" s="2" t="str">
+      <c r="B60" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E60" s="5">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F60" s="3" t="str">
+        <v>900</v>
+      </c>
+      <c r="F60" s="10">
         <f>IF(ISBLANK(D60),"",SUM($E$3:E60))</f>
-        <v/>
-      </c>
-      <c r="I60" s="3" t="str">
+        <v>87600</v>
+      </c>
+      <c r="G60" s="37">
+        <v>42989</v>
+      </c>
+      <c r="H60" s="5">
+        <v>15000</v>
+      </c>
+      <c r="I60" s="10">
         <f>IF(ISBLANK(D60),"",F60-SUM($H$3:H60))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="26">
         <v>59</v>
       </c>
-      <c r="E61" s="2" t="str">
+      <c r="B61" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E61" s="28">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F61" s="3" t="str">
+        <v>300</v>
+      </c>
+      <c r="F61" s="29">
         <f>IF(ISBLANK(D61),"",SUM($E$3:E61))</f>
-        <v/>
-      </c>
-      <c r="I61" s="3" t="str">
+        <v>87900</v>
+      </c>
+      <c r="G61" s="26"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="29">
         <f>IF(ISBLANK(D61),"",F61-SUM($H$3:H61))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="41">
         <v>60</v>
       </c>
-      <c r="E62" s="2" t="str">
+      <c r="B62" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" s="44">
+        <v>4</v>
+      </c>
+      <c r="E62" s="45">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F62" s="3" t="str">
+        <v>2400</v>
+      </c>
+      <c r="F62" s="46">
         <f>IF(ISBLANK(D62),"",SUM($E$3:E62))</f>
-        <v/>
-      </c>
-      <c r="I62" s="3" t="str">
+        <v>90300</v>
+      </c>
+      <c r="I62" s="10">
         <f>IF(ISBLANK(D62),"",F62-SUM($H$3:H62))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
+        <v>10300</v>
+      </c>
+      <c r="J62" s="36">
+        <v>43018</v>
+      </c>
+      <c r="K62" s="33">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="41">
         <v>61</v>
       </c>
-      <c r="E63" s="2" t="str">
+      <c r="B63" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="E63" s="45">
+        <f>IF(ISBLANK(D63),"",D63*600)</f>
+        <v>300</v>
+      </c>
+      <c r="F63" s="46">
+        <f>IF(ISBLANK(D63),"",SUM($E$3:E63))</f>
+        <v>90600</v>
+      </c>
+      <c r="G63" s="42"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="10">
+        <f>IF(ISBLANK(D63),"",F63-SUM($H$3:H63))</f>
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="41">
+        <v>62</v>
+      </c>
+      <c r="B64" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" s="44">
+        <v>1</v>
+      </c>
+      <c r="E64" s="45">
+        <f>IF(ISBLANK(D64),"",D64*600)</f>
+        <v>600</v>
+      </c>
+      <c r="F64" s="46">
+        <f>IF(ISBLANK(D64),"",SUM($E$3:E64))</f>
+        <v>91200</v>
+      </c>
+      <c r="G64" s="42"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="10">
+        <f>IF(ISBLANK(D64),"",F64-SUM($H$3:H64))</f>
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="41">
+        <v>63</v>
+      </c>
+      <c r="B65" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="44">
+        <v>2</v>
+      </c>
+      <c r="E65" s="45">
+        <f>IF(ISBLANK(D65),"",D65*600)</f>
+        <v>1200</v>
+      </c>
+      <c r="F65" s="46">
+        <f>IF(ISBLANK(D65),"",SUM($E$3:E65))</f>
+        <v>92400</v>
+      </c>
+      <c r="G65" s="42"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="10">
+        <f>IF(ISBLANK(D65),"",F65-SUM($H$3:H65))</f>
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="41">
+        <v>64</v>
+      </c>
+      <c r="B66" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" s="44">
+        <v>2</v>
+      </c>
+      <c r="E66" s="45">
+        <f>IF(ISBLANK(D66),"",D66*600)</f>
+        <v>1200</v>
+      </c>
+      <c r="F66" s="46">
+        <f>IF(ISBLANK(D66),"",SUM($E$3:E66))</f>
+        <v>93600</v>
+      </c>
+      <c r="G66" s="42"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="10">
+        <f>IF(ISBLANK(D66),"",F66-SUM($H$3:H66))</f>
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="41">
+        <v>65</v>
+      </c>
+      <c r="B67" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="44">
+        <v>2</v>
+      </c>
+      <c r="E67" s="45">
+        <f>IF(ISBLANK(D67),"",D67*600)</f>
+        <v>1200</v>
+      </c>
+      <c r="F67" s="46">
+        <f>IF(ISBLANK(D67),"",SUM($E$3:E67))</f>
+        <v>94800</v>
+      </c>
+      <c r="G67" s="42"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="10">
+        <f>IF(ISBLANK(D67),"",F67-SUM($H$3:H67))</f>
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="41">
+        <v>66</v>
+      </c>
+      <c r="B68" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="E68" s="45">
+        <f>IF(ISBLANK(D68),"",D68*600)</f>
+        <v>300</v>
+      </c>
+      <c r="F68" s="46">
+        <f>IF(ISBLANK(D68),"",SUM($E$3:E68))</f>
+        <v>95100</v>
+      </c>
+      <c r="G68" s="42"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="10">
+        <f>IF(ISBLANK(D68),"",F68-SUM($H$3:H68))</f>
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="41">
+        <v>67</v>
+      </c>
+      <c r="B69" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="44">
+        <v>3</v>
+      </c>
+      <c r="E69" s="45">
+        <f>IF(ISBLANK(D69),"",D69*600)</f>
+        <v>1800</v>
+      </c>
+      <c r="F69" s="46">
+        <f>IF(ISBLANK(D69),"",SUM($E$3:E69))</f>
+        <v>96900</v>
+      </c>
+      <c r="G69" s="30"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="10">
+        <f>IF(ISBLANK(D69),"",F69-SUM($H$3:H69))</f>
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="41">
+        <v>68</v>
+      </c>
+      <c r="B70" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="E70" s="45">
+        <f>IF(ISBLANK(D70),"",D70*600)</f>
+        <v>900</v>
+      </c>
+      <c r="F70" s="46">
+        <f>IF(ISBLANK(D70),"",SUM($E$3:E70))</f>
+        <v>97800</v>
+      </c>
+      <c r="G70" s="42"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="10">
+        <f>IF(ISBLANK(D70),"",F70-SUM($H$3:H70))</f>
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="41">
+        <v>69</v>
+      </c>
+      <c r="B71" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" s="44">
+        <v>1</v>
+      </c>
+      <c r="E71" s="45">
+        <f>IF(ISBLANK(D71),"",D71*600)</f>
+        <v>600</v>
+      </c>
+      <c r="F71" s="46">
+        <f>IF(ISBLANK(D71),"",SUM($E$3:E71))</f>
+        <v>98400</v>
+      </c>
+      <c r="G71" s="42"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="10">
+        <f>IF(ISBLANK(D71),"",F71-SUM($H$3:H71))</f>
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="41">
+        <v>70</v>
+      </c>
+      <c r="B72" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="44">
+        <v>1</v>
+      </c>
+      <c r="E72" s="45">
+        <f>IF(ISBLANK(D72),"",D72*600)</f>
+        <v>600</v>
+      </c>
+      <c r="F72" s="46">
+        <f>IF(ISBLANK(D72),"",SUM($E$3:E72))</f>
+        <v>99000</v>
+      </c>
+      <c r="G72" s="42"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="10">
+        <f>IF(ISBLANK(D72),"",F72-SUM($H$3:H72))</f>
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="41">
+        <v>71</v>
+      </c>
+      <c r="B73" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" s="44">
+        <v>1</v>
+      </c>
+      <c r="E73" s="45">
+        <f>IF(ISBLANK(D73),"",D73*600)</f>
+        <v>600</v>
+      </c>
+      <c r="F73" s="46">
+        <f>IF(ISBLANK(D73),"",SUM($E$3:E73))</f>
+        <v>99600</v>
+      </c>
+      <c r="G73" s="42"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="10">
+        <f>IF(ISBLANK(D73),"",F73-SUM($H$3:H73))</f>
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="48">
+        <v>72</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" s="32">
+        <v>4</v>
+      </c>
+      <c r="E74" s="33">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F63" s="3" t="str">
-        <f>IF(ISBLANK(D63),"",SUM($E$3:E63))</f>
-        <v/>
-      </c>
-      <c r="I63" s="3" t="str">
-        <f>IF(ISBLANK(D63),"",F63-SUM($H$3:H63))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="9">
-        <v>62</v>
-      </c>
-      <c r="E64" s="2" t="str">
+        <v>2400</v>
+      </c>
+      <c r="F74" s="34">
+        <f>IF(ISBLANK(D74),"",SUM($E$3:E74))</f>
+        <v>102000</v>
+      </c>
+      <c r="G74" s="30"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="34">
+        <f>IF(ISBLANK(D74),"",F74-SUM($H$3:H74))</f>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="48">
+        <v>73</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="32">
+        <v>4</v>
+      </c>
+      <c r="E75" s="33">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F64" s="3" t="str">
-        <f>IF(ISBLANK(D64),"",SUM($E$3:E64))</f>
-        <v/>
-      </c>
-      <c r="I64" s="3" t="str">
-        <f>IF(ISBLANK(D64),"",F64-SUM($H$3:H64))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
-        <v>63</v>
-      </c>
-      <c r="E65" s="2" t="str">
+        <v>2400</v>
+      </c>
+      <c r="F75" s="34">
+        <f>IF(ISBLANK(D75),"",SUM($E$3:E75))</f>
+        <v>104400</v>
+      </c>
+      <c r="G75" s="30"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="34">
+        <f>IF(ISBLANK(D75),"",F75-SUM($H$3:H75))</f>
+        <v>24400</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="48">
+        <v>74</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76" s="32">
+        <v>2</v>
+      </c>
+      <c r="E76" s="33">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F65" s="3" t="str">
-        <f>IF(ISBLANK(D65),"",SUM($E$3:E65))</f>
-        <v/>
-      </c>
-      <c r="I65" s="3" t="str">
-        <f>IF(ISBLANK(D65),"",F65-SUM($H$3:H65))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
-        <v>64</v>
-      </c>
-      <c r="E66" s="2" t="str">
+        <v>1200</v>
+      </c>
+      <c r="F76" s="34">
+        <f>IF(ISBLANK(D76),"",SUM($E$3:E76))</f>
+        <v>105600</v>
+      </c>
+      <c r="G76" s="30"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="34">
+        <f>IF(ISBLANK(D76),"",F76-SUM($H$3:H76))</f>
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="48">
+        <v>75</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77" s="32">
+        <v>5</v>
+      </c>
+      <c r="E77" s="33">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F66" s="3" t="str">
-        <f>IF(ISBLANK(D66),"",SUM($E$3:E66))</f>
-        <v/>
-      </c>
-      <c r="I66" s="3" t="str">
-        <f>IF(ISBLANK(D66),"",F66-SUM($H$3:H66))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="9">
-        <v>65</v>
-      </c>
-      <c r="E67" s="2" t="str">
+        <v>3000</v>
+      </c>
+      <c r="F77" s="34">
+        <f>IF(ISBLANK(D77),"",SUM($E$3:E77))</f>
+        <v>108600</v>
+      </c>
+      <c r="G77" s="30"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="34">
+        <f>IF(ISBLANK(D77),"",F77-SUM($H$3:H77))</f>
+        <v>28600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="48">
+        <v>76</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" s="32">
+        <v>3</v>
+      </c>
+      <c r="E78" s="33">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F67" s="3" t="str">
-        <f>IF(ISBLANK(D67),"",SUM($E$3:E67))</f>
-        <v/>
-      </c>
-      <c r="I67" s="3" t="str">
-        <f>IF(ISBLANK(D67),"",F67-SUM($H$3:H67))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="9">
-        <v>66</v>
-      </c>
-      <c r="E68" s="2" t="str">
+        <v>1800</v>
+      </c>
+      <c r="F78" s="34">
+        <f>IF(ISBLANK(D78),"",SUM($E$3:E78))</f>
+        <v>110400</v>
+      </c>
+      <c r="G78" s="30"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="34">
+        <f>IF(ISBLANK(D78),"",F78-SUM($H$3:H78))</f>
+        <v>30400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="48">
+        <v>77</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" s="32">
+        <v>1</v>
+      </c>
+      <c r="E79" s="33">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F68" s="3" t="str">
-        <f>IF(ISBLANK(D68),"",SUM($E$3:E68))</f>
-        <v/>
-      </c>
-      <c r="I68" s="3" t="str">
-        <f>IF(ISBLANK(D68),"",F68-SUM($H$3:H68))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="9">
-        <v>67</v>
-      </c>
-      <c r="E69" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F69" s="3" t="str">
-        <f>IF(ISBLANK(D69),"",SUM($E$3:E69))</f>
-        <v/>
-      </c>
-      <c r="I69" s="3" t="str">
-        <f>IF(ISBLANK(D69),"",F69-SUM($H$3:H69))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="9">
-        <v>68</v>
-      </c>
-      <c r="E70" s="2" t="str">
-        <f t="shared" ref="E70:E133" si="2">IF(ISBLANK(D70),"",D70*600)</f>
-        <v/>
-      </c>
-      <c r="F70" s="3" t="str">
-        <f>IF(ISBLANK(D70),"",SUM($E$3:E70))</f>
-        <v/>
-      </c>
-      <c r="I70" s="3" t="str">
-        <f>IF(ISBLANK(D70),"",F70-SUM($H$3:H70))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="9">
-        <v>69</v>
-      </c>
-      <c r="E71" s="2" t="str">
+        <v>600</v>
+      </c>
+      <c r="F79" s="34">
+        <f>IF(ISBLANK(D79),"",SUM($E$3:E79))</f>
+        <v>111000</v>
+      </c>
+      <c r="G79" s="30"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="34">
+        <f>IF(ISBLANK(D79),"",F79-SUM($H$3:H79))</f>
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="48">
+        <v>78</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" s="32">
+        <v>6</v>
+      </c>
+      <c r="E80" s="33">
+        <f t="shared" ref="E80:E133" si="2">IF(ISBLANK(D80),"",D80*600)</f>
+        <v>3600</v>
+      </c>
+      <c r="F80" s="34">
+        <f>IF(ISBLANK(D80),"",SUM($E$3:E80))</f>
+        <v>114600</v>
+      </c>
+      <c r="G80" s="30"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="34">
+        <f>IF(ISBLANK(D80),"",F80-SUM($H$3:H80))</f>
+        <v>34600</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="48">
+        <v>79</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D81" s="32">
+        <v>3</v>
+      </c>
+      <c r="E81" s="33">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F71" s="3" t="str">
-        <f>IF(ISBLANK(D71),"",SUM($E$3:E71))</f>
-        <v/>
-      </c>
-      <c r="I71" s="3" t="str">
-        <f>IF(ISBLANK(D71),"",F71-SUM($H$3:H71))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
-        <v>70</v>
-      </c>
-      <c r="E72" s="2" t="str">
+        <v>1800</v>
+      </c>
+      <c r="F81" s="34">
+        <f>IF(ISBLANK(D81),"",SUM($E$3:E81))</f>
+        <v>116400</v>
+      </c>
+      <c r="G81" s="30"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="34">
+        <f>IF(ISBLANK(D81),"",F81-SUM($H$3:H81))</f>
+        <v>36400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="48">
+        <v>80</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D82" s="32">
+        <v>20</v>
+      </c>
+      <c r="E82" s="33">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F72" s="3" t="str">
-        <f>IF(ISBLANK(D72),"",SUM($E$3:E72))</f>
-        <v/>
-      </c>
-      <c r="I72" s="3" t="str">
-        <f>IF(ISBLANK(D72),"",F72-SUM($H$3:H72))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
-        <v>71</v>
-      </c>
-      <c r="E73" s="2" t="str">
+        <v>12000</v>
+      </c>
+      <c r="F82" s="34">
+        <f>IF(ISBLANK(D82),"",SUM($E$3:E82))</f>
+        <v>128400</v>
+      </c>
+      <c r="G82" s="30"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="34">
+        <f>IF(ISBLANK(D82),"",F82-SUM($H$3:H82))</f>
+        <v>48400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="48">
+        <v>81</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83" s="32">
+        <v>8</v>
+      </c>
+      <c r="E83" s="33">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F73" s="3" t="str">
-        <f>IF(ISBLANK(D73),"",SUM($E$3:E73))</f>
-        <v/>
-      </c>
-      <c r="I73" s="3" t="str">
-        <f>IF(ISBLANK(D73),"",F73-SUM($H$3:H73))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="9">
-        <v>72</v>
-      </c>
-      <c r="E74" s="2" t="str">
+        <v>4800</v>
+      </c>
+      <c r="F83" s="34">
+        <f>IF(ISBLANK(D83),"",SUM($E$3:E83))</f>
+        <v>133200</v>
+      </c>
+      <c r="G83" s="30"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="34">
+        <f>IF(ISBLANK(D83),"",F83-SUM($H$3:H83))</f>
+        <v>53200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="48">
+        <v>82</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" s="32">
+        <v>2</v>
+      </c>
+      <c r="E84" s="33">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F74" s="3" t="str">
-        <f>IF(ISBLANK(D74),"",SUM($E$3:E74))</f>
-        <v/>
-      </c>
-      <c r="I74" s="3" t="str">
-        <f>IF(ISBLANK(D74),"",F74-SUM($H$3:H74))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="9">
-        <v>73</v>
-      </c>
-      <c r="E75" s="2" t="str">
+        <v>1200</v>
+      </c>
+      <c r="F84" s="34">
+        <f>IF(ISBLANK(D84),"",SUM($E$3:E84))</f>
+        <v>134400</v>
+      </c>
+      <c r="G84" s="30"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="34">
+        <f>IF(ISBLANK(D84),"",F84-SUM($H$3:H84))</f>
+        <v>54400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="48">
+        <v>83</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D85" s="32">
+        <v>4</v>
+      </c>
+      <c r="E85" s="33">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F75" s="3" t="str">
-        <f>IF(ISBLANK(D75),"",SUM($E$3:E75))</f>
-        <v/>
-      </c>
-      <c r="I75" s="3" t="str">
-        <f>IF(ISBLANK(D75),"",F75-SUM($H$3:H75))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="9">
-        <v>74</v>
-      </c>
-      <c r="E76" s="2" t="str">
+        <v>2400</v>
+      </c>
+      <c r="F85" s="34">
+        <f>IF(ISBLANK(D85),"",SUM($E$3:E85))</f>
+        <v>136800</v>
+      </c>
+      <c r="G85" s="30"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="34">
+        <f>IF(ISBLANK(D85),"",F85-SUM($H$3:H85))</f>
+        <v>56800</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="48">
+        <v>84</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D86" s="32">
+        <v>3</v>
+      </c>
+      <c r="E86" s="33">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F76" s="3" t="str">
-        <f>IF(ISBLANK(D76),"",SUM($E$3:E76))</f>
-        <v/>
-      </c>
-      <c r="I76" s="3" t="str">
-        <f>IF(ISBLANK(D76),"",F76-SUM($H$3:H76))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="9">
-        <v>75</v>
-      </c>
-      <c r="E77" s="2" t="str">
+        <v>1800</v>
+      </c>
+      <c r="F86" s="34">
+        <f>IF(ISBLANK(D86),"",SUM($E$3:E86))</f>
+        <v>138600</v>
+      </c>
+      <c r="G86" s="30"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="34">
+        <f>IF(ISBLANK(D86),"",F86-SUM($H$3:H86))</f>
+        <v>58600</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="48">
+        <v>85</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D87" s="32">
+        <v>4</v>
+      </c>
+      <c r="E87" s="33">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F77" s="3" t="str">
-        <f>IF(ISBLANK(D77),"",SUM($E$3:E77))</f>
-        <v/>
-      </c>
-      <c r="I77" s="3" t="str">
-        <f>IF(ISBLANK(D77),"",F77-SUM($H$3:H77))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="9">
-        <v>76</v>
-      </c>
-      <c r="E78" s="2" t="str">
+        <v>2400</v>
+      </c>
+      <c r="F87" s="34">
+        <f>IF(ISBLANK(D87),"",SUM($E$3:E87))</f>
+        <v>141000</v>
+      </c>
+      <c r="G87" s="30"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="34">
+        <f>IF(ISBLANK(D87),"",F87-SUM($H$3:H87))</f>
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="48">
+        <v>86</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D88" s="32">
+        <v>2</v>
+      </c>
+      <c r="E88" s="33">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F78" s="3" t="str">
-        <f>IF(ISBLANK(D78),"",SUM($E$3:E78))</f>
-        <v/>
-      </c>
-      <c r="I78" s="3" t="str">
-        <f>IF(ISBLANK(D78),"",F78-SUM($H$3:H78))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="9">
+        <v>1200</v>
+      </c>
+      <c r="F88" s="34">
+        <f>IF(ISBLANK(D88),"",SUM($E$3:E88))</f>
+        <v>142200</v>
+      </c>
+      <c r="G88" s="30"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="34">
+        <f>IF(ISBLANK(D88),"",F88-SUM($H$3:H88))</f>
+        <v>62200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="48">
+        <v>87</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="E79" s="2" t="str">
+      <c r="D89" s="32">
+        <v>2</v>
+      </c>
+      <c r="E89" s="33">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F79" s="3" t="str">
-        <f>IF(ISBLANK(D79),"",SUM($E$3:E79))</f>
-        <v/>
-      </c>
-      <c r="I79" s="3" t="str">
-        <f>IF(ISBLANK(D79),"",F79-SUM($H$3:H79))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="9">
-        <v>78</v>
-      </c>
-      <c r="E80" s="2" t="str">
+        <v>1200</v>
+      </c>
+      <c r="F89" s="34">
+        <f>IF(ISBLANK(D89),"",SUM($E$3:E89))</f>
+        <v>143400</v>
+      </c>
+      <c r="G89" s="30"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="34">
+        <f>IF(ISBLANK(D89),"",F89-SUM($H$3:H89))</f>
+        <v>63400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="48">
+        <v>88</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D90" s="32">
+        <v>2</v>
+      </c>
+      <c r="E90" s="33">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F80" s="3" t="str">
-        <f>IF(ISBLANK(D80),"",SUM($E$3:E80))</f>
-        <v/>
-      </c>
-      <c r="I80" s="3" t="str">
-        <f>IF(ISBLANK(D80),"",F80-SUM($H$3:H80))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="9">
-        <v>79</v>
-      </c>
-      <c r="E81" s="2" t="str">
+        <v>1200</v>
+      </c>
+      <c r="F90" s="34">
+        <f>IF(ISBLANK(D90),"",SUM($E$3:E90))</f>
+        <v>144600</v>
+      </c>
+      <c r="G90" s="30"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="34">
+        <f>IF(ISBLANK(D90),"",F90-SUM($H$3:H90))</f>
+        <v>64600</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="48">
+        <v>89</v>
+      </c>
+      <c r="B91" s="30"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="34" t="str">
+        <f>IF(ISBLANK(D91),"",F91-SUM($H$3:H91))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="48">
+        <v>90</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92" s="32">
+        <v>4</v>
+      </c>
+      <c r="E92" s="33">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F81" s="3" t="str">
-        <f>IF(ISBLANK(D81),"",SUM($E$3:E81))</f>
-        <v/>
-      </c>
-      <c r="I81" s="3" t="str">
-        <f>IF(ISBLANK(D81),"",F81-SUM($H$3:H81))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="9">
-        <v>80</v>
-      </c>
-      <c r="E82" s="2" t="str">
+        <v>2400</v>
+      </c>
+      <c r="F92" s="34">
+        <f>IF(ISBLANK(D92),"",SUM($E$3:E92))</f>
+        <v>147000</v>
+      </c>
+      <c r="G92" s="30"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="34">
+        <f>IF(ISBLANK(D92),"",F92-SUM($H$3:H92))</f>
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="48">
+        <v>91</v>
+      </c>
+      <c r="B93" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C93" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D93" s="32">
+        <v>3</v>
+      </c>
+      <c r="E93" s="33">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F82" s="3" t="str">
-        <f>IF(ISBLANK(D82),"",SUM($E$3:E82))</f>
-        <v/>
-      </c>
-      <c r="I82" s="3" t="str">
-        <f>IF(ISBLANK(D82),"",F82-SUM($H$3:H82))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="9">
-        <v>81</v>
-      </c>
-      <c r="E83" s="2" t="str">
+        <v>1800</v>
+      </c>
+      <c r="F93" s="34">
+        <f>IF(ISBLANK(D93),"",SUM($E$3:E93))</f>
+        <v>148800</v>
+      </c>
+      <c r="G93" s="30"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="34">
+        <f>IF(ISBLANK(D93),"",F93-SUM($H$3:H93))</f>
+        <v>68800</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="48">
+        <v>92</v>
+      </c>
+      <c r="B94" s="30"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F83" s="3" t="str">
-        <f>IF(ISBLANK(D83),"",SUM($E$3:E83))</f>
-        <v/>
-      </c>
-      <c r="I83" s="3" t="str">
-        <f>IF(ISBLANK(D83),"",F83-SUM($H$3:H83))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="9">
-        <v>82</v>
-      </c>
-      <c r="E84" s="2" t="str">
+      <c r="F94" s="34" t="str">
+        <f>IF(ISBLANK(D94),"",SUM($E$3:E94))</f>
+        <v/>
+      </c>
+      <c r="G94" s="30"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="34" t="str">
+        <f>IF(ISBLANK(D94),"",F94-SUM($H$3:H94))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="48">
+        <v>93</v>
+      </c>
+      <c r="B95" s="30"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F84" s="3" t="str">
-        <f>IF(ISBLANK(D84),"",SUM($E$3:E84))</f>
-        <v/>
-      </c>
-      <c r="I84" s="3" t="str">
-        <f>IF(ISBLANK(D84),"",F84-SUM($H$3:H84))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="9">
-        <v>83</v>
-      </c>
-      <c r="E85" s="2" t="str">
+      <c r="F95" s="34" t="str">
+        <f>IF(ISBLANK(D95),"",SUM($E$3:E95))</f>
+        <v/>
+      </c>
+      <c r="G95" s="30"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="34" t="str">
+        <f>IF(ISBLANK(D95),"",F95-SUM($H$3:H95))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="48">
+        <v>94</v>
+      </c>
+      <c r="B96" s="30"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F85" s="3" t="str">
-        <f>IF(ISBLANK(D85),"",SUM($E$3:E85))</f>
-        <v/>
-      </c>
-      <c r="I85" s="3" t="str">
-        <f>IF(ISBLANK(D85),"",F85-SUM($H$3:H85))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="9">
-        <v>84</v>
-      </c>
-      <c r="E86" s="2" t="str">
+      <c r="F96" s="34" t="str">
+        <f>IF(ISBLANK(D96),"",SUM($E$3:E96))</f>
+        <v/>
+      </c>
+      <c r="G96" s="30"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="34" t="str">
+        <f>IF(ISBLANK(D96),"",F96-SUM($H$3:H96))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="48">
+        <v>95</v>
+      </c>
+      <c r="B97" s="30"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F86" s="3" t="str">
-        <f>IF(ISBLANK(D86),"",SUM($E$3:E86))</f>
-        <v/>
-      </c>
-      <c r="I86" s="3" t="str">
-        <f>IF(ISBLANK(D86),"",F86-SUM($H$3:H86))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="9">
-        <v>85</v>
-      </c>
-      <c r="E87" s="2" t="str">
+      <c r="F97" s="34" t="str">
+        <f>IF(ISBLANK(D97),"",SUM($E$3:E97))</f>
+        <v/>
+      </c>
+      <c r="G97" s="30"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="34" t="str">
+        <f>IF(ISBLANK(D97),"",F97-SUM($H$3:H97))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="48">
+        <v>96</v>
+      </c>
+      <c r="B98" s="30"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F87" s="3" t="str">
-        <f>IF(ISBLANK(D87),"",SUM($E$3:E87))</f>
-        <v/>
-      </c>
-      <c r="I87" s="3" t="str">
-        <f>IF(ISBLANK(D87),"",F87-SUM($H$3:H87))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="9">
-        <v>86</v>
-      </c>
-      <c r="E88" s="2" t="str">
+      <c r="F98" s="34" t="str">
+        <f>IF(ISBLANK(D98),"",SUM($E$3:E98))</f>
+        <v/>
+      </c>
+      <c r="G98" s="30"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="34" t="str">
+        <f>IF(ISBLANK(D98),"",F98-SUM($H$3:H98))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="48">
+        <v>97</v>
+      </c>
+      <c r="B99" s="30"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F88" s="3" t="str">
-        <f>IF(ISBLANK(D88),"",SUM($E$3:E88))</f>
-        <v/>
-      </c>
-      <c r="I88" s="3" t="str">
-        <f>IF(ISBLANK(D88),"",F88-SUM($H$3:H88))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="9">
-        <v>87</v>
-      </c>
-      <c r="E89" s="2" t="str">
+      <c r="F99" s="34" t="str">
+        <f>IF(ISBLANK(D99),"",SUM($E$3:E99))</f>
+        <v/>
+      </c>
+      <c r="G99" s="30"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="34" t="str">
+        <f>IF(ISBLANK(D99),"",F99-SUM($H$3:H99))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="48">
+        <v>98</v>
+      </c>
+      <c r="B100" s="30"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F89" s="3" t="str">
-        <f>IF(ISBLANK(D89),"",SUM($E$3:E89))</f>
-        <v/>
-      </c>
-      <c r="I89" s="3" t="str">
-        <f>IF(ISBLANK(D89),"",F89-SUM($H$3:H89))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="9">
-        <v>88</v>
-      </c>
-      <c r="E90" s="2" t="str">
+      <c r="F100" s="34" t="str">
+        <f>IF(ISBLANK(D100),"",SUM($E$3:E100))</f>
+        <v/>
+      </c>
+      <c r="G100" s="30"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="34" t="str">
+        <f>IF(ISBLANK(D100),"",F100-SUM($H$3:H100))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="48">
+        <v>99</v>
+      </c>
+      <c r="B101" s="30"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F90" s="3" t="str">
-        <f>IF(ISBLANK(D90),"",SUM($E$3:E90))</f>
-        <v/>
-      </c>
-      <c r="I90" s="3" t="str">
-        <f>IF(ISBLANK(D90),"",F90-SUM($H$3:H90))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="9">
-        <v>89</v>
-      </c>
-      <c r="E91" s="2" t="str">
+      <c r="F101" s="34" t="str">
+        <f>IF(ISBLANK(D101),"",SUM($E$3:E101))</f>
+        <v/>
+      </c>
+      <c r="G101" s="30"/>
+      <c r="H101" s="33"/>
+      <c r="I101" s="34" t="str">
+        <f>IF(ISBLANK(D101),"",F101-SUM($H$3:H101))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="48">
+        <v>100</v>
+      </c>
+      <c r="B102" s="30"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F91" s="3" t="str">
-        <f>IF(ISBLANK(D91),"",SUM($E$3:E91))</f>
-        <v/>
-      </c>
-      <c r="I91" s="3" t="str">
-        <f>IF(ISBLANK(D91),"",F91-SUM($H$3:H91))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="9">
-        <v>90</v>
-      </c>
-      <c r="E92" s="2" t="str">
+      <c r="F102" s="34" t="str">
+        <f>IF(ISBLANK(D102),"",SUM($E$3:E102))</f>
+        <v/>
+      </c>
+      <c r="G102" s="30"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="34" t="str">
+        <f>IF(ISBLANK(D102),"",F102-SUM($H$3:H102))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="48">
+        <v>101</v>
+      </c>
+      <c r="B103" s="30"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F92" s="3" t="str">
-        <f>IF(ISBLANK(D92),"",SUM($E$3:E92))</f>
-        <v/>
-      </c>
-      <c r="I92" s="3" t="str">
-        <f>IF(ISBLANK(D92),"",F92-SUM($H$3:H92))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="9">
-        <v>91</v>
-      </c>
-      <c r="E93" s="2" t="str">
+      <c r="F103" s="34" t="str">
+        <f>IF(ISBLANK(D103),"",SUM($E$3:E103))</f>
+        <v/>
+      </c>
+      <c r="G103" s="30"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="34" t="str">
+        <f>IF(ISBLANK(D103),"",F103-SUM($H$3:H103))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="48">
+        <v>102</v>
+      </c>
+      <c r="B104" s="30"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F93" s="3" t="str">
-        <f>IF(ISBLANK(D93),"",SUM($E$3:E93))</f>
-        <v/>
-      </c>
-      <c r="I93" s="3" t="str">
-        <f>IF(ISBLANK(D93),"",F93-SUM($H$3:H93))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="9">
-        <v>92</v>
-      </c>
-      <c r="E94" s="2" t="str">
+      <c r="F104" s="34" t="str">
+        <f>IF(ISBLANK(D104),"",SUM($E$3:E104))</f>
+        <v/>
+      </c>
+      <c r="G104" s="30"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="34" t="str">
+        <f>IF(ISBLANK(D104),"",F104-SUM($H$3:H104))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="48">
+        <v>103</v>
+      </c>
+      <c r="B105" s="30"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F94" s="3" t="str">
-        <f>IF(ISBLANK(D94),"",SUM($E$3:E94))</f>
-        <v/>
-      </c>
-      <c r="I94" s="3" t="str">
-        <f>IF(ISBLANK(D94),"",F94-SUM($H$3:H94))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="9">
-        <v>93</v>
-      </c>
-      <c r="E95" s="2" t="str">
+      <c r="F105" s="34" t="str">
+        <f>IF(ISBLANK(D105),"",SUM($E$3:E105))</f>
+        <v/>
+      </c>
+      <c r="G105" s="30"/>
+      <c r="H105" s="33"/>
+      <c r="I105" s="34" t="str">
+        <f>IF(ISBLANK(D105),"",F105-SUM($H$3:H105))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="48">
+        <v>104</v>
+      </c>
+      <c r="B106" s="30"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F95" s="3" t="str">
-        <f>IF(ISBLANK(D95),"",SUM($E$3:E95))</f>
-        <v/>
-      </c>
-      <c r="I95" s="3" t="str">
-        <f>IF(ISBLANK(D95),"",F95-SUM($H$3:H95))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="9">
-        <v>94</v>
-      </c>
-      <c r="E96" s="2" t="str">
+      <c r="F106" s="34" t="str">
+        <f>IF(ISBLANK(D106),"",SUM($E$3:E106))</f>
+        <v/>
+      </c>
+      <c r="G106" s="30"/>
+      <c r="H106" s="33"/>
+      <c r="I106" s="34" t="str">
+        <f>IF(ISBLANK(D106),"",F106-SUM($H$3:H106))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="48">
+        <v>105</v>
+      </c>
+      <c r="B107" s="30"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F96" s="3" t="str">
-        <f>IF(ISBLANK(D96),"",SUM($E$3:E96))</f>
-        <v/>
-      </c>
-      <c r="I96" s="3" t="str">
-        <f>IF(ISBLANK(D96),"",F96-SUM($H$3:H96))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="9">
-        <v>95</v>
-      </c>
-      <c r="E97" s="2" t="str">
+      <c r="F107" s="34" t="str">
+        <f>IF(ISBLANK(D107),"",SUM($E$3:E107))</f>
+        <v/>
+      </c>
+      <c r="G107" s="30"/>
+      <c r="H107" s="33"/>
+      <c r="I107" s="34" t="str">
+        <f>IF(ISBLANK(D107),"",F107-SUM($H$3:H107))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="48">
+        <v>106</v>
+      </c>
+      <c r="B108" s="30"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F97" s="3" t="str">
-        <f>IF(ISBLANK(D97),"",SUM($E$3:E97))</f>
-        <v/>
-      </c>
-      <c r="I97" s="3" t="str">
-        <f>IF(ISBLANK(D97),"",F97-SUM($H$3:H97))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="9">
-        <v>96</v>
-      </c>
-      <c r="E98" s="2" t="str">
+      <c r="F108" s="34" t="str">
+        <f>IF(ISBLANK(D108),"",SUM($E$3:E108))</f>
+        <v/>
+      </c>
+      <c r="G108" s="30"/>
+      <c r="H108" s="33"/>
+      <c r="I108" s="34" t="str">
+        <f>IF(ISBLANK(D108),"",F108-SUM($H$3:H108))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="48">
+        <v>107</v>
+      </c>
+      <c r="B109" s="30"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F98" s="3" t="str">
-        <f>IF(ISBLANK(D98),"",SUM($E$3:E98))</f>
-        <v/>
-      </c>
-      <c r="I98" s="3" t="str">
-        <f>IF(ISBLANK(D98),"",F98-SUM($H$3:H98))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="9">
-        <v>97</v>
-      </c>
-      <c r="E99" s="2" t="str">
+      <c r="F109" s="34" t="str">
+        <f>IF(ISBLANK(D109),"",SUM($E$3:E109))</f>
+        <v/>
+      </c>
+      <c r="G109" s="30"/>
+      <c r="H109" s="33"/>
+      <c r="I109" s="34" t="str">
+        <f>IF(ISBLANK(D109),"",F109-SUM($H$3:H109))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="48">
+        <v>108</v>
+      </c>
+      <c r="B110" s="30"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F99" s="3" t="str">
-        <f>IF(ISBLANK(D99),"",SUM($E$3:E99))</f>
-        <v/>
-      </c>
-      <c r="I99" s="3" t="str">
-        <f>IF(ISBLANK(D99),"",F99-SUM($H$3:H99))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="9">
-        <v>98</v>
-      </c>
-      <c r="E100" s="2" t="str">
+      <c r="F110" s="34" t="str">
+        <f>IF(ISBLANK(D110),"",SUM($E$3:E110))</f>
+        <v/>
+      </c>
+      <c r="G110" s="30"/>
+      <c r="H110" s="33"/>
+      <c r="I110" s="34" t="str">
+        <f>IF(ISBLANK(D110),"",F110-SUM($H$3:H110))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="48">
+        <v>109</v>
+      </c>
+      <c r="B111" s="30"/>
+      <c r="C111" s="31"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F100" s="3" t="str">
-        <f>IF(ISBLANK(D100),"",SUM($E$3:E100))</f>
-        <v/>
-      </c>
-      <c r="I100" s="3" t="str">
-        <f>IF(ISBLANK(D100),"",F100-SUM($H$3:H100))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="9">
-        <v>99</v>
-      </c>
-      <c r="E101" s="2" t="str">
+      <c r="F111" s="34" t="str">
+        <f>IF(ISBLANK(D111),"",SUM($E$3:E111))</f>
+        <v/>
+      </c>
+      <c r="G111" s="30"/>
+      <c r="H111" s="33"/>
+      <c r="I111" s="34" t="str">
+        <f>IF(ISBLANK(D111),"",F111-SUM($H$3:H111))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="48">
+        <v>110</v>
+      </c>
+      <c r="B112" s="30"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F101" s="3" t="str">
-        <f>IF(ISBLANK(D101),"",SUM($E$3:E101))</f>
-        <v/>
-      </c>
-      <c r="I101" s="3" t="str">
-        <f>IF(ISBLANK(D101),"",F101-SUM($H$3:H101))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="9">
-        <v>100</v>
-      </c>
-      <c r="E102" s="2" t="str">
+      <c r="F112" s="34" t="str">
+        <f>IF(ISBLANK(D112),"",SUM($E$3:E112))</f>
+        <v/>
+      </c>
+      <c r="G112" s="30"/>
+      <c r="H112" s="33"/>
+      <c r="I112" s="34" t="str">
+        <f>IF(ISBLANK(D112),"",F112-SUM($H$3:H112))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="48">
+        <v>111</v>
+      </c>
+      <c r="B113" s="30"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F102" s="3" t="str">
-        <f>IF(ISBLANK(D102),"",SUM($E$3:E102))</f>
-        <v/>
-      </c>
-      <c r="I102" s="3" t="str">
-        <f>IF(ISBLANK(D102),"",F102-SUM($H$3:H102))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="9">
-        <v>101</v>
-      </c>
-      <c r="E103" s="2" t="str">
+      <c r="F113" s="34" t="str">
+        <f>IF(ISBLANK(D113),"",SUM($E$3:E113))</f>
+        <v/>
+      </c>
+      <c r="G113" s="30"/>
+      <c r="H113" s="33"/>
+      <c r="I113" s="34" t="str">
+        <f>IF(ISBLANK(D113),"",F113-SUM($H$3:H113))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="48">
+        <v>112</v>
+      </c>
+      <c r="B114" s="30"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F103" s="3" t="str">
-        <f>IF(ISBLANK(D103),"",SUM($E$3:E103))</f>
-        <v/>
-      </c>
-      <c r="I103" s="3" t="str">
-        <f>IF(ISBLANK(D103),"",F103-SUM($H$3:H103))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="9">
-        <v>102</v>
-      </c>
-      <c r="E104" s="2" t="str">
+      <c r="F114" s="34" t="str">
+        <f>IF(ISBLANK(D114),"",SUM($E$3:E114))</f>
+        <v/>
+      </c>
+      <c r="G114" s="30"/>
+      <c r="H114" s="33"/>
+      <c r="I114" s="34" t="str">
+        <f>IF(ISBLANK(D114),"",F114-SUM($H$3:H114))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="48">
+        <v>113</v>
+      </c>
+      <c r="B115" s="30"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F104" s="3" t="str">
-        <f>IF(ISBLANK(D104),"",SUM($E$3:E104))</f>
-        <v/>
-      </c>
-      <c r="I104" s="3" t="str">
-        <f>IF(ISBLANK(D104),"",F104-SUM($H$3:H104))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="9">
-        <v>103</v>
-      </c>
-      <c r="E105" s="2" t="str">
+      <c r="F115" s="34" t="str">
+        <f>IF(ISBLANK(D115),"",SUM($E$3:E115))</f>
+        <v/>
+      </c>
+      <c r="G115" s="30"/>
+      <c r="H115" s="33"/>
+      <c r="I115" s="34" t="str">
+        <f>IF(ISBLANK(D115),"",F115-SUM($H$3:H115))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="48">
+        <v>114</v>
+      </c>
+      <c r="B116" s="30"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F105" s="3" t="str">
-        <f>IF(ISBLANK(D105),"",SUM($E$3:E105))</f>
-        <v/>
-      </c>
-      <c r="I105" s="3" t="str">
-        <f>IF(ISBLANK(D105),"",F105-SUM($H$3:H105))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="9">
-        <v>104</v>
-      </c>
-      <c r="E106" s="2" t="str">
+      <c r="F116" s="34" t="str">
+        <f>IF(ISBLANK(D116),"",SUM($E$3:E116))</f>
+        <v/>
+      </c>
+      <c r="G116" s="30"/>
+      <c r="H116" s="33"/>
+      <c r="I116" s="34" t="str">
+        <f>IF(ISBLANK(D116),"",F116-SUM($H$3:H116))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="48">
+        <v>115</v>
+      </c>
+      <c r="B117" s="30"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="32"/>
+      <c r="E117" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F106" s="3" t="str">
-        <f>IF(ISBLANK(D106),"",SUM($E$3:E106))</f>
-        <v/>
-      </c>
-      <c r="I106" s="3" t="str">
-        <f>IF(ISBLANK(D106),"",F106-SUM($H$3:H106))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="9">
-        <v>105</v>
-      </c>
-      <c r="E107" s="2" t="str">
+      <c r="F117" s="34" t="str">
+        <f>IF(ISBLANK(D117),"",SUM($E$3:E117))</f>
+        <v/>
+      </c>
+      <c r="G117" s="30"/>
+      <c r="H117" s="33"/>
+      <c r="I117" s="34" t="str">
+        <f>IF(ISBLANK(D117),"",F117-SUM($H$3:H117))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="48">
+        <v>116</v>
+      </c>
+      <c r="B118" s="30"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="32"/>
+      <c r="E118" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F107" s="3" t="str">
-        <f>IF(ISBLANK(D107),"",SUM($E$3:E107))</f>
-        <v/>
-      </c>
-      <c r="I107" s="3" t="str">
-        <f>IF(ISBLANK(D107),"",F107-SUM($H$3:H107))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="9">
-        <v>106</v>
-      </c>
-      <c r="E108" s="2" t="str">
+      <c r="F118" s="34" t="str">
+        <f>IF(ISBLANK(D118),"",SUM($E$3:E118))</f>
+        <v/>
+      </c>
+      <c r="G118" s="30"/>
+      <c r="H118" s="33"/>
+      <c r="I118" s="34" t="str">
+        <f>IF(ISBLANK(D118),"",F118-SUM($H$3:H118))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="48">
+        <v>117</v>
+      </c>
+      <c r="B119" s="30"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="32"/>
+      <c r="E119" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F108" s="3" t="str">
-        <f>IF(ISBLANK(D108),"",SUM($E$3:E108))</f>
-        <v/>
-      </c>
-      <c r="I108" s="3" t="str">
-        <f>IF(ISBLANK(D108),"",F108-SUM($H$3:H108))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="9">
-        <v>107</v>
-      </c>
-      <c r="E109" s="2" t="str">
+      <c r="F119" s="34" t="str">
+        <f>IF(ISBLANK(D119),"",SUM($E$3:E119))</f>
+        <v/>
+      </c>
+      <c r="G119" s="30"/>
+      <c r="H119" s="33"/>
+      <c r="I119" s="34" t="str">
+        <f>IF(ISBLANK(D119),"",F119-SUM($H$3:H119))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="48">
+        <v>118</v>
+      </c>
+      <c r="B120" s="30"/>
+      <c r="C120" s="31"/>
+      <c r="D120" s="32"/>
+      <c r="E120" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F109" s="3" t="str">
-        <f>IF(ISBLANK(D109),"",SUM($E$3:E109))</f>
-        <v/>
-      </c>
-      <c r="I109" s="3" t="str">
-        <f>IF(ISBLANK(D109),"",F109-SUM($H$3:H109))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="9">
-        <v>108</v>
-      </c>
-      <c r="E110" s="2" t="str">
+      <c r="F120" s="34" t="str">
+        <f>IF(ISBLANK(D120),"",SUM($E$3:E120))</f>
+        <v/>
+      </c>
+      <c r="G120" s="30"/>
+      <c r="H120" s="33"/>
+      <c r="I120" s="34" t="str">
+        <f>IF(ISBLANK(D120),"",F120-SUM($H$3:H120))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="48">
+        <v>119</v>
+      </c>
+      <c r="B121" s="30"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F110" s="3" t="str">
-        <f>IF(ISBLANK(D110),"",SUM($E$3:E110))</f>
-        <v/>
-      </c>
-      <c r="I110" s="3" t="str">
-        <f>IF(ISBLANK(D110),"",F110-SUM($H$3:H110))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="9">
-        <v>109</v>
-      </c>
-      <c r="E111" s="2" t="str">
+      <c r="F121" s="34" t="str">
+        <f>IF(ISBLANK(D121),"",SUM($E$3:E121))</f>
+        <v/>
+      </c>
+      <c r="G121" s="30"/>
+      <c r="H121" s="33"/>
+      <c r="I121" s="34" t="str">
+        <f>IF(ISBLANK(D121),"",F121-SUM($H$3:H121))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="48">
+        <v>120</v>
+      </c>
+      <c r="B122" s="30"/>
+      <c r="C122" s="31"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F111" s="3" t="str">
-        <f>IF(ISBLANK(D111),"",SUM($E$3:E111))</f>
-        <v/>
-      </c>
-      <c r="I111" s="3" t="str">
-        <f>IF(ISBLANK(D111),"",F111-SUM($H$3:H111))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="9">
-        <v>110</v>
-      </c>
-      <c r="E112" s="2" t="str">
+      <c r="F122" s="34" t="str">
+        <f>IF(ISBLANK(D122),"",SUM($E$3:E122))</f>
+        <v/>
+      </c>
+      <c r="G122" s="30"/>
+      <c r="H122" s="33"/>
+      <c r="I122" s="34" t="str">
+        <f>IF(ISBLANK(D122),"",F122-SUM($H$3:H122))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="48">
+        <v>121</v>
+      </c>
+      <c r="B123" s="30"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F112" s="3" t="str">
-        <f>IF(ISBLANK(D112),"",SUM($E$3:E112))</f>
-        <v/>
-      </c>
-      <c r="I112" s="3" t="str">
-        <f>IF(ISBLANK(D112),"",F112-SUM($H$3:H112))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="9">
-        <v>111</v>
-      </c>
-      <c r="E113" s="2" t="str">
+      <c r="F123" s="34" t="str">
+        <f>IF(ISBLANK(D123),"",SUM($E$3:E123))</f>
+        <v/>
+      </c>
+      <c r="G123" s="30"/>
+      <c r="H123" s="33"/>
+      <c r="I123" s="34" t="str">
+        <f>IF(ISBLANK(D123),"",F123-SUM($H$3:H123))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="48">
+        <v>122</v>
+      </c>
+      <c r="B124" s="30"/>
+      <c r="C124" s="31"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F113" s="3" t="str">
-        <f>IF(ISBLANK(D113),"",SUM($E$3:E113))</f>
-        <v/>
-      </c>
-      <c r="I113" s="3" t="str">
-        <f>IF(ISBLANK(D113),"",F113-SUM($H$3:H113))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="9">
-        <v>112</v>
-      </c>
-      <c r="E114" s="2" t="str">
+      <c r="F124" s="34" t="str">
+        <f>IF(ISBLANK(D124),"",SUM($E$3:E124))</f>
+        <v/>
+      </c>
+      <c r="G124" s="30"/>
+      <c r="H124" s="33"/>
+      <c r="I124" s="34" t="str">
+        <f>IF(ISBLANK(D124),"",F124-SUM($H$3:H124))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="48">
+        <v>123</v>
+      </c>
+      <c r="B125" s="30"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="32"/>
+      <c r="E125" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F114" s="3" t="str">
-        <f>IF(ISBLANK(D114),"",SUM($E$3:E114))</f>
-        <v/>
-      </c>
-      <c r="I114" s="3" t="str">
-        <f>IF(ISBLANK(D114),"",F114-SUM($H$3:H114))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="9">
-        <v>113</v>
-      </c>
-      <c r="E115" s="2" t="str">
+      <c r="F125" s="34" t="str">
+        <f>IF(ISBLANK(D125),"",SUM($E$3:E125))</f>
+        <v/>
+      </c>
+      <c r="G125" s="30"/>
+      <c r="H125" s="33"/>
+      <c r="I125" s="34" t="str">
+        <f>IF(ISBLANK(D125),"",F125-SUM($H$3:H125))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="48">
+        <v>124</v>
+      </c>
+      <c r="B126" s="30"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F115" s="3" t="str">
-        <f>IF(ISBLANK(D115),"",SUM($E$3:E115))</f>
-        <v/>
-      </c>
-      <c r="I115" s="3" t="str">
-        <f>IF(ISBLANK(D115),"",F115-SUM($H$3:H115))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="9">
-        <v>114</v>
-      </c>
-      <c r="E116" s="2" t="str">
+      <c r="F126" s="34" t="str">
+        <f>IF(ISBLANK(D126),"",SUM($E$3:E126))</f>
+        <v/>
+      </c>
+      <c r="G126" s="30"/>
+      <c r="H126" s="33"/>
+      <c r="I126" s="34" t="str">
+        <f>IF(ISBLANK(D126),"",F126-SUM($H$3:H126))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="48">
+        <v>125</v>
+      </c>
+      <c r="B127" s="30"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F116" s="3" t="str">
-        <f>IF(ISBLANK(D116),"",SUM($E$3:E116))</f>
-        <v/>
-      </c>
-      <c r="I116" s="3" t="str">
-        <f>IF(ISBLANK(D116),"",F116-SUM($H$3:H116))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="9">
-        <v>115</v>
-      </c>
-      <c r="E117" s="2" t="str">
+      <c r="F127" s="34" t="str">
+        <f>IF(ISBLANK(D127),"",SUM($E$3:E127))</f>
+        <v/>
+      </c>
+      <c r="G127" s="30"/>
+      <c r="H127" s="33"/>
+      <c r="I127" s="34" t="str">
+        <f>IF(ISBLANK(D127),"",F127-SUM($H$3:H127))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="48">
+        <v>126</v>
+      </c>
+      <c r="B128" s="30"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F117" s="3" t="str">
-        <f>IF(ISBLANK(D117),"",SUM($E$3:E117))</f>
-        <v/>
-      </c>
-      <c r="I117" s="3" t="str">
-        <f>IF(ISBLANK(D117),"",F117-SUM($H$3:H117))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="9">
-        <v>116</v>
-      </c>
-      <c r="E118" s="2" t="str">
+      <c r="F128" s="34" t="str">
+        <f>IF(ISBLANK(D128),"",SUM($E$3:E128))</f>
+        <v/>
+      </c>
+      <c r="G128" s="30"/>
+      <c r="H128" s="33"/>
+      <c r="I128" s="34" t="str">
+        <f>IF(ISBLANK(D128),"",F128-SUM($H$3:H128))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="48">
+        <v>127</v>
+      </c>
+      <c r="B129" s="30"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F118" s="3" t="str">
-        <f>IF(ISBLANK(D118),"",SUM($E$3:E118))</f>
-        <v/>
-      </c>
-      <c r="I118" s="3" t="str">
-        <f>IF(ISBLANK(D118),"",F118-SUM($H$3:H118))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="9">
-        <v>117</v>
-      </c>
-      <c r="E119" s="2" t="str">
+      <c r="F129" s="34" t="str">
+        <f>IF(ISBLANK(D129),"",SUM($E$3:E129))</f>
+        <v/>
+      </c>
+      <c r="G129" s="30"/>
+      <c r="H129" s="33"/>
+      <c r="I129" s="34" t="str">
+        <f>IF(ISBLANK(D129),"",F129-SUM($H$3:H129))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="48">
+        <v>128</v>
+      </c>
+      <c r="B130" s="30"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F119" s="3" t="str">
-        <f>IF(ISBLANK(D119),"",SUM($E$3:E119))</f>
-        <v/>
-      </c>
-      <c r="I119" s="3" t="str">
-        <f>IF(ISBLANK(D119),"",F119-SUM($H$3:H119))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="9">
-        <v>118</v>
-      </c>
-      <c r="E120" s="2" t="str">
+      <c r="F130" s="34" t="str">
+        <f>IF(ISBLANK(D130),"",SUM($E$3:E130))</f>
+        <v/>
+      </c>
+      <c r="G130" s="30"/>
+      <c r="H130" s="33"/>
+      <c r="I130" s="34" t="str">
+        <f>IF(ISBLANK(D130),"",F130-SUM($H$3:H130))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="48">
+        <v>129</v>
+      </c>
+      <c r="B131" s="30"/>
+      <c r="C131" s="31"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F120" s="3" t="str">
-        <f>IF(ISBLANK(D120),"",SUM($E$3:E120))</f>
-        <v/>
-      </c>
-      <c r="I120" s="3" t="str">
-        <f>IF(ISBLANK(D120),"",F120-SUM($H$3:H120))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="9">
-        <v>119</v>
-      </c>
-      <c r="E121" s="2" t="str">
+      <c r="F131" s="34" t="str">
+        <f>IF(ISBLANK(D131),"",SUM($E$3:E131))</f>
+        <v/>
+      </c>
+      <c r="G131" s="30"/>
+      <c r="H131" s="33"/>
+      <c r="I131" s="34" t="str">
+        <f>IF(ISBLANK(D131),"",F131-SUM($H$3:H131))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="48">
+        <v>130</v>
+      </c>
+      <c r="B132" s="30"/>
+      <c r="C132" s="31"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F121" s="3" t="str">
-        <f>IF(ISBLANK(D121),"",SUM($E$3:E121))</f>
-        <v/>
-      </c>
-      <c r="I121" s="3" t="str">
-        <f>IF(ISBLANK(D121),"",F121-SUM($H$3:H121))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="9">
-        <v>120</v>
-      </c>
-      <c r="E122" s="2" t="str">
+      <c r="F132" s="34" t="str">
+        <f>IF(ISBLANK(D132),"",SUM($E$3:E132))</f>
+        <v/>
+      </c>
+      <c r="G132" s="30"/>
+      <c r="H132" s="33"/>
+      <c r="I132" s="34" t="str">
+        <f>IF(ISBLANK(D132),"",F132-SUM($H$3:H132))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="48">
+        <v>131</v>
+      </c>
+      <c r="B133" s="30"/>
+      <c r="C133" s="31"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F122" s="3" t="str">
-        <f>IF(ISBLANK(D122),"",SUM($E$3:E122))</f>
-        <v/>
-      </c>
-      <c r="I122" s="3" t="str">
-        <f>IF(ISBLANK(D122),"",F122-SUM($H$3:H122))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="9">
-        <v>121</v>
-      </c>
-      <c r="E123" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F123" s="3" t="str">
-        <f>IF(ISBLANK(D123),"",SUM($E$3:E123))</f>
-        <v/>
-      </c>
-      <c r="I123" s="3" t="str">
-        <f>IF(ISBLANK(D123),"",F123-SUM($H$3:H123))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="9">
-        <v>122</v>
-      </c>
-      <c r="E124" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F124" s="3" t="str">
-        <f>IF(ISBLANK(D124),"",SUM($E$3:E124))</f>
-        <v/>
-      </c>
-      <c r="I124" s="3" t="str">
-        <f>IF(ISBLANK(D124),"",F124-SUM($H$3:H124))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="9">
-        <v>123</v>
-      </c>
-      <c r="E125" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F125" s="3" t="str">
-        <f>IF(ISBLANK(D125),"",SUM($E$3:E125))</f>
-        <v/>
-      </c>
-      <c r="I125" s="3" t="str">
-        <f>IF(ISBLANK(D125),"",F125-SUM($H$3:H125))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E126" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F126" s="3" t="str">
-        <f>IF(ISBLANK(D126),"",SUM($E$3:E126))</f>
-        <v/>
-      </c>
-      <c r="I126" s="3" t="str">
-        <f>IF(ISBLANK(D126),"",F126-SUM($H$3:H126))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E127" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F127" s="3" t="str">
-        <f>IF(ISBLANK(D127),"",SUM($E$3:E127))</f>
-        <v/>
-      </c>
-      <c r="I127" s="3" t="str">
-        <f>IF(ISBLANK(D127),"",F127-SUM($H$3:H127))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E128" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F128" s="3" t="str">
-        <f>IF(ISBLANK(D128),"",SUM($E$3:E128))</f>
-        <v/>
-      </c>
-      <c r="I128" s="3" t="str">
-        <f>IF(ISBLANK(D128),"",F128-SUM($H$3:H128))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E129" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F129" s="3" t="str">
-        <f>IF(ISBLANK(D129),"",SUM($E$3:E129))</f>
-        <v/>
-      </c>
-      <c r="I129" s="3" t="str">
-        <f>IF(ISBLANK(D129),"",F129-SUM($H$3:H129))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E130" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F130" s="3" t="str">
-        <f>IF(ISBLANK(D130),"",SUM($E$3:E130))</f>
-        <v/>
-      </c>
-      <c r="I130" s="3" t="str">
-        <f>IF(ISBLANK(D130),"",F130-SUM($H$3:H130))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E131" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F131" s="3" t="str">
-        <f>IF(ISBLANK(D131),"",SUM($E$3:E131))</f>
-        <v/>
-      </c>
-      <c r="I131" s="3" t="str">
-        <f>IF(ISBLANK(D131),"",F131-SUM($H$3:H131))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E132" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F132" s="3" t="str">
-        <f>IF(ISBLANK(D132),"",SUM($E$3:E132))</f>
-        <v/>
-      </c>
-      <c r="I132" s="3" t="str">
-        <f>IF(ISBLANK(D132),"",F132-SUM($H$3:H132))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E133" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F133" s="3" t="str">
+      <c r="F133" s="34" t="str">
         <f>IF(ISBLANK(D133),"",SUM($E$3:E133))</f>
         <v/>
       </c>
-      <c r="I133" s="3" t="str">
+      <c r="G133" s="30"/>
+      <c r="H133" s="33"/>
+      <c r="I133" s="34" t="str">
         <f>IF(ISBLANK(D133),"",F133-SUM($H$3:H133))</f>
         <v/>
       </c>
     </row>
-    <row r="134" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E134" s="2" t="str">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="48">
+        <v>132</v>
+      </c>
+      <c r="B134" s="30"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="33" t="str">
         <f t="shared" ref="E134:E197" si="3">IF(ISBLANK(D134),"",D134*600)</f>
         <v/>
       </c>
-      <c r="F134" s="3" t="str">
+      <c r="F134" s="34" t="str">
         <f>IF(ISBLANK(D134),"",SUM($E$3:E134))</f>
         <v/>
       </c>
-      <c r="I134" s="3" t="str">
+      <c r="G134" s="30"/>
+      <c r="H134" s="33"/>
+      <c r="I134" s="34" t="str">
         <f>IF(ISBLANK(D134),"",F134-SUM($H$3:H134))</f>
         <v/>
       </c>
     </row>
-    <row r="135" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E135" s="2" t="str">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="48">
+        <v>133</v>
+      </c>
+      <c r="B135" s="30"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F135" s="3" t="str">
+      <c r="F135" s="34" t="str">
         <f>IF(ISBLANK(D135),"",SUM($E$3:E135))</f>
         <v/>
       </c>
-      <c r="I135" s="3" t="str">
+      <c r="G135" s="30"/>
+      <c r="H135" s="33"/>
+      <c r="I135" s="34" t="str">
         <f>IF(ISBLANK(D135),"",F135-SUM($H$3:H135))</f>
         <v/>
       </c>
     </row>
-    <row r="136" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E136" s="2" t="str">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="48">
+        <v>134</v>
+      </c>
+      <c r="B136" s="30"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F136" s="3" t="str">
+      <c r="F136" s="34" t="str">
         <f>IF(ISBLANK(D136),"",SUM($E$3:E136))</f>
         <v/>
       </c>
-      <c r="I136" s="3" t="str">
+      <c r="G136" s="30"/>
+      <c r="H136" s="33"/>
+      <c r="I136" s="34" t="str">
         <f>IF(ISBLANK(D136),"",F136-SUM($H$3:H136))</f>
         <v/>
       </c>
     </row>
-    <row r="137" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E137" s="2" t="str">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="48">
+        <v>135</v>
+      </c>
+      <c r="B137" s="30"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F137" s="3" t="str">
+      <c r="F137" s="34" t="str">
         <f>IF(ISBLANK(D137),"",SUM($E$3:E137))</f>
         <v/>
       </c>
-      <c r="I137" s="3" t="str">
+      <c r="G137" s="30"/>
+      <c r="H137" s="33"/>
+      <c r="I137" s="34" t="str">
         <f>IF(ISBLANK(D137),"",F137-SUM($H$3:H137))</f>
         <v/>
       </c>
     </row>
-    <row r="138" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E138" s="2" t="str">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="48">
+        <v>136</v>
+      </c>
+      <c r="B138" s="30"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="32"/>
+      <c r="E138" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F138" s="3" t="str">
+      <c r="F138" s="34" t="str">
         <f>IF(ISBLANK(D138),"",SUM($E$3:E138))</f>
         <v/>
       </c>
-      <c r="I138" s="3" t="str">
+      <c r="G138" s="30"/>
+      <c r="H138" s="33"/>
+      <c r="I138" s="34" t="str">
         <f>IF(ISBLANK(D138),"",F138-SUM($H$3:H138))</f>
         <v/>
       </c>
     </row>
-    <row r="139" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E139" s="2" t="str">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="48">
+        <v>137</v>
+      </c>
+      <c r="B139" s="30"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F139" s="3" t="str">
+      <c r="F139" s="34" t="str">
         <f>IF(ISBLANK(D139),"",SUM($E$3:E139))</f>
         <v/>
       </c>
-      <c r="I139" s="3" t="str">
+      <c r="G139" s="30"/>
+      <c r="H139" s="33"/>
+      <c r="I139" s="34" t="str">
         <f>IF(ISBLANK(D139),"",F139-SUM($H$3:H139))</f>
         <v/>
       </c>
     </row>
-    <row r="140" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E140" s="2" t="str">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="48">
+        <v>138</v>
+      </c>
+      <c r="B140" s="30"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F140" s="3" t="str">
+      <c r="F140" s="34" t="str">
         <f>IF(ISBLANK(D140),"",SUM($E$3:E140))</f>
         <v/>
       </c>
-      <c r="I140" s="3" t="str">
+      <c r="G140" s="30"/>
+      <c r="H140" s="33"/>
+      <c r="I140" s="34" t="str">
         <f>IF(ISBLANK(D140),"",F140-SUM($H$3:H140))</f>
         <v/>
       </c>
     </row>
-    <row r="141" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E141" s="2" t="str">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="48">
+        <v>139</v>
+      </c>
+      <c r="B141" s="30"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="32"/>
+      <c r="E141" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F141" s="3" t="str">
+      <c r="F141" s="34" t="str">
         <f>IF(ISBLANK(D141),"",SUM($E$3:E141))</f>
         <v/>
       </c>
-      <c r="I141" s="3" t="str">
+      <c r="G141" s="30"/>
+      <c r="H141" s="33"/>
+      <c r="I141" s="34" t="str">
         <f>IF(ISBLANK(D141),"",F141-SUM($H$3:H141))</f>
         <v/>
       </c>
     </row>
-    <row r="142" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E142" s="2" t="str">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="48">
+        <v>140</v>
+      </c>
+      <c r="B142" s="30"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="32"/>
+      <c r="E142" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F142" s="3" t="str">
+      <c r="F142" s="34" t="str">
         <f>IF(ISBLANK(D142),"",SUM($E$3:E142))</f>
         <v/>
       </c>
-      <c r="I142" s="3" t="str">
+      <c r="G142" s="30"/>
+      <c r="H142" s="33"/>
+      <c r="I142" s="34" t="str">
         <f>IF(ISBLANK(D142),"",F142-SUM($H$3:H142))</f>
         <v/>
       </c>
     </row>
-    <row r="143" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E143" s="2" t="str">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="48">
+        <v>141</v>
+      </c>
+      <c r="B143" s="30"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="32"/>
+      <c r="E143" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F143" s="3" t="str">
+      <c r="F143" s="34" t="str">
         <f>IF(ISBLANK(D143),"",SUM($E$3:E143))</f>
         <v/>
       </c>
-      <c r="I143" s="3" t="str">
+      <c r="G143" s="30"/>
+      <c r="H143" s="33"/>
+      <c r="I143" s="34" t="str">
         <f>IF(ISBLANK(D143),"",F143-SUM($H$3:H143))</f>
         <v/>
       </c>
     </row>
-    <row r="144" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E144" s="2" t="str">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="48">
+        <v>142</v>
+      </c>
+      <c r="B144" s="30"/>
+      <c r="C144" s="31"/>
+      <c r="D144" s="32"/>
+      <c r="E144" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F144" s="3" t="str">
+      <c r="F144" s="34" t="str">
         <f>IF(ISBLANK(D144),"",SUM($E$3:E144))</f>
         <v/>
       </c>
-      <c r="I144" s="3" t="str">
+      <c r="G144" s="30"/>
+      <c r="H144" s="33"/>
+      <c r="I144" s="34" t="str">
         <f>IF(ISBLANK(D144),"",F144-SUM($H$3:H144))</f>
         <v/>
       </c>
     </row>
-    <row r="145" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E145" s="2" t="str">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="48">
+        <v>143</v>
+      </c>
+      <c r="B145" s="30"/>
+      <c r="C145" s="31"/>
+      <c r="D145" s="32"/>
+      <c r="E145" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F145" s="3" t="str">
+      <c r="F145" s="34" t="str">
         <f>IF(ISBLANK(D145),"",SUM($E$3:E145))</f>
         <v/>
       </c>
-      <c r="I145" s="3" t="str">
+      <c r="G145" s="30"/>
+      <c r="H145" s="33"/>
+      <c r="I145" s="34" t="str">
         <f>IF(ISBLANK(D145),"",F145-SUM($H$3:H145))</f>
         <v/>
       </c>
     </row>
-    <row r="146" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E146" s="2" t="str">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="48">
+        <v>144</v>
+      </c>
+      <c r="B146" s="30"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F146" s="3" t="str">
+      <c r="F146" s="34" t="str">
         <f>IF(ISBLANK(D146),"",SUM($E$3:E146))</f>
         <v/>
       </c>
-      <c r="I146" s="3" t="str">
+      <c r="G146" s="30"/>
+      <c r="H146" s="33"/>
+      <c r="I146" s="34" t="str">
         <f>IF(ISBLANK(D146),"",F146-SUM($H$3:H146))</f>
         <v/>
       </c>
     </row>
-    <row r="147" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E147" s="2" t="str">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="48">
+        <v>145</v>
+      </c>
+      <c r="B147" s="30"/>
+      <c r="C147" s="31"/>
+      <c r="D147" s="32"/>
+      <c r="E147" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F147" s="3" t="str">
+      <c r="F147" s="34" t="str">
         <f>IF(ISBLANK(D147),"",SUM($E$3:E147))</f>
         <v/>
       </c>
-      <c r="I147" s="3" t="str">
+      <c r="G147" s="30"/>
+      <c r="H147" s="33"/>
+      <c r="I147" s="34" t="str">
         <f>IF(ISBLANK(D147),"",F147-SUM($H$3:H147))</f>
         <v/>
       </c>
     </row>
-    <row r="148" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E148" s="2" t="str">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="48">
+        <v>146</v>
+      </c>
+      <c r="B148" s="30"/>
+      <c r="C148" s="31"/>
+      <c r="D148" s="32"/>
+      <c r="E148" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F148" s="3" t="str">
+      <c r="F148" s="34" t="str">
         <f>IF(ISBLANK(D148),"",SUM($E$3:E148))</f>
         <v/>
       </c>
-      <c r="I148" s="3" t="str">
+      <c r="G148" s="30"/>
+      <c r="H148" s="33"/>
+      <c r="I148" s="34" t="str">
         <f>IF(ISBLANK(D148),"",F148-SUM($H$3:H148))</f>
         <v/>
       </c>
     </row>
-    <row r="149" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E149" s="2" t="str">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="48">
+        <v>147</v>
+      </c>
+      <c r="B149" s="30"/>
+      <c r="C149" s="31"/>
+      <c r="D149" s="32"/>
+      <c r="E149" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F149" s="3" t="str">
+      <c r="F149" s="34" t="str">
         <f>IF(ISBLANK(D149),"",SUM($E$3:E149))</f>
         <v/>
       </c>
-      <c r="I149" s="3" t="str">
+      <c r="G149" s="30"/>
+      <c r="H149" s="33"/>
+      <c r="I149" s="34" t="str">
         <f>IF(ISBLANK(D149),"",F149-SUM($H$3:H149))</f>
         <v/>
       </c>
     </row>
-    <row r="150" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E150" s="2" t="str">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="48">
+        <v>148</v>
+      </c>
+      <c r="B150" s="30"/>
+      <c r="C150" s="31"/>
+      <c r="D150" s="32"/>
+      <c r="E150" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F150" s="3" t="str">
+      <c r="F150" s="34" t="str">
         <f>IF(ISBLANK(D150),"",SUM($E$3:E150))</f>
         <v/>
       </c>
-      <c r="I150" s="3" t="str">
+      <c r="G150" s="30"/>
+      <c r="H150" s="33"/>
+      <c r="I150" s="34" t="str">
         <f>IF(ISBLANK(D150),"",F150-SUM($H$3:H150))</f>
         <v/>
       </c>
     </row>
-    <row r="151" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E151" s="2" t="str">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="48">
+        <v>149</v>
+      </c>
+      <c r="B151" s="30"/>
+      <c r="C151" s="31"/>
+      <c r="D151" s="32"/>
+      <c r="E151" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F151" s="3" t="str">
+      <c r="F151" s="34" t="str">
         <f>IF(ISBLANK(D151),"",SUM($E$3:E151))</f>
         <v/>
       </c>
-      <c r="I151" s="3" t="str">
+      <c r="G151" s="30"/>
+      <c r="H151" s="33"/>
+      <c r="I151" s="34" t="str">
         <f>IF(ISBLANK(D151),"",F151-SUM($H$3:H151))</f>
         <v/>
       </c>
     </row>
-    <row r="152" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E152" s="2" t="str">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="48">
+        <v>150</v>
+      </c>
+      <c r="B152" s="30"/>
+      <c r="C152" s="31"/>
+      <c r="D152" s="32"/>
+      <c r="E152" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F152" s="3" t="str">
+      <c r="F152" s="34" t="str">
         <f>IF(ISBLANK(D152),"",SUM($E$3:E152))</f>
         <v/>
       </c>
-      <c r="I152" s="3" t="str">
+      <c r="G152" s="30"/>
+      <c r="H152" s="33"/>
+      <c r="I152" s="34" t="str">
         <f>IF(ISBLANK(D152),"",F152-SUM($H$3:H152))</f>
         <v/>
       </c>
     </row>
-    <row r="153" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E153" s="2" t="str">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="48">
+        <v>151</v>
+      </c>
+      <c r="B153" s="30"/>
+      <c r="C153" s="31"/>
+      <c r="D153" s="32"/>
+      <c r="E153" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F153" s="3" t="str">
+      <c r="F153" s="34" t="str">
         <f>IF(ISBLANK(D153),"",SUM($E$3:E153))</f>
         <v/>
       </c>
-      <c r="I153" s="3" t="str">
+      <c r="G153" s="30"/>
+      <c r="H153" s="33"/>
+      <c r="I153" s="34" t="str">
         <f>IF(ISBLANK(D153),"",F153-SUM($H$3:H153))</f>
         <v/>
       </c>
     </row>
-    <row r="154" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E154" s="2" t="str">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="48">
+        <v>152</v>
+      </c>
+      <c r="B154" s="30"/>
+      <c r="C154" s="31"/>
+      <c r="D154" s="32"/>
+      <c r="E154" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F154" s="3" t="str">
+      <c r="F154" s="34" t="str">
         <f>IF(ISBLANK(D154),"",SUM($E$3:E154))</f>
         <v/>
       </c>
-      <c r="I154" s="3" t="str">
+      <c r="G154" s="30"/>
+      <c r="H154" s="33"/>
+      <c r="I154" s="34" t="str">
         <f>IF(ISBLANK(D154),"",F154-SUM($H$3:H154))</f>
         <v/>
       </c>
     </row>
-    <row r="155" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E155" s="2" t="str">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="48">
+        <v>153</v>
+      </c>
+      <c r="B155" s="30"/>
+      <c r="C155" s="31"/>
+      <c r="D155" s="32"/>
+      <c r="E155" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F155" s="3" t="str">
+      <c r="F155" s="34" t="str">
         <f>IF(ISBLANK(D155),"",SUM($E$3:E155))</f>
         <v/>
       </c>
-      <c r="I155" s="3" t="str">
+      <c r="G155" s="30"/>
+      <c r="H155" s="33"/>
+      <c r="I155" s="34" t="str">
         <f>IF(ISBLANK(D155),"",F155-SUM($H$3:H155))</f>
         <v/>
       </c>
     </row>
-    <row r="156" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E156" s="2" t="str">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="48">
+        <v>154</v>
+      </c>
+      <c r="B156" s="30"/>
+      <c r="C156" s="31"/>
+      <c r="D156" s="32"/>
+      <c r="E156" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F156" s="3" t="str">
+      <c r="F156" s="34" t="str">
         <f>IF(ISBLANK(D156),"",SUM($E$3:E156))</f>
         <v/>
       </c>
-      <c r="I156" s="3" t="str">
+      <c r="G156" s="30"/>
+      <c r="H156" s="33"/>
+      <c r="I156" s="34" t="str">
         <f>IF(ISBLANK(D156),"",F156-SUM($H$3:H156))</f>
         <v/>
       </c>
     </row>
-    <row r="157" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E157" s="2" t="str">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="48">
+        <v>155</v>
+      </c>
+      <c r="B157" s="30"/>
+      <c r="C157" s="31"/>
+      <c r="D157" s="32"/>
+      <c r="E157" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F157" s="3" t="str">
+      <c r="F157" s="34" t="str">
         <f>IF(ISBLANK(D157),"",SUM($E$3:E157))</f>
         <v/>
       </c>
-      <c r="I157" s="3" t="str">
+      <c r="G157" s="30"/>
+      <c r="H157" s="33"/>
+      <c r="I157" s="34" t="str">
         <f>IF(ISBLANK(D157),"",F157-SUM($H$3:H157))</f>
         <v/>
       </c>
     </row>
-    <row r="158" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E158" s="2" t="str">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="48">
+        <v>156</v>
+      </c>
+      <c r="B158" s="30"/>
+      <c r="C158" s="31"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F158" s="3" t="str">
+      <c r="F158" s="34" t="str">
         <f>IF(ISBLANK(D158),"",SUM($E$3:E158))</f>
         <v/>
       </c>
-      <c r="I158" s="3" t="str">
+      <c r="G158" s="30"/>
+      <c r="H158" s="33"/>
+      <c r="I158" s="34" t="str">
         <f>IF(ISBLANK(D158),"",F158-SUM($H$3:H158))</f>
         <v/>
       </c>
     </row>
-    <row r="159" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E159" s="2" t="str">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="48">
+        <v>157</v>
+      </c>
+      <c r="B159" s="30"/>
+      <c r="C159" s="31"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F159" s="3" t="str">
+      <c r="F159" s="34" t="str">
         <f>IF(ISBLANK(D159),"",SUM($E$3:E159))</f>
         <v/>
       </c>
-      <c r="I159" s="3" t="str">
+      <c r="G159" s="30"/>
+      <c r="H159" s="33"/>
+      <c r="I159" s="34" t="str">
         <f>IF(ISBLANK(D159),"",F159-SUM($H$3:H159))</f>
         <v/>
       </c>
     </row>
-    <row r="160" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E160" s="2" t="str">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="48">
+        <v>158</v>
+      </c>
+      <c r="B160" s="30"/>
+      <c r="C160" s="31"/>
+      <c r="D160" s="32"/>
+      <c r="E160" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F160" s="3" t="str">
+      <c r="F160" s="34" t="str">
         <f>IF(ISBLANK(D160),"",SUM($E$3:E160))</f>
         <v/>
       </c>
-      <c r="I160" s="3" t="str">
+      <c r="G160" s="30"/>
+      <c r="H160" s="33"/>
+      <c r="I160" s="34" t="str">
         <f>IF(ISBLANK(D160),"",F160-SUM($H$3:H160))</f>
         <v/>
       </c>
     </row>
-    <row r="161" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E161" s="2" t="str">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="48">
+        <v>159</v>
+      </c>
+      <c r="B161" s="30"/>
+      <c r="C161" s="31"/>
+      <c r="D161" s="32"/>
+      <c r="E161" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F161" s="3" t="str">
+      <c r="F161" s="34" t="str">
         <f>IF(ISBLANK(D161),"",SUM($E$3:E161))</f>
         <v/>
       </c>
-      <c r="I161" s="3" t="str">
+      <c r="G161" s="30"/>
+      <c r="H161" s="33"/>
+      <c r="I161" s="34" t="str">
         <f>IF(ISBLANK(D161),"",F161-SUM($H$3:H161))</f>
         <v/>
       </c>
     </row>
-    <row r="162" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E162" s="2" t="str">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="48">
+        <v>160</v>
+      </c>
+      <c r="B162" s="30"/>
+      <c r="C162" s="31"/>
+      <c r="D162" s="32"/>
+      <c r="E162" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F162" s="3" t="str">
+      <c r="F162" s="34" t="str">
         <f>IF(ISBLANK(D162),"",SUM($E$3:E162))</f>
         <v/>
       </c>
-      <c r="I162" s="3" t="str">
+      <c r="G162" s="30"/>
+      <c r="H162" s="33"/>
+      <c r="I162" s="34" t="str">
         <f>IF(ISBLANK(D162),"",F162-SUM($H$3:H162))</f>
         <v/>
       </c>
     </row>
-    <row r="163" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E163" s="2" t="str">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="48">
+        <v>161</v>
+      </c>
+      <c r="B163" s="30"/>
+      <c r="C163" s="31"/>
+      <c r="D163" s="32"/>
+      <c r="E163" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F163" s="3" t="str">
+      <c r="F163" s="34" t="str">
         <f>IF(ISBLANK(D163),"",SUM($E$3:E163))</f>
         <v/>
       </c>
-      <c r="I163" s="3" t="str">
+      <c r="G163" s="30"/>
+      <c r="H163" s="33"/>
+      <c r="I163" s="34" t="str">
         <f>IF(ISBLANK(D163),"",F163-SUM($H$3:H163))</f>
         <v/>
       </c>
     </row>
-    <row r="164" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E164" s="2" t="str">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="48">
+        <v>162</v>
+      </c>
+      <c r="B164" s="30"/>
+      <c r="C164" s="31"/>
+      <c r="D164" s="32"/>
+      <c r="E164" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F164" s="3" t="str">
+      <c r="F164" s="34" t="str">
         <f>IF(ISBLANK(D164),"",SUM($E$3:E164))</f>
         <v/>
       </c>
-      <c r="I164" s="3" t="str">
+      <c r="G164" s="30"/>
+      <c r="H164" s="33"/>
+      <c r="I164" s="34" t="str">
         <f>IF(ISBLANK(D164),"",F164-SUM($H$3:H164))</f>
         <v/>
       </c>
     </row>
-    <row r="165" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E165" s="2" t="str">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="48">
+        <v>163</v>
+      </c>
+      <c r="B165" s="30"/>
+      <c r="C165" s="31"/>
+      <c r="D165" s="32"/>
+      <c r="E165" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F165" s="3" t="str">
+      <c r="F165" s="34" t="str">
         <f>IF(ISBLANK(D165),"",SUM($E$3:E165))</f>
         <v/>
       </c>
-      <c r="I165" s="3" t="str">
+      <c r="G165" s="30"/>
+      <c r="H165" s="33"/>
+      <c r="I165" s="34" t="str">
         <f>IF(ISBLANK(D165),"",F165-SUM($H$3:H165))</f>
         <v/>
       </c>
     </row>
-    <row r="166" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E166" s="2" t="str">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="48">
+        <v>164</v>
+      </c>
+      <c r="B166" s="30"/>
+      <c r="C166" s="31"/>
+      <c r="D166" s="32"/>
+      <c r="E166" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F166" s="3" t="str">
+      <c r="F166" s="34" t="str">
         <f>IF(ISBLANK(D166),"",SUM($E$3:E166))</f>
         <v/>
       </c>
-      <c r="I166" s="3" t="str">
+      <c r="G166" s="30"/>
+      <c r="H166" s="33"/>
+      <c r="I166" s="34" t="str">
         <f>IF(ISBLANK(D166),"",F166-SUM($H$3:H166))</f>
         <v/>
       </c>
     </row>
-    <row r="167" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E167" s="2" t="str">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="48">
+        <v>165</v>
+      </c>
+      <c r="B167" s="30"/>
+      <c r="C167" s="31"/>
+      <c r="D167" s="32"/>
+      <c r="E167" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F167" s="3" t="str">
+      <c r="F167" s="34" t="str">
         <f>IF(ISBLANK(D167),"",SUM($E$3:E167))</f>
         <v/>
       </c>
-      <c r="I167" s="3" t="str">
+      <c r="G167" s="30"/>
+      <c r="H167" s="33"/>
+      <c r="I167" s="34" t="str">
         <f>IF(ISBLANK(D167),"",F167-SUM($H$3:H167))</f>
         <v/>
       </c>
     </row>
-    <row r="168" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E168" s="2" t="str">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="48">
+        <v>166</v>
+      </c>
+      <c r="B168" s="30"/>
+      <c r="C168" s="31"/>
+      <c r="D168" s="32"/>
+      <c r="E168" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F168" s="3" t="str">
+      <c r="F168" s="34" t="str">
         <f>IF(ISBLANK(D168),"",SUM($E$3:E168))</f>
         <v/>
       </c>
-      <c r="I168" s="3" t="str">
+      <c r="G168" s="30"/>
+      <c r="H168" s="33"/>
+      <c r="I168" s="34" t="str">
         <f>IF(ISBLANK(D168),"",F168-SUM($H$3:H168))</f>
         <v/>
       </c>
     </row>
-    <row r="169" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E169" s="2" t="str">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="48">
+        <v>167</v>
+      </c>
+      <c r="B169" s="30"/>
+      <c r="C169" s="31"/>
+      <c r="D169" s="32"/>
+      <c r="E169" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F169" s="3" t="str">
+      <c r="F169" s="34" t="str">
         <f>IF(ISBLANK(D169),"",SUM($E$3:E169))</f>
         <v/>
       </c>
-      <c r="I169" s="3" t="str">
+      <c r="G169" s="30"/>
+      <c r="H169" s="33"/>
+      <c r="I169" s="34" t="str">
         <f>IF(ISBLANK(D169),"",F169-SUM($H$3:H169))</f>
         <v/>
       </c>
     </row>
-    <row r="170" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E170" s="2" t="str">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="48">
+        <v>168</v>
+      </c>
+      <c r="B170" s="30"/>
+      <c r="C170" s="31"/>
+      <c r="D170" s="32"/>
+      <c r="E170" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F170" s="3" t="str">
+      <c r="F170" s="34" t="str">
         <f>IF(ISBLANK(D170),"",SUM($E$3:E170))</f>
         <v/>
       </c>
-      <c r="I170" s="3" t="str">
+      <c r="G170" s="30"/>
+      <c r="H170" s="33"/>
+      <c r="I170" s="34" t="str">
         <f>IF(ISBLANK(D170),"",F170-SUM($H$3:H170))</f>
         <v/>
       </c>
     </row>
-    <row r="171" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E171" s="2" t="str">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="48">
+        <v>169</v>
+      </c>
+      <c r="B171" s="30"/>
+      <c r="C171" s="31"/>
+      <c r="D171" s="32"/>
+      <c r="E171" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F171" s="3" t="str">
+      <c r="F171" s="34" t="str">
         <f>IF(ISBLANK(D171),"",SUM($E$3:E171))</f>
         <v/>
       </c>
-      <c r="I171" s="3" t="str">
+      <c r="G171" s="30"/>
+      <c r="H171" s="33"/>
+      <c r="I171" s="34" t="str">
         <f>IF(ISBLANK(D171),"",F171-SUM($H$3:H171))</f>
         <v/>
       </c>
     </row>
-    <row r="172" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E172" s="2" t="str">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="48">
+        <v>170</v>
+      </c>
+      <c r="B172" s="30"/>
+      <c r="C172" s="31"/>
+      <c r="D172" s="32"/>
+      <c r="E172" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F172" s="3" t="str">
+      <c r="F172" s="34" t="str">
         <f>IF(ISBLANK(D172),"",SUM($E$3:E172))</f>
         <v/>
       </c>
-      <c r="I172" s="3" t="str">
+      <c r="G172" s="30"/>
+      <c r="H172" s="33"/>
+      <c r="I172" s="34" t="str">
         <f>IF(ISBLANK(D172),"",F172-SUM($H$3:H172))</f>
         <v/>
       </c>
     </row>
-    <row r="173" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="48">
+        <v>171</v>
+      </c>
+      <c r="C173" s="11"/>
+      <c r="D173" s="5"/>
       <c r="E173" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4218,7 +5254,12 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="48">
+        <v>172</v>
+      </c>
+      <c r="C174" s="11"/>
+      <c r="D174" s="5"/>
       <c r="E174" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4232,7 +5273,12 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="48">
+        <v>173</v>
+      </c>
+      <c r="C175" s="11"/>
+      <c r="D175" s="5"/>
       <c r="E175" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4246,7 +5292,12 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="48">
+        <v>174</v>
+      </c>
+      <c r="C176" s="11"/>
+      <c r="D176" s="5"/>
       <c r="E176" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4260,7 +5311,12 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="48">
+        <v>175</v>
+      </c>
+      <c r="C177" s="11"/>
+      <c r="D177" s="5"/>
       <c r="E177" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4274,7 +5330,12 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="48">
+        <v>176</v>
+      </c>
+      <c r="C178" s="11"/>
+      <c r="D178" s="5"/>
       <c r="E178" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4288,7 +5349,12 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="48">
+        <v>177</v>
+      </c>
+      <c r="C179" s="11"/>
+      <c r="D179" s="5"/>
       <c r="E179" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4302,7 +5368,12 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="48">
+        <v>178</v>
+      </c>
+      <c r="C180" s="11"/>
+      <c r="D180" s="5"/>
       <c r="E180" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4316,7 +5387,12 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="48">
+        <v>179</v>
+      </c>
+      <c r="C181" s="11"/>
+      <c r="D181" s="5"/>
       <c r="E181" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4330,7 +5406,12 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="48">
+        <v>180</v>
+      </c>
+      <c r="C182" s="11"/>
+      <c r="D182" s="5"/>
       <c r="E182" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4344,7 +5425,12 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="48">
+        <v>181</v>
+      </c>
+      <c r="C183" s="11"/>
+      <c r="D183" s="5"/>
       <c r="E183" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4358,7 +5444,12 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="48">
+        <v>182</v>
+      </c>
+      <c r="C184" s="11"/>
+      <c r="D184" s="5"/>
       <c r="E184" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4372,7 +5463,12 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="48">
+        <v>183</v>
+      </c>
+      <c r="C185" s="11"/>
+      <c r="D185" s="5"/>
       <c r="E185" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4386,7 +5482,12 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="48">
+        <v>184</v>
+      </c>
+      <c r="C186" s="11"/>
+      <c r="D186" s="5"/>
       <c r="E186" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4400,7 +5501,12 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="48">
+        <v>185</v>
+      </c>
+      <c r="C187" s="11"/>
+      <c r="D187" s="5"/>
       <c r="E187" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4414,7 +5520,12 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="48">
+        <v>186</v>
+      </c>
+      <c r="C188" s="11"/>
+      <c r="D188" s="5"/>
       <c r="E188" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4428,7 +5539,12 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="48">
+        <v>187</v>
+      </c>
+      <c r="C189" s="11"/>
+      <c r="D189" s="5"/>
       <c r="E189" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4442,7 +5558,12 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="48">
+        <v>188</v>
+      </c>
+      <c r="C190" s="11"/>
+      <c r="D190" s="5"/>
       <c r="E190" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4456,7 +5577,12 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="48">
+        <v>189</v>
+      </c>
+      <c r="C191" s="11"/>
+      <c r="D191" s="5"/>
       <c r="E191" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4470,7 +5596,12 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="48">
+        <v>190</v>
+      </c>
+      <c r="C192" s="11"/>
+      <c r="D192" s="5"/>
       <c r="E192" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4484,7 +5615,12 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="48">
+        <v>191</v>
+      </c>
+      <c r="C193" s="11"/>
+      <c r="D193" s="5"/>
       <c r="E193" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4498,7 +5634,12 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="48">
+        <v>192</v>
+      </c>
+      <c r="C194" s="11"/>
+      <c r="D194" s="5"/>
       <c r="E194" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4512,7 +5653,12 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="48">
+        <v>193</v>
+      </c>
+      <c r="C195" s="11"/>
+      <c r="D195" s="5"/>
       <c r="E195" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4526,7 +5672,12 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="48">
+        <v>194</v>
+      </c>
+      <c r="C196" s="11"/>
+      <c r="D196" s="5"/>
       <c r="E196" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4540,7 +5691,12 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="48">
+        <v>195</v>
+      </c>
+      <c r="C197" s="11"/>
+      <c r="D197" s="5"/>
       <c r="E197" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4554,7 +5710,12 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="48">
+        <v>196</v>
+      </c>
+      <c r="C198" s="11"/>
+      <c r="D198" s="5"/>
       <c r="E198" s="2" t="str">
         <f t="shared" ref="E198:E253" si="4">IF(ISBLANK(D198),"",D198*600)</f>
         <v/>
@@ -4568,7 +5729,12 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="48">
+        <v>197</v>
+      </c>
+      <c r="C199" s="11"/>
+      <c r="D199" s="5"/>
       <c r="E199" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4582,7 +5748,12 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="48">
+        <v>198</v>
+      </c>
+      <c r="C200" s="11"/>
+      <c r="D200" s="5"/>
       <c r="E200" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4596,7 +5767,12 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="48">
+        <v>199</v>
+      </c>
+      <c r="C201" s="11"/>
+      <c r="D201" s="5"/>
       <c r="E201" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4610,7 +5786,12 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="48">
+        <v>200</v>
+      </c>
+      <c r="C202" s="11"/>
+      <c r="D202" s="5"/>
       <c r="E202" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4624,7 +5805,12 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="48">
+        <v>201</v>
+      </c>
+      <c r="C203" s="11"/>
+      <c r="D203" s="5"/>
       <c r="E203" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4638,7 +5824,10 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="49"/>
+      <c r="C204" s="11"/>
+      <c r="D204" s="5"/>
       <c r="E204" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4652,7 +5841,10 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="49"/>
+      <c r="C205" s="11"/>
+      <c r="D205" s="5"/>
       <c r="E205" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4666,7 +5858,10 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="49"/>
+      <c r="C206" s="11"/>
+      <c r="D206" s="5"/>
       <c r="E206" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4680,7 +5875,10 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="49"/>
+      <c r="C207" s="11"/>
+      <c r="D207" s="5"/>
       <c r="E207" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4694,7 +5892,10 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="49"/>
+      <c r="C208" s="11"/>
+      <c r="D208" s="5"/>
       <c r="E208" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4708,7 +5909,10 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="49"/>
+      <c r="C209" s="11"/>
+      <c r="D209" s="5"/>
       <c r="E209" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4722,7 +5926,10 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="49"/>
+      <c r="C210" s="11"/>
+      <c r="D210" s="5"/>
       <c r="E210" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4736,7 +5943,10 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="49"/>
+      <c r="C211" s="11"/>
+      <c r="D211" s="5"/>
       <c r="E211" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4750,7 +5960,10 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="49"/>
+      <c r="C212" s="11"/>
+      <c r="D212" s="5"/>
       <c r="E212" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4764,7 +5977,10 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="49"/>
+      <c r="C213" s="11"/>
+      <c r="D213" s="5"/>
       <c r="E213" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4778,7 +5994,10 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="49"/>
+      <c r="C214" s="11"/>
+      <c r="D214" s="5"/>
       <c r="E214" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4792,7 +6011,10 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="49"/>
+      <c r="C215" s="11"/>
+      <c r="D215" s="5"/>
       <c r="E215" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4806,7 +6028,10 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="49"/>
+      <c r="C216" s="11"/>
+      <c r="D216" s="5"/>
       <c r="E216" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4820,7 +6045,10 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="49"/>
+      <c r="C217" s="11"/>
+      <c r="D217" s="5"/>
       <c r="E217" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4834,7 +6062,10 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="49"/>
+      <c r="C218" s="11"/>
+      <c r="D218" s="5"/>
       <c r="E218" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4848,7 +6079,10 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="49"/>
+      <c r="C219" s="11"/>
+      <c r="D219" s="5"/>
       <c r="E219" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4862,7 +6096,10 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="49"/>
+      <c r="C220" s="11"/>
+      <c r="D220" s="5"/>
       <c r="E220" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4876,7 +6113,10 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="49"/>
+      <c r="C221" s="11"/>
+      <c r="D221" s="5"/>
       <c r="E221" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4890,7 +6130,10 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="49"/>
+      <c r="C222" s="11"/>
+      <c r="D222" s="5"/>
       <c r="E222" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4904,7 +6147,10 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="49"/>
+      <c r="C223" s="11"/>
+      <c r="D223" s="5"/>
       <c r="E223" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4918,7 +6164,10 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="49"/>
+      <c r="C224" s="11"/>
+      <c r="D224" s="5"/>
       <c r="E224" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4932,7 +6181,10 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="49"/>
+      <c r="C225" s="11"/>
+      <c r="D225" s="5"/>
       <c r="E225" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4946,7 +6198,10 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="49"/>
+      <c r="C226" s="11"/>
+      <c r="D226" s="5"/>
       <c r="E226" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4960,7 +6215,10 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="49"/>
+      <c r="C227" s="11"/>
+      <c r="D227" s="5"/>
       <c r="E227" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4974,7 +6232,10 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="49"/>
+      <c r="C228" s="11"/>
+      <c r="D228" s="5"/>
       <c r="E228" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4988,7 +6249,10 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="49"/>
+      <c r="C229" s="11"/>
+      <c r="D229" s="5"/>
       <c r="E229" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5002,7 +6266,10 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" s="49"/>
+      <c r="C230" s="11"/>
+      <c r="D230" s="5"/>
       <c r="E230" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5016,7 +6283,10 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="49"/>
+      <c r="C231" s="11"/>
+      <c r="D231" s="5"/>
       <c r="E231" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5030,7 +6300,10 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="49"/>
+      <c r="C232" s="11"/>
+      <c r="D232" s="5"/>
       <c r="E232" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5044,7 +6317,10 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="49"/>
+      <c r="C233" s="11"/>
+      <c r="D233" s="5"/>
       <c r="E233" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5058,7 +6334,10 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" s="49"/>
+      <c r="C234" s="11"/>
+      <c r="D234" s="5"/>
       <c r="E234" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5072,7 +6351,10 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="49"/>
+      <c r="C235" s="11"/>
+      <c r="D235" s="5"/>
       <c r="E235" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5086,7 +6368,10 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="49"/>
+      <c r="C236" s="11"/>
+      <c r="D236" s="5"/>
       <c r="E236" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5100,7 +6385,10 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="49"/>
+      <c r="C237" s="11"/>
+      <c r="D237" s="5"/>
       <c r="E237" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5114,7 +6402,10 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="49"/>
+      <c r="C238" s="11"/>
+      <c r="D238" s="5"/>
       <c r="E238" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5128,7 +6419,10 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="49"/>
+      <c r="C239" s="11"/>
+      <c r="D239" s="5"/>
       <c r="E239" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5142,7 +6436,10 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="49"/>
+      <c r="C240" s="11"/>
+      <c r="D240" s="5"/>
       <c r="E240" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5156,7 +6453,10 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" s="49"/>
+      <c r="C241" s="11"/>
+      <c r="D241" s="5"/>
       <c r="E241" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5170,7 +6470,10 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="49"/>
+      <c r="C242" s="11"/>
+      <c r="D242" s="5"/>
       <c r="E242" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5184,7 +6487,10 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="49"/>
+      <c r="C243" s="11"/>
+      <c r="D243" s="5"/>
       <c r="E243" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5198,7 +6504,10 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" s="49"/>
+      <c r="C244" s="11"/>
+      <c r="D244" s="5"/>
       <c r="E244" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5212,7 +6521,10 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" s="49"/>
+      <c r="C245" s="11"/>
+      <c r="D245" s="5"/>
       <c r="E245" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5226,7 +6538,10 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" s="49"/>
+      <c r="C246" s="11"/>
+      <c r="D246" s="5"/>
       <c r="E246" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5240,7 +6555,9 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C247" s="11"/>
+      <c r="D247" s="5"/>
       <c r="E247" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5254,7 +6571,9 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C248" s="11"/>
+      <c r="D248" s="5"/>
       <c r="E248" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5268,7 +6587,9 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C249" s="11"/>
+      <c r="D249" s="5"/>
       <c r="E249" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5282,7 +6603,9 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C250" s="11"/>
+      <c r="D250" s="5"/>
       <c r="E250" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5296,7 +6619,9 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C251" s="11"/>
+      <c r="D251" s="5"/>
       <c r="E251" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5310,7 +6635,9 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C252" s="11"/>
+      <c r="D252" s="5"/>
       <c r="E252" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5324,7 +6651,8 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C253" s="11"/>
       <c r="E253" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5337,6 +6665,648 @@
         <f>IF(ISBLANK(D253),"",F253-SUM($H$3:H253))</f>
         <v/>
       </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C254" s="11"/>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C255" s="11"/>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C256" s="11"/>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C257" s="11"/>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C258" s="11"/>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C259" s="11"/>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C260" s="11"/>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C261" s="11"/>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C262" s="11"/>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C263" s="11"/>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C264" s="11"/>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C265" s="11"/>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C266" s="11"/>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C267" s="11"/>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C268" s="11"/>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C269" s="11"/>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C270" s="11"/>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C271" s="11"/>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C272" s="11"/>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C273" s="11"/>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C274" s="11"/>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C275" s="11"/>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C276" s="11"/>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C277" s="11"/>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C278" s="11"/>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C279" s="11"/>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C280" s="11"/>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C281" s="11"/>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C282" s="11"/>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C283" s="11"/>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C284" s="11"/>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C285" s="11"/>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C286" s="11"/>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C287" s="11"/>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C288" s="11"/>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C289" s="11"/>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C290" s="11"/>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C291" s="11"/>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C292" s="11"/>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C293" s="11"/>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C294" s="11"/>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C295" s="11"/>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C296" s="11"/>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C297" s="11"/>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C298" s="11"/>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C299" s="11"/>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C300" s="11"/>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C301" s="11"/>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C302" s="11"/>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C303" s="11"/>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C304" s="11"/>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C305" s="11"/>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C306" s="11"/>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C307" s="11"/>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C308" s="11"/>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C309" s="11"/>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C310" s="11"/>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C311" s="11"/>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C312" s="11"/>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C313" s="11"/>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C314" s="11"/>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C315" s="11"/>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C316" s="11"/>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C317" s="11"/>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C318" s="11"/>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C319" s="11"/>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C320" s="11"/>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C321" s="11"/>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C322" s="11"/>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C323" s="11"/>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C324" s="11"/>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C325" s="11"/>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C326" s="11"/>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C327" s="11"/>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C328" s="11"/>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C329" s="11"/>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C330" s="11"/>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C331" s="11"/>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C332" s="11"/>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C333" s="11"/>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C334" s="11"/>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C335" s="11"/>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C336" s="11"/>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C337" s="11"/>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C338" s="11"/>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C339" s="11"/>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C340" s="11"/>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C341" s="11"/>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C342" s="11"/>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C343" s="11"/>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C344" s="11"/>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C345" s="11"/>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C346" s="11"/>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C347" s="11"/>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C348" s="11"/>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C349" s="11"/>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C350" s="11"/>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C351" s="11"/>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C352" s="11"/>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C353" s="11"/>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C354" s="11"/>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C355" s="11"/>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C356" s="11"/>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C357" s="11"/>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C358" s="11"/>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C359" s="11"/>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C360" s="11"/>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C361" s="11"/>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C362" s="11"/>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C363" s="11"/>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C364" s="11"/>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C365" s="11"/>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C366" s="11"/>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C367" s="11"/>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C368" s="11"/>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C369" s="11"/>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C370" s="11"/>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C371" s="11"/>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C372" s="11"/>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C373" s="11"/>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C374" s="11"/>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C375" s="11"/>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C376" s="11"/>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C377" s="11"/>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C378" s="11"/>
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C379" s="11"/>
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C380" s="11"/>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C381" s="11"/>
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C382" s="11"/>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C383" s="11"/>
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C384" s="11"/>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C385" s="11"/>
+    </row>
+    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C386" s="11"/>
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C387" s="11"/>
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C388" s="11"/>
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C389" s="11"/>
+    </row>
+    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C390" s="11"/>
+    </row>
+    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C391" s="11"/>
+    </row>
+    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C392" s="11"/>
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C393" s="11"/>
+    </row>
+    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C394" s="11"/>
+    </row>
+    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C395" s="11"/>
+    </row>
+    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C396" s="11"/>
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C397" s="11"/>
+    </row>
+    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C398" s="11"/>
+    </row>
+    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C399" s="11"/>
+    </row>
+    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C400" s="11"/>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C401" s="11"/>
+    </row>
+    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C402" s="11"/>
+    </row>
+    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C403" s="11"/>
+    </row>
+    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C404" s="11"/>
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C405" s="11"/>
+    </row>
+    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C406" s="11"/>
+    </row>
+    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C407" s="11"/>
+    </row>
+    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C408" s="11"/>
+    </row>
+    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C409" s="11"/>
+    </row>
+    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C410" s="11"/>
+    </row>
+    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C411" s="11"/>
+    </row>
+    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C412" s="11"/>
+    </row>
+    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C413" s="11"/>
+    </row>
+    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C414" s="11"/>
+    </row>
+    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C415" s="11"/>
+    </row>
+    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C416" s="11"/>
+    </row>
+    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C417" s="11"/>
+    </row>
+    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C418" s="11"/>
+    </row>
+    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C419" s="11"/>
+    </row>
+    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C420" s="11"/>
+    </row>
+    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C421" s="11"/>
+    </row>
+    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C422" s="11"/>
+    </row>
+    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C423" s="11"/>
+    </row>
+    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C424" s="11"/>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C425" s="11"/>
+    </row>
+    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C426" s="11"/>
+    </row>
+    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C427" s="11"/>
+    </row>
+    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C428" s="11"/>
+    </row>
+    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C429" s="11"/>
+    </row>
+    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C430" s="11"/>
+    </row>
+    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C431" s="11"/>
+    </row>
+    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C432" s="11"/>
+    </row>
+    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C433" s="11"/>
+    </row>
+    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C434" s="11"/>
+    </row>
+    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C435" s="11"/>
+    </row>
+    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C436" s="11"/>
+    </row>
+    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C437" s="11"/>
+    </row>
+    <row r="438" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C438" s="11"/>
+    </row>
+    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C439" s="11"/>
+    </row>
+    <row r="440" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C440" s="11"/>
+    </row>
+    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C441" s="11"/>
+    </row>
+    <row r="442" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C442" s="11"/>
+    </row>
+    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C443" s="11"/>
+    </row>
+    <row r="444" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C444" s="11"/>
+    </row>
+    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C445" s="11"/>
+    </row>
+    <row r="446" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C446" s="11"/>
+    </row>
+    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C447" s="11"/>
+    </row>
+    <row r="448" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C448" s="11"/>
+    </row>
+    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C449" s="11"/>
+    </row>
+    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C450" s="11"/>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C451" s="11"/>
+    </row>
+    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C452" s="11"/>
+    </row>
+    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C453" s="11"/>
+    </row>
+    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C454" s="11"/>
+    </row>
+    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C455" s="11"/>
+    </row>
+    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C456" s="11"/>
+    </row>
+    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C457" s="11"/>
+    </row>
+    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C458" s="11"/>
+    </row>
+    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C459" s="11"/>
+    </row>
+    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C460" s="11"/>
+    </row>
+    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C461" s="11"/>
+    </row>
+    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C462" s="11"/>
+    </row>
+    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C463" s="11"/>
+    </row>
+    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C464" s="11"/>
+    </row>
+    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C465" s="11"/>
+    </row>
+    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C466" s="11"/>
+    </row>
+    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C467" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5352,11 +7322,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
